--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,147 +30,240 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
-  <si>
-    <t>حضورات يوم 5/25</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="79">
+  <si>
+    <t>حضورات يوم 5/26</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
   </si>
   <si>
-    <t>الزيتون</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>علاء😎</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>طه😎</t>
   </si>
   <si>
     <t>العباسية و الضاهر</t>
   </si>
   <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>عبدالله عيد😎</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>مصطفي ابو الحسن😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>حسن الطيار</t>
+  </si>
+  <si>
+    <t>دباديب😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>مصطفي علي😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>محمد عادل😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>عمر جحا😎</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>ايهاب😎 اول الخط🙏</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>الرحاب</t>
+  </si>
+  <si>
+    <t>رجب</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>عم سعيد ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>مهندسين</t>
+  </si>
+  <si>
+    <t>معتز</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>مكاوي😎</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>كريم علي😎</t>
+  </si>
+  <si>
     <t>عم سعيد</t>
   </si>
   <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم 2</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>رجب</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>أكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>احمد عبد الله ملاكي</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
+    <t>ياسر😎</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>ايهاب😎</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>حضور ٤ م</t>
   </si>
   <si>
     <t>حضور ٥ م</t>
   </si>
   <si>
-    <t>احمد ابو الحسن😎</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
+    <t>ايهاب ملاك</t>
+  </si>
+  <si>
+    <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>توفيق ملاك</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
   </si>
   <si>
-    <t>التحرير</t>
-  </si>
-  <si>
     <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
   </si>
   <si>
     <t>سلم البارون</t>
@@ -1332,10 +1425,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J578"/>
+  <dimension ref="A1:K558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I19"/>
+      <selection activeCell="G91" sqref="G1:I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1359,7 +1452,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>محمد عبد المجيد😎        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1377,7 +1470,7 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f t="shared" ref="B3:B34" si="0">CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>عم سعيد        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1392,7 +1485,7 @@
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -1404,10 +1497,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:11">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>محمود اسامه ملاكي  37      </v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1419,11 +1512,14 @@
         <v>9</v>
       </c>
       <c r="J5" s="2"/>
+      <c r="K5">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>حمزه😎        </v>
+        <v>عبدالله عيد😎        </v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1439,7 +1535,7 @@
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1448,30 +1544,30 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم 2        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -1487,7 +1583,7 @@
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
@@ -1503,7 +1599,7 @@
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
@@ -1519,7 +1615,7 @@
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>عبده😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
@@ -1535,61 +1631,61 @@
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
         <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>7</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>دباديب😎        </v>
       </c>
       <c r="G15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>احمد عبد الله ملاكي        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I16" t="s">
         <v>28</v>
@@ -1599,661 +1695,1146 @@
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>عبده😎        </v>
+        <v>مصطفي علي😎        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم 2        </v>
+        <v>محمد عادل😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>احمد عبد الله ملاكي        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>عمر جحا😎        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
+        <v>مصطفي علي😎        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>كريم علي😎        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>ايهاب😎 اول الخط🙏        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>رجب        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ابو الحسن😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>        </v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32"/>
+        <v>عم سعيد ٣ افراد 🙏        </v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>48</v>
+      </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>        </v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33"/>
+        <v>بلال😎        </v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s">
+        <v>49</v>
+      </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>        </v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34"/>
+        <v>بلال😎        </v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
+        <v>49</v>
+      </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" ref="B35:B66" si="1">CONCATENATE(I35," ",J35," ",K35," ",L35," ",M35," ",N35," ",O35," ",P35," ",Q35)</f>
-        <v>        </v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35"/>
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" t="s">
+        <v>38</v>
+      </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:9">
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:8">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:8">
+        <v>احمد عبدالله        </v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="2:8">
+        <v>علي طه        </v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="2:8">
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="2:8">
+        <v>احمد عبدالله        </v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="2:7">
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:8">
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44"/>
+        <v>معتز        </v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>56</v>
+      </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:9">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="2:8">
+        <v>رجب        </v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="2:8">
+        <v>مصطفي ابو الحسن😎        </v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="2:8">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="2:8">
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="2:8">
+        <v>زياد ملاكي        </v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="2:8">
+        <v>رجب        </v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="2:8">
+        <v>بلال😎        </v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="2:8">
+        <v>وليد😎        </v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="2:8">
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="2:8">
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="2:8">
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="2:8">
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="2:7">
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="2:8">
+        <v>مصطفي ابو الحسن😎        </v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="2:8">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="2:7">
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="2:2">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
+        <v>علي طه        </v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" t="s">
+        <v>51</v>
+      </c>
+      <c r="I62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
+        <v>ياسر😎        </v>
+      </c>
+      <c r="G66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" ref="B67:B98" si="2">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67)</f>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G67" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
+        <v>ايهاب😎        </v>
+      </c>
+      <c r="G68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
+        <v>رجب        </v>
+      </c>
+      <c r="G69" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G70" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" t="s">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
+        <v>دباديب😎        </v>
+      </c>
+      <c r="G71" t="s">
+        <v>62</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G72" t="s">
+        <v>62</v>
+      </c>
+      <c r="H72" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
+        <v>ايهاب😎        </v>
+      </c>
+      <c r="G74" t="s">
+        <v>69</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G75" t="s">
+        <v>69</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
+        <v>رجب        </v>
+      </c>
+      <c r="G76" t="s">
+        <v>69</v>
+      </c>
+      <c r="H76" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G77" t="s">
+        <v>69</v>
+      </c>
+      <c r="H77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
+        <v>ايهاب😎        </v>
+      </c>
+      <c r="G78" t="s">
+        <v>69</v>
+      </c>
+      <c r="H78" t="s">
+        <v>59</v>
+      </c>
+      <c r="I78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G79" t="s">
+        <v>69</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G80" t="s">
+        <v>69</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G81" t="s">
+        <v>70</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G82" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
+        <v>رجب        </v>
+      </c>
+      <c r="G83" t="s">
+        <v>70</v>
+      </c>
+      <c r="H83" t="s">
+        <v>45</v>
+      </c>
+      <c r="I83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
+        <v>وليد😎        </v>
+      </c>
+      <c r="G84" t="s">
+        <v>71</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
+        <v>مصطفي ابو الحسن😎        </v>
+      </c>
+      <c r="G86" t="s">
+        <v>71</v>
+      </c>
+      <c r="H86" t="s">
+        <v>59</v>
+      </c>
+      <c r="I86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
+        <v>ايهاب ملاك        </v>
+      </c>
+      <c r="G87" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
+        <v>ايهاب😎        </v>
+      </c>
+      <c r="G88" t="s">
+        <v>72</v>
+      </c>
+      <c r="H88" t="s">
+        <v>50</v>
+      </c>
+      <c r="I88" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
+        <v>ايهاب😎        </v>
+      </c>
+      <c r="G89" t="s">
+        <v>72</v>
+      </c>
+      <c r="H89" t="s">
+        <v>52</v>
+      </c>
+      <c r="I89" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
+        <v>توفيق ملاك        </v>
+      </c>
+      <c r="G90" t="s">
+        <v>74</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
+        <v>علاء😎        </v>
+      </c>
+      <c r="G91" t="s">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="2:2">
@@ -2876,202 +3457,202 @@
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="538" spans="8:8">
+      <c r="H538" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="8:8">
+      <c r="H539" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="8:8">
+      <c r="H540" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="541" spans="8:8">
+      <c r="H541" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="542" spans="8:8">
+      <c r="H542" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="543" spans="8:8">
+      <c r="H543" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="544" spans="8:8">
+      <c r="H544" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="545" spans="8:8">
+      <c r="H545" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="546" spans="8:8">
+      <c r="H546" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="547" spans="8:8">
+      <c r="H547" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="548" spans="8:8">
+      <c r="H548" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="549" spans="8:8">
+      <c r="H549" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="550" spans="8:8">
+      <c r="H550" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="551" spans="8:8">
+      <c r="H551" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="552" spans="8:8">
+      <c r="H552" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="553" spans="8:8">
+      <c r="H553" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="554" spans="8:8">
+      <c r="H554" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="555" spans="8:8">
+      <c r="H555" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="556" spans="8:8">
+      <c r="H556" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="557" spans="8:8">
+      <c r="H557" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="558" spans="8:8">
       <c r="H558" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="559" spans="8:8">
-      <c r="H559" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="560" spans="8:8">
-      <c r="H560" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="561" spans="8:8">
-      <c r="H561" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="562" spans="8:8">
-      <c r="H562" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="563" spans="8:8">
-      <c r="H563" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="564" spans="8:8">
-      <c r="H564" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="565" spans="8:8">
-      <c r="H565" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="566" spans="8:8">
-      <c r="H566" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="567" spans="8:8">
-      <c r="H567" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="568" spans="8:8">
-      <c r="H568" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="569" spans="8:8">
-      <c r="H569" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="570" spans="8:8">
-      <c r="H570" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="571" spans="8:8">
-      <c r="H571" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="572" spans="8:8">
-      <c r="H572" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="573" spans="8:8">
-      <c r="H573" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="574" spans="8:8">
-      <c r="H574" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="575" spans="8:8">
-      <c r="H575" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="576" spans="8:8">
-      <c r="H576" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="577" spans="8:8">
-      <c r="H577" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="578" spans="8:8">
-      <c r="H578" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="79">
-  <si>
-    <t>حضورات يوم 5/26</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="77">
+  <si>
+    <t>حضورات يوم 5/27</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -50,192 +50,189 @@
     <t>طه😎</t>
   </si>
   <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>محمد عادل😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>مصطفي علي😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>دباديب😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
     <t>العباسية و الضاهر</t>
   </si>
   <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>😡😡😡😡</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>عبده😎</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>ايهاب😎اول الخط🙏</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>الرحاب</t>
+  </si>
+  <si>
+    <t>رجب</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>حسن الطيار نقطه ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>مهندسين</t>
+  </si>
+  <si>
+    <t>معتز</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
     <t>سيد سلامه😎</t>
   </si>
   <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>عبدالله عيد😎</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>فيصل</t>
+    <t>كريم علي😎</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>ايهاب😎</t>
+  </si>
+  <si>
+    <t>ياسر😎</t>
   </si>
   <si>
     <t>مصطفي ابو الحسن😎</t>
   </si>
   <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>مدحت😎</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>حسن الطيار</t>
-  </si>
-  <si>
-    <t>دباديب😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>مصطفي علي😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>محمد عادل😎</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>عمر جحا😎</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>ايهاب😎 اول الخط🙏</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>الرحاب</t>
-  </si>
-  <si>
-    <t>رجب</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>عم سعيد ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>مهندسين</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>مكاوي😎</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>ياسر😎</t>
-  </si>
-  <si>
     <t>عبد النبي😎</t>
   </si>
   <si>
-    <t>ايهاب😎</t>
-  </si>
-  <si>
     <t>حضور ٢ م</t>
   </si>
   <si>
@@ -245,19 +242,16 @@
     <t>حضور ٤ م</t>
   </si>
   <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
     <t>حضور ٥ م</t>
   </si>
   <si>
     <t>حضور ٦ م</t>
   </si>
   <si>
-    <t>ايهاب ملاك</t>
-  </si>
-  <si>
     <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>توفيق ملاك</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
@@ -1424,18 +1418,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K558"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G91" sqref="G1:I91"/>
+      <selection activeCell="I17" sqref="I17:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.1727272727273" customWidth="1"/>
+    <col min="9" max="9" width="22.4727272727273" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1449,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" hidden="1" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
         <v>علاء😎        </v>
@@ -1467,7 +1461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" hidden="1" spans="2:9">
       <c r="B3" t="str">
         <f t="shared" ref="B3:B34" si="0">CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
         <v>طه😎        </v>
@@ -1482,10 +1476,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" hidden="1" spans="2:9">
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -1497,10 +1491,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي  37      </v>
+        <v>وائل😎        </v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1512,14 +1506,11 @@
         <v>9</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
+    </row>
+    <row r="6" hidden="1" spans="2:10">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>عبدالله عيد😎        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1532,10 +1523,10 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" hidden="1" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>حمزه😎        </v>
+        <v>محمد عادل😎        </v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1548,10 +1539,10 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" hidden="1" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1560,939 +1551,939 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" hidden="1" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي ابو الحسن😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" hidden="1" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" hidden="1" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
+        <v>مصطفي علي😎        </v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" hidden="1" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" hidden="1" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>مدحت😎        </v>
+        <v>دباديب😎        </v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" hidden="1" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>حسن الطيار        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" hidden="1" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>دباديب😎        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" hidden="1" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I16" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" hidden="1" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>😡😡😡😡        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" hidden="1" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي علي😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" hidden="1" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عادل😎        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" hidden="1" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" hidden="1" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>عمر جحا😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" hidden="1" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" hidden="1" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" hidden="1" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي علي😎        </v>
+        <v>ايهاب😎اول الخط🙏        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" hidden="1" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال        </v>
+        <v>محمد عادل😎        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" hidden="1" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب😎 اول الخط🙏        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" hidden="1" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي ابو الحسن😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" hidden="1" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" hidden="1" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" hidden="1" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>حسن الطيار نقطه ٣ افراد 🙏        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" hidden="1" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" hidden="1" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد ٣ افراد 🙏        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
         <v>48</v>
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" hidden="1" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" hidden="1" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" hidden="1" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" ref="B35:B66" si="1">CONCATENATE(I35," ",J35," ",K35," ",L35," ",M35," ",N35," ",O35," ",P35," ",Q35)</f>
-        <v>مصطفي منتصر        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" hidden="1" spans="2:9">
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+    </row>
+    <row r="39" hidden="1" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>معتز        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
         <v>احمد جلال        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
         <v>39</v>
       </c>
-      <c r="I43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
+    </row>
+    <row r="44" hidden="1" spans="2:10">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>معتز        </v>
+        <v>رجب        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" hidden="1" spans="2:9">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" hidden="1" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي ابو الحسن😎        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>53</v>
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G47" t="s">
+        <v>56</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>53</v>
+        <v>دباديب😎        </v>
+      </c>
+      <c r="G48" t="s">
+        <v>56</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="I48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>زياد ملاكي        </v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>57</v>
+        <v>رجب        </v>
+      </c>
+      <c r="G49" t="s">
+        <v>56</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" hidden="1" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G50" s="1" t="s">
+        <v>وليد😎        </v>
+      </c>
+      <c r="G50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
+    </row>
+    <row r="51" hidden="1" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>بلال😎        </v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>8</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" t="s">
+        <v>58</v>
       </c>
       <c r="I51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" hidden="1" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>وليد😎        </v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H52" t="s">
-        <v>31</v>
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" hidden="1" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>57</v>
+        <v>عبده😎        </v>
+      </c>
+      <c r="G53" t="s">
+        <v>56</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" hidden="1" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>مكاوي😎        </v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>57</v>
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G54" t="s">
+        <v>56</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" hidden="1" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H55" s="1" t="s">
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" t="s">
         <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" hidden="1" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" t="s">
-        <v>39</v>
+        <v>😡😡😡😡        </v>
+      </c>
+      <c r="G56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>57</v>
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G57" t="s">
+        <v>56</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" hidden="1" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي ابو الحسن😎        </v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>57</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G58" t="s">
+        <v>56</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" hidden="1" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>57</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G59" t="s">
+        <v>56</v>
       </c>
       <c r="H59" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>حسين فايد😎        </v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>57</v>
+        <v>علي طه        </v>
+      </c>
+      <c r="G60" t="s">
+        <v>56</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" hidden="1" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H61" t="s">
-        <v>21</v>
+        <v>ايهاب😎        </v>
+      </c>
+      <c r="G61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>57</v>
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G62" t="s">
+        <v>62</v>
       </c>
       <c r="H62" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" hidden="1" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
+        <v>ياسر😎        </v>
       </c>
       <c r="G63" t="s">
         <v>62</v>
       </c>
-      <c r="H63" t="s">
-        <v>25</v>
+      <c r="H63" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" hidden="1" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>كريم علي😎        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G64" t="s">
         <v>62</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>4</v>
+      <c r="H64" t="s">
+        <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" hidden="1" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>ايهاب😎        </v>
       </c>
       <c r="G65" t="s">
         <v>62</v>
       </c>
-      <c r="H65" t="s">
-        <v>31</v>
+      <c r="H65" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" hidden="1" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>ياسر😎        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G66" t="s">
         <v>62</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" hidden="1" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" ref="B67:B98" si="2">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67)</f>
-        <v>عبد النبي😎        </v>
+        <v>دباديب😎        </v>
       </c>
       <c r="G67" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" hidden="1" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G68" t="s">
         <v>62</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" hidden="1" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
         <v>رجب        </v>
@@ -2501,226 +2492,226 @@
         <v>62</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" hidden="1" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G70" t="s">
         <v>62</v>
       </c>
       <c r="H70" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" hidden="1" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>دباديب😎        </v>
-      </c>
-      <c r="G71" t="s">
-        <v>62</v>
+        <v>عبده😎        </v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" hidden="1" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G72" t="s">
-        <v>62</v>
-      </c>
-      <c r="H72" t="s">
-        <v>51</v>
+        <v>68</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" hidden="1" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
+        <v>دباديب😎        </v>
       </c>
       <c r="G73" t="s">
         <v>68</v>
       </c>
-      <c r="H73" t="s">
-        <v>31</v>
+      <c r="H73" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" hidden="1" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G74" t="s">
-        <v>69</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="H74" t="s">
+        <v>6</v>
       </c>
       <c r="I74" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
+        <v>ايهاب😎        </v>
       </c>
       <c r="G75" t="s">
-        <v>69</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" hidden="1" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H76" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" hidden="1" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G77" t="s">
-        <v>69</v>
-      </c>
-      <c r="H77" t="s">
-        <v>31</v>
+        <v>68</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G78" t="s">
-        <v>69</v>
-      </c>
-      <c r="H78" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I78" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" hidden="1" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
+        <v>رجب        </v>
       </c>
       <c r="G79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G80" t="s">
         <v>69</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" hidden="1" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
+        <v>احمد حسن😎        </v>
       </c>
       <c r="G81" t="s">
+        <v>69</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" t="s">
         <v>70</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9">
+    </row>
+    <row r="82" hidden="1" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>احمد جلال        </v>
+        <v>رجب        </v>
       </c>
       <c r="G82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" hidden="1" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G83" t="s">
-        <v>70</v>
-      </c>
-      <c r="H83" t="s">
-        <v>45</v>
+        <v>69</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G84" t="s">
         <v>71</v>
@@ -2729,163 +2720,154 @@
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" hidden="1" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
+        <v>ايهاب😎        </v>
       </c>
       <c r="G85" t="s">
         <v>71</v>
       </c>
       <c r="H85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I85" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي ابو الحسن😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G86" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H86" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" hidden="1" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب ملاك        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G87" t="s">
         <v>72</v>
       </c>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="I87" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" hidden="1" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G88" t="s">
         <v>72</v>
       </c>
       <c r="H88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I88" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" hidden="1" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G89" t="s">
-        <v>72</v>
-      </c>
-      <c r="H89" t="s">
-        <v>52</v>
+        <v>73</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I89" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" hidden="1" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>توفيق ملاك        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G90" t="s">
-        <v>74</v>
-      </c>
-      <c r="H90" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H90" t="s">
         <v>12</v>
       </c>
       <c r="I90" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" hidden="1" spans="2:2">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G91" t="s">
-        <v>74</v>
-      </c>
-      <c r="H91" t="s">
-        <v>15</v>
-      </c>
-      <c r="I91" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="92" hidden="1" spans="2:2">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" hidden="1" spans="2:2">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" hidden="1" spans="2:2">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" hidden="1" spans="2:2">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" hidden="1" spans="2:2">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" hidden="1" spans="2:2">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" hidden="1" spans="2:2">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" hidden="1" spans="2:2">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
         <v>        </v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" hidden="1" spans="2:2">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
@@ -3467,196 +3449,201 @@
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="518" spans="8:8">
+      <c r="H518" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="8:8">
+      <c r="H519" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="8:8">
+      <c r="H520" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="521" spans="8:8">
+      <c r="H521" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="522" spans="8:8">
+      <c r="H522" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="523" spans="8:8">
+      <c r="H523" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="524" spans="8:8">
+      <c r="H524" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="525" spans="8:8">
+      <c r="H525" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="8:8">
+      <c r="H526" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="527" spans="8:8">
+      <c r="H527" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="528" spans="8:8">
+      <c r="H528" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="529" spans="8:8">
+      <c r="H529" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="530" spans="8:8">
+      <c r="H530" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="531" spans="8:8">
+      <c r="H531" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="532" spans="8:8">
+      <c r="H532" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="533" spans="8:8">
+      <c r="H533" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="534" spans="8:8">
+      <c r="H534" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="535" spans="8:8">
+      <c r="H535" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="536" spans="8:8">
+      <c r="H536" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="537" spans="8:8">
+      <c r="H537" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="538" spans="8:8">
       <c r="H538" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="539" spans="8:8">
-      <c r="H539" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="540" spans="8:8">
-      <c r="H540" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="541" spans="8:8">
-      <c r="H541" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="542" spans="8:8">
-      <c r="H542" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="543" spans="8:8">
-      <c r="H543" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="544" spans="8:8">
-      <c r="H544" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="545" spans="8:8">
-      <c r="H545" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="546" spans="8:8">
-      <c r="H546" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="547" spans="8:8">
-      <c r="H547" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="548" spans="8:8">
-      <c r="H548" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="549" spans="8:8">
-      <c r="H549" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="550" spans="8:8">
-      <c r="H550" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="551" spans="8:8">
-      <c r="H551" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="552" spans="8:8">
-      <c r="H552" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="553" spans="8:8">
-      <c r="H553" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="554" spans="8:8">
-      <c r="H554" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="555" spans="8:8">
-      <c r="H555" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="556" spans="8:8">
-      <c r="H556" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="557" spans="8:8">
-      <c r="H557" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="558" spans="8:8">
-      <c r="H558" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="G1:Q100" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="وائل😎"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="77">
-  <si>
-    <t>حضورات يوم 5/27</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="80">
+  <si>
+    <t>حضورات يوم 5/28</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -56,178 +56,190 @@
     <t>محمود اسامه ملاكي</t>
   </si>
   <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>محمد عادل😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>رفعت😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>دباديب😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>مصطفي علي😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>معتز</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>عبده😎</t>
+  </si>
+  <si>
     <t>حدائق القبه</t>
   </si>
   <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>محمد عادل😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>ايهاب😎 اول الخط🙏</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>الرحاب</t>
+  </si>
+  <si>
+    <t>رجب</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>محمد فوزي ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>احمد عبد الله</t>
+  </si>
+  <si>
+    <t>مهندسين</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>خالد جمعه😎</t>
   </si>
   <si>
     <t>محمد فوزي</t>
   </si>
   <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>مصطفي علي😎</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>دباديب😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>مدحت😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>😡😡😡😡</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>ايهاب😎اول الخط🙏</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>الرحاب</t>
-  </si>
-  <si>
-    <t>رجب</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>حسن الطيار نقطه ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>مهندسين</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
+    <t>كريم علي😎</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>مكاوي😎</t>
+  </si>
+  <si>
+    <t>مصطفي ابو الحسن😎</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>ايهاب😎</t>
+  </si>
+  <si>
+    <t>ياسر😎</t>
   </si>
   <si>
     <t>وليد😎</t>
   </si>
   <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
     <t>محمد سامح😎</t>
   </si>
   <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>ايهاب😎</t>
-  </si>
-  <si>
-    <t>ياسر😎</t>
-  </si>
-  <si>
-    <t>مصطفي ابو الحسن😎</t>
+    <t>سامي😎</t>
   </si>
   <si>
     <t>عبد النبي😎</t>
@@ -242,9 +254,6 @@
     <t>حضور ٤ م</t>
   </si>
   <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
     <t>حضور ٥ م</t>
   </si>
   <si>
@@ -254,10 +263,10 @@
     <t>حضور ٧ م</t>
   </si>
   <si>
+    <t>حضور ٨ م</t>
+  </si>
+  <si>
     <t>دائري مرج و السلام</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
   </si>
   <si>
     <t>سلم البارون</t>
@@ -1418,18 +1427,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J538"/>
+  <sheetPr/>
+  <dimension ref="A1:J516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:I56"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="22.4727272727273" customWidth="1"/>
+    <col min="9" max="9" width="18.2181818181818" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1443,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="2:9">
+    <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
         <v>علاء😎        </v>
@@ -1461,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="2:9">
+    <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f t="shared" ref="B3:B34" si="0">CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
         <v>طه😎        </v>
@@ -1476,7 +1485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="2:9">
+    <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>محمود اسامه ملاكي        </v>
@@ -1494,7 +1503,7 @@
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>وائل😎        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1507,10 +1516,10 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" hidden="1" spans="2:10">
+    <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>حمزه😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1523,7 +1532,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" hidden="1" spans="2:10">
+    <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>محمد عادل😎        </v>
@@ -1539,10 +1548,10 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" hidden="1" spans="2:10">
+    <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1555,10 +1564,10 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" hidden="1" spans="2:10">
+    <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -1571,7 +1580,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" hidden="1" spans="2:10">
+    <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>محسن الضبع        </v>
@@ -1587,10 +1596,10 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" hidden="1" spans="2:10">
+    <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي علي😎        </v>
+        <v>رفعت😎        </v>
       </c>
       <c r="G11" s="1" t="s">
         <v>20</v>
@@ -1603,10 +1612,10 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" hidden="1" spans="2:10">
+    <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G12" s="1" t="s">
         <v>20</v>
@@ -1619,7 +1628,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" hidden="1" spans="2:10">
+    <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>دباديب😎        </v>
@@ -1635,7 +1644,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" hidden="1" spans="2:10">
+    <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>هشام امين        </v>
@@ -1651,7 +1660,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" hidden="1" spans="2:10">
+    <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>زياد ملاكي        </v>
@@ -1667,10 +1676,10 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" hidden="1" spans="2:10">
+    <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>مدحت😎        </v>
+        <v>مصطفي علي😎        </v>
       </c>
       <c r="G16" s="1" t="s">
         <v>20</v>
@@ -1683,10 +1692,10 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" hidden="1" spans="2:10">
+    <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>😡😡😡😡        </v>
+        <v>معتز        </v>
       </c>
       <c r="G17" s="1" t="s">
         <v>20</v>
@@ -1699,7 +1708,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" hidden="1" spans="2:10">
+    <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>احمد فراج        </v>
@@ -1715,7 +1724,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" hidden="1" spans="2:10">
+    <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>عبده😎        </v>
@@ -1731,23 +1740,23 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" hidden="1" spans="2:10">
+    <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" hidden="1" spans="2:10">
+    <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>مصطفي منتصر        </v>
@@ -1756,33 +1765,33 @@
         <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" hidden="1" spans="2:10">
+    <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>مدحت😎        </v>
+        <v>مصطفي علي😎        </v>
       </c>
       <c r="G22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
         <v>28</v>
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" hidden="1" spans="2:10">
+    <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G23" s="1" t="s">
         <v>20</v>
@@ -1795,10 +1804,10 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" hidden="1" spans="2:10">
+    <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب😎اول الخط🙏        </v>
+        <v>ايهاب😎 اول الخط🙏        </v>
       </c>
       <c r="G24" s="1" t="s">
         <v>20</v>
@@ -1811,7 +1820,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" hidden="1" spans="2:10">
+    <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>محمد عادل😎        </v>
@@ -1827,7 +1836,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" hidden="1" spans="2:10">
+    <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>طه😎        </v>
@@ -1843,7 +1852,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" hidden="1" spans="2:10">
+    <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>رجب        </v>
@@ -1859,7 +1868,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" hidden="1" spans="2:10">
+    <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>علي طه        </v>
@@ -1875,7 +1884,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" hidden="1" spans="2:10">
+    <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>احمد ناصر😎        </v>
@@ -1891,10 +1900,10 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" hidden="1" spans="2:10">
+    <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>حسن الطيار نقطه ٣ افراد 🙏        </v>
+        <v>محمد فوزي ٣ افراد 🙏        </v>
       </c>
       <c r="G30" s="1" t="s">
         <v>20</v>
@@ -1907,7 +1916,7 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" hidden="1" spans="2:10">
+    <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>بلال😎        </v>
@@ -1916,14 +1925,14 @@
         <v>20</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" hidden="1" spans="2:10">
+    <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>بلال😎        </v>
@@ -1932,14 +1941,14 @@
         <v>20</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
         <v>49</v>
       </c>
-      <c r="I32" t="s">
-        <v>48</v>
-      </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" hidden="1" spans="2:10">
+    <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>مصطفي منتصر        </v>
@@ -1948,14 +1957,14 @@
         <v>20</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" hidden="1" spans="2:10">
+    <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>محسن الضبع        </v>
@@ -1964,36 +1973,36 @@
         <v>20</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s">
         <v>19</v>
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" hidden="1" spans="2:10">
+    <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" ref="B35:B66" si="1">CONCATENATE(I35," ",J35," ",K35," ",L35," ",M35," ",N35," ",O35," ",P35," ",Q35)</f>
-        <v>احمد عبدالله        </v>
+        <v>احمد عبد الله        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" hidden="1" spans="2:9">
+    <row r="36" spans="2:9">
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>علي طه        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>4</v>
@@ -2002,73 +2011,73 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="2:9">
+    <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="2:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>احمد عبد الله        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" hidden="1" spans="2:9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>مصطفي منتصر        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" spans="2:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" hidden="1" spans="2:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>احمد فراج        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>38</v>
@@ -2077,43 +2086,43 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="2:9">
+    <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>معتز        </v>
+        <v>المصري        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" hidden="1" spans="2:9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" spans="2:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
         <v>رجب        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>16</v>
@@ -2123,688 +2132,688 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" hidden="1" spans="2:9">
+    <row r="45" spans="2:9">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>محسن الضبع        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="2:9">
+    <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>زياد ملاكي        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="H46" t="s">
+        <v>51</v>
       </c>
       <c r="I46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" hidden="1" spans="2:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G47" t="s">
-        <v>56</v>
+        <v>خالد جمعه😎        </v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" hidden="1" spans="2:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>دباديب😎        </v>
-      </c>
-      <c r="G48" t="s">
-        <v>56</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" hidden="1" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G49" t="s">
-        <v>56</v>
+        <v>دباديب😎        </v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" hidden="1" spans="2:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>وليد😎        </v>
-      </c>
-      <c r="G50" t="s">
-        <v>56</v>
-      </c>
-      <c r="H50" t="s">
-        <v>29</v>
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" spans="2:9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G51" t="s">
-        <v>56</v>
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H51" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="I51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" hidden="1" spans="2:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G52" t="s">
-        <v>56</v>
+        <v>رفعت😎        </v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" hidden="1" spans="2:9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>عبده😎        </v>
-      </c>
-      <c r="G53" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>10</v>
+        <v>خالد جمعه😎        </v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" t="s">
+        <v>61</v>
       </c>
       <c r="I53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" hidden="1" spans="2:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
-      </c>
-      <c r="G54" t="s">
-        <v>56</v>
+        <v>مصطفي علي😎        </v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" hidden="1" spans="2:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G55" t="s">
-        <v>56</v>
-      </c>
-      <c r="H55" t="s">
-        <v>12</v>
+        <v>عبده😎        </v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" hidden="1" spans="2:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>😡😡😡😡        </v>
-      </c>
-      <c r="G56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>14</v>
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" t="s">
+        <v>38</v>
       </c>
       <c r="I56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" hidden="1" spans="2:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>كريم علي😎        </v>
-      </c>
-      <c r="G57" t="s">
-        <v>56</v>
-      </c>
-      <c r="H57" t="s">
-        <v>44</v>
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" hidden="1" spans="2:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G58" t="s">
-        <v>56</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>16</v>
+        <v>مصطفي ابو الحسن😎        </v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" t="s">
+        <v>44</v>
       </c>
       <c r="I58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" hidden="1" spans="2:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G59" t="s">
-        <v>56</v>
-      </c>
-      <c r="H59" t="s">
-        <v>18</v>
+        <v>رجب        </v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" spans="2:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
-      </c>
-      <c r="G60" t="s">
-        <v>56</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" hidden="1" spans="2:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب😎        </v>
-      </c>
-      <c r="G61" t="s">
-        <v>62</v>
+        <v>عبده😎        </v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" hidden="1" spans="2:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G62" t="s">
-        <v>62</v>
-      </c>
-      <c r="H62" t="s">
-        <v>22</v>
+        <v>ايهاب😎        </v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" hidden="1" spans="2:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>ياسر😎        </v>
-      </c>
-      <c r="G63" t="s">
-        <v>62</v>
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" hidden="1" spans="2:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي ابو الحسن😎        </v>
-      </c>
-      <c r="G64" t="s">
-        <v>62</v>
-      </c>
-      <c r="H64" t="s">
-        <v>29</v>
+        <v>ياسر😎        </v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" hidden="1" spans="2:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب😎        </v>
-      </c>
-      <c r="G65" t="s">
-        <v>62</v>
+        <v>وليد😎        </v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" hidden="1" spans="2:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
         <v>حمزه😎        </v>
       </c>
-      <c r="G66" t="s">
-        <v>62</v>
+      <c r="G66" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" hidden="1" spans="2:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" ref="B67:B98" si="2">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67)</f>
-        <v>دباديب😎        </v>
-      </c>
-      <c r="G67" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>14</v>
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H67" t="s">
+        <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" hidden="1" spans="2:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G68" t="s">
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
         <v>62</v>
       </c>
-      <c r="H68" t="s">
-        <v>44</v>
-      </c>
-      <c r="I68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" hidden="1" spans="2:9">
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G69" t="s">
-        <v>62</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" hidden="1" spans="2:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G70" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" t="s">
-        <v>50</v>
+        <v>سامي😎        </v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" hidden="1" spans="2:9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>عبده😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I71" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" hidden="1" spans="2:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي ابو الحسن😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G72" t="s">
-        <v>68</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="H72" t="s">
+        <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" hidden="1" spans="2:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>دباديب😎        </v>
-      </c>
-      <c r="G73" t="s">
-        <v>68</v>
+        <v>ايهاب😎        </v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" hidden="1" spans="2:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G74" t="s">
-        <v>68</v>
-      </c>
-      <c r="H74" t="s">
-        <v>6</v>
+        <v>دباديب😎        </v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" hidden="1" spans="2:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب😎        </v>
-      </c>
-      <c r="G75" t="s">
-        <v>68</v>
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H75" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" hidden="1" spans="2:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي ابو الحسن😎        </v>
-      </c>
-      <c r="G76" t="s">
-        <v>68</v>
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H76" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" hidden="1" spans="2:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
-      </c>
-      <c r="G77" t="s">
-        <v>68</v>
+        <v>ايهاب😎        </v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="I77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" hidden="1" spans="2:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G78" t="s">
-        <v>68</v>
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I78" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" hidden="1" spans="2:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G79" t="s">
-        <v>68</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>14</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s">
+        <v>12</v>
       </c>
       <c r="I79" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" hidden="1" spans="2:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G80" t="s">
-        <v>69</v>
+        <v>رجب        </v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" hidden="1" spans="2:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>احمد حسن😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G81" t="s">
-        <v>69</v>
-      </c>
-      <c r="H81" t="s">
-        <v>12</v>
+        <v>73</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I81" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" hidden="1" spans="2:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G82" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H82" t="s">
         <v>44</v>
       </c>
       <c r="I82" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" hidden="1" spans="2:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G83" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I83" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" hidden="1" spans="2:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G84" t="s">
-        <v>71</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>4</v>
+        <v>74</v>
+      </c>
+      <c r="H84" t="s">
+        <v>6</v>
       </c>
       <c r="I84" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" hidden="1" spans="2:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب😎        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G85" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H85" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="I85" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" hidden="1" spans="2:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H86" t="s">
         <v>12</v>
       </c>
       <c r="I86" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="87" hidden="1" spans="2:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
         <v>محسن الضبع        </v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I87" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="2:9">
+    <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G88" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I88" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" hidden="1" spans="2:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
         <v>عبد النبي😎        </v>
       </c>
       <c r="G89" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I89" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="90" hidden="1" spans="2:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
         <v>علاء😎        </v>
       </c>
       <c r="G90" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H90" t="s">
         <v>12</v>
@@ -2813,61 +2822,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="2:2">
+    <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="92" hidden="1" spans="2:2">
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G91" t="s">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s">
+        <v>38</v>
+      </c>
+      <c r="I91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="2:2">
+    <row r="93" spans="2:2">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="2:2">
+    <row r="94" spans="2:2">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="2:2">
+    <row r="95" spans="2:2">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="2:2">
+    <row r="96" spans="2:2">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="2:2">
+    <row r="97" spans="2:2">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="2:2">
+    <row r="98" spans="2:2">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="2:2">
+    <row r="99" spans="2:2">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
         <v>        </v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="2:2">
+    <row r="100" spans="2:2">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
@@ -3469,17 +3487,17 @@
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="397" spans="1:1">
@@ -3509,12 +3527,12 @@
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="404" spans="1:1">
@@ -3524,126 +3542,121 @@
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="518" spans="8:8">
-      <c r="H518" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="496" spans="8:8">
+      <c r="H496" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="8:8">
-      <c r="H519" t="s">
+    <row r="497" spans="8:8">
+      <c r="H497" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="520" spans="8:8">
-      <c r="H520" t="s">
+    <row r="498" spans="8:8">
+      <c r="H498" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="521" spans="8:8">
-      <c r="H521" t="s">
+    <row r="499" spans="8:8">
+      <c r="H499" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="522" spans="8:8">
-      <c r="H522" t="s">
+    <row r="500" spans="8:8">
+      <c r="H500" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="523" spans="8:8">
-      <c r="H523" t="s">
+    <row r="501" spans="8:8">
+      <c r="H501" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="524" spans="8:8">
-      <c r="H524" t="s">
+    <row r="502" spans="8:8">
+      <c r="H502" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="525" spans="8:8">
-      <c r="H525" t="s">
+    <row r="503" spans="8:8">
+      <c r="H503" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="504" spans="8:8">
+      <c r="H504" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="526" spans="8:8">
-      <c r="H526" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="527" spans="8:8">
-      <c r="H527" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="528" spans="8:8">
-      <c r="H528" t="s">
+    <row r="505" spans="8:8">
+      <c r="H505" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="506" spans="8:8">
+      <c r="H506" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="529" spans="8:8">
-      <c r="H529" t="s">
+    <row r="507" spans="8:8">
+      <c r="H507" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="8:8">
-      <c r="H530" t="s">
+    <row r="508" spans="8:8">
+      <c r="H508" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="531" spans="8:8">
-      <c r="H531" t="s">
+    <row r="509" spans="8:8">
+      <c r="H509" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="532" spans="8:8">
-      <c r="H532" t="s">
+    <row r="510" spans="8:8">
+      <c r="H510" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="533" spans="8:8">
-      <c r="H533" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="534" spans="8:8">
-      <c r="H534" t="s">
+    <row r="511" spans="8:8">
+      <c r="H511" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="535" spans="8:8">
-      <c r="H535" t="s">
+    <row r="512" spans="8:8">
+      <c r="H512" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="513" spans="8:8">
+      <c r="H513" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="536" spans="8:8">
-      <c r="H536" t="s">
+    <row r="514" spans="8:8">
+      <c r="H514" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="515" spans="8:8">
+      <c r="H515" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="537" spans="8:8">
-      <c r="H537" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="538" spans="8:8">
-      <c r="H538" t="s">
-        <v>76</v>
+    <row r="516" spans="8:8">
+      <c r="H516" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="G1:Q100" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="وائل😎"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="80">
-  <si>
-    <t>حضورات يوم 5/28</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="79">
+  <si>
+    <t>حضورات يوم 5/29</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -50,6 +50,12 @@
     <t>طه😎</t>
   </si>
   <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
     <t>العبور</t>
   </si>
   <si>
@@ -59,198 +65,192 @@
     <t>حلوان و زهراء المعادي</t>
   </si>
   <si>
-    <t>حمزه😎</t>
+    <t>عبد النبي😎</t>
   </si>
   <si>
     <t>دائري</t>
   </si>
   <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>محمد عادل😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>مصطفي علي😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>دباديب😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
     <t>سيد سلامه😎</t>
   </si>
   <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>محمد عادل😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
+    <t>رفعت😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>معتز</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>حمزه 😎</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>ايهاب😎 اول الخط🙏</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>الرحاب</t>
+  </si>
+  <si>
+    <t>رجب</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>علي طه</t>
   </si>
   <si>
     <t>مدينة نصر</t>
   </si>
   <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>رفعت😎</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>دباديب😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>احمد جلال ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>مهندسين</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
   </si>
   <si>
     <t>زياد ملاكي</t>
   </si>
   <si>
-    <t>مصطفي علي😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
+    <t>المصري</t>
   </si>
   <si>
     <t>احمد جلال</t>
   </si>
   <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>ايهاب😎 اول الخط🙏</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>الرحاب</t>
-  </si>
-  <si>
-    <t>رجب</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>محمد فوزي ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>احمد عبد الله</t>
-  </si>
-  <si>
-    <t>مهندسين</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
     <t>حضور ١١ ص</t>
   </si>
   <si>
-    <t>خالد جمعه😎</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
+    <t>مكاوي😎</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>تجمع</t>
+  </si>
+  <si>
+    <t>احمد ابو الحسن😎</t>
+  </si>
+  <si>
+    <t>ايهاب😎</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>ياسر😎</t>
   </si>
   <si>
     <t>كريم علي😎</t>
   </si>
   <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>مكاوي😎</t>
-  </si>
-  <si>
-    <t>مصطفي ابو الحسن😎</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>ايهاب😎</t>
-  </si>
-  <si>
-    <t>ياسر😎</t>
+    <t>عبدو 😎</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
   </si>
   <si>
     <t>وليد😎</t>
   </si>
   <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
     <t>سامي😎</t>
   </si>
   <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
     <t>حضور ٤ م</t>
   </si>
   <si>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>حضور ٨ م</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
@@ -1428,17 +1425,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J516"/>
+  <dimension ref="A1:J496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="18.2181818181818" customWidth="1"/>
+    <col min="9" max="9" width="17.3181818181818" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1488,7 +1485,7 @@
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>وائل😎        </v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -1503,7 +1500,7 @@
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>حمزه😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1519,7 +1516,7 @@
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1535,7 +1532,7 @@
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عادل😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1544,39 +1541,39 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
+        <v>محمد عادل😎        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
         <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -1589,26 +1586,26 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>رفعت😎        </v>
+        <v>مصطفي علي😎        </v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -1618,13 +1615,13 @@
         <v>شريف عبد المنعم        </v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
         <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -1634,13 +1631,13 @@
         <v>دباديب😎        </v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -1650,45 +1647,45 @@
         <v>هشام امين        </v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي علي😎        </v>
+        <v>رفعت😎        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -1698,13 +1695,13 @@
         <v>معتز        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J17" s="2"/>
     </row>
@@ -1714,45 +1711,45 @@
         <v>احمد فراج        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>عبده😎        </v>
+        <v>حمزه 😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -1762,45 +1759,45 @@
         <v>مصطفي منتصر        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي علي😎        </v>
+        <v>رفعت😎        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J23" s="2"/>
     </row>
@@ -1810,13 +1807,13 @@
         <v>ايهاب😎 اول الخط🙏        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J24" s="2"/>
     </row>
@@ -1826,13 +1823,13 @@
         <v>محمد عادل😎        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J25" s="2"/>
     </row>
@@ -1842,10 +1839,10 @@
         <v>طه😎        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -1858,13 +1855,13 @@
         <v>رجب        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J27" s="2"/>
     </row>
@@ -1874,13 +1871,13 @@
         <v>علي طه        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J28" s="2"/>
     </row>
@@ -1890,29 +1887,29 @@
         <v>احمد ناصر😎        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي ٣ افراد 🙏        </v>
+        <v>احمد جلال ٣ افراد 🙏        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -1922,13 +1919,13 @@
         <v>بلال😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>48</v>
-      </c>
-      <c r="I31" t="s">
-        <v>49</v>
       </c>
       <c r="J31" s="2"/>
     </row>
@@ -1938,13 +1935,13 @@
         <v>بلال😎        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J32" s="2"/>
     </row>
@@ -1954,13 +1951,13 @@
         <v>مصطفي منتصر        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J33" s="2"/>
     </row>
@@ -1970,75 +1967,75 @@
         <v>محسن الضبع        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" ref="B35:B66" si="1">CONCATENATE(I35," ",J35," ",K35," ",L35," ",M35," ",N35," ",O35," ",P35," ",Q35)</f>
-        <v>احمد عبد الله        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>رجب        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" t="s">
         <v>55</v>
-      </c>
-      <c r="I37" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبد الله        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" t="s">
         <v>53</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -2047,43 +2044,43 @@
         <v>مصطفي منتصر        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I41" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -2092,43 +2089,43 @@
         <v>المصري        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>بلال😎        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J44" s="2"/>
     </row>
@@ -2138,13 +2135,13 @@
         <v>محسن الضبع        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -2153,40 +2150,40 @@
         <v>احمد جلال        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="I46" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>خالد جمعه😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>دباديب😎        </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I48" t="s">
         <v>23</v>
@@ -2195,46 +2192,46 @@
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>دباديب😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>مكاوي😎        </v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
+      </c>
+      <c r="H50" t="s">
+        <v>27</v>
       </c>
       <c r="I50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>كريم علي😎        </v>
+        <v>رفعت😎        </v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" t="s">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="I51" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -2243,28 +2240,28 @@
         <v>رفعت😎        </v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>خالد جمعه😎        </v>
+        <v>حمزه 😎        </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H53" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -2273,568 +2270,514 @@
         <v>مصطفي علي😎        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I54" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>عبده😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I55" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>مكاوي😎        </v>
+        <v>احمد ابو الحسن😎        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" t="s">
-        <v>38</v>
+        <v>59</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I57" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي ابو الحسن😎        </v>
+        <v>ايهاب😎        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>حمزه 😎        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>عبده😎        </v>
+        <v>ياسر😎        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب😎        </v>
+        <v>كريم علي😎        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>ياسر😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>وليد😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I65" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>حمزه😎        </v>
+        <v>ايهاب😎        </v>
       </c>
       <c r="G66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s">
         <v>64</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I66" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" ref="B67:B98" si="2">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67)</f>
-        <v>احمد جلال        </v>
+        <v>عبدو 😎        </v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I67" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I68" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
+        <v>حمزه 😎        </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="I71" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G72" t="s">
-        <v>71</v>
+        <v>دباديب😎        </v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H72" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I72" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="H73" t="s">
+        <v>27</v>
       </c>
       <c r="I73" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>دباديب😎        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
+      </c>
+      <c r="H74" t="s">
+        <v>61</v>
       </c>
       <c r="I74" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
+        <v>عبدو 😎        </v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H75" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H76" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب😎        </v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>72</v>
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G77" t="s">
+        <v>73</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>8</v>
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
       </c>
       <c r="I78" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>72</v>
+        <v>رجب        </v>
+      </c>
+      <c r="G79" t="s">
+        <v>73</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I79" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G80" s="1" t="s">
+        <v>سامي😎        </v>
+      </c>
+      <c r="G80" t="s">
+        <v>74</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" t="s">
         <v>72</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G81" t="s">
-        <v>73</v>
-      </c>
-      <c r="H81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H81" t="s">
         <v>8</v>
       </c>
       <c r="I81" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G82" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H82" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="I82" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي ابو الحسن😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G83" t="s">
-        <v>73</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="H83" t="s">
+        <v>49</v>
       </c>
       <c r="I83" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G84" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H84" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="I84" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G85" t="s">
-        <v>74</v>
-      </c>
-      <c r="H85" t="s">
-        <v>61</v>
+        <v>76</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I85" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G86" t="s">
-        <v>75</v>
-      </c>
-      <c r="H86" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G87" t="s">
-        <v>75</v>
-      </c>
-      <c r="H87" t="s">
-        <v>50</v>
-      </c>
-      <c r="I87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G88" t="s">
-        <v>75</v>
-      </c>
-      <c r="H88" t="s">
-        <v>52</v>
-      </c>
-      <c r="I88" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G89" t="s">
-        <v>76</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G90" t="s">
-        <v>76</v>
-      </c>
-      <c r="H90" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G91" t="s">
-        <v>77</v>
-      </c>
-      <c r="H91" t="s">
-        <v>38</v>
-      </c>
-      <c r="I91" t="s">
-        <v>23</v>
+        <v>        </v>
       </c>
     </row>
     <row r="92" spans="2:2">
@@ -3467,192 +3410,192 @@
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="476" spans="8:8">
+      <c r="H476" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="8:8">
+      <c r="H477" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="8:8">
+      <c r="H478" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="479" spans="8:8">
+      <c r="H479" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="480" spans="8:8">
+      <c r="H480" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="481" spans="8:8">
+      <c r="H481" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="482" spans="8:8">
+      <c r="H482" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="483" spans="8:8">
+      <c r="H483" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="484" spans="8:8">
+      <c r="H484" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="485" spans="8:8">
+      <c r="H485" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="486" spans="8:8">
+      <c r="H486" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="487" spans="8:8">
+      <c r="H487" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="488" spans="8:8">
+      <c r="H488" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="489" spans="8:8">
+      <c r="H489" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="490" spans="8:8">
+      <c r="H490" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="491" spans="8:8">
+      <c r="H491" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="492" spans="8:8">
+      <c r="H492" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="493" spans="8:8">
+      <c r="H493" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="494" spans="8:8">
+      <c r="H494" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="495" spans="8:8">
+      <c r="H495" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="496" spans="8:8">
       <c r="H496" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="497" spans="8:8">
-      <c r="H497" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="498" spans="8:8">
-      <c r="H498" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="499" spans="8:8">
-      <c r="H499" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="500" spans="8:8">
-      <c r="H500" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="501" spans="8:8">
-      <c r="H501" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="502" spans="8:8">
-      <c r="H502" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="503" spans="8:8">
-      <c r="H503" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="504" spans="8:8">
-      <c r="H504" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="505" spans="8:8">
-      <c r="H505" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="506" spans="8:8">
-      <c r="H506" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="507" spans="8:8">
-      <c r="H507" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="508" spans="8:8">
-      <c r="H508" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="509" spans="8:8">
-      <c r="H509" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="510" spans="8:8">
-      <c r="H510" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="511" spans="8:8">
-      <c r="H511" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="512" spans="8:8">
-      <c r="H512" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="513" spans="8:8">
-      <c r="H513" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="514" spans="8:8">
-      <c r="H514" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="515" spans="8:8">
-      <c r="H515" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="516" spans="8:8">
-      <c r="H516" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,87 +30,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="79">
-  <si>
-    <t>حضورات يوم 5/29</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="78">
+  <si>
+    <t>حضورات يوم 6/4</t>
+  </si>
+  <si>
+    <t>حضور ٧ ص</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>محمد عادل😎</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
   </si>
   <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>روماني</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>علاء😎</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>ايهاب😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>مصطفي ابو الحسن😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
     <t>اكتوبر و زايد</t>
   </si>
   <si>
-    <t>علاء😎</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>محمد عادل😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>مصطفي علي😎</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>دباديب😎</t>
+    <t>😡😡😡😡</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
   </si>
   <si>
     <t>هشام امين</t>
   </si>
   <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>رفعت😎</t>
+    <t>محمد السيد😎</t>
   </si>
   <si>
     <t>المهندسين</t>
@@ -119,34 +158,22 @@
     <t>معتز</t>
   </si>
   <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
     <t>احمد فراج</t>
   </si>
   <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>حمزه 😎</t>
-  </si>
-  <si>
     <t>حدائق القبه</t>
   </si>
   <si>
-    <t>ايهاب سليمان</t>
+    <t>زياد ملاكي</t>
   </si>
   <si>
     <t>مصطفي منتصر</t>
   </si>
   <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>ايهاب😎 اول الخط🙏</t>
+    <t>سيد سالم</t>
+  </si>
+  <si>
+    <t>عبده😎</t>
   </si>
   <si>
     <t>التجمع</t>
@@ -164,106 +191,76 @@
     <t>علي طه</t>
   </si>
   <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>احمد جلال ٣ افراد 🙏</t>
+    <t>خالد ابو الفتوح😎</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>ياسر😎</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>مكاوي😎</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>حضور ٤ م</t>
+  </si>
+  <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
+    <t>ايهاب ملاك</t>
+  </si>
+  <si>
+    <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>حسن الطيار</t>
+  </si>
+  <si>
+    <t>دائري مرج و السلام</t>
   </si>
   <si>
     <t>مدينتي</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>مهندسين</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>مكاوي😎</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>تجمع</t>
-  </si>
-  <si>
-    <t>احمد ابو الحسن😎</t>
-  </si>
-  <si>
-    <t>ايهاب😎</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>ياسر😎</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
-    <t>عبدو 😎</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
-    <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>دائري مرج و السلام</t>
   </si>
   <si>
     <t>سلم البارون</t>
@@ -1425,17 +1422,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J496"/>
+  <dimension ref="A1:J420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G1" sqref="G1:I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="17.3181818181818" customWidth="1"/>
+    <col min="9" max="9" width="16.8727272727273" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1452,7 +1449,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>علاء😎        </v>
+        <v>محمد عادل😎        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1470,16 +1467,16 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f t="shared" ref="B3:B34" si="0">CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>طه😎        </v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1487,537 +1484,537 @@
         <f t="shared" si="0"/>
         <v>وائل😎        </v>
       </c>
-      <c r="G4" t="s">
-        <v>1</v>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
+        <v>روماني        </v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عادل😎        </v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
+        <v>علاء😎        </v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي علي😎        </v>
+        <v>ايهاب😎        </v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>دباديب😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>رفعت😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>معتز        </v>
+        <v>😡😡😡😡        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>حمزه 😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>محمد عادل😎        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>رفعت😎        </v>
+        <v>محمد السيد😎        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>معتز        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب😎 اول الخط🙏        </v>
+        <v>😡😡😡😡        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عادل😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>محمد السيد😎        </v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎        </v>
+        <v>سيد سالم        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال ٣ افراد 🙏        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" ref="B35:B66" si="1">CONCATENATE(I35," ",J35," ",K35," ",L35," ",M35," ",N35," ",O35," ",P35," ",Q35)</f>
-        <v>احمد عبدالله        </v>
+        <v>روماني        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I37" t="s">
         <v>55</v>
@@ -2026,614 +2023,614 @@
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>زياد ملاكي        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
         <v>52</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I42" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>طه😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>بلال😎        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="I46" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H47" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>دباديب😎        </v>
+        <v>المصري        </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>مكاوي😎        </v>
+        <v>سيد سالم        </v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H50" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="I50" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>رفعت😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I51" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>رفعت😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I52" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>حمزه 😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي علي😎        </v>
+        <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ابو الحسن😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="I56" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
+        <v>😡😡😡😡        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>سيد سالم        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="H59" t="s">
+        <v>19</v>
       </c>
       <c r="I59" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>حمزه 😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>ياسر😎        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>كريم علي😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎        </v>
+        <v>ياسر😎        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="I63" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I65" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب😎        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" ref="B67:B98" si="2">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67)</f>
-        <v>عبدو 😎        </v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H67" t="s">
-        <v>50</v>
+        <v>ايهاب😎        </v>
+      </c>
+      <c r="G67" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I67" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>69</v>
+        <v>وليد😎        </v>
+      </c>
+      <c r="G68" t="s">
+        <v>62</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه 😎        </v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>69</v>
+        <v>ايهاب😎        </v>
+      </c>
+      <c r="G69" t="s">
+        <v>62</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>70</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G70" t="s">
+        <v>62</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>4</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G71" t="s">
+        <v>62</v>
+      </c>
+      <c r="H71" t="s">
+        <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>دباديب😎        </v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H72" t="s">
-        <v>8</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G72" t="s">
+        <v>62</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I72" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H73" t="s">
-        <v>27</v>
+        <v>رجب        </v>
+      </c>
+      <c r="G73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I73" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H74" t="s">
-        <v>61</v>
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G74" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I74" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>عبدو 😎        </v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>10</v>
+        <v>مصطفي ابو الحسن😎        </v>
+      </c>
+      <c r="G75" t="s">
+        <v>62</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="H76" t="s">
+        <v>5</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G77" t="s">
-        <v>73</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>10</v>
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H77" t="s">
+        <v>40</v>
       </c>
       <c r="I77" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>عم سعيد        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G78" t="s">
-        <v>73</v>
-      </c>
-      <c r="H78" t="s">
-        <v>13</v>
+        <v>67</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I78" t="s">
         <v>55</v>
@@ -2642,184 +2639,301 @@
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G79" t="s">
-        <v>73</v>
-      </c>
-      <c r="H79" t="s">
+        <v>67</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" t="s">
         <v>42</v>
-      </c>
-      <c r="I79" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G80" t="s">
-        <v>74</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
       </c>
       <c r="I80" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
+        <v>ايهاب😎        </v>
       </c>
       <c r="G81" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H81" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I81" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>احمد جلال        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G82" t="s">
-        <v>75</v>
-      </c>
-      <c r="H82" t="s">
+        <v>67</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I82" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G83" t="s">
-        <v>75</v>
-      </c>
-      <c r="H83" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I83" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
+        <v>رجب        </v>
       </c>
       <c r="G84" t="s">
-        <v>75</v>
-      </c>
-      <c r="H84" t="s">
-        <v>51</v>
+        <v>67</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I84" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
+        <v>سيد سالم        </v>
       </c>
       <c r="G85" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G86" t="s">
+        <v>68</v>
+      </c>
+      <c r="H86" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
+        <v>خالد ابو الفتوح😎        </v>
+      </c>
+      <c r="G87" t="s">
+        <v>68</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G88" t="s">
+        <v>69</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
+        <v>وليد😎        </v>
+      </c>
+      <c r="G89" t="s">
+        <v>69</v>
+      </c>
+      <c r="H89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G90" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
+        <v>ايهاب ملاك        </v>
+      </c>
+      <c r="G91" t="s">
+        <v>71</v>
+      </c>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G92" t="s">
+        <v>71</v>
+      </c>
+      <c r="H92" t="s">
+        <v>59</v>
+      </c>
+      <c r="I92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G93" t="s">
+        <v>71</v>
+      </c>
+      <c r="H93" t="s">
+        <v>31</v>
+      </c>
+      <c r="I93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
+        <v>علاء😎        </v>
+      </c>
+      <c r="G94" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94" t="s">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G95" t="s">
+        <v>73</v>
+      </c>
+      <c r="H95" t="s">
+        <v>70</v>
+      </c>
+      <c r="I95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
+        <v>علاء😎        </v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
+        <v>علي طه        </v>
+      </c>
+      <c r="G97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
+        <v>حسن الطيار        </v>
+      </c>
+      <c r="G98" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" t="s">
+        <v>51</v>
+      </c>
+      <c r="I98" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="2:2">
@@ -3400,202 +3514,188 @@
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
+      <c r="A400" t="s">
+        <v>51</v>
+      </c>
+      <c r="H400" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="A401" t="s">
+        <v>25</v>
+      </c>
+      <c r="H401" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
+      <c r="A402" t="s">
+        <v>59</v>
+      </c>
+      <c r="H402" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
+      <c r="A403" t="s">
+        <v>29</v>
+      </c>
+      <c r="H403" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="A404" t="s">
+        <v>5</v>
+      </c>
+      <c r="H404" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="A405" t="s">
+        <v>76</v>
+      </c>
+      <c r="H405" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
+      <c r="A406" t="s">
+        <v>27</v>
+      </c>
+      <c r="H406" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
+    <row r="407" spans="8:8">
+      <c r="H407" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="408" spans="8:8">
+      <c r="H408" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="409" spans="8:8">
+      <c r="H409" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="410" spans="8:8">
+      <c r="H410" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="8:8">
+      <c r="H411" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="476" spans="8:8">
-      <c r="H476" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="477" spans="8:8">
-      <c r="H477" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="478" spans="8:8">
-      <c r="H478" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="479" spans="8:8">
-      <c r="H479" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="480" spans="8:8">
-      <c r="H480" t="s">
+    <row r="412" spans="8:8">
+      <c r="H412" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="413" spans="8:8">
+      <c r="H413" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="414" spans="8:8">
+      <c r="H414" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="415" spans="8:8">
+      <c r="H415" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="416" spans="8:8">
+      <c r="H416" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="417" spans="8:8">
+      <c r="H417" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="8:8">
+      <c r="H418" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="419" spans="8:8">
+      <c r="H419" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="481" spans="8:8">
-      <c r="H481" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="482" spans="8:8">
-      <c r="H482" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="483" spans="8:8">
-      <c r="H483" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="484" spans="8:8">
-      <c r="H484" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="485" spans="8:8">
-      <c r="H485" t="s">
+    <row r="420" spans="8:8">
+      <c r="H420" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="486" spans="8:8">
-      <c r="H486" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="487" spans="8:8">
-      <c r="H487" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="488" spans="8:8">
-      <c r="H488" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="489" spans="8:8">
-      <c r="H489" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="490" spans="8:8">
-      <c r="H490" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="491" spans="8:8">
-      <c r="H491" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="492" spans="8:8">
-      <c r="H492" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="493" spans="8:8">
-      <c r="H493" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="494" spans="8:8">
-      <c r="H494" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="495" spans="8:8">
-      <c r="H495" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="496" spans="8:8">
-      <c r="H496" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,191 +30,191 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="78">
-  <si>
-    <t>حضورات يوم 6/4</t>
-  </si>
-  <si>
-    <t>حضور ٧ ص</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="79">
+  <si>
+    <t>حضورات يوم 6/5</t>
+  </si>
+  <si>
+    <t>حضور ٨ ص</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>علاء😎</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>توفيق ملاك</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبدالنبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>ايهاب😎</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>مصطفي ابو الحسن😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>رجب</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>محمد عادل😎</t>
+  </si>
+  <si>
+    <t>محمد السيد😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>معتز</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
   </si>
   <si>
     <t>شبرا</t>
   </si>
   <si>
-    <t>محمد عادل😎</t>
-  </si>
-  <si>
-    <t>حضور ٨ ص</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>روماني</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>علاء😎</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>ايهاب😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
     <t>محمد فوزي</t>
   </si>
   <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>مصطفي ابو الحسن😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>😡😡😡😡</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>محمد السيد😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
+    <t>عبده😎</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>الرحاب</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>خالد ابو الفتوح😎</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>عم هاني😎</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>واحات</t>
   </si>
   <si>
     <t>زياد ملاكي</t>
   </si>
   <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>سيد سالم</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>الرحاب</t>
-  </si>
-  <si>
-    <t>رجب</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>خالد ابو الفتوح😎</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
     <t>المصري</t>
   </si>
   <si>
     <t>الشروق</t>
   </si>
   <si>
+    <t>حسن الطيار</t>
+  </si>
+  <si>
     <t>حضور ١١ ص</t>
   </si>
   <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
     <t>ياسر😎</t>
   </si>
   <si>
@@ -227,34 +227,37 @@
     <t>مدحت😎</t>
   </si>
   <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>حضور ٤ م</t>
+  </si>
+  <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
     <t>مكاوي😎</t>
   </si>
   <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
     <t>ايهاب ملاك</t>
   </si>
   <si>
     <t>حضور ٧ م</t>
   </si>
   <si>
-    <t>حسن الطيار</t>
+    <t>حضور ٩ م</t>
+  </si>
+  <si>
+    <t>مكتب موسي😎</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
@@ -1422,10 +1425,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J420"/>
+  <dimension ref="A1:J406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I98"/>
+      <selection activeCell="G1" sqref="G1:I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1449,7 +1452,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>محمد عادل😎        </v>
+        <v>وائل😎        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1467,216 +1470,216 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f t="shared" ref="B3:B34" si="0">CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
         <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>وائل😎        </v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
+        <v>علاء😎        </v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>توفيق ملاك        </v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
         <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>روماني        </v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
+        <v>عبدالنبي😎        </v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
         <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
+        <v>ايهاب😎        </v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
         <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>4</v>
+        <v>مصطفي ابو الحسن😎        </v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
         <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب😎        </v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>4</v>
+        <v>علي طه        </v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
         <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>4</v>
+        <v>رجب        </v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
         <v>23</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>4</v>
+        <v>طه😎        </v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
         <v>25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎        </v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>4</v>
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
         <v>27</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي ابو الحسن😎        </v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>4</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
         <v>29</v>
-      </c>
-      <c r="I15" t="s">
-        <v>30</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>31</v>
@@ -1689,109 +1692,109 @@
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>😡😡😡😡        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" t="s">
         <v>34</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>محمد عادل😎        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عادل😎        </v>
+        <v>محمد السيد😎        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>محمد السيد😎        </v>
+        <v>معتز        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>معتز        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
         <v>41</v>
@@ -1801,61 +1804,61 @@
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>😡😡😡😡        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي        </v>
+        <v>محمد السيد😎        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s">
         <v>45</v>
@@ -1865,77 +1868,77 @@
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>محمد السيد😎        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سالم        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>عبده😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s">
         <v>50</v>
@@ -1945,407 +1948,407 @@
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s">
         <v>51</v>
-      </c>
-      <c r="I33" t="s">
-        <v>52</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>عم هاني😎        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" ref="B35:B66" si="1">CONCATENATE(I35," ",J35," ",K35," ",L35," ",M35," ",N35," ",O35," ",P35," ",Q35)</f>
-        <v>روماني        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v>بلال😎        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>حمزه😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
         <v>34</v>
-      </c>
-      <c r="I39" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I43" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>المصري        </v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
         <v>56</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
+        <v>رجب        </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>بلال😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سالم        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I50" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I51" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
+      </c>
+      <c r="H53" t="s">
+        <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I54" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>زياد ملاكي        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>😡😡😡😡        </v>
+        <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I57" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I58" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سالم        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H59" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I59" t="s">
         <v>46</v>
@@ -2354,31 +2357,31 @@
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>حمزه😎        </v>
+        <v>ايهاب😎        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I61" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -2387,553 +2390,508 @@
         <v>رجب        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s">
         <v>23</v>
-      </c>
-      <c r="I62" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>ياسر😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I63" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>ياسر😎        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I64" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I65" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>عبده😎        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" ref="B67:B98" si="2">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67)</f>
-        <v>ايهاب😎        </v>
-      </c>
-      <c r="G67" t="s">
+        <v>مصطفي ابو الحسن😎        </v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
-      </c>
-      <c r="G68" t="s">
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب😎        </v>
-      </c>
-      <c r="G69" t="s">
+        <v>عبدالنبي😎        </v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
         <v>15</v>
-      </c>
-      <c r="I69" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G70" t="s">
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G71" t="s">
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H71" t="s">
-        <v>21</v>
+      <c r="H71" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G72" t="s">
+        <v>عبده😎        </v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I72" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G73" t="s">
-        <v>62</v>
+        <v>عبده😎        </v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I73" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
-      </c>
-      <c r="G74" t="s">
-        <v>62</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>59</v>
+        <v>رجب        </v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" t="s">
+        <v>6</v>
       </c>
       <c r="I74" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي ابو الحسن😎        </v>
-      </c>
-      <c r="G75" t="s">
-        <v>62</v>
-      </c>
-      <c r="H75" t="s">
-        <v>29</v>
+        <v>علي طه        </v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I75" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>عبده😎        </v>
+        <v>ايهاب😎        </v>
       </c>
       <c r="G76" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H76" t="s">
-        <v>5</v>
+      <c r="H76" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G77" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H77" t="s">
-        <v>40</v>
+      <c r="H77" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
-      </c>
-      <c r="G78" t="s">
-        <v>67</v>
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G79" t="s">
         <v>67</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G80" t="s">
         <v>67</v>
       </c>
       <c r="H80" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب😎        </v>
+        <v>ياسر😎        </v>
       </c>
       <c r="G81" t="s">
         <v>67</v>
       </c>
-      <c r="H81" t="s">
-        <v>40</v>
+      <c r="H81" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
-      </c>
-      <c r="G82" t="s">
-        <v>67</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>13</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" t="s">
+        <v>69</v>
       </c>
       <c r="I82" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
+        <v>مكاوي😎        </v>
       </c>
       <c r="G83" t="s">
-        <v>67</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="H83" t="s">
+        <v>6</v>
       </c>
       <c r="I83" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
+        <v>ايهاب ملاك        </v>
       </c>
       <c r="G84" t="s">
-        <v>67</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="H84" t="s">
+        <v>18</v>
       </c>
       <c r="I84" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سالم        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G85" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>عم سعيد        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G86" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H86" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I86" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G87" t="s">
-        <v>68</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
       </c>
       <c r="I87" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G88" t="s">
-        <v>69</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
+      </c>
+      <c r="H88" t="s">
+        <v>39</v>
       </c>
       <c r="I88" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G89" t="s">
+        <v>73</v>
+      </c>
+      <c r="H89" t="s">
         <v>69</v>
       </c>
-      <c r="H89" t="s">
-        <v>70</v>
-      </c>
       <c r="I89" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G90" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H90" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I90" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب ملاك        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G91" t="s">
-        <v>71</v>
-      </c>
-      <c r="H91" t="s">
+        <v>73</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s">
         <v>21</v>
-      </c>
-      <c r="I91" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G92" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H92" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I92" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
+        <v>مكتب موسي😎        </v>
       </c>
       <c r="G93" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H93" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I93" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G94" t="s">
-        <v>73</v>
-      </c>
-      <c r="H94" t="s">
-        <v>40</v>
-      </c>
-      <c r="I94" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>حسين فايد😎        </v>
-      </c>
-      <c r="G95" t="s">
-        <v>73</v>
-      </c>
-      <c r="H95" t="s">
-        <v>70</v>
-      </c>
-      <c r="I95" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G96" t="s">
-        <v>73</v>
-      </c>
-      <c r="H96" t="s">
-        <v>21</v>
-      </c>
-      <c r="I96" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>علي طه        </v>
-      </c>
-      <c r="G97" t="s">
-        <v>73</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I97" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>حسن الطيار        </v>
-      </c>
-      <c r="G98" t="s">
-        <v>73</v>
-      </c>
-      <c r="H98" t="s">
-        <v>51</v>
-      </c>
-      <c r="I98" t="s">
-        <v>74</v>
+        <v>        </v>
       </c>
     </row>
     <row r="99" spans="2:2">
@@ -3512,190 +3470,182 @@
         <v>        </v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="378" spans="8:8">
+      <c r="H378" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="379" spans="8:8">
+      <c r="H379" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="8:8">
+      <c r="H380" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="8:8">
+      <c r="H381" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="8:8">
+      <c r="H382" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="383" spans="8:8">
+      <c r="H383" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="8:8">
+      <c r="H384" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385" spans="8:8">
+      <c r="H385" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="8:8">
+      <c r="H386" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="387" spans="8:8">
+      <c r="H387" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="H388" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="H389" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="H390" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="H391" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
+        <v>39</v>
+      </c>
+      <c r="H392" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="H393" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="H394" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="H395" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
       <c r="A396" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="H396" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
       <c r="A397" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="H397" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
       <c r="A398" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="H398" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>51</v>
-      </c>
-      <c r="H400" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>25</v>
-      </c>
-      <c r="H401" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>59</v>
-      </c>
-      <c r="H402" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>29</v>
-      </c>
-      <c r="H403" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>5</v>
-      </c>
-      <c r="H404" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>76</v>
-      </c>
-      <c r="H405" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>27</v>
-      </c>
-      <c r="H406" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="407" spans="8:8">
-      <c r="H407" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="408" spans="8:8">
-      <c r="H408" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="409" spans="8:8">
-      <c r="H409" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="410" spans="8:8">
-      <c r="H410" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="411" spans="8:8">
-      <c r="H411" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="412" spans="8:8">
-      <c r="H412" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="413" spans="8:8">
-      <c r="H413" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="414" spans="8:8">
-      <c r="H414" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="415" spans="8:8">
-      <c r="H415" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="416" spans="8:8">
-      <c r="H416" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="417" spans="8:8">
-      <c r="H417" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="418" spans="8:8">
-      <c r="H418" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="419" spans="8:8">
-      <c r="H419" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="420" spans="8:8">
-      <c r="H420" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="79">
-  <si>
-    <t>حضورات يوم 6/5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="78">
+  <si>
+    <t>حضورات يوم 6/6</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -56,6 +56,12 @@
     <t>محمود اسامه ملاكي</t>
   </si>
   <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
     <t>حدائق اكتوبر</t>
   </si>
   <si>
@@ -65,205 +71,196 @@
     <t>حدائق الاهرام</t>
   </si>
   <si>
+    <t>روماني</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>هاني😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>مصطفي ابو الحسن😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>محمد عادل😎</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق و بدر</t>
+  </si>
+  <si>
+    <t>بلال😎 ✌</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>عبده😎</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>كريم وحيد😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد 😎</t>
+  </si>
+  <si>
+    <t>محمد السيد😎</t>
+  </si>
+  <si>
+    <t>معتز</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>خالد ابو الفتوح😎</t>
+  </si>
+  <si>
+    <t>عبدالرحمن😎</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>واحات</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>حسن الطيار</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>مكاوي😎</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>حضور ١ م</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>حضور ٤ م</t>
+  </si>
+  <si>
     <t>توفيق ملاك</t>
   </si>
   <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبدالنبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>ايهاب😎</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>مصطفي ابو الحسن😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>رجب</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
+    <t>ايهاب ملاك</t>
   </si>
   <si>
     <t>بدر</t>
   </si>
   <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>محمد عادل😎</t>
-  </si>
-  <si>
-    <t>محمد السيد😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>الرحاب</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>خالد ابو الفتوح😎</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>عم هاني😎</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>واحات</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حسن الطيار</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>ياسر😎</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>مدحت😎</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
+    <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>محمد جدو</t>
+  </si>
+  <si>
+    <t>تجمع</t>
+  </si>
+  <si>
+    <t>فوزي</t>
   </si>
   <si>
     <t>الواحات</t>
   </si>
   <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
-    <t>مكاوي😎</t>
-  </si>
-  <si>
-    <t>ايهاب ملاك</t>
-  </si>
-  <si>
-    <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>حضور ٩ م</t>
-  </si>
-  <si>
-    <t>مكتب موسي😎</t>
+    <t>حسام حبيب</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
   </si>
   <si>
     <t>سلم البارون</t>
@@ -1424,11 +1421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I91"/>
+      <selection activeCell="G1" sqref="G1:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1449,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" hidden="1" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
         <v>وائل😎        </v>
@@ -1467,7 +1464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" hidden="1" spans="2:9">
       <c r="B3" t="str">
         <f t="shared" ref="B3:B34" si="0">CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
         <v>سيد سلامه😎        </v>
@@ -1482,7 +1479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" hidden="1" spans="2:9">
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>محمود اسامه ملاكي        </v>
@@ -1497,10 +1494,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" hidden="1" spans="2:10">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1513,10 +1510,10 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" hidden="1" spans="2:10">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>توفيق ملاك        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1529,10 +1526,10 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" hidden="1" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>روماني        </v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1545,10 +1542,10 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" hidden="1" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>عبدالنبي😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1561,10 +1558,10 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" hidden="1" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -1577,7 +1574,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" hidden="1" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>مصطفي ابو الحسن😎        </v>
@@ -1593,10 +1590,10 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" hidden="1" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>محمد عادل😎        </v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
@@ -1609,10 +1606,10 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" hidden="1" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
@@ -1625,10 +1622,10 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" hidden="1" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎        </v>
+        <v>بلال😎 ✌        </v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
@@ -1641,10 +1638,10 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" hidden="1" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>حمزه😎        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
@@ -1657,29 +1654,29 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" hidden="1" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G15" t="s">
-        <v>1</v>
+        <v>كريم وحيد😎        </v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" hidden="1" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>31</v>
@@ -1689,975 +1686,975 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" hidden="1" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
         <v>33</v>
       </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" hidden="1" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" hidden="1" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>محمد عبد المجيد 😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" hidden="1" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عادل😎        </v>
+        <v>محمد السيد😎        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" hidden="1" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>محمد السيد😎        </v>
+        <v>معتز        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" hidden="1" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>معتز        </v>
+        <v>كريم وحيد😎        </v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" hidden="1" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" hidden="1" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي بسكوته        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" hidden="1" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>محمد السيد😎        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" hidden="1" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>محمد السيد😎        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" hidden="1" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" hidden="1" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>عبده😎        </v>
+        <v>محمد عادل😎        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" hidden="1" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" hidden="1" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" hidden="1" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>بلال😎 ✌        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>عبدالرحمن😎        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" hidden="1" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" hidden="1" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>عم هاني😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" hidden="1" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" ref="B35:B66" si="1">CONCATENATE(I35," ",J35," ",K35," ",L35," ",M35," ",N35," ",O35," ",P35," ",Q35)</f>
-        <v>محسن الضبع        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" hidden="1" spans="2:9">
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v>علاء😎        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>علاء😎        </v>
+        <v>روماني        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>المصري        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="2:10">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
         <v>زياد ملاكي        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" hidden="1" spans="2:9">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
+        <v>محمد عبد المجيد 😎        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" hidden="1" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>بلال😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>حسين فايد😎        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+    </row>
+    <row r="48" hidden="1" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>53</v>
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G48" t="s">
+        <v>54</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>53</v>
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" hidden="1" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>حسن الطيار        </v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>53</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G50" t="s">
+        <v>54</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" hidden="1" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>زياد ملاكي        </v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>59</v>
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G51" t="s">
+        <v>54</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" hidden="1" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>59</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G52" t="s">
+        <v>54</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" hidden="1" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
         <v>خالد ابو الفتوح😎        </v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H53" t="s">
-        <v>6</v>
+      <c r="G53" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" hidden="1" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>59</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G54" t="s">
+        <v>54</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" hidden="1" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>59</v>
+        <v>عبده😎        </v>
+      </c>
+      <c r="G55" t="s">
+        <v>54</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" hidden="1" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>59</v>
+        <v>حسن الطيار        </v>
+      </c>
+      <c r="G56" t="s">
+        <v>54</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>خالد ابو الفتوح😎        </v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>59</v>
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G57" t="s">
+        <v>54</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" hidden="1" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>59</v>
+        <v>علي طه        </v>
+      </c>
+      <c r="G58" t="s">
+        <v>54</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" hidden="1" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>عبده😎        </v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>59</v>
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G59" t="s">
+        <v>54</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" hidden="1" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" hidden="1" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" hidden="1" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>ياسر😎        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" t="s">
         <v>59</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
+    </row>
+    <row r="65" hidden="1" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي ابو الحسن😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" hidden="1" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>وليد😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" hidden="1" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" ref="B67:B98" si="2">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67)</f>
-        <v>مصطفي ابو الحسن😎        </v>
+        <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" hidden="1" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" hidden="1" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>عبدالنبي😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="I69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" hidden="1" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" t="s">
         <v>18</v>
       </c>
       <c r="I70" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" hidden="1" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G71" s="1" t="s">
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G71" t="s">
         <v>62</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>20</v>
+      <c r="H71" t="s">
+        <v>8</v>
       </c>
       <c r="I71" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" hidden="1" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>عبده😎        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
+      </c>
+      <c r="H72" t="s">
+        <v>6</v>
       </c>
       <c r="I72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" hidden="1" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>عبده😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
+      </c>
+      <c r="H73" t="s">
+        <v>8</v>
       </c>
       <c r="I73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" hidden="1" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H74" t="s">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>علي طه        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
         <v>39</v>
       </c>
-      <c r="I75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
+    </row>
+    <row r="76" hidden="1" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" hidden="1" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>66</v>
+        <v>توفيق ملاك        </v>
+      </c>
+      <c r="G77" t="s">
+        <v>64</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G78" s="1" t="s">
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G78" t="s">
         <v>66</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I78" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" hidden="1" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G79" t="s">
         <v>67</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>14</v>
+      <c r="H79" t="s">
+        <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
+        <v>ايهاب ملاك        </v>
       </c>
       <c r="G80" t="s">
         <v>67</v>
@@ -2666,241 +2663,205 @@
         <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" hidden="1" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>ياسر😎        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G81" t="s">
         <v>67</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I81" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>68</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G82" t="s">
+        <v>67</v>
       </c>
       <c r="H82" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="I82" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" hidden="1" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
+        <v>توفيق ملاك        </v>
       </c>
       <c r="G83" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H83" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="I83" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب ملاك        </v>
+        <v>محمد جدو        </v>
       </c>
       <c r="G84" t="s">
         <v>70</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I84" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" hidden="1" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
+        <v>فوزي        </v>
       </c>
       <c r="G85" t="s">
         <v>70</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>20</v>
+      <c r="H85" t="s">
+        <v>72</v>
       </c>
       <c r="I85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G86" t="s">
         <v>70</v>
       </c>
       <c r="H86" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I86" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" hidden="1" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G87" t="s">
         <v>70</v>
       </c>
       <c r="H87" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" hidden="1" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>علاء😎        </v>
+        <v>حسام حبيب        </v>
       </c>
       <c r="G88" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H88" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" hidden="1" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>حسين فايد😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G89" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H89" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I89" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" hidden="1" spans="2:2">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G90" t="s">
-        <v>73</v>
-      </c>
-      <c r="H90" t="s">
-        <v>18</v>
-      </c>
-      <c r="I90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="91" hidden="1" spans="2:2">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>علي طه        </v>
-      </c>
-      <c r="G91" t="s">
-        <v>73</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I91" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="92" hidden="1" spans="2:2">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>حسن الطيار        </v>
-      </c>
-      <c r="G92" t="s">
-        <v>73</v>
-      </c>
-      <c r="H92" t="s">
-        <v>49</v>
-      </c>
-      <c r="I92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="93" hidden="1" spans="2:2">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>مكتب موسي😎        </v>
-      </c>
-      <c r="G93" t="s">
-        <v>74</v>
-      </c>
-      <c r="H93" t="s">
-        <v>6</v>
-      </c>
-      <c r="I93" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="94" hidden="1" spans="2:2">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" hidden="1" spans="2:2">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" hidden="1" spans="2:2">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" hidden="1" spans="2:2">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" hidden="1" spans="2:2">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" hidden="1" spans="2:2">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
         <v>        </v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" hidden="1" spans="2:2">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
@@ -3470,142 +3431,164 @@
         <v>        </v>
       </c>
     </row>
-    <row r="378" spans="8:8">
-      <c r="H378" t="s">
+    <row r="356" spans="8:8">
+      <c r="H356" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="357" spans="8:8">
+      <c r="H357" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="8:8">
+      <c r="H358" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="8:8">
+      <c r="H359" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="8:8">
+      <c r="H360" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="8:8">
+      <c r="H361" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="8:8">
+      <c r="H362" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="8:8">
+      <c r="H363" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="364" spans="8:8">
+      <c r="H364" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="365" spans="8:8">
+      <c r="H365" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="366" spans="8:8">
+      <c r="H366" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="367" spans="8:8">
+      <c r="H367" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="368" spans="8:8">
+      <c r="H368" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="369" spans="8:8">
+      <c r="H369" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="370" spans="8:8">
+      <c r="H370" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="371" spans="8:8">
+      <c r="H371" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="372" spans="8:8">
+      <c r="H372" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="373" spans="8:8">
+      <c r="H373" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="379" spans="8:8">
-      <c r="H379" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="380" spans="8:8">
-      <c r="H380" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="381" spans="8:8">
-      <c r="H381" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="382" spans="8:8">
-      <c r="H382" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="383" spans="8:8">
-      <c r="H383" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="384" spans="8:8">
-      <c r="H384" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="385" spans="8:8">
-      <c r="H385" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="386" spans="8:8">
-      <c r="H386" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="387" spans="8:8">
-      <c r="H387" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8">
+    <row r="374" spans="8:8">
+      <c r="H374" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="375" spans="8:8">
+      <c r="H375" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="376" spans="8:8">
+      <c r="H376" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>31</v>
-      </c>
-      <c r="H388" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
       <c r="A389" t="s">
         <v>2</v>
       </c>
-      <c r="H389" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8">
+    </row>
+    <row r="390" spans="1:1">
       <c r="A390" t="s">
         <v>4</v>
       </c>
-      <c r="H390" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8">
+    </row>
+    <row r="391" spans="1:1">
       <c r="A391" t="s">
         <v>6</v>
       </c>
-      <c r="H391" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8">
+    </row>
+    <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>39</v>
-      </c>
-      <c r="H392" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>10</v>
-      </c>
-      <c r="H393" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>12</v>
-      </c>
-      <c r="H394" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
       <c r="A395" t="s">
         <v>14</v>
       </c>
-      <c r="H395" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8">
+    </row>
+    <row r="396" spans="1:1">
       <c r="A396" t="s">
         <v>76</v>
       </c>
-      <c r="H396" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
+    </row>
+    <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>44</v>
-      </c>
-      <c r="H397" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
       <c r="A398" t="s">
         <v>18</v>
-      </c>
-      <c r="H398" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="399" spans="1:1">
@@ -3615,7 +3598,7 @@
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="401" spans="1:1">
@@ -3625,7 +3608,7 @@
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="403" spans="1:1">
@@ -3635,21 +3618,26 @@
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="G1:Q100" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="عبدالرحمن😎"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="78">
-  <si>
-    <t>حضورات يوم 6/6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="46">
+  <si>
+    <t>حضورات يوم 6/8</t>
+  </si>
+  <si>
+    <t>حضور ٤ ص</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>روماني</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -41,13 +50,13 @@
     <t>الزيتون و مصر الجديدة</t>
   </si>
   <si>
-    <t>وائل😎</t>
+    <t>محمد السيد😎</t>
   </si>
   <si>
     <t>العباسية و الضاهر</t>
   </si>
   <si>
-    <t>سيد سلامه😎</t>
+    <t>ايهاب سليمان</t>
   </si>
   <si>
     <t>العبور</t>
@@ -59,205 +68,100 @@
     <t>المهندسين</t>
   </si>
   <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>عبده😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
     <t>شريف عبد المنعم</t>
   </si>
   <si>
+    <t>رجب</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>اكتوبر</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>مكاوي😎</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>ابو الحسن😎</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
     <t>حدائق اكتوبر</t>
   </si>
   <si>
-    <t>علاء😎</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>روماني</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>هاني😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>مصطفي ابو الحسن😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>محمد عادل😎</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق و بدر</t>
-  </si>
-  <si>
-    <t>بلال😎 ✌</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>كريم وحيد😎</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد 😎</t>
-  </si>
-  <si>
-    <t>محمد السيد😎</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
     <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>خالد ابو الفتوح😎</t>
-  </si>
-  <si>
-    <t>عبدالرحمن😎</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>واحات</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>حسن الطيار</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>مكاوي😎</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>مدحت😎</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>حضور ١ م</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>توفيق ملاك</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
-    <t>ايهاب ملاك</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>محمد جدو</t>
-  </si>
-  <si>
-    <t>تجمع</t>
-  </si>
-  <si>
-    <t>فوزي</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>حسام حبيب</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
@@ -1421,18 +1325,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:J406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I62"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.8727272727273" customWidth="1"/>
+    <col min="9" max="9" width="14.8545454545455" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1446,10 +1350,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="2:9">
+    <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>وائل😎        </v>
+        <v>روماني        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1464,107 +1368,107 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="2:9">
+    <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f t="shared" ref="B3:B34" si="0">CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
+        <v>محمد السيد😎        </v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" hidden="1" spans="2:9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" hidden="1" spans="2:10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" hidden="1" spans="2:10">
+    <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" hidden="1" spans="2:10">
+    <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>روماني        </v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" hidden="1" spans="2:10">
+    <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" hidden="1" spans="2:10">
+    <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
+        <v>عبده😎        </v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
@@ -1574,13 +1478,13 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" hidden="1" spans="2:10">
+    <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي ابو الحسن😎        </v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>18</v>
@@ -1590,1278 +1494,822 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" hidden="1" spans="2:10">
+    <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عادل😎        </v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
+        <v>رجب        </v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
         <v>20</v>
       </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" hidden="1" spans="2:10">
+    <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" hidden="1" spans="2:10">
+    <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎 ✌        </v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
         <v>24</v>
       </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" hidden="1" spans="2:10">
+    <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>عبده😎        </v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
+        <v>محمد السيد😎        </v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" hidden="1" spans="2:10">
+    <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>كريم وحيد😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" hidden="1" spans="2:10">
+    <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" hidden="1" spans="2:10">
+    <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" hidden="1" spans="2:10">
+    <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" hidden="1" spans="2:10">
+    <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد 😎        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" hidden="1" spans="2:10">
+    <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>محمد السيد😎        </v>
+        <v>مكاوي😎        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" hidden="1" spans="2:10">
+    <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>معتز        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" hidden="1" spans="2:10">
+    <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>كريم وحيد😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" hidden="1" spans="2:10">
+    <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" hidden="1" spans="2:10">
+    <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" hidden="1" spans="2:10">
+    <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>محمد السيد😎        </v>
+        <v>ابو الحسن😎        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" hidden="1" spans="2:10">
+    <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" hidden="1" spans="2:10">
+    <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" hidden="1" spans="2:10">
+    <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عادل😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" hidden="1" spans="2:10">
+    <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" hidden="1" spans="2:10">
+    <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" hidden="1" spans="2:10">
+    <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎 ✌        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>عبدالرحمن😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" hidden="1" spans="2:10">
+    <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" t="s">
-        <v>11</v>
-      </c>
+        <v>        </v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" hidden="1" spans="2:10">
+    <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
+        <v>        </v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" hidden="1" spans="2:10">
+    <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" ref="B35:B66" si="1">CONCATENATE(I35," ",J35," ",K35," ",L35," ",M35," ",N35," ",O35," ",P35," ",Q35)</f>
-        <v>علي طه        </v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" t="s">
-        <v>23</v>
-      </c>
+        <v>        </v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" hidden="1" spans="2:9">
+    <row r="36" spans="2:8">
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:8">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>روماني        </v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>بلال😎        </v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" spans="2:10">
+        <v>        </v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>زياد ملاكي        </v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" t="s">
-        <v>41</v>
-      </c>
+        <v>        </v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" hidden="1" spans="2:9">
+    <row r="45" spans="2:8">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد 😎        </v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="2:8">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="2:8">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>حسن الطيار        </v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
-      </c>
-      <c r="G48" t="s">
-        <v>54</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="2:8">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>مكاوي😎        </v>
-      </c>
-      <c r="G49" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="2:8">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G50" t="s">
-        <v>54</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="2:8">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G51" t="s">
-        <v>54</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G52" t="s">
-        <v>54</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>خالد ابو الفتوح😎        </v>
-      </c>
-      <c r="G53" t="s">
-        <v>54</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G54" t="s">
-        <v>54</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>عبده😎        </v>
-      </c>
-      <c r="G55" t="s">
-        <v>54</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>حسن الطيار        </v>
-      </c>
-      <c r="G56" t="s">
-        <v>54</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G57" t="s">
-        <v>54</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
-      </c>
-      <c r="G58" t="s">
-        <v>54</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="2:8">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G59" t="s">
-        <v>54</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="2:7">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي ابو الحسن😎        </v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:2">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I61" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>وليد😎        </v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي ابو الحسن😎        </v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:8">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="2:8">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H66" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:8">
       <c r="B67" t="str">
         <f t="shared" ref="B67:B98" si="2">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67)</f>
-        <v>خالد ابو الفتوح😎        </v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:2">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>علي طه        </v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>عبده😎        </v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H70" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G71" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="2:2">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H72" t="s">
-        <v>6</v>
-      </c>
-      <c r="I72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H73" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>علي طه        </v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>توفيق ملاك        </v>
-      </c>
-      <c r="G77" t="s">
-        <v>64</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G78" t="s">
-        <v>66</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G79" t="s">
-        <v>67</v>
-      </c>
-      <c r="H79" t="s">
-        <v>6</v>
-      </c>
-      <c r="I79" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب ملاك        </v>
-      </c>
-      <c r="G80" t="s">
-        <v>67</v>
-      </c>
-      <c r="H80" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي ابو الحسن😎        </v>
-      </c>
-      <c r="G81" t="s">
-        <v>67</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G82" t="s">
-        <v>67</v>
-      </c>
-      <c r="H82" t="s">
-        <v>51</v>
-      </c>
-      <c r="I82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>توفيق ملاك        </v>
-      </c>
-      <c r="G83" t="s">
-        <v>67</v>
-      </c>
-      <c r="H83" t="s">
-        <v>69</v>
-      </c>
-      <c r="I83" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>محمد جدو        </v>
-      </c>
-      <c r="G84" t="s">
-        <v>70</v>
-      </c>
-      <c r="H84" t="s">
-        <v>8</v>
-      </c>
-      <c r="I84" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>فوزي        </v>
-      </c>
-      <c r="G85" t="s">
-        <v>70</v>
-      </c>
-      <c r="H85" t="s">
-        <v>72</v>
-      </c>
-      <c r="I85" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="86" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>حسين فايد😎        </v>
-      </c>
-      <c r="G86" t="s">
-        <v>70</v>
-      </c>
-      <c r="H86" t="s">
-        <v>74</v>
-      </c>
-      <c r="I86" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G87" t="s">
-        <v>70</v>
-      </c>
-      <c r="H87" t="s">
-        <v>18</v>
-      </c>
-      <c r="I87" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>حسام حبيب        </v>
-      </c>
-      <c r="G88" t="s">
-        <v>70</v>
-      </c>
-      <c r="H88" t="s">
-        <v>43</v>
-      </c>
-      <c r="I88" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" hidden="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G89" t="s">
-        <v>70</v>
-      </c>
-      <c r="H89" t="s">
-        <v>60</v>
-      </c>
-      <c r="I89" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" hidden="1" spans="2:2">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="2:2">
+    <row r="91" spans="2:2">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="2:2">
+    <row r="92" spans="2:2">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="2:2">
+    <row r="93" spans="2:2">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="2:2">
+    <row r="94" spans="2:2">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="2:2">
+    <row r="95" spans="2:2">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="2:2">
+    <row r="96" spans="2:2">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="2:2">
+    <row r="97" spans="2:2">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="2:2">
+    <row r="98" spans="2:2">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="2:2">
+    <row r="99" spans="2:2">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
         <v>        </v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="2:2">
+    <row r="100" spans="2:2">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
@@ -3431,213 +2879,208 @@
         <v>        </v>
       </c>
     </row>
+    <row r="346" spans="8:8">
+      <c r="H346" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="347" spans="8:8">
+      <c r="H347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="8:8">
+      <c r="H348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="8:8">
+      <c r="H349" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="8:8">
+      <c r="H350" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351" spans="8:8">
+      <c r="H351" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="352" spans="8:8">
+      <c r="H352" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="353" spans="8:8">
+      <c r="H353" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="354" spans="8:8">
+      <c r="H354" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="8:8">
+      <c r="H355" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="356" spans="8:8">
       <c r="H356" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="357" spans="8:8">
       <c r="H357" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="358" spans="8:8">
       <c r="H358" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="8:8">
       <c r="H359" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="360" spans="8:8">
       <c r="H360" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="8:8">
       <c r="H361" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="362" spans="8:8">
       <c r="H362" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="363" spans="8:8">
       <c r="H363" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="364" spans="8:8">
       <c r="H364" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="365" spans="8:8">
       <c r="H365" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="366" spans="8:8">
       <c r="H366" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="367" spans="8:8">
-      <c r="H367" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="368" spans="8:8">
-      <c r="H368" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="369" spans="8:8">
-      <c r="H369" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="370" spans="8:8">
-      <c r="H370" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="371" spans="8:8">
-      <c r="H371" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="372" spans="8:8">
-      <c r="H372" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="373" spans="8:8">
-      <c r="H373" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="374" spans="8:8">
-      <c r="H374" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="375" spans="8:8">
-      <c r="H375" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="376" spans="8:8">
-      <c r="H376" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="G1:Q100" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="عبدالرحمن😎"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$Q$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$O$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,138 +30,228 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="46">
-  <si>
-    <t>حضورات يوم 6/8</t>
-  </si>
-  <si>
-    <t>حضور ٤ ص</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="76">
+  <si>
+    <t>حضورات يوم 6/11</t>
+  </si>
+  <si>
+    <t>حضور ٨ ص</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>حسن الطيار</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>علاء😎</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>مصطفي ابو الحسن 😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
   </si>
   <si>
     <t>مدينة نصر</t>
   </si>
   <si>
-    <t>روماني</t>
-  </si>
-  <si>
-    <t>حضور ٨ ص</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>محمد السيد😎</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>مصطفي علي😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
   </si>
   <si>
     <t>ايهاب سليمان</t>
   </si>
   <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>كريم علي😎</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>عبده😎</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>الرحاب</t>
+  </si>
+  <si>
+    <t>رجب</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>محمد فوزي ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>هاني😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>سيد سالم</t>
   </si>
   <si>
     <t>احمد جلال</t>
   </si>
   <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>رجب</t>
+    <t>المصري</t>
   </si>
   <si>
     <t>الشروق</t>
   </si>
   <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
   </si>
   <si>
     <t>اكتوبر</t>
   </si>
   <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>مكاوي😎</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>ابو الحسن😎</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>ياسر😎</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>حضور ٤ م</t>
   </si>
   <si>
     <t>حضور ٥ م</t>
   </si>
   <si>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
     <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
@@ -1326,17 +1416,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J406"/>
+  <dimension ref="A1:J405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D206" sqref="D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="14.8545454545455" customWidth="1"/>
+    <col min="9" max="9" width="18.2181818181818" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1353,7 +1443,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>روماني        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1371,139 +1461,139 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f t="shared" ref="B3:B34" si="0">CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>محمد السيد😎        </v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>وائل😎        </v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
         <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>علاء😎        </v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
         <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>عبده😎        </v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
+        <v>مصطفي ابو الحسن 😎        </v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
         <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>4</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>4</v>
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -1515,8 +1605,8 @@
         <f t="shared" si="0"/>
         <v>محسن الضبع        </v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>4</v>
+      <c r="G12" t="s">
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>21</v>
@@ -1529,10 +1619,10 @@
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>حمزه😎        </v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>4</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>23</v>
@@ -1545,256 +1635,256 @@
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>محمد السيد😎        </v>
+        <v>مصطفي علي😎        </v>
       </c>
       <c r="G14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
         <v>26</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>حمزه😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>مكاوي😎        </v>
+        <v>كريم علي😎        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>احمد عبدالله        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>ابو الحسن😎        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>رجب        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J29" s="2"/>
     </row>
@@ -1804,515 +1894,1070 @@
         <v>احمد ناصر😎        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎        </v>
+        <v>محمد فوزي ٣ افراد 🙏        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>        </v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33"/>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>50</v>
+      </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>        </v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34"/>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" t="s">
+        <v>22</v>
+      </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" ref="B35:B66" si="1">CONCATENATE(I35," ",J35," ",K35," ",L35," ",M35," ",N35," ",O35," ",P35," ",Q35)</f>
-        <v>        </v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35"/>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:9">
       <c r="B36" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:8">
+        <v>علي طه        </v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:8">
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="2:8">
+        <v>محمد عبد المجيد😎        </v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="2:8">
+        <v>سيد سالم        </v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="2:8">
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="2:8">
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="2:8">
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>المصري        </v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44"/>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:9">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="2:8">
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="2:8">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="2:8">
+        <v>حسن الطيار        </v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="2:8">
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="2:8">
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="2:8">
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="2:8">
+        <v>مصطفي علي😎        </v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="2:8">
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="2:8">
+        <v>احمد عبدالله        </v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="2:8">
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="2:7">
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="2:8">
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="2:8">
+        <v>زياد ملاكي        </v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="2:8">
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="2:7">
+        <v>رجب        </v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="2:2">
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="62" spans="2:7">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="2:7">
+        <v>احمد حسن😎        </v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="2:8">
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="2:8">
+        <v>وليد😎        </v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="2:8">
+        <v>مصطفي ابو الحسن 😎        </v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="2:8">
+        <v>ياسر😎        </v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" ref="B67:B98" si="2">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67)</f>
-        <v>        </v>
-      </c>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="2:8">
+        <v>عبده😎        </v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="2:2">
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="2:2">
+        <v>سامي😎        </v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H72" t="s">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
+        <v>سيد سالم        </v>
+      </c>
+      <c r="G75" t="s">
+        <v>67</v>
+      </c>
+      <c r="H75" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
+        <v>هاني😎        </v>
+      </c>
+      <c r="G76" t="s">
+        <v>67</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G77" t="s">
+        <v>67</v>
+      </c>
+      <c r="H77" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G78" t="s">
+        <v>67</v>
+      </c>
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G79" t="s">
+        <v>67</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
+        <v>رجب        </v>
+      </c>
+      <c r="G80" t="s">
+        <v>67</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G81" t="s">
+        <v>67</v>
+      </c>
+      <c r="H81" t="s">
+        <v>51</v>
+      </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
+        <v>رجب        </v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
+        <v>مصطفي علي😎        </v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" t="s">
+        <v>69</v>
+      </c>
+      <c r="I84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H85" t="s">
+        <v>58</v>
+      </c>
+      <c r="I85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G89" t="s">
+        <v>70</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G90" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
       <c r="B91" t="str">
-        <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
+        <f>CONCATENATE(I91," ",J91," ",K91," ",L91," ",M91," ",N91," ",O91," ",P91," ",Q91)</f>
+        <v>مصطفي علي😎        </v>
+      </c>
+      <c r="G91" t="s">
+        <v>71</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
       <c r="B92" t="str">
-        <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
+        <f>CONCATENATE(I92," ",J92," ",K92," ",L92," ",M92," ",N92," ",O92," ",P92," ",Q92)</f>
+        <v>مصطفي ابو الحسن 😎        </v>
+      </c>
+      <c r="G92" t="s">
+        <v>71</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
       <c r="B93" t="str">
-        <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
+        <f>CONCATENATE(I93," ",J93," ",K93," ",L93," ",M93," ",N93," ",O93," ",P93," ",Q93)</f>
+        <v>مصطفي علي😎        </v>
+      </c>
+      <c r="G93" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
       <c r="B94" t="str">
-        <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
+        <f>CONCATENATE(I94," ",J94," ",K94," ",L94," ",M94," ",N94," ",O94," ",P94," ",Q94)</f>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G94" t="s">
+        <v>72</v>
+      </c>
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
       <c r="B95" t="str">
-        <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
+        <f>CONCATENATE(I95," ",J95," ",K95," ",L95," ",M95," ",N95," ",O95," ",P95," ",Q95)</f>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G95" t="s">
+        <v>72</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
       <c r="B96" t="str">
-        <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
+        <f>CONCATENATE(I96," ",J96," ",K96," ",L96," ",M96," ",N96," ",O96," ",P96," ",Q96)</f>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" t="s">
+        <v>56</v>
+      </c>
+      <c r="I96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97" t="str">
-        <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
+        <f>CONCATENATE(I97," ",J97," ",K97," ",L97," ",M97," ",N97," ",O97," ",P97," ",Q97)</f>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G97" t="s">
+        <v>72</v>
+      </c>
+      <c r="H97" t="s">
+        <v>51</v>
+      </c>
+      <c r="I97" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" t="str">
-        <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
+        <f t="shared" ref="B98:B129" si="3">CONCATENATE(I98," ",J98," ",K98," ",L98," ",M98," ",N98," ",O98," ",P98," ",Q98)</f>
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G98" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" t="s">
+        <v>69</v>
+      </c>
+      <c r="I98" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
       <c r="B99" t="str">
-        <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
+        <f t="shared" si="3"/>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G100" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="2:2">
@@ -2491,13 +3136,13 @@
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B130:B154" si="4">CONCATENATE(I130," ",J130," ",K130," ",L130," ",M130," ",N130," ",O130," ",P130," ",Q130)</f>
         <v>        </v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B155" si="4">CONCATENATE(I131," ",J131," ",K131," ",L131," ",M131," ",N131," ",O131," ",P131," ",Q131)</f>
+        <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
@@ -2641,13 +3286,13 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B154:B191" si="5">CONCATENATE(I155," ",J155," ",K155," ",L155," ",M155," ",N155," ",O155," ",P155," ",Q155)</f>
         <v>        </v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="str">
-        <f t="shared" ref="B155:B192" si="5">CONCATENATE(I156," ",J156," ",K156," ",L156," ",M156," ",N156," ",O156," ",P156," ",Q156)</f>
+        <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
@@ -2863,7 +3508,7 @@
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(I191," ",J192," ",K192," ",L192," ",M192," ",N192," ",O192," ",P192," ",Q192)</f>
         <v>        </v>
       </c>
     </row>
@@ -2873,214 +3518,208 @@
         <v>        </v>
       </c>
     </row>
-    <row r="194" spans="2:2">
-      <c r="B194" t="str">
-        <f>CONCATENATE(I193," ",J194," ",K194," ",L194," ",M194," ",N194," ",O194," ",P194," ",Q194)</f>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="346" spans="8:8">
-      <c r="H346" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="347" spans="8:8">
-      <c r="H347" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="348" spans="8:8">
-      <c r="H348" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="349" spans="8:8">
-      <c r="H349" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="350" spans="8:8">
-      <c r="H350" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="351" spans="8:8">
-      <c r="H351" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="352" spans="8:8">
-      <c r="H352" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="353" spans="8:8">
-      <c r="H353" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="354" spans="8:8">
-      <c r="H354" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="355" spans="8:8">
-      <c r="H355" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="356" spans="8:8">
-      <c r="H356" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="357" spans="8:8">
-      <c r="H357" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="358" spans="8:8">
-      <c r="H358" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="359" spans="8:8">
-      <c r="H359" t="s">
+    <row r="283" spans="8:8">
+      <c r="H283" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="8:8">
+      <c r="H284" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="8:8">
+      <c r="H285" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="8:8">
+      <c r="H286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="8:8">
+      <c r="H287" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="8:8">
+      <c r="H288" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="289" spans="8:8">
+      <c r="H289" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="290" spans="8:8">
+      <c r="H290" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="360" spans="8:8">
-      <c r="H360" t="s">
+    <row r="291" spans="8:8">
+      <c r="H291" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="8:8">
+      <c r="H292" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="293" spans="8:8">
+      <c r="H293" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="294" spans="8:8">
+      <c r="H294" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="8:8">
+      <c r="H295" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="296" spans="8:8">
+      <c r="H296" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297" spans="8:8">
+      <c r="H297" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298" spans="8:8">
+      <c r="H298" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="299" spans="8:8">
+      <c r="H299" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="300" spans="8:8">
+      <c r="H300" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="301" spans="8:8">
+      <c r="H301" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="302" spans="8:8">
+      <c r="H302" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="303" spans="8:8">
+      <c r="H303" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="361" spans="8:8">
-      <c r="H361" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="362" spans="8:8">
-      <c r="H362" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="363" spans="8:8">
-      <c r="H363" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="364" spans="8:8">
-      <c r="H364" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="365" spans="8:8">
-      <c r="H365" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="366" spans="8:8">
-      <c r="H366" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="G1:Q100" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="G1:O199" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$O$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$O$200</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="76">
-  <si>
-    <t>حضورات يوم 6/11</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="75">
+  <si>
+    <t>حضورات يوم 6/13</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -41,46 +41,58 @@
     <t>اكتوبر و زايد</t>
   </si>
   <si>
+    <t>علاء😎</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
     <t>حسن الطيار</t>
   </si>
   <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>شبرا</t>
   </si>
   <si>
     <t>مدحت😎</t>
   </si>
   <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>علاء😎</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
     <t>فيصل</t>
   </si>
   <si>
-    <t>مصطفي ابو الحسن 😎</t>
+    <t>مصطفي ابو الحسن😎</t>
   </si>
   <si>
     <t>الرحاب و التجمع</t>
@@ -92,156 +104,138 @@
     <t>مدينة نصر</t>
   </si>
   <si>
+    <t>رجب</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>عبده😎</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>الرحاب</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>محمد فوزي ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>هاني😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>ياسر😎</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
+    <t>كريم😎</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
     <t>محمد فوزي</t>
   </si>
   <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>مصطفي علي😎</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>الرحاب</t>
-  </si>
-  <si>
-    <t>رجب</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>محمد فوزي ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>هاني😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>سيد سالم</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>اكتوبر</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>ياسر😎</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
     <t>حضور ٣ م</t>
   </si>
   <si>
     <t>الواحات</t>
   </si>
   <si>
+    <t>مكاوي😎</t>
+  </si>
+  <si>
     <t>حضور ٤ م</t>
   </si>
   <si>
@@ -252,6 +246,9 @@
   </si>
   <si>
     <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>حضور ٨ م</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
@@ -1416,10 +1413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J405"/>
+  <dimension ref="A1:J406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D206" sqref="D206"/>
+      <selection activeCell="G1" sqref="G1:I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1443,7 +1440,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>حسن الطيار        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1460,7 +1457,7 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B34" si="0">CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
+        <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
         <v>وائل😎        </v>
       </c>
       <c r="G3" t="s">
@@ -1475,8 +1472,8 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>مدحت😎        </v>
+        <f>CONCATENATE(I4," ",J4," ",K4," ",L4," ",M4," ",N4," ",O4," ",P4," ",Q4)</f>
+        <v>بلال😎        </v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -1490,7 +1487,7 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
         <v>سيد سلامه😎        </v>
       </c>
       <c r="G5" t="s">
@@ -1506,8 +1503,8 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1522,8 +1519,8 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>حمزه😎        </v>
+        <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1539,7 +1536,7 @@
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1548,30 +1545,30 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي ابو الحسن 😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
@@ -1587,7 +1584,7 @@
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
@@ -1603,7 +1600,7 @@
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
@@ -1619,7 +1616,7 @@
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
@@ -1635,13 +1632,13 @@
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي علي😎        </v>
-      </c>
-      <c r="G14" s="1" t="s">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
@@ -1651,10 +1648,10 @@
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>27</v>
@@ -1667,93 +1664,93 @@
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>كريم علي😎        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I21" t="s">
         <v>35</v>
@@ -1763,29 +1760,29 @@
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
         <v>36</v>
-      </c>
-      <c r="I22" t="s">
-        <v>37</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I23" t="s">
         <v>38</v>
@@ -1795,250 +1792,251 @@
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>عبده😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
         <v>42</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
         <v>43</v>
-      </c>
-      <c r="I28" t="s">
-        <v>44</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي ٣ افراد 🙏        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>هاني😎        </v>
+        <v>محمد فوزي ٣ افراد 🙏        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
-        <f t="shared" ref="B35:B66" si="1">CONCATENATE(I35," ",J35," ",K35," ",L35," ",M35," ",N35," ",O35," ",P35," ",Q35)</f>
-        <v>مدحت😎        </v>
+        <f t="shared" si="0"/>
+        <v>هاني😎        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:10">
       <c r="B36" t="str">
-        <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G37" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سالم        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G39" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I39" t="s">
         <v>53</v>
@@ -2047,22 +2045,22 @@
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G41" s="1" t="s">
         <v>52</v>
@@ -2071,56 +2069,55 @@
         <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G42" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G43" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>المصري        </v>
       </c>
       <c r="G44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="2:9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>حسين فايد😎        </v>
@@ -2128,416 +2125,417 @@
       <c r="G45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>19</v>
+      <c r="H45" t="s">
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G46" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>حسن الطيار        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I48" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I50" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي علي😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H51" t="s">
-        <v>10</v>
+      <c r="H51" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H52" t="s">
-        <v>58</v>
+      <c r="H52" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>ياسر😎        </v>
       </c>
       <c r="G54" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>14</v>
+      <c r="H56" t="s">
+        <v>59</v>
       </c>
       <c r="I56" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>زياد ملاكي        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H57" t="s">
-        <v>39</v>
+      <c r="H57" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>احمد حسن😎        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="H59" t="s">
+        <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>احمد حسن😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
+        <v>كريم😎        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
+      </c>
+      <c r="H63" t="s">
+        <v>56</v>
       </c>
       <c r="I63" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>وليد😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I64" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي ابو الحسن 😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>ياسر😎        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I66" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B98" si="2">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67)</f>
-        <v>عبده😎        </v>
+        <f t="shared" si="1"/>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H67" t="s">
         <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
-        <f t="shared" si="2"/>
-        <v>ايهاب سليمان        </v>
+        <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I68" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I69" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I70" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I71" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H72" t="s">
-        <v>45</v>
+        <v>63</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="I72" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="2:9">
@@ -2546,235 +2544,235 @@
         <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
+      </c>
+      <c r="H73" t="s">
+        <v>8</v>
       </c>
       <c r="I73" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
+        <v>مكاوي😎        </v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
+      </c>
+      <c r="H74" t="s">
+        <v>66</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سالم        </v>
-      </c>
-      <c r="G75" t="s">
-        <v>67</v>
-      </c>
-      <c r="H75" t="s">
-        <v>27</v>
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G76" t="s">
-        <v>67</v>
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G77" t="s">
-        <v>67</v>
-      </c>
-      <c r="H77" t="s">
-        <v>8</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I77" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G78" t="s">
-        <v>67</v>
-      </c>
-      <c r="H78" t="s">
-        <v>15</v>
+        <v>سامي😎        </v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G79" t="s">
-        <v>67</v>
+        <v>رجب        </v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I79" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G80" t="s">
-        <v>67</v>
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G81" t="s">
-        <v>67</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H81" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
+      </c>
+      <c r="H82" t="s">
+        <v>19</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H83" t="s">
-        <v>10</v>
+        <v>محمد سعيد        </v>
+      </c>
+      <c r="G83" t="s">
+        <v>70</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I83" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي علي😎        </v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H84" t="s">
-        <v>69</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G84" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I84" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H85" t="s">
-        <v>58</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G85" t="s">
+        <v>70</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>12</v>
+        <v>سامي😎        </v>
+      </c>
+      <c r="G86" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" t="s">
+        <v>56</v>
       </c>
       <c r="I86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>15</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G87" t="s">
+        <v>70</v>
+      </c>
+      <c r="H87" t="s">
+        <v>51</v>
       </c>
       <c r="I87" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>17</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G88" t="s">
+        <v>71</v>
+      </c>
+      <c r="H88" t="s">
+        <v>66</v>
       </c>
       <c r="I88" t="s">
         <v>35</v>
@@ -2783,28 +2781,28 @@
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G89" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I89" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G90" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I90" t="s">
         <v>38</v>
@@ -2812,152 +2810,71 @@
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
-        <f>CONCATENATE(I91," ",J91," ",K91," ",L91," ",M91," ",N91," ",O91," ",P91," ",Q91)</f>
-        <v>مصطفي علي😎        </v>
+        <f t="shared" si="2"/>
+        <v>عم سعيد        </v>
       </c>
       <c r="G91" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="I91" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
       <c r="B92" t="str">
-        <f>CONCATENATE(I92," ",J92," ",K92," ",L92," ",M92," ",N92," ",O92," ",P92," ",Q92)</f>
-        <v>مصطفي ابو الحسن 😎        </v>
-      </c>
-      <c r="G92" t="s">
-        <v>71</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9">
+        <f t="shared" si="2"/>
+        <v>        </v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
       <c r="B93" t="str">
-        <f>CONCATENATE(I93," ",J93," ",K93," ",L93," ",M93," ",N93," ",O93," ",P93," ",Q93)</f>
-        <v>مصطفي علي😎        </v>
-      </c>
-      <c r="G93" t="s">
-        <v>72</v>
-      </c>
-      <c r="H93" t="s">
-        <v>8</v>
-      </c>
-      <c r="I93" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9">
+        <f t="shared" si="2"/>
+        <v>        </v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
       <c r="B94" t="str">
-        <f>CONCATENATE(I94," ",J94," ",K94," ",L94," ",M94," ",N94," ",O94," ",P94," ",Q94)</f>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G94" t="s">
-        <v>72</v>
-      </c>
-      <c r="H94" t="s">
-        <v>15</v>
-      </c>
-      <c r="I94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9">
+        <f t="shared" si="2"/>
+        <v>        </v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
       <c r="B95" t="str">
-        <f>CONCATENATE(I95," ",J95," ",K95," ",L95," ",M95," ",N95," ",O95," ",P95," ",Q95)</f>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G95" t="s">
-        <v>72</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I95" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9">
+        <f t="shared" si="2"/>
+        <v>        </v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
       <c r="B96" t="str">
-        <f>CONCATENATE(I96," ",J96," ",K96," ",L96," ",M96," ",N96," ",O96," ",P96," ",Q96)</f>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G96" t="s">
-        <v>72</v>
-      </c>
-      <c r="H96" t="s">
-        <v>56</v>
-      </c>
-      <c r="I96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9">
+        <f t="shared" si="2"/>
+        <v>        </v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
       <c r="B97" t="str">
-        <f>CONCATENATE(I97," ",J97," ",K97," ",L97," ",M97," ",N97," ",O97," ",P97," ",Q97)</f>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G97" t="s">
-        <v>72</v>
-      </c>
-      <c r="H97" t="s">
-        <v>51</v>
-      </c>
-      <c r="I97" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
+        <f t="shared" si="2"/>
+        <v>        </v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
       <c r="B98" t="str">
-        <f t="shared" ref="B98:B129" si="3">CONCATENATE(I98," ",J98," ",K98," ",L98," ",M98," ",N98," ",O98," ",P98," ",Q98)</f>
-        <v>حسين فايد😎        </v>
-      </c>
-      <c r="G98" t="s">
-        <v>73</v>
-      </c>
-      <c r="H98" t="s">
-        <v>69</v>
-      </c>
-      <c r="I98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9">
+        <f t="shared" si="2"/>
+        <v>        </v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
       <c r="B99" t="str">
-        <f t="shared" si="3"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G99" t="s">
-        <v>73</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I99" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9">
+        <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
+        <v>        </v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G100" t="s">
-        <v>73</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I100" t="s">
-        <v>7</v>
+        <v>        </v>
       </c>
     </row>
     <row r="101" spans="2:2">
@@ -3136,13 +3053,13 @@
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="str">
-        <f t="shared" ref="B130:B154" si="4">CONCATENATE(I130," ",J130," ",K130," ",L130," ",M130," ",N130," ",O130," ",P130," ",Q130)</f>
+        <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B131:B155" si="4">CONCATENATE(I131," ",J131," ",K131," ",L131," ",M131," ",N131," ",O131," ",P131," ",Q131)</f>
         <v>        </v>
       </c>
     </row>
@@ -3286,13 +3203,13 @@
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="str">
-        <f t="shared" ref="B154:B191" si="5">CONCATENATE(I155," ",J155," ",K155," ",L155," ",M155," ",N155," ",O155," ",P155," ",Q155)</f>
+        <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B155:B192" si="5">CONCATENATE(I156," ",J156," ",K156," ",L156," ",M156," ",N156," ",O156," ",P156," ",Q156)</f>
         <v>        </v>
       </c>
     </row>
@@ -3508,7 +3425,7 @@
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="str">
-        <f>CONCATENATE(I191," ",J192," ",K192," ",L192," ",M192," ",N192," ",O192," ",P192," ",Q192)</f>
+        <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
@@ -3518,189 +3435,190 @@
         <v>        </v>
       </c>
     </row>
-    <row r="283" spans="8:8">
-      <c r="H283" t="s">
+    <row r="194" spans="2:2">
+      <c r="B194" t="str">
+        <f>CONCATENATE(I193," ",J194," ",K194," ",L194," ",M194," ",N194," ",O194," ",P194," ",Q194)</f>
+        <v>        </v>
+      </c>
+    </row>
+    <row r="242" spans="8:8">
+      <c r="H242" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="8:8">
-      <c r="H284" t="s">
+    <row r="243" spans="8:8">
+      <c r="H243" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="8:8">
-      <c r="H285" t="s">
+    <row r="244" spans="8:8">
+      <c r="H244" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="8:8">
-      <c r="H286" t="s">
+    <row r="245" spans="8:8">
+      <c r="H245" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="8:8">
-      <c r="H287" t="s">
+    <row r="246" spans="8:8">
+      <c r="H246" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="8:8">
-      <c r="H288" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="289" spans="8:8">
-      <c r="H289" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="290" spans="8:8">
-      <c r="H290" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="291" spans="8:8">
-      <c r="H291" t="s">
+    <row r="247" spans="8:8">
+      <c r="H247" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="8:8">
-      <c r="H292" t="s">
+    <row r="248" spans="8:8">
+      <c r="H248" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="249" spans="8:8">
+      <c r="H249" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="250" spans="8:8">
+      <c r="H250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="8:8">
+      <c r="H251" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="252" spans="8:8">
+      <c r="H252" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="253" spans="8:8">
+      <c r="H253" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="254" spans="8:8">
+      <c r="H254" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255" spans="8:8">
+      <c r="H255" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="256" spans="8:8">
+      <c r="H256" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="257" spans="8:8">
+      <c r="H257" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="258" spans="8:8">
+      <c r="H258" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="259" spans="8:8">
+      <c r="H259" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="260" spans="8:8">
+      <c r="H260" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="261" spans="8:8">
+      <c r="H261" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="262" spans="8:8">
+      <c r="H262" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="293" spans="8:8">
-      <c r="H293" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="294" spans="8:8">
-      <c r="H294" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="295" spans="8:8">
-      <c r="H295" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="296" spans="8:8">
-      <c r="H296" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="297" spans="8:8">
-      <c r="H297" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="298" spans="8:8">
-      <c r="H298" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="299" spans="8:8">
-      <c r="H299" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="300" spans="8:8">
-      <c r="H300" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="301" spans="8:8">
-      <c r="H301" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="302" spans="8:8">
-      <c r="H302" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="303" spans="8:8">
-      <c r="H303" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="403" spans="1:1">
@@ -3710,16 +3628,21 @@
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>21</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="G1:O199" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="G1:O200" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,228 +30,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="75">
-  <si>
-    <t>حضورات يوم 6/13</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
+  <si>
+    <t>حضورات يوم 6/15</t>
+  </si>
+  <si>
+    <t>حضور ٤ ص</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
   </si>
   <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>حسن الطيار</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>مهندسين</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>هاني😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>مكاوي😎</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>سيد سالم</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
     <t>اكتوبر و زايد</t>
   </si>
   <si>
-    <t>علاء😎</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
+    <t>محمد السيد😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>علي طه</t>
   </si>
   <si>
     <t>العبور</t>
   </si>
   <si>
-    <t>سيد سلامه😎</t>
+    <t>محمد سعيد</t>
   </si>
   <si>
     <t>المهندسين</t>
   </si>
   <si>
-    <t>ايهاب سليمان</t>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
   </si>
   <si>
     <t>حدائق اكتوبر</t>
   </si>
   <si>
-    <t>حسن الطيار</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>😡😡😡😡</t>
   </si>
   <si>
     <t>شبرا</t>
   </si>
   <si>
-    <t>مدحت😎</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>مصطفي ابو الحسن😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>المقطم</t>
   </si>
   <si>
     <t>رجب</t>
   </si>
   <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>ياسر😎</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم ٢</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>دائري مرج و السلام</t>
+  </si>
+  <si>
     <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>الرحاب</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>محمد فوزي ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>هاني😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>ياسر😎</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>كريم😎</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>مكاوي😎</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
-    <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>حضور ٨ م</t>
-  </si>
-  <si>
-    <t>دائري مرج و السلام</t>
   </si>
   <si>
     <t>سلم البارون</t>
@@ -1416,14 +1356,14 @@
   <dimension ref="A1:J406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I91"/>
+      <selection activeCell="G1" sqref="G1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="18.2181818181818" customWidth="1"/>
+    <col min="9" max="9" width="15.5272727272727" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1440,7 +1380,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>علاء😎        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1458,152 +1398,152 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>وائل😎        </v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
+        <v>حسن الطيار        </v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f>CONCATENATE(I4," ",J4," ",K4," ",L4," ",M4," ",N4," ",O4," ",P4," ",Q4)</f>
-        <v>بلال😎        </v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
-        <v>ايهاب سليمان        </v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
+        <v>زياد ملاكي        </v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>حسن الطيار        </v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>حمزه😎        </v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي ابو الحسن😎        </v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>21</v>
@@ -1616,13 +1556,13 @@
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
+        <v>سيد سالم        </v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
@@ -1632,45 +1572,45 @@
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
+        <v>محمد السيد😎        </v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G15" t="s">
-        <v>1</v>
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16" t="s">
         <v>30</v>
@@ -1680,10 +1620,10 @@
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>31</v>
@@ -1696,32 +1636,32 @@
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J19" s="2"/>
     </row>
@@ -1731,26 +1671,26 @@
         <v>ايهاب سليمان        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I21" t="s">
         <v>35</v>
@@ -1760,29 +1700,29 @@
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>سامي😎        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
         <v>38</v>
@@ -1792,311 +1732,311 @@
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي        </v>
+        <v>😡😡😡😡        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
         <v>39</v>
-      </c>
-      <c r="I24" t="s">
-        <v>40</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>😡😡😡😡        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>عبده😎        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي ابو الحسن😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي ٣ افراد 🙏        </v>
+        <v>ياسر😎        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎        </v>
+        <v>سيد سالم        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>هاني😎        </v>
+        <v>😡😡😡😡        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
-        <v>محسن الضبع        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>حسن الطيار        </v>
+        <v>شريف عبد المنعم ٢        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>مكاوي😎        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
@@ -2105,722 +2045,372 @@
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>حسين فايد😎        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="H47" t="s">
+        <v>33</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي ابو الحسن😎        </v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="2:8">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="2:8">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>ياسر😎        </v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" t="s">
-        <v>59</v>
-      </c>
-      <c r="I56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>احمد حسن😎        </v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="2:8">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>عبده😎        </v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H59" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="2:8">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>حمزه😎        </v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I61" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:8">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>كريم😎        </v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H63" t="s">
-        <v>56</v>
-      </c>
-      <c r="I63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="2:8">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I64" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="2:8">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:8">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H67" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>مصطفي ابو الحسن😎        </v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:7">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I70" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:8">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="2:8">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I72" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="2:8">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H73" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="2:2">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H74" t="s">
-        <v>66</v>
-      </c>
-      <c r="I74" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="2:8">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="2:8">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I79" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="2:2">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H81" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سعيد        </v>
-      </c>
-      <c r="G83" t="s">
-        <v>70</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G84" t="s">
-        <v>70</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G85" t="s">
-        <v>70</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
-      </c>
-      <c r="G86" t="s">
-        <v>70</v>
-      </c>
-      <c r="H86" t="s">
-        <v>56</v>
-      </c>
-      <c r="I86" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G87" t="s">
-        <v>70</v>
-      </c>
-      <c r="H87" t="s">
-        <v>51</v>
-      </c>
-      <c r="I87" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G88" t="s">
-        <v>71</v>
-      </c>
-      <c r="H88" t="s">
-        <v>66</v>
-      </c>
-      <c r="I88" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G89" t="s">
-        <v>71</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I89" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G90" t="s">
-        <v>71</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I90" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G91" t="s">
-        <v>72</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I91" t="s">
-        <v>42</v>
+        <v>        </v>
       </c>
     </row>
     <row r="92" spans="2:2">
@@ -3441,134 +3031,134 @@
         <v>        </v>
       </c>
     </row>
+    <row r="230" spans="8:8">
+      <c r="H230" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="8:8">
+      <c r="H231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="8:8">
+      <c r="H232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="8:8">
+      <c r="H233" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234" spans="8:8">
+      <c r="H234" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="235" spans="8:8">
+      <c r="H235" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="236" spans="8:8">
+      <c r="H236" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="237" spans="8:8">
+      <c r="H237" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="8:8">
+      <c r="H238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="8:8">
+      <c r="H239" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="240" spans="8:8">
+      <c r="H240" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="241" spans="8:8">
+      <c r="H241" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="242" spans="8:8">
       <c r="H242" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243" spans="8:8">
       <c r="H243" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="244" spans="8:8">
       <c r="H244" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="8:8">
       <c r="H245" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="246" spans="8:8">
       <c r="H246" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="247" spans="8:8">
       <c r="H247" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="248" spans="8:8">
       <c r="H248" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="249" spans="8:8">
       <c r="H249" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="250" spans="8:8">
       <c r="H250" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="251" spans="8:8">
-      <c r="H251" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="252" spans="8:8">
-      <c r="H252" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="253" spans="8:8">
-      <c r="H253" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="254" spans="8:8">
-      <c r="H254" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="255" spans="8:8">
-      <c r="H255" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="256" spans="8:8">
-      <c r="H256" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="257" spans="8:8">
-      <c r="H257" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="258" spans="8:8">
-      <c r="H258" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="259" spans="8:8">
-      <c r="H259" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="260" spans="8:8">
-      <c r="H260" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="261" spans="8:8">
-      <c r="H261" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="262" spans="8:8">
-      <c r="H262" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="393" spans="1:1">
@@ -3578,67 +3168,67 @@
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,168 +30,240 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="79">
+  <si>
+    <t>حضورات يوم 6/16</t>
+  </si>
   <si>
     <t>حضورات يوم 6/15</t>
   </si>
   <si>
-    <t>حضور ٤ ص</t>
+    <t>حضور ٨ ص</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>علاء😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>😡</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>هاني😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
   </si>
   <si>
     <t>مدينة نصر</t>
   </si>
   <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>محمد سيد</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>مصطفي ابو الحسن😎</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>سيد سالم</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>احمد صادق😎</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
     <t>احمد جلال</t>
   </si>
   <si>
-    <t>حضور ٨ ص</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>حسن الطيار</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>مهندسين</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>هاني😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
+    <t>عبده😎</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>الرحاب</t>
+  </si>
+  <si>
+    <t>رجب</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>خالد ابو الفتوح😎</t>
+  </si>
+  <si>
+    <t>تامر علاء tp</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>المصري</t>
   </si>
   <si>
     <t>الشروق</t>
   </si>
   <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>ياسر😎</t>
+  </si>
+  <si>
     <t>مكاوي😎</t>
   </si>
   <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>سيد سالم</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>محمد السيد😎</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
+    <t>كريم😎</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
   </si>
   <si>
     <t>الواحات</t>
   </si>
   <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>😡😡😡😡</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>رجب</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>ياسر😎</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم ٢</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
+    <t>حضور ٤ م</t>
   </si>
   <si>
     <t>حضور ٥ م</t>
   </si>
   <si>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
     <t>حضور ٧ م</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
   </si>
   <si>
     <t>سلم البارون</t>
@@ -1356,14 +1428,14 @@
   <dimension ref="A1:J406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I14"/>
+      <selection activeCell="G5" sqref="G5:I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="15.5272727272727" customWidth="1"/>
+    <col min="9" max="9" width="16.8727272727273" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1380,28 +1452,28 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>احمد جلال        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>حسن الطيار        </v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>5</v>
@@ -1413,10 +1485,10 @@
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f>CONCATENATE(I4," ",J4," ",K4," ",L4," ",M4," ",N4," ",O4," ",P4," ",Q4)</f>
-        <v>ايهاب سليمان        </v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>وائل😎        </v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
@@ -1428,10 +1500,10 @@
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
+        <v>😡        </v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>9</v>
@@ -1444,10 +1516,10 @@
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
-        <v>زياد ملاكي        </v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
@@ -1460,10 +1532,10 @@
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>13</v>
@@ -1476,10 +1548,10 @@
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
@@ -1492,90 +1564,90 @@
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>4</v>
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
         <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>4</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>مكاوي😎        </v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>4</v>
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سالم        </v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>محمد السيد😎        </v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>26</v>
@@ -1588,10 +1660,10 @@
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>محمد سيد        </v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>28</v>
@@ -1604,29 +1676,29 @@
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>مصطفي ابو الحسن😎        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سعيد        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -1636,160 +1708,160 @@
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
         <v>33</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>احمد عبدالله        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
         <v>34</v>
-      </c>
-      <c r="I19" t="s">
-        <v>35</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>سيد سالم        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>احمد عبدالله        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>😡😡😡😡        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>😡😡😡😡        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J27" s="2"/>
     </row>
@@ -1799,141 +1871,141 @@
         <v>احمد جلال        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>حسن الطيار        </v>
+        <v>😡        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>رجب        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>ياسر😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سالم        </v>
+        <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>😡😡😡😡        </v>
+        <v>تامر علاء tp        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
-        <v>احمد فراج        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="I36" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="J36" s="2"/>
     </row>
@@ -1943,564 +2015,1049 @@
         <v>مصطفي منتصر        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم ٢        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>مكاوي😎        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I45" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>حسن الطيار        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" t="s">
-        <v>33</v>
+        <v>57</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="2:8">
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="2:8">
+        <v>تامر علاء tp        </v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="2:7">
+        <v>علي طه        </v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="2:8">
+        <v>المصري        </v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="2:8">
+        <v>😡        </v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="2:8">
+        <v>مصطفي ابو الحسن😎        </v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="2:7">
+        <v>بلال😎        </v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="2:8">
+        <v>رجب        </v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="2:8">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="2:8">
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="2:8">
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="2:8">
+        <v>سيد سالم        </v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="2:7">
+        <v>خالد ابو الفتوح😎        </v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="2:7">
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="2:8">
+        <v>احمد صادق😎        </v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="2:8">
+        <v>زياد ملاكي        </v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="2:8">
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="2:8">
+        <v>خالد ابو الفتوح😎        </v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="2:8">
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="2:8">
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>        </v>
-      </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="2:7">
+        <v>مصطفي ابو الحسن😎        </v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="2:7">
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H69" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="2:8">
+        <v>سامي😎        </v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="2:8">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="2:8">
+        <v>مصطفي ابو الحسن😎        </v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="2:2">
+        <v>وليد😎        </v>
+      </c>
+      <c r="G73" t="s">
+        <v>65</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
+        <v>هاني😎        </v>
+      </c>
+      <c r="G74" t="s">
+        <v>65</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
+        <v>ياسر😎        </v>
+      </c>
+      <c r="G75" t="s">
+        <v>65</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G76" t="s">
+        <v>65</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="2:8">
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G77" t="s">
+        <v>65</v>
+      </c>
+      <c r="H77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="2:8">
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G78" t="s">
+        <v>65</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="2:2">
+        <v>كريم😎        </v>
+      </c>
+      <c r="G79" t="s">
+        <v>65</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G80" t="s">
+        <v>65</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G81" t="s">
+        <v>70</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
+        <v>وليد😎        </v>
+      </c>
+      <c r="G82" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G83" t="s">
+        <v>70</v>
+      </c>
+      <c r="H83" t="s">
+        <v>37</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
+        <v>وليد😎        </v>
+      </c>
+      <c r="G84" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G85" t="s">
+        <v>70</v>
+      </c>
+      <c r="H85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
+        <v>محمد سعيد        </v>
+      </c>
+      <c r="G86" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
+        <v>رجب        </v>
+      </c>
+      <c r="G87" t="s">
+        <v>70</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
+        <v>علي طه        </v>
+      </c>
+      <c r="G88" t="s">
+        <v>70</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G89" t="s">
+        <v>70</v>
+      </c>
+      <c r="H89" t="s">
+        <v>56</v>
+      </c>
+      <c r="I89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
+        <v>رجب        </v>
+      </c>
+      <c r="G90" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G91" t="s">
+        <v>71</v>
+      </c>
+      <c r="H91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G92" t="s">
+        <v>71</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I92" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G93" t="s">
+        <v>71</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G94" t="s">
+        <v>71</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
+        <v>خالد ابو الفتوح😎        </v>
+      </c>
+      <c r="G95" t="s">
+        <v>73</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G97" t="s">
+        <v>74</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
+        <v>ياسر😎        </v>
+      </c>
+      <c r="G98" t="s">
+        <v>75</v>
+      </c>
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H99" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G100" t="s">
+        <v>75</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
+        <v>خالد ابو الفتوح😎        </v>
+      </c>
+      <c r="G101" t="s">
+        <v>75</v>
+      </c>
+      <c r="H101" t="s">
+        <v>62</v>
+      </c>
+      <c r="I101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G102" t="s">
+        <v>75</v>
+      </c>
+      <c r="H102" t="s">
+        <v>56</v>
+      </c>
+      <c r="I102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
+        <v>علاء😎        </v>
+      </c>
+      <c r="G103" t="s">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s">
+        <v>37</v>
+      </c>
+      <c r="I103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
+        <v>وليد😎        </v>
+      </c>
+      <c r="G104" t="s">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s">
+        <v>72</v>
+      </c>
+      <c r="I104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
+        <v>علي طه        </v>
+      </c>
+      <c r="G105" t="s">
+        <v>76</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G106" t="s">
+        <v>76</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="2:2">
@@ -3031,204 +3588,204 @@
         <v>        </v>
       </c>
     </row>
+    <row r="210" spans="8:8">
+      <c r="H210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="8:8">
+      <c r="H211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="8:8">
+      <c r="H212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="8:8">
+      <c r="H213" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="8:8">
+      <c r="H214" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="8:8">
+      <c r="H215" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="8:8">
+      <c r="H216" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="217" spans="8:8">
+      <c r="H217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="8:8">
+      <c r="H218" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="8:8">
+      <c r="H219" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="220" spans="8:8">
+      <c r="H220" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="221" spans="8:8">
+      <c r="H221" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="8:8">
+      <c r="H222" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="8:8">
+      <c r="H223" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="8:8">
+      <c r="H224" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="225" spans="8:8">
+      <c r="H225" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="226" spans="8:8">
+      <c r="H226" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="227" spans="8:8">
+      <c r="H227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="8:8">
+      <c r="H228" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="8:8">
+      <c r="H229" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="230" spans="8:8">
       <c r="H230" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="231" spans="8:8">
-      <c r="H231" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" spans="8:8">
-      <c r="H232" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="233" spans="8:8">
-      <c r="H233" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="234" spans="8:8">
-      <c r="H234" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="235" spans="8:8">
-      <c r="H235" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="236" spans="8:8">
-      <c r="H236" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="237" spans="8:8">
-      <c r="H237" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" spans="8:8">
-      <c r="H238" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="239" spans="8:8">
-      <c r="H239" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="240" spans="8:8">
-      <c r="H240" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="241" spans="8:8">
-      <c r="H241" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="242" spans="8:8">
-      <c r="H242" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="243" spans="8:8">
-      <c r="H243" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="244" spans="8:8">
-      <c r="H244" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="8:8">
-      <c r="H245" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="246" spans="8:8">
-      <c r="H246" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="247" spans="8:8">
-      <c r="H247" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="248" spans="8:8">
-      <c r="H248" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="249" spans="8:8">
-      <c r="H249" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="250" spans="8:8">
-      <c r="H250" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="79">
-  <si>
-    <t>حضورات يوم 6/16</t>
-  </si>
-  <si>
-    <t>حضورات يوم 6/15</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="76">
+  <si>
+    <t>حضورات يوم 6/17</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -50,181 +47,181 @@
     <t>التحرير</t>
   </si>
   <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
     <t>ايهاب سليمان</t>
   </si>
   <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>عبده😎</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
   </si>
   <si>
     <t>😡</t>
   </si>
   <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>مدحت😎</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>احمد صادق😎</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>مصطفي علي😎</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>الرحاب</t>
+  </si>
+  <si>
+    <t>رجب</t>
+  </si>
+  <si>
+    <t>خالد ابو الفتوح😎</t>
+  </si>
+  <si>
+    <t>تامر علاء tp</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>طه😎</t>
   </si>
   <si>
     <t>هاني😎</t>
   </si>
   <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>محمد سيد</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>مصطفي ابو الحسن😎</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>سيد سالم</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>علي طه</t>
   </si>
   <si>
     <t>حدائق اكتوبر</t>
   </si>
   <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>احمد صادق😎</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>الرحاب</t>
-  </si>
-  <si>
-    <t>رجب</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>خالد ابو الفتوح😎</t>
-  </si>
-  <si>
-    <t>تامر علاء tp</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
   </si>
   <si>
     <t>محمد سعيد</t>
   </si>
   <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
+    <t>كريم😎</t>
   </si>
   <si>
     <t>حضور ١٢ م</t>
@@ -236,10 +233,7 @@
     <t>ياسر😎</t>
   </si>
   <si>
-    <t>مكاوي😎</t>
-  </si>
-  <si>
-    <t>كريم😎</t>
+    <t>احمد حسن😎</t>
   </si>
   <si>
     <t>حضور ٢ م</t>
@@ -252,9 +246,6 @@
   </si>
   <si>
     <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
   </si>
   <si>
     <t>حضور ٦ م</t>
@@ -1425,17 +1416,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J406"/>
+  <dimension ref="A1:J572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:I81"/>
+      <selection activeCell="G1" sqref="G1:I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.8727272727273" customWidth="1"/>
+    <col min="9" max="9" width="16.1727272727273" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1455,31 +1446,31 @@
         <v>علاء😎        </v>
       </c>
       <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" t="s">
         <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>ايهاب سليمان        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
         <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1488,28 +1479,28 @@
         <v>وائل😎        </v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
-        <v>😡        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -1519,13 +1510,13 @@
         <v>مدحت😎        </v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
         <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -1535,29 +1526,29 @@
         <v>سيد سلامه😎        </v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>هاني😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
         <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -1567,13 +1558,13 @@
         <v>مدحت😎        </v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -1583,13 +1574,13 @@
         <v>حسين فايد😎        </v>
       </c>
       <c r="G10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -1599,13 +1590,13 @@
         <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
         <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -1615,29 +1606,29 @@
         <v>محمد فوزي        </v>
       </c>
       <c r="G12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
         <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
         <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -1647,45 +1638,45 @@
         <v>محسن الضبع        </v>
       </c>
       <c r="G14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
         <v>26</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سيد        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
         <v>28</v>
-      </c>
-      <c r="I15" t="s">
-        <v>29</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي ابو الحسن😎        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
         <v>30</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>31</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -1695,13 +1686,13 @@
         <v>عم سعيد        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" s="2"/>
     </row>
@@ -1711,13 +1702,13 @@
         <v>بلال😎        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -1727,93 +1718,93 @@
         <v>هشام امين        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سالم        </v>
+        <v>😡        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>سامي😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>احمد صادق😎        </v>
+        <v>مصطفي علي😎        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J24" s="2"/>
     </row>
@@ -1823,13 +1814,13 @@
         <v>زياد ملاكي        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J25" s="2"/>
     </row>
@@ -1839,13 +1830,13 @@
         <v>مصطفي منتصر        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J26" s="2"/>
     </row>
@@ -1855,10 +1846,10 @@
         <v>محمد سامح😎        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
         <v>36</v>
@@ -1868,48 +1859,48 @@
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>عبده😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>😡        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -1919,13 +1910,13 @@
         <v>علاء😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31" s="2"/>
     </row>
@@ -1935,29 +1926,29 @@
         <v>رجب        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="J33" s="2"/>
     </row>
@@ -1967,13 +1958,13 @@
         <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J34" s="2"/>
     </row>
@@ -1983,13 +1974,13 @@
         <v>تامر علاء tp        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J35" s="2"/>
     </row>
@@ -1999,29 +1990,29 @@
         <v>طه😎        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -2030,13 +2021,13 @@
         <v>محسن الضبع        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -2044,44 +2035,44 @@
         <f t="shared" si="1"/>
         <v>مدحت😎        </v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>57</v>
+      <c r="G39" t="s">
+        <v>55</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>57</v>
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>57</v>
+        <v>علي طه        </v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -2089,29 +2080,29 @@
         <f t="shared" si="1"/>
         <v>ايهاب سليمان        </v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>57</v>
+      <c r="G42" t="s">
+        <v>55</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" t="s">
         <v>9</v>
-      </c>
-      <c r="I42" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" t="s">
-        <v>11</v>
+        <v>محمد عبد المجيد😎        </v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -2119,60 +2110,60 @@
         <f t="shared" si="1"/>
         <v>محمد فوزي        </v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>57</v>
+      <c r="G44" t="s">
+        <v>55</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G45" s="1" t="s">
+        <v>احمد عبدالله        </v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="I45" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>57</v>
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I46" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>57</v>
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G47" t="s">
+        <v>55</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -2180,44 +2171,44 @@
         <f t="shared" si="1"/>
         <v>مصطفي منتصر        </v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>57</v>
+      <c r="G48" t="s">
+        <v>55</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>تامر علاء tp        </v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>57</v>
+        <v>محمد عبد المجيد😎        </v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>57</v>
+        <v>مصطفي علي😎        </v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -2225,14 +2216,14 @@
         <f t="shared" si="1"/>
         <v>المصري        </v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" t="s">
-        <v>18</v>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -2240,44 +2231,44 @@
         <f t="shared" si="1"/>
         <v>😡        </v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>18</v>
+      <c r="G52" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي ابو الحسن😎        </v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>57</v>
+        <v>بلال😎        </v>
+      </c>
+      <c r="G53" t="s">
+        <v>55</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>بلال😎        </v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>57</v>
+        <v>خالد ابو الفتوح😎        </v>
+      </c>
+      <c r="G54" t="s">
+        <v>55</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -2285,14 +2276,14 @@
         <f t="shared" si="1"/>
         <v>رجب        </v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>57</v>
+      <c r="G55" t="s">
+        <v>55</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -2300,14 +2291,14 @@
         <f t="shared" si="1"/>
         <v>محسن الضبع        </v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>57</v>
+      <c r="G56" t="s">
+        <v>55</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -2315,74 +2306,74 @@
         <f t="shared" si="1"/>
         <v>احمد فراج        </v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H57" t="s">
-        <v>28</v>
+      <c r="G57" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
+        <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I58" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سالم        </v>
+        <v>رجب        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I59" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I61" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -2391,28 +2382,28 @@
         <v>احمد صادق😎        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>زياد ملاكي        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -2421,145 +2412,145 @@
         <v>مصطفي منتصر        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>مصطفي ابو الحسن😎        </v>
+        <v>كريم😎        </v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s">
         <v>63</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
+        <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H69" t="s">
-        <v>22</v>
+        <v>61</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I69" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
+      </c>
+      <c r="H70" t="s">
+        <v>25</v>
       </c>
       <c r="I70" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I71" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي ابو الحسن😎        </v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>63</v>
+        <v>وليد😎        </v>
+      </c>
+      <c r="G72" t="s">
+        <v>64</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I72" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
+        <v>ياسر😎        </v>
       </c>
       <c r="G73" t="s">
-        <v>65</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="H73" t="s">
+        <v>37</v>
       </c>
       <c r="I73" t="s">
         <v>66</v>
@@ -2568,196 +2559,196 @@
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
         <v>15</v>
-      </c>
-      <c r="I74" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>ياسر😎        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I75" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G76" t="s">
-        <v>65</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
       </c>
       <c r="I76" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G77" t="s">
-        <v>65</v>
-      </c>
-      <c r="H77" t="s">
-        <v>22</v>
+        <v>64</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I77" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>كريم😎        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I79" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
+        <v>احمد حسن😎        </v>
       </c>
       <c r="G80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H80" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I80" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G81" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I81" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G82" t="s">
-        <v>70</v>
-      </c>
-      <c r="H82" t="s">
-        <v>11</v>
+        <v>68</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I82" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G83" t="s">
-        <v>70</v>
-      </c>
-      <c r="H83" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I83" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G84" t="s">
-        <v>70</v>
-      </c>
-      <c r="H84" t="s">
-        <v>17</v>
+        <v>68</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I84" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G85" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سعيد        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G86" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I86" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="2:9">
@@ -2766,100 +2757,100 @@
         <v>رجب        </v>
       </c>
       <c r="G87" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>علي طه        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G88" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I88" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G89" t="s">
-        <v>70</v>
-      </c>
-      <c r="H89" t="s">
+        <v>68</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I89" t="s">
         <v>56</v>
-      </c>
-      <c r="I89" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G90" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H90" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="I90" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
+        <v>رجب        </v>
       </c>
       <c r="G91" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H91" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="I91" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G92" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I92" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G93" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I93" t="s">
         <v>44</v>
@@ -2868,208 +2859,226 @@
     <row r="94" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G94" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G95" t="s">
-        <v>73</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
+      </c>
+      <c r="H95" t="s">
+        <v>17</v>
       </c>
       <c r="I95" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G96" t="s">
-        <v>73</v>
-      </c>
-      <c r="H96" t="s">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I96" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G97" t="s">
-        <v>74</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="H97" t="s">
+        <v>10</v>
       </c>
       <c r="I97" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>ياسر😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G98" t="s">
-        <v>75</v>
-      </c>
-      <c r="H98" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I98" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>سيد سلامه😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G99" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H99" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I99" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G100" t="s">
-        <v>75</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
+      </c>
+      <c r="H100" t="s">
+        <v>10</v>
       </c>
       <c r="I100" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G101" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H101" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I101" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>محسن الضبع        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G102" t="s">
-        <v>75</v>
-      </c>
-      <c r="H102" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I102" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>علاء😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H103" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I103" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>وليد😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G104" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H104" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="I104" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>علي طه        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G105" t="s">
-        <v>76</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="H105" t="s">
+        <v>37</v>
       </c>
       <c r="I105" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>شريف عبد المنعم        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G106" t="s">
-        <v>76</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
+      </c>
+      <c r="H106" t="s">
+        <v>70</v>
       </c>
       <c r="I106" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
+        <v>علي طه        </v>
+      </c>
+      <c r="G107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
       <c r="B108" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G108" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I108" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="2:2">
@@ -3588,129 +3597,24 @@
         <v>        </v>
       </c>
     </row>
-    <row r="210" spans="8:8">
-      <c r="H210" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="8:8">
-      <c r="H211" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="212" spans="8:8">
-      <c r="H212" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="213" spans="8:8">
-      <c r="H213" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="214" spans="8:8">
-      <c r="H214" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="215" spans="8:8">
-      <c r="H215" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="216" spans="8:8">
-      <c r="H216" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="217" spans="8:8">
-      <c r="H217" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="218" spans="8:8">
-      <c r="H218" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="219" spans="8:8">
-      <c r="H219" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="220" spans="8:8">
-      <c r="H220" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="221" spans="8:8">
-      <c r="H221" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="222" spans="8:8">
-      <c r="H222" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="223" spans="8:8">
-      <c r="H223" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="224" spans="8:8">
-      <c r="H224" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="225" spans="8:8">
-      <c r="H225" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="226" spans="8:8">
-      <c r="H226" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="227" spans="8:8">
-      <c r="H227" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" spans="8:8">
-      <c r="H228" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="229" spans="8:8">
-      <c r="H229" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="230" spans="8:8">
-      <c r="H230" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392" spans="1:1">
@@ -3720,72 +3624,177 @@
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="552" spans="8:8">
+      <c r="H552" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="8:8">
+      <c r="H553" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="554" spans="8:8">
+      <c r="H554" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="555" spans="8:8">
+      <c r="H555" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="556" spans="8:8">
+      <c r="H556" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="557" spans="8:8">
+      <c r="H557" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="558" spans="8:8">
+      <c r="H558" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="559" spans="8:8">
+      <c r="H559" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="560" spans="8:8">
+      <c r="H560" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="561" spans="8:8">
+      <c r="H561" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="562" spans="8:8">
+      <c r="H562" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="563" spans="8:8">
+      <c r="H563" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="564" spans="8:8">
+      <c r="H564" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="565" spans="8:8">
+      <c r="H565" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="566" spans="8:8">
+      <c r="H566" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="567" spans="8:8">
+      <c r="H567" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="568" spans="8:8">
+      <c r="H568" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="569" spans="8:8">
+      <c r="H569" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="570" spans="8:8">
+      <c r="H570" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="571" spans="8:8">
+      <c r="H571" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="572" spans="8:8">
+      <c r="H572" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="76">
-  <si>
-    <t>حضورات يوم 6/17</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="80">
+  <si>
+    <t>حضورات يوم 6/19</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -47,208 +47,220 @@
     <t>التحرير</t>
   </si>
   <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>حسن الطيار</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
     <t>شريف عبد المنعم</t>
   </si>
   <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
   </si>
   <si>
     <t>ايهاب سليمان</t>
   </si>
   <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>مدحت😎</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>المقطم</t>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>عبده😎</t>
   </si>
   <si>
     <t>محمد فوزي</t>
   </si>
   <si>
-    <t>مدينة نصر</t>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>كريم علي😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>احمد صادق😎</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>الرحاب</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>خالد ابو الفتوح😎</t>
+  </si>
+  <si>
+    <t>تامر علاء tp</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>هاني😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
   </si>
   <si>
     <t>مصطفي بسكوته</t>
   </si>
   <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>😡</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>احمد صادق😎</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>احمد فراج ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
   </si>
   <si>
     <t>مصطفي علي😎</t>
   </si>
   <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>الرحاب</t>
-  </si>
-  <si>
-    <t>رجب</t>
-  </si>
-  <si>
-    <t>خالد ابو الفتوح😎</t>
-  </si>
-  <si>
-    <t>تامر علاء tp</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>هاني😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>كريم😎</t>
+    <t>وليد😎</t>
   </si>
   <si>
     <t>حضور ١٢ م</t>
   </si>
   <si>
-    <t>وليد😎</t>
+    <t>سامي😎</t>
   </si>
   <si>
     <t>ياسر😎</t>
   </si>
   <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>مكاوي😎</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>حضور ٤ م</t>
+  </si>
+  <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
     <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
   </si>
   <si>
     <t>حضور ٧ م</t>
@@ -1416,17 +1428,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J572"/>
+  <dimension ref="A1:J532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I108"/>
+      <selection activeCell="G1" sqref="G1:I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.1727272727273" customWidth="1"/>
+    <col min="9" max="9" width="16.9909090909091" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1461,7 +1473,7 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>شريف عبد المنعم        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1491,7 +1503,7 @@
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
-        <v>ايهاب سليمان        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1523,7 +1535,7 @@
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>سيد سلامه😎        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1539,7 +1551,7 @@
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1555,7 +1567,7 @@
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>مدحت😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -1564,30 +1576,30 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
@@ -1603,7 +1615,7 @@
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
@@ -1612,84 +1624,84 @@
         <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي بسكوته        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
         <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
         <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>حمزه😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G15" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
         <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>عبده😎        </v>
-      </c>
-      <c r="G16" s="1" t="s">
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
         <v>29</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
         <v>31</v>
@@ -1699,13 +1711,13 @@
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -1715,10 +1727,10 @@
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>6</v>
@@ -1731,10 +1743,10 @@
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>😡        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>6</v>
@@ -1747,13 +1759,13 @@
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I21" t="s">
         <v>35</v>
@@ -1763,13 +1775,13 @@
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I22" t="s">
         <v>36</v>
@@ -1779,109 +1791,109 @@
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>احمد صادق😎        </v>
+        <v>كريم علي😎        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
         <v>37</v>
-      </c>
-      <c r="I23" t="s">
-        <v>38</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي علي😎        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
         <v>39</v>
-      </c>
-      <c r="I24" t="s">
-        <v>40</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>كريم علي😎        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
         <v>44</v>
@@ -1891,13 +1903,13 @@
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
         <v>45</v>
@@ -1910,7 +1922,7 @@
         <v>علاء😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>46</v>
@@ -1923,10 +1935,10 @@
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>رجب        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>47</v>
@@ -1939,16 +1951,16 @@
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="J33" s="2"/>
     </row>
@@ -1958,13 +1970,13 @@
         <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J34" s="2"/>
     </row>
@@ -1974,13 +1986,13 @@
         <v>تامر علاء tp        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J35" s="2"/>
     </row>
@@ -1990,13 +2002,13 @@
         <v>طه😎        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J36" s="2"/>
     </row>
@@ -2006,13 +2018,13 @@
         <v>هاني😎        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -2021,13 +2033,13 @@
         <v>محسن الضبع        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -2035,8 +2047,8 @@
         <f t="shared" si="1"/>
         <v>مدحت😎        </v>
       </c>
-      <c r="G39" t="s">
-        <v>55</v>
+      <c r="G39" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>2</v>
@@ -2050,14 +2062,14 @@
         <f t="shared" si="1"/>
         <v>عم سعيد        </v>
       </c>
-      <c r="G40" t="s">
-        <v>55</v>
+      <c r="G40" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -2065,59 +2077,59 @@
         <f t="shared" si="1"/>
         <v>علي طه        </v>
       </c>
-      <c r="G41" t="s">
-        <v>55</v>
+      <c r="G41" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
-      </c>
-      <c r="G42" t="s">
-        <v>55</v>
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I42" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G43" t="s">
-        <v>55</v>
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>37</v>
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" t="s">
+        <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:10">
@@ -2125,8 +2137,8 @@
         <f t="shared" si="1"/>
         <v>احمد عبدالله        </v>
       </c>
-      <c r="G45" t="s">
-        <v>55</v>
+      <c r="G45" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>57</v>
@@ -2139,31 +2151,31 @@
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G46" t="s">
-        <v>55</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي        </v>
-      </c>
-      <c r="G47" t="s">
-        <v>55</v>
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -2171,11 +2183,11 @@
         <f t="shared" si="1"/>
         <v>مصطفي منتصر        </v>
       </c>
-      <c r="G48" t="s">
-        <v>55</v>
+      <c r="G48" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I48" t="s">
         <v>42</v>
@@ -2184,196 +2196,196 @@
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G49" t="s">
-        <v>55</v>
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي علي😎        </v>
-      </c>
-      <c r="G50" t="s">
-        <v>55</v>
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
-      </c>
-      <c r="G51" t="s">
-        <v>55</v>
+        <v>حسن الطيار        </v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I51" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>😡        </v>
-      </c>
-      <c r="G52" t="s">
-        <v>55</v>
-      </c>
-      <c r="H52" t="s">
-        <v>17</v>
+        <v>المصري        </v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I52" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>بلال😎        </v>
-      </c>
-      <c r="G53" t="s">
-        <v>55</v>
+        <v>احمد فراج ٣ افراد 🙏        </v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I53" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>خالد ابو الفتوح😎        </v>
-      </c>
-      <c r="G54" t="s">
-        <v>55</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G55" t="s">
-        <v>55</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G56" t="s">
-        <v>55</v>
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I56" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G57" t="s">
-        <v>55</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" t="s">
         <v>27</v>
-      </c>
-      <c r="I57" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>61</v>
+        <v>احمد عبدالله        </v>
+      </c>
+      <c r="G59" t="s">
+        <v>63</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>61</v>
+        <v>خالد ابو الفتوح😎        </v>
+      </c>
+      <c r="G60" t="s">
+        <v>63</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>61</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G61" t="s">
+        <v>63</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I61" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -2381,326 +2393,326 @@
         <f t="shared" si="1"/>
         <v>احمد صادق😎        </v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>61</v>
+      <c r="G62" t="s">
+        <v>63</v>
       </c>
       <c r="H62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
         <v>39</v>
-      </c>
-      <c r="I62" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>61</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G63" t="s">
+        <v>63</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I63" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>61</v>
+        <v>احمد عبدالله        </v>
+      </c>
+      <c r="G64" t="s">
+        <v>63</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>61</v>
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G65" t="s">
+        <v>63</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>زياد ملاكي        </v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>61</v>
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G66" t="s">
+        <v>63</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>61</v>
+        <v>احمد صادق😎        </v>
+      </c>
+      <c r="G67" t="s">
+        <v>63</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>كريم😎        </v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H68" t="s">
-        <v>21</v>
+        <v>محمد سعيد        </v>
+      </c>
+      <c r="G68" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I68" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>خالد ابو الفتوح😎        </v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>61</v>
+        <v>محمد عبد المجيد😎        </v>
+      </c>
+      <c r="G69" t="s">
+        <v>63</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H70" t="s">
-        <v>25</v>
+        <v>مصطفي علي😎        </v>
+      </c>
+      <c r="G70" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I70" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>27</v>
+        <v>وليد😎        </v>
+      </c>
+      <c r="G71" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" t="s">
+        <v>22</v>
       </c>
       <c r="I71" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I72" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>ياسر😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G73" t="s">
-        <v>64</v>
-      </c>
-      <c r="H73" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="I73" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I74" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>عبده😎        </v>
-      </c>
-      <c r="G75" t="s">
-        <v>64</v>
-      </c>
-      <c r="H75" t="s">
-        <v>16</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="I75" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
-      </c>
-      <c r="G76" t="s">
-        <v>64</v>
-      </c>
-      <c r="H76" t="s">
-        <v>17</v>
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G77" t="s">
-        <v>64</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I77" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G78" t="s">
-        <v>64</v>
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I78" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G79" t="s">
-        <v>64</v>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I79" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>احمد حسن😎        </v>
-      </c>
-      <c r="G80" t="s">
-        <v>64</v>
+        <v>محمد عبد المجيد😎        </v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H80" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I80" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>عم مجدي        </v>
-      </c>
-      <c r="G81" t="s">
-        <v>68</v>
+        <v>سامي😎        </v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I81" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G82" t="s">
+        <v>ياسر😎        </v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I82" t="s">
         <v>68</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G83" t="s">
-        <v>68</v>
+        <v>عبده😎        </v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I83" t="s">
         <v>31</v>
@@ -2709,136 +2721,136 @@
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G84" t="s">
-        <v>68</v>
+        <v>احمد صادق😎        </v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I84" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G85" t="s">
-        <v>68</v>
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H85" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G86" t="s">
-        <v>68</v>
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I86" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G87" t="s">
-        <v>68</v>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G88" t="s">
-        <v>68</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>23</v>
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H88" t="s">
+        <v>18</v>
       </c>
       <c r="I88" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>علي طه        </v>
-      </c>
-      <c r="G89" t="s">
-        <v>68</v>
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I89" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G90" t="s">
-        <v>68</v>
-      </c>
-      <c r="H90" t="s">
-        <v>54</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I90" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>رجب        </v>
-      </c>
-      <c r="G91" t="s">
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H91" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G92" t="s">
-        <v>69</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="H92" t="s">
+        <v>10</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="2:9">
@@ -2847,118 +2859,118 @@
         <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G93" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G94" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="I94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G95" t="s">
-        <v>69</v>
-      </c>
-      <c r="H95" t="s">
-        <v>17</v>
+        <v>71</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I95" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G96" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I96" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G97" t="s">
-        <v>71</v>
-      </c>
-      <c r="H97" t="s">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G98" t="s">
-        <v>71</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="H98" t="s">
+        <v>22</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>محمد عبد المجيد😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G99" t="s">
-        <v>71</v>
-      </c>
-      <c r="H99" t="s">
-        <v>21</v>
+        <v>73</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>حمزه😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G100" t="s">
-        <v>72</v>
-      </c>
-      <c r="H100" t="s">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I100" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="2:9">
@@ -2967,130 +2979,148 @@
         <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G101" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>احمد فراج        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G102" t="s">
-        <v>72</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
+      </c>
+      <c r="H102" t="s">
+        <v>10</v>
       </c>
       <c r="I102" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>محسن الضبع        </v>
+        <v>احمد حسن😎        </v>
       </c>
       <c r="G103" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H103" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I103" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>مصطفي بسكوته        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G104" t="s">
-        <v>72</v>
-      </c>
-      <c r="H104" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I104" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>علاء😎        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G105" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H105" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I105" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>حسين فايد😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G106" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H106" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I106" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>علي طه        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
+      </c>
+      <c r="H107" t="s">
+        <v>38</v>
       </c>
       <c r="I107" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" t="str">
         <f t="shared" si="3"/>
-        <v>شريف عبد المنعم        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G108" t="s">
-        <v>73</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
+      </c>
+      <c r="H108" t="s">
+        <v>72</v>
       </c>
       <c r="I108" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
       <c r="B109" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
+        <v>علي طه        </v>
+      </c>
+      <c r="G109" t="s">
+        <v>77</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
       <c r="B110" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G110" t="s">
+        <v>77</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="2:2">
@@ -3619,27 +3649,27 @@
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="397" spans="1:1">
@@ -3649,32 +3679,32 @@
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="404" spans="1:1">
@@ -3684,117 +3714,117 @@
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="552" spans="8:8">
-      <c r="H552" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="512" spans="8:8">
+      <c r="H512" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="8:8">
-      <c r="H553" t="s">
+    <row r="513" spans="8:8">
+      <c r="H513" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="554" spans="8:8">
-      <c r="H554" t="s">
+    <row r="514" spans="8:8">
+      <c r="H514" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="555" spans="8:8">
-      <c r="H555" t="s">
+    <row r="515" spans="8:8">
+      <c r="H515" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="556" spans="8:8">
-      <c r="H556" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="557" spans="8:8">
-      <c r="H557" t="s">
+    <row r="516" spans="8:8">
+      <c r="H516" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="517" spans="8:8">
+      <c r="H517" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="558" spans="8:8">
-      <c r="H558" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="559" spans="8:8">
-      <c r="H559" t="s">
+    <row r="518" spans="8:8">
+      <c r="H518" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="560" spans="8:8">
-      <c r="H560" t="s">
+    <row r="519" spans="8:8">
+      <c r="H519" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="8:8">
-      <c r="H561" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="562" spans="8:8">
-      <c r="H562" t="s">
+    <row r="520" spans="8:8">
+      <c r="H520" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="521" spans="8:8">
+      <c r="H521" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="522" spans="8:8">
+      <c r="H522" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="563" spans="8:8">
-      <c r="H563" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="564" spans="8:8">
-      <c r="H564" t="s">
+    <row r="523" spans="8:8">
+      <c r="H523" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="565" spans="8:8">
-      <c r="H565" t="s">
+    <row r="524" spans="8:8">
+      <c r="H524" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="566" spans="8:8">
-      <c r="H566" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="567" spans="8:8">
-      <c r="H567" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="568" spans="8:8">
-      <c r="H568" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="569" spans="8:8">
-      <c r="H569" t="s">
+    <row r="525" spans="8:8">
+      <c r="H525" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="526" spans="8:8">
+      <c r="H526" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="527" spans="8:8">
+      <c r="H527" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="528" spans="8:8">
+      <c r="H528" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="529" spans="8:8">
+      <c r="H529" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="570" spans="8:8">
-      <c r="H570" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="571" spans="8:8">
-      <c r="H571" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="572" spans="8:8">
-      <c r="H572" t="s">
-        <v>75</v>
+    <row r="530" spans="8:8">
+      <c r="H530" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="531" spans="8:8">
+      <c r="H531" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="532" spans="8:8">
+      <c r="H532" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="80">
-  <si>
-    <t>حضورات يوم 6/19</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="77">
+  <si>
+    <t>حضورات يوم 6/20</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -41,226 +41,217 @@
     <t>اكتوبر و زايد</t>
   </si>
   <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
     <t>علاء😎</t>
   </si>
   <si>
-    <t>التحرير</t>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>عبده😎</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>محمد سعيد ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>احمد صادق😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
   </si>
   <si>
     <t>احمد فراج</t>
   </si>
   <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>مدحت😎</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>حسن الطيار</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>الرحاب</t>
+  </si>
+  <si>
+    <t>خالد ابو الفتوح😎</t>
+  </si>
+  <si>
+    <t>تامر علاء tp</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>هاني😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>ياسر😎</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>مكاوي😎</t>
+  </si>
+  <si>
+    <t>حضور ٤ م</t>
+  </si>
+  <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
   </si>
   <si>
     <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>احمد صادق😎</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>الرحاب</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>خالد ابو الفتوح😎</t>
-  </si>
-  <si>
-    <t>تامر علاء tp</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>هاني😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>احمد فراج ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>مصطفي علي😎</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>ياسر😎</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>مكاوي😎</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
   </si>
   <si>
     <t>حضور ٧ م</t>
@@ -1428,17 +1419,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J532"/>
+  <dimension ref="A1:J512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I110"/>
+      <selection activeCell="G1" sqref="G1:I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.9909090909091" customWidth="1"/>
+    <col min="9" max="9" width="18.0909090909091" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1455,7 +1446,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>علاء😎        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1473,7 +1464,7 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>احمد فراج        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1535,7 +1526,7 @@
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>حسن الطيار        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1551,7 +1542,7 @@
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1615,7 +1606,7 @@
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
@@ -1624,39 +1615,39 @@
         <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -1669,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -1685,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -1698,29 +1689,29 @@
         <v>عبده😎        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -1730,13 +1721,13 @@
         <v>بلال😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2"/>
     </row>
@@ -1746,29 +1737,29 @@
         <v>هشام امين        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سعيد        </v>
+        <v>محمد سعيد ٣ افراد 🙏        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J21" s="2"/>
     </row>
@@ -1778,29 +1769,29 @@
         <v>عم مجدي        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>كريم علي😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J23" s="2"/>
     </row>
@@ -1810,13 +1801,13 @@
         <v>احمد صادق😎        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J24" s="2"/>
     </row>
@@ -1826,325 +1817,323 @@
         <v>محمد سامح😎        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>كريم علي😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
-        <v>48</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I32"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>تامر علاء tp        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
-        <v>طه😎        </v>
+        <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
+        <v>تامر علاء tp        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I38" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I39" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>56</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>56</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G42" t="s">
+        <v>57</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>حسين فايد😎        </v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>56</v>
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H44" t="s">
-        <v>38</v>
+        <v>احمد عبدالله        </v>
+      </c>
+      <c r="G44" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>56</v>
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G45" t="s">
+        <v>57</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J45" s="2"/>
     </row>
@@ -2153,26 +2142,26 @@
         <f t="shared" si="1"/>
         <v>شريف عبد المنعم        </v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>56</v>
+      <c r="G46" t="s">
+        <v>57</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>56</v>
+        <v>المصري        </v>
+      </c>
+      <c r="G47" t="s">
+        <v>57</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I47" t="s">
         <v>59</v>
@@ -2181,163 +2170,163 @@
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>56</v>
+        <v>بلال😎        </v>
+      </c>
+      <c r="G48" t="s">
+        <v>57</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>حسين فايد😎        </v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>56</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G49" t="s">
+        <v>57</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>56</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G50" t="s">
+        <v>57</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I50" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>حسن الطيار        </v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>56</v>
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج ٣ افراد 🙏        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I53" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>كريم علي😎        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I58" t="s">
         <v>42</v>
@@ -2346,121 +2335,121 @@
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
-      </c>
-      <c r="G59" t="s">
-        <v>63</v>
+        <v>خالد ابو الفتوح😎        </v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="I59" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>خالد ابو الفتوح😎        </v>
-      </c>
-      <c r="G60" t="s">
-        <v>63</v>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G61" t="s">
+        <v>ياسر😎        </v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" t="s">
         <v>63</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G62" t="s">
-        <v>63</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G63" t="s">
-        <v>63</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I63" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
-      </c>
-      <c r="G64" t="s">
-        <v>63</v>
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I64" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G65" t="s">
-        <v>63</v>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G66" t="s">
-        <v>63</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -2468,206 +2457,206 @@
         <f t="shared" si="1"/>
         <v>احمد صادق😎        </v>
       </c>
-      <c r="G67" t="s">
-        <v>63</v>
+      <c r="G67" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>محمد سعيد        </v>
-      </c>
-      <c r="G68" t="s">
-        <v>63</v>
+        <v>وليد😎        </v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I68" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G69" t="s">
-        <v>63</v>
+        <v>عبده😎        </v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي علي😎        </v>
-      </c>
-      <c r="G70" t="s">
-        <v>63</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I70" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
-      </c>
-      <c r="G71" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" t="s">
-        <v>22</v>
+        <v>احمد صادق😎        </v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I71" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G72" t="s">
-        <v>63</v>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G73" t="s">
-        <v>63</v>
+        <v>محمد عبد المجيد😎        </v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="I73" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G74" t="s">
-        <v>63</v>
+        <v>خالد ابو الفتوح😎        </v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I74" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="H75" t="s">
+        <v>27</v>
       </c>
       <c r="I75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>كريم علي😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="I76" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G77" s="1" t="s">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G77" t="s">
         <v>66</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
-      </c>
-      <c r="G78" s="1" t="s">
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G78" t="s">
         <v>66</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="I78" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G79" s="1" t="s">
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G79" t="s">
         <v>66</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I79" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G80" s="1" t="s">
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G80" t="s">
         <v>66</v>
       </c>
-      <c r="H80" t="s">
-        <v>22</v>
+      <c r="H80" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I80" t="s">
         <v>45</v>
@@ -2676,451 +2665,316 @@
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
-      </c>
-      <c r="G81" s="1" t="s">
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G81" t="s">
         <v>66</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I81" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>ياسر😎        </v>
-      </c>
-      <c r="G82" s="1" t="s">
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G82" t="s">
         <v>66</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I82" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>عبده😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I83" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G84" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>6</v>
+      <c r="H84" t="s">
+        <v>23</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H85" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="I85" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="H86" t="s">
+        <v>19</v>
       </c>
       <c r="I86" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
       </c>
       <c r="I87" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
+        <v>احمد حسن😎        </v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I88" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
+        <v>ياسر😎        </v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I89" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+      <c r="H90" t="s">
+        <v>60</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H91" t="s">
-        <v>26</v>
+        <v>71</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="I91" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سعيد        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G92" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H92" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I92" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>ياسر😎        </v>
       </c>
       <c r="G93" t="s">
-        <v>71</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="H93" t="s">
+        <v>67</v>
       </c>
       <c r="I93" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>عم سعيد        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G94" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G95" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G96" t="s">
-        <v>71</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G97" t="s">
-        <v>73</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I97" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G98" t="s">
-        <v>73</v>
-      </c>
-      <c r="H98" t="s">
-        <v>22</v>
-      </c>
-      <c r="I98" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G99" t="s">
-        <v>73</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I99" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G100" t="s">
-        <v>74</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I100" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G101" t="s">
-        <v>74</v>
-      </c>
-      <c r="H101" t="s">
-        <v>19</v>
-      </c>
-      <c r="I101" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>حمزه😎        </v>
-      </c>
-      <c r="G102" t="s">
-        <v>75</v>
-      </c>
-      <c r="H102" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>احمد حسن😎        </v>
-      </c>
-      <c r="G103" t="s">
-        <v>75</v>
-      </c>
-      <c r="H103" t="s">
-        <v>19</v>
-      </c>
-      <c r="I103" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G104" t="s">
-        <v>75</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I104" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G105" t="s">
-        <v>75</v>
-      </c>
-      <c r="H105" t="s">
-        <v>62</v>
-      </c>
-      <c r="I105" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G106" t="s">
-        <v>75</v>
-      </c>
-      <c r="H106" t="s">
-        <v>55</v>
-      </c>
-      <c r="I106" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G107" t="s">
-        <v>77</v>
-      </c>
-      <c r="H107" t="s">
-        <v>38</v>
-      </c>
-      <c r="I107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
       <c r="B108" t="str">
         <f t="shared" si="3"/>
-        <v>وليد😎        </v>
-      </c>
-      <c r="G108" t="s">
-        <v>77</v>
-      </c>
-      <c r="H108" t="s">
-        <v>72</v>
-      </c>
-      <c r="I108" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
       <c r="B109" t="str">
         <f t="shared" si="3"/>
-        <v>علي طه        </v>
-      </c>
-      <c r="G109" t="s">
-        <v>77</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
       <c r="B110" t="str">
         <f t="shared" si="3"/>
-        <v>عم مجدي        </v>
-      </c>
-      <c r="G110" t="s">
-        <v>77</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I110" t="s">
-        <v>36</v>
+        <v>        </v>
       </c>
     </row>
     <row r="111" spans="2:2">
@@ -3649,7 +3503,7 @@
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="393" spans="1:1">
@@ -3669,12 +3523,12 @@
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="398" spans="1:1">
@@ -3689,22 +3543,22 @@
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="404" spans="1:1">
@@ -3714,117 +3568,117 @@
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="492" spans="8:8">
+      <c r="H492" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="8:8">
+      <c r="H493" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="494" spans="8:8">
+      <c r="H494" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="495" spans="8:8">
+      <c r="H495" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="496" spans="8:8">
+      <c r="H496" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="497" spans="8:8">
+      <c r="H497" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="498" spans="8:8">
+      <c r="H498" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="499" spans="8:8">
+      <c r="H499" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="500" spans="8:8">
+      <c r="H500" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="501" spans="8:8">
+      <c r="H501" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="502" spans="8:8">
+      <c r="H502" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="503" spans="8:8">
+      <c r="H503" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="504" spans="8:8">
+      <c r="H504" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="505" spans="8:8">
+      <c r="H505" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="506" spans="8:8">
+      <c r="H506" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="507" spans="8:8">
+      <c r="H507" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="508" spans="8:8">
+      <c r="H508" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="509" spans="8:8">
+      <c r="H509" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="8:8">
+      <c r="H510" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="511" spans="8:8">
+      <c r="H511" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="512" spans="8:8">
       <c r="H512" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="513" spans="8:8">
-      <c r="H513" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="514" spans="8:8">
-      <c r="H514" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="515" spans="8:8">
-      <c r="H515" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="516" spans="8:8">
-      <c r="H516" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="517" spans="8:8">
-      <c r="H517" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="518" spans="8:8">
-      <c r="H518" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="519" spans="8:8">
-      <c r="H519" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="520" spans="8:8">
-      <c r="H520" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="521" spans="8:8">
-      <c r="H521" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="522" spans="8:8">
-      <c r="H522" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="523" spans="8:8">
-      <c r="H523" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="524" spans="8:8">
-      <c r="H524" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="525" spans="8:8">
-      <c r="H525" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="526" spans="8:8">
-      <c r="H526" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="527" spans="8:8">
-      <c r="H527" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="528" spans="8:8">
-      <c r="H528" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="529" spans="8:8">
-      <c r="H529" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="530" spans="8:8">
-      <c r="H530" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="531" spans="8:8">
-      <c r="H531" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="532" spans="8:8">
-      <c r="H532" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="77">
-  <si>
-    <t>حضورات يوم 6/20</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="81">
+  <si>
+    <t>حضورات يوم 6/23</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -41,154 +41,157 @@
     <t>اكتوبر و زايد</t>
   </si>
   <si>
-    <t>احمد جلال</t>
+    <t>علاء😎</t>
   </si>
   <si>
     <t>التحرير</t>
   </si>
   <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
     <t>شريف عبد المنعم</t>
   </si>
   <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>مدحت😎</t>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>عبده😎</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>محمد سعيد ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>تامر علاء tp</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
+    <t>احمد صادق😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
   </si>
   <si>
     <t>حدائق الاهرام</t>
   </si>
   <si>
-    <t>علاء😎</t>
+    <t>محمد سامح😎</t>
   </si>
   <si>
     <t>حدائق القبه</t>
   </si>
   <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>حسن الطيار</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>احمد جلال ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>التجمع</t>
   </si>
   <si>
     <t>ايهاب</t>
   </si>
   <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>محمد سعيد ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>احمد صادق😎</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>الرحاب</t>
-  </si>
-  <si>
-    <t>خالد ابو الفتوح😎</t>
-  </si>
-  <si>
-    <t>تامر علاء tp</t>
+    <t>شريف عبد المنعم ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
   </si>
   <si>
     <t>مدينتي و الشروق</t>
@@ -206,12 +209,24 @@
     <t>حضور ١٠ ص</t>
   </si>
   <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
     <t>احمد عبدالله</t>
   </si>
   <si>
     <t>المصري</t>
   </si>
   <si>
+    <t>حسن الطيار ٣ افراد 🙏</t>
+  </si>
+  <si>
     <t>الشروق</t>
   </si>
   <si>
@@ -221,10 +236,16 @@
     <t>حضور ١٢ م</t>
   </si>
   <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
     <t>ياسر😎</t>
   </si>
   <si>
-    <t>وليد😎</t>
+    <t>كريم علي😎</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
   </si>
   <si>
     <t>حضور ٢ م</t>
@@ -233,9 +254,6 @@
     <t>حضور ٣ م</t>
   </si>
   <si>
-    <t>الواحات</t>
-  </si>
-  <si>
     <t>مكاوي😎</t>
   </si>
   <si>
@@ -246,12 +264,6 @@
   </si>
   <si>
     <t>حضور ٦ م</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
   </si>
   <si>
     <t>حضور ٧ م</t>
@@ -1419,17 +1431,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J512"/>
+  <dimension ref="A1:J478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I95"/>
+      <selection activeCell="I21" sqref="G19:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="18.0909090909091" customWidth="1"/>
+    <col min="9" max="9" width="22.4363636363636" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1446,7 +1458,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>احمد جلال        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1461,19 +1473,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:8">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>شريف عبد المنعم        </v>
+        <v>        </v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1485,10 +1494,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
         <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -1500,90 +1509,88 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
         <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
-        <v>مدحت😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
         <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>علاء😎        </v>
+        <v>        </v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I7"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>مدحت😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -1596,26 +1603,26 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
         <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
         <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -1628,26 +1635,26 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
         <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
         <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -1660,10 +1667,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
         <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -1676,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
         <v>29</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -1689,13 +1696,13 @@
         <v>عبده😎        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" s="2"/>
     </row>
@@ -1705,13 +1712,13 @@
         <v>عم سعيد        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -1721,13 +1728,13 @@
         <v>بلال😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J19" s="2"/>
     </row>
@@ -1737,13 +1744,13 @@
         <v>هشام امين        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -1753,29 +1760,29 @@
         <v>محمد سعيد ٣ افراد 🙏        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي        </v>
+        <v>تامر علاء tp        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22" s="2"/>
     </row>
@@ -1785,13 +1792,13 @@
         <v>سامي😎        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J23" s="2"/>
     </row>
@@ -1801,58 +1808,58 @@
         <v>احمد صادق😎        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي بسكوته        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
         <v>44</v>
@@ -1865,10 +1872,10 @@
         <v>مصطفي منتصر        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
         <v>45</v>
@@ -1881,29 +1888,29 @@
         <v>سامي😎        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
         <v>46</v>
-      </c>
-      <c r="I30" t="s">
-        <v>47</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -1913,28 +1920,30 @@
         <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>        </v>
+        <v>احمد جلال ٣ افراد 🙏        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32"/>
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>48</v>
+      </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
@@ -1943,13 +1952,13 @@
         <v>علاء😎        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J33" s="2"/>
     </row>
@@ -1959,88 +1968,88 @@
         <v>ايهاب        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s">
         <v>50</v>
-      </c>
-      <c r="I34" t="s">
-        <v>26</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>شريف عبد المنعم ٣ افراد 🙏        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>تامر علاء tp        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>طه😎        </v>
+        <v>تامر علاء tp        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I39" t="s">
         <v>55</v>
@@ -2049,584 +2058,584 @@
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
         <v>56</v>
-      </c>
-      <c r="I40" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G41" t="s">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="I41" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G42" t="s">
-        <v>57</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
-      </c>
-      <c r="G43" t="s">
-        <v>57</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
-      </c>
-      <c r="G44" t="s">
-        <v>57</v>
+        <v>علي طه        </v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G45" t="s">
-        <v>57</v>
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G46" t="s">
-        <v>57</v>
+        <v>محمد سعيد        </v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I46" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
-      </c>
-      <c r="G47" t="s">
-        <v>57</v>
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I47" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>بلال😎        </v>
-      </c>
-      <c r="G48" t="s">
-        <v>57</v>
+        <v>احمد عبدالله        </v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I48" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G49" t="s">
-        <v>57</v>
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G50" t="s">
-        <v>57</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I50" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G51" t="s">
-        <v>57</v>
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I51" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>المصري        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
+        <v>حسن الطيار ٣ افراد 🙏        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I60" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>ياسر😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>حمزه😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I64" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
       </c>
       <c r="I65" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
+      </c>
+      <c r="H66" t="s">
+        <v>11</v>
       </c>
       <c r="I66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>احمد صادق😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>وليد😎        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I68" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>عبده😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>16</v>
+        <v>66</v>
+      </c>
+      <c r="H72" t="s">
+        <v>18</v>
       </c>
       <c r="I72" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I74" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H75" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I75" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="H76" t="s">
+        <v>26</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G77" t="s">
+        <v>هاني😎        </v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>10</v>
+      <c r="H77" t="s">
+        <v>28</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="I78" t="s">
         <v>68</v>
@@ -2635,136 +2644,136 @@
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G79" t="s">
-        <v>66</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
       </c>
       <c r="I79" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
+        <v>ياسر😎        </v>
       </c>
       <c r="G80" t="s">
-        <v>66</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
       </c>
       <c r="I80" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H83" s="1" t="s">
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G83" t="s">
+        <v>67</v>
+      </c>
+      <c r="H83" t="s">
         <v>16</v>
       </c>
       <c r="I83" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>69</v>
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G84" t="s">
+        <v>67</v>
       </c>
       <c r="H84" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I84" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H85" t="s">
-        <v>46</v>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G85" t="s">
+        <v>67</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>70</v>
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G86" t="s">
+        <v>67</v>
       </c>
       <c r="H86" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I86" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H87" t="s">
-        <v>10</v>
+        <v>احمد صادق😎        </v>
+      </c>
+      <c r="G87" t="s">
+        <v>67</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="2:9">
@@ -2772,29 +2781,29 @@
         <f t="shared" si="2"/>
         <v>احمد حسن😎        </v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I88" t="s">
         <v>71</v>
-      </c>
-      <c r="H88" t="s">
-        <v>19</v>
-      </c>
-      <c r="I88" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>ياسر😎        </v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>71</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G89" t="s">
+        <v>72</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I89" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="2:9">
@@ -2802,221 +2811,419 @@
         <f t="shared" si="2"/>
         <v>محمد سعيد        </v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>71</v>
+      <c r="G90" t="s">
+        <v>72</v>
       </c>
       <c r="H90" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90" t="s">
         <v>60</v>
-      </c>
-      <c r="I90" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>56</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G91" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>علاء😎        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G92" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H92" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I92" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>ياسر😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G93" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H93" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I93" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G94" t="s">
-        <v>74</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
+      </c>
+      <c r="H94" t="s">
+        <v>18</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G95" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
+        <v>وليد😎        </v>
+      </c>
+      <c r="G96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
+        <v>هاني😎        </v>
+      </c>
+      <c r="G97" t="s">
+        <v>72</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G98" t="s">
+        <v>72</v>
+      </c>
+      <c r="H98" t="s">
+        <v>57</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
+        <v>احمد صادق😎        </v>
+      </c>
+      <c r="G99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G100" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G101" t="s">
+        <v>73</v>
+      </c>
+      <c r="H101" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
+        <v>محمد عبد المجيد😎        </v>
+      </c>
+      <c r="G102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
+        <v>ايهاب        </v>
+      </c>
+      <c r="G103" t="s">
+        <v>73</v>
+      </c>
+      <c r="H103" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
+        <v>هاني😎        </v>
+      </c>
+      <c r="G104" t="s">
+        <v>75</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G105" t="s">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s">
+        <v>22</v>
+      </c>
+      <c r="I105" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G106" t="s">
+        <v>75</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
+        <v>احمد صادق😎        </v>
+      </c>
+      <c r="G107" t="s">
+        <v>76</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I107" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
       <c r="B108" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G108" t="s">
+        <v>76</v>
+      </c>
+      <c r="H108" t="s">
+        <v>61</v>
+      </c>
+      <c r="I108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
       <c r="B109" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
+        <v>وليد😎        </v>
+      </c>
+      <c r="G109" t="s">
+        <v>77</v>
+      </c>
+      <c r="H109" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
       <c r="B110" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G110" t="s">
+        <v>77</v>
+      </c>
+      <c r="H110" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
       <c r="B111" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="112" spans="2:2">
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G111" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
       <c r="B112" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G112" t="s">
+        <v>77</v>
+      </c>
+      <c r="H112" t="s">
+        <v>65</v>
+      </c>
+      <c r="I112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
       <c r="B113" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G113" t="s">
+        <v>77</v>
+      </c>
+      <c r="H113" t="s">
+        <v>57</v>
+      </c>
+      <c r="I113" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
       <c r="B114" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G114" t="s">
+        <v>78</v>
+      </c>
+      <c r="H114" t="s">
+        <v>61</v>
+      </c>
+      <c r="I114" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9">
       <c r="B115" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G115" t="s">
+        <v>78</v>
+      </c>
+      <c r="H115" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
       <c r="B116" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G116" t="s">
+        <v>78</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
       <c r="B117" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G117" t="s">
+        <v>78</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I117" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="2:2">
@@ -3488,77 +3695,77 @@
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="404" spans="1:1">
@@ -3568,117 +3775,117 @@
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="492" spans="8:8">
-      <c r="H492" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="458" spans="8:8">
+      <c r="H458" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="8:8">
-      <c r="H493" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="494" spans="8:8">
-      <c r="H494" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="495" spans="8:8">
-      <c r="H495" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="496" spans="8:8">
-      <c r="H496" t="s">
+    <row r="459" spans="8:8">
+      <c r="H459" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="8:8">
+      <c r="H460" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461" spans="8:8">
+      <c r="H461" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="462" spans="8:8">
+      <c r="H462" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="463" spans="8:8">
+      <c r="H463" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="497" spans="8:8">
-      <c r="H497" t="s">
+    <row r="464" spans="8:8">
+      <c r="H464" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="498" spans="8:8">
-      <c r="H498" t="s">
+    <row r="465" spans="8:8">
+      <c r="H465" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="466" spans="8:8">
+      <c r="H466" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="499" spans="8:8">
-      <c r="H499" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="500" spans="8:8">
-      <c r="H500" t="s">
+    <row r="467" spans="8:8">
+      <c r="H467" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="468" spans="8:8">
+      <c r="H468" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="8:8">
-      <c r="H501" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="502" spans="8:8">
-      <c r="H502" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="503" spans="8:8">
-      <c r="H503" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="504" spans="8:8">
-      <c r="H504" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="505" spans="8:8">
-      <c r="H505" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="506" spans="8:8">
-      <c r="H506" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="507" spans="8:8">
-      <c r="H507" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="508" spans="8:8">
-      <c r="H508" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="509" spans="8:8">
-      <c r="H509" t="s">
+    <row r="469" spans="8:8">
+      <c r="H469" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="470" spans="8:8">
+      <c r="H470" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="471" spans="8:8">
+      <c r="H471" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="472" spans="8:8">
+      <c r="H472" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="473" spans="8:8">
+      <c r="H473" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="474" spans="8:8">
+      <c r="H474" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="475" spans="8:8">
+      <c r="H475" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="510" spans="8:8">
-      <c r="H510" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="511" spans="8:8">
-      <c r="H511" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="512" spans="8:8">
-      <c r="H512" t="s">
-        <v>76</v>
+    <row r="476" spans="8:8">
+      <c r="H476" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="477" spans="8:8">
+      <c r="H477" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="478" spans="8:8">
+      <c r="H478" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="81">
-  <si>
-    <t>حضورات يوم 6/23</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="83">
+  <si>
+    <t>حضورات يوم 6/24</t>
+  </si>
+  <si>
+    <t>حضور ٧ ص</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>طه😎</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -47,112 +56,106 @@
     <t>التحرير</t>
   </si>
   <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
   </si>
   <si>
     <t>العباسية و الضاهر</t>
   </si>
   <si>
-    <t>سيد سلامه😎</t>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>عبده😎</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
   </si>
   <si>
     <t>العبور</t>
   </si>
   <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>مدحت😎</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>محمد سعيد ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>تامر علاء tp</t>
-  </si>
-  <si>
     <t>سامي😎</t>
   </si>
   <si>
-    <t>احمد صادق😎</t>
+    <t>احمد صادق 😎</t>
   </si>
   <si>
     <t>حدائق اكتوبر</t>
   </si>
   <si>
-    <t>احمد فراج</t>
+    <t>احمد جلال</t>
   </si>
   <si>
     <t>حدائق الاهرام</t>
@@ -164,19 +167,16 @@
     <t>حدائق القبه</t>
   </si>
   <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
     <t>مصطفي منتصر</t>
   </si>
   <si>
-    <t>حسن الطيار</t>
+    <t>زياد ملاكي</t>
   </si>
   <si>
     <t>محمد عبد المجيد😎</t>
   </si>
   <si>
-    <t>احمد جلال ٣ افراد 🙏</t>
+    <t>محمد قاسم</t>
   </si>
   <si>
     <t>التجمع</t>
@@ -185,72 +185,75 @@
     <t>ايهاب</t>
   </si>
   <si>
-    <t>شريف عبد المنعم ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
     <t>احمد ناصر😎</t>
   </si>
   <si>
+    <t>تامر علاء</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>طه😎✌</t>
+  </si>
+  <si>
+    <t>هاني😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم ٢</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>احمد جلال آخر نقطه ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>مصطفي علي😎</t>
+  </si>
+  <si>
+    <t>ياسر😎</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
     <t>مدينتي و الشروق</t>
   </si>
   <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>هاني😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>العباسية</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>حسن الطيار ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>ياسر😎</t>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
   </si>
   <si>
     <t>كريم علي😎</t>
   </si>
   <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
     <t>حضور ٣ م</t>
   </si>
   <si>
@@ -260,13 +263,16 @@
     <t>حضور ٤ م</t>
   </si>
   <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
     <t>حضور ٦ م</t>
   </si>
   <si>
     <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>سيد سالم</t>
+  </si>
+  <si>
+    <t>حضور ٨ م</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
@@ -1431,17 +1437,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J478"/>
+  <dimension ref="A1:J456"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="G19:I21"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="22.4363636363636" customWidth="1"/>
+    <col min="9" max="9" width="25.2545454545455" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1458,7 +1464,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>علاء😎        </v>
+        <v>طه😎        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1473,31 +1479,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>        </v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
+        <v>علاء😎        </v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f>CONCATENATE(I4," ",J4," ",K4," ",L4," ",M4," ",N4," ",O4," ",P4," ",Q4)</f>
-        <v>وائل😎        </v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -1505,45 +1514,47 @@
         <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
         <v>سيد سلامه😎        </v>
       </c>
-      <c r="G5" t="s">
-        <v>1</v>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>        </v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7"/>
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
@@ -1551,14 +1562,14 @@
         <f t="shared" si="0"/>
         <v>عبد النبي😎        </v>
       </c>
-      <c r="G8" t="s">
-        <v>1</v>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -1567,30 +1578,30 @@
         <f t="shared" si="0"/>
         <v>مدحت😎        </v>
       </c>
-      <c r="G9" t="s">
-        <v>1</v>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -1599,30 +1610,30 @@
         <f t="shared" si="0"/>
         <v>حسين فايد😎        </v>
       </c>
-      <c r="G11" t="s">
-        <v>1</v>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -1631,30 +1642,30 @@
         <f t="shared" si="0"/>
         <v>محمد فوزي        </v>
       </c>
-      <c r="G13" t="s">
-        <v>1</v>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -1663,14 +1674,14 @@
         <f t="shared" si="0"/>
         <v>محسن الضبع        </v>
       </c>
-      <c r="G15" t="s">
-        <v>1</v>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -1679,14 +1690,14 @@
         <f t="shared" si="0"/>
         <v>حمزه😎        </v>
       </c>
-      <c r="G16" t="s">
-        <v>1</v>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -1696,13 +1707,13 @@
         <v>عبده😎        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J17" s="2"/>
     </row>
@@ -1712,13 +1723,13 @@
         <v>عم سعيد        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -1728,13 +1739,13 @@
         <v>بلال😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2"/>
     </row>
@@ -1744,250 +1755,250 @@
         <v>هشام امين        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سعيد ٣ افراد 🙏        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>تامر علاء tp        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>سامي😎        </v>
+        <v>احمد صادق 😎        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>احمد صادق😎        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>سامي😎        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>حسن الطيار        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>محمد قاسم        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال ٣ افراد 🙏        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم ٣ افراد 🙏        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I35" t="s">
         <v>51</v>
@@ -1997,13 +2008,13 @@
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
-        <v>علي طه        </v>
+        <v>تامر علاء        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s">
         <v>52</v>
@@ -2013,43 +2024,43 @@
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>تامر علاء tp        </v>
+        <v>طه😎✌        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I38" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>طه😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I39" t="s">
         <v>55</v>
@@ -2058,227 +2069,227 @@
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" t="s">
         <v>28</v>
-      </c>
-      <c r="I40" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
+        <v>شريف عبد المنعم ٢        </v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
         <v>58</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I42" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="I44" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="I47" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>حسين فايد😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -2287,10 +2298,10 @@
         <v>المصري        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
         <v>63</v>
@@ -2299,13 +2310,13 @@
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>حسن الطيار ٣ افراد 🙏        </v>
+        <v>احمد جلال آخر نقطه ٣ افراد 🙏        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
         <v>64</v>
@@ -2314,31 +2325,31 @@
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -2347,13 +2358,13 @@
         <v>محمد سامح😎        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -2362,28 +2373,28 @@
         <v>محسن الضبع        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="H60" t="s">
+        <v>53</v>
       </c>
       <c r="I60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -2392,58 +2403,58 @@
         <v>سامي😎        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
+        <v>مصطفي علي😎        </v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" t="s">
         <v>66</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I64" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H65" t="s">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -2452,118 +2463,118 @@
         <v>سيد سلامه😎        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H66" t="s">
-        <v>11</v>
+        <v>65</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
+        <v>احمد صادق 😎        </v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>احمد صادق😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
       </c>
       <c r="I69" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
+        <v>محمد قاسم        </v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H70" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>ياسر😎        </v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H72" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I72" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب سليمان        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I73" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -2572,298 +2583,298 @@
         <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I74" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
+        <v>احمد صادق 😎        </v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H76" t="s">
-        <v>26</v>
+        <v>69</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H77" t="s">
-        <v>28</v>
+        <v>69</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="I77" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
-      </c>
-      <c r="G78" t="s">
-        <v>67</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I78" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G79" t="s">
-        <v>67</v>
-      </c>
-      <c r="H79" t="s">
-        <v>9</v>
+        <v>عبده😎        </v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>ياسر😎        </v>
-      </c>
-      <c r="G80" t="s">
-        <v>67</v>
-      </c>
-      <c r="H80" t="s">
-        <v>11</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>عبده😎        </v>
-      </c>
-      <c r="G81" t="s">
-        <v>67</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>41</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H81" t="s">
+        <v>18</v>
       </c>
       <c r="I81" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G82" t="s">
-        <v>67</v>
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I82" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>كريم علي😎        </v>
-      </c>
-      <c r="G83" t="s">
-        <v>67</v>
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H83" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I83" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
-      </c>
-      <c r="G84" t="s">
-        <v>67</v>
-      </c>
-      <c r="H84" t="s">
-        <v>18</v>
+        <v>محمد قاسم        </v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I84" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G85" t="s">
-        <v>67</v>
+        <v>احمد حسن😎        </v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I85" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G86" t="s">
-        <v>67</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H86" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I86" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G87" t="s">
-        <v>67</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>احمد حسن😎        </v>
-      </c>
-      <c r="G88" t="s">
-        <v>67</v>
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I88" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G89" t="s">
+        <v>احمد صادق 😎        </v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>5</v>
+      <c r="H89" t="s">
+        <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سعيد        </v>
-      </c>
-      <c r="G90" t="s">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H90" t="s">
-        <v>9</v>
+      <c r="H90" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I90" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G91" t="s">
+        <v>هاني😎        </v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H91" t="s">
-        <v>11</v>
+      <c r="H91" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G92" t="s">
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H92" t="s">
-        <v>14</v>
+      <c r="H92" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I92" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G93" t="s">
+        <v>محمد قاسم        </v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="2:9">
@@ -2871,11 +2882,11 @@
         <f t="shared" si="2"/>
         <v>محمد عبد المجيد😎        </v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H94" t="s">
-        <v>18</v>
+      <c r="H94" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I94" t="s">
         <v>47</v>
@@ -2884,346 +2895,328 @@
     <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G95" t="s">
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I95" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
-      </c>
-      <c r="G96" t="s">
+        <v>ايهاب        </v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I96" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G97" t="s">
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I97" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G98" t="s">
-        <v>72</v>
+        <v>احمد صادق 😎        </v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="H98" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I98" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G99" t="s">
-        <v>73</v>
-      </c>
-      <c r="H99" t="s">
-        <v>9</v>
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G100" t="s">
-        <v>73</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>12</v>
+        <v>مكاوي😎        </v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s">
+        <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>مكاوي😎        </v>
-      </c>
-      <c r="G101" t="s">
-        <v>73</v>
-      </c>
-      <c r="H101" t="s">
-        <v>18</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I101" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G102" t="s">
-        <v>73</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>ايهاب        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G103" t="s">
-        <v>73</v>
-      </c>
-      <c r="H103" t="s">
-        <v>26</v>
+        <v>76</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>هاني😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G104" t="s">
-        <v>75</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="H104" t="s">
+        <v>24</v>
       </c>
       <c r="I104" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>كريم علي😎        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G105" t="s">
-        <v>75</v>
-      </c>
-      <c r="H105" t="s">
-        <v>22</v>
+        <v>76</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I105" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>احمد صادق 😎        </v>
       </c>
       <c r="G106" t="s">
-        <v>75</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>24</v>
+        <v>77</v>
+      </c>
+      <c r="H106" t="s">
+        <v>37</v>
       </c>
       <c r="I106" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>احمد صادق😎        </v>
+        <v>محمد قاسم        </v>
       </c>
       <c r="G107" t="s">
-        <v>76</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" t="str">
         <f t="shared" si="3"/>
-        <v>مدحت😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G108" t="s">
-        <v>76</v>
-      </c>
-      <c r="H108" t="s">
-        <v>61</v>
+        <v>77</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I108" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" t="str">
         <f t="shared" si="3"/>
-        <v>وليد😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G109" t="s">
         <v>77</v>
       </c>
       <c r="H109" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="I109" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" t="str">
         <f t="shared" si="3"/>
-        <v>كريم علي😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G110" t="s">
         <v>77</v>
       </c>
       <c r="H110" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I110" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="2:9">
       <c r="B111" t="str">
         <f t="shared" si="3"/>
-        <v>مدحت😎        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G111" t="s">
-        <v>77</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
+      </c>
+      <c r="H111" t="s">
+        <v>60</v>
       </c>
       <c r="I111" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" t="str">
         <f t="shared" si="3"/>
-        <v>محسن الضبع        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G112" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H112" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I112" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="2:9">
       <c r="B113" t="str">
         <f t="shared" si="3"/>
-        <v>احمد فراج        </v>
+        <v>سيد سالم        </v>
       </c>
       <c r="G113" t="s">
-        <v>77</v>
-      </c>
-      <c r="H113" t="s">
-        <v>57</v>
+        <v>78</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="2:9">
       <c r="B114" t="str">
         <f t="shared" si="3"/>
-        <v>محمد سامح😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G114" t="s">
         <v>78</v>
       </c>
-      <c r="H114" t="s">
-        <v>61</v>
+      <c r="H114" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="2:9">
       <c r="B115" t="str">
         <f t="shared" si="3"/>
-        <v>حسين فايد😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G115" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H115" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
       <c r="B116" t="str">
         <f t="shared" si="3"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G116" t="s">
-        <v>78</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I116" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
       <c r="B117" t="str">
         <f t="shared" si="3"/>
-        <v>عم مجدي        </v>
-      </c>
-      <c r="G117" t="s">
-        <v>78</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I117" t="s">
-        <v>44</v>
+        <v>        </v>
       </c>
     </row>
     <row r="118" spans="2:2">
@@ -3690,202 +3683,202 @@
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="458" spans="8:8">
-      <c r="H458" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="436" spans="8:8">
+      <c r="H436" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="8:8">
+      <c r="H437" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="8:8">
-      <c r="H459" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="460" spans="8:8">
-      <c r="H460" t="s">
+    <row r="438" spans="8:8">
+      <c r="H438" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="439" spans="8:8">
+      <c r="H439" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="440" spans="8:8">
+      <c r="H440" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="441" spans="8:8">
+      <c r="H441" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="442" spans="8:8">
+      <c r="H442" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="443" spans="8:8">
+      <c r="H443" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="444" spans="8:8">
+      <c r="H444" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="445" spans="8:8">
+      <c r="H445" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="446" spans="8:8">
+      <c r="H446" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="447" spans="8:8">
+      <c r="H447" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="448" spans="8:8">
+      <c r="H448" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="449" spans="8:8">
+      <c r="H449" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="450" spans="8:8">
+      <c r="H450" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="451" spans="8:8">
+      <c r="H451" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="452" spans="8:8">
+      <c r="H452" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="453" spans="8:8">
+      <c r="H453" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="8:8">
-      <c r="H461" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="462" spans="8:8">
-      <c r="H462" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="463" spans="8:8">
-      <c r="H463" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="464" spans="8:8">
-      <c r="H464" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="465" spans="8:8">
-      <c r="H465" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="466" spans="8:8">
-      <c r="H466" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="467" spans="8:8">
-      <c r="H467" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="468" spans="8:8">
-      <c r="H468" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="469" spans="8:8">
-      <c r="H469" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="470" spans="8:8">
-      <c r="H470" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="471" spans="8:8">
-      <c r="H471" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="472" spans="8:8">
-      <c r="H472" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="473" spans="8:8">
-      <c r="H473" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="474" spans="8:8">
-      <c r="H474" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="475" spans="8:8">
-      <c r="H475" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="476" spans="8:8">
-      <c r="H476" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="477" spans="8:8">
-      <c r="H477" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="478" spans="8:8">
-      <c r="H478" t="s">
-        <v>80</v>
+    <row r="454" spans="8:8">
+      <c r="H454" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="455" spans="8:8">
+      <c r="H455" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="456" spans="8:8">
+      <c r="H456" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="83">
-  <si>
-    <t>حضورات يوم 6/24</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="82">
+  <si>
+    <t>حضورات يوم 6/25</t>
   </si>
   <si>
     <t>حضور ٧ ص</t>
@@ -44,216 +44,216 @@
     <t>طه😎</t>
   </si>
   <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
     <t>حضور ٨ ص</t>
   </si>
   <si>
     <t>اكتوبر و زايد</t>
   </si>
   <si>
+    <t>حسن الطيار</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>مؤمن</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>عبدالله علاء😎</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
     <t>علاء😎</t>
   </si>
   <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>مدحت😎</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>محمد رفعت😎</t>
+  </si>
+  <si>
+    <t>احمد صادق 😎</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>محمد قاسم ع موسي</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>عبده😎</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
   </si>
   <si>
     <t>المقطم</t>
   </si>
   <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>تامر علاء tp</t>
   </si>
   <si>
     <t>مدينتي</t>
   </si>
   <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>العبور</t>
+    <t>هاني😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>😡😡😡😡</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
   </si>
   <si>
     <t>سامي😎</t>
   </si>
   <si>
-    <t>احمد صادق 😎</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>محمد قاسم</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>تامر علاء</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>طه😎✌</t>
-  </si>
-  <si>
-    <t>هاني😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم ٢</t>
-  </si>
-  <si>
-    <t>العباسية</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>احمد جلال آخر نقطه ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>مصطفي علي😎</t>
-  </si>
-  <si>
     <t>ياسر😎</t>
   </si>
   <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
     <t>وليد😎</t>
   </si>
   <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
+    <t>كريم علي😎</t>
   </si>
   <si>
     <t>حضور ٢ م</t>
   </si>
   <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
     <t>حضور ٣ م</t>
   </si>
   <si>
@@ -263,16 +263,13 @@
     <t>حضور ٤ م</t>
   </si>
   <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
     <t>حضور ٦ م</t>
   </si>
   <si>
     <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>سيد سالم</t>
-  </si>
-  <si>
-    <t>حضور ٨ م</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
@@ -1437,17 +1434,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J456"/>
+  <dimension ref="A1:J434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="25.2545454545455" customWidth="1"/>
+    <col min="9" max="9" width="16.1727272727273" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1482,25 +1479,25 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>بلال😎        </v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
         <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f>CONCATENATE(I4," ",J4," ",K4," ",L4," ",M4," ",N4," ",O4," ",P4," ",Q4)</f>
-        <v>شريف عبد المنعم        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
@@ -1512,29 +1509,29 @@
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
-        <v>سيد سلامه😎        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
-        <v>ايهاب سليمان        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -1544,10 +1541,10 @@
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>احمد فراج        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
@@ -1560,10 +1557,10 @@
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
@@ -1576,10 +1573,10 @@
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>مدحت😎        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
@@ -1592,10 +1589,10 @@
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>18</v>
@@ -1608,10 +1605,10 @@
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>20</v>
@@ -1624,10 +1621,10 @@
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>22</v>
@@ -1640,26 +1637,26 @@
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" t="s">
         <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي بسكوته        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>25</v>
@@ -1672,10 +1669,10 @@
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>27</v>
@@ -1688,10 +1685,10 @@
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>حمزه😎        </v>
+        <v>مؤمن        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>29</v>
@@ -1704,13 +1701,13 @@
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>عبده😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -1720,386 +1717,384 @@
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
+        <v>عبدالله علاء😎        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>35</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I20"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>سامي😎        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
         <v>37</v>
-      </c>
-      <c r="I22" t="s">
-        <v>38</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>احمد صادق 😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>احمد صادق 😎        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>سامي😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>محمد قاسم        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>محمد قاسم ع موسي        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>عبده😎        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
-        <v>تامر علاء        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>طه😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>طه😎✌        </v>
+        <v>تامر علاء tp        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s">
         <v>53</v>
-      </c>
-      <c r="I38" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I40" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم ٢        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G42" s="1" t="s">
         <v>57</v>
@@ -2108,98 +2103,98 @@
         <v>7</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>زياد ملاكي        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G44" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>حسين فايد😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>😡😡😡😡        </v>
       </c>
       <c r="G47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
         <v>60</v>
-      </c>
-      <c r="I47" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -2211,67 +2206,67 @@
         <v>57</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I50" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I51" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>حسين فايد😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I53" t="s">
         <v>26</v>
@@ -2280,16 +2275,16 @@
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>مؤمن        </v>
       </c>
       <c r="G54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>18</v>
+      <c r="H54" t="s">
+        <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -2301,7 +2296,7 @@
         <v>57</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I55" t="s">
         <v>63</v>
@@ -2310,307 +2305,307 @@
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال آخر نقطه ٣ افراد 🙏        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G56" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I56" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I57" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H60" t="s">
-        <v>53</v>
+      <c r="H60" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
+        <v>مؤمن        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي علي😎        </v>
+        <v>محمد قاسم ع موسي        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H64" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I64" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
+        <v>احمد صادق 😎        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I66" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>احمد صادق 😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s">
         <v>44</v>
-      </c>
-      <c r="I67" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>مصطفي منتصر        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سعيد        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H69" t="s">
-        <v>16</v>
+        <v>66</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="I69" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>محمد قاسم        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>ياسر😎        </v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H71" t="s">
-        <v>20</v>
+        <v>66</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>ياسر😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H72" t="s">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
+      </c>
+      <c r="H73" t="s">
+        <v>54</v>
       </c>
       <c r="I73" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I74" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
+        <v>احمد حسن😎        </v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H75" t="s">
-        <v>29</v>
+        <v>69</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I75" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق 😎        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G76" s="1" t="s">
         <v>69</v>
@@ -2619,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -2631,10 +2626,10 @@
         <v>69</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -2646,10 +2641,10 @@
         <v>69</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -2661,25 +2656,25 @@
         <v>69</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I79" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
+        <v>عبدالله علاء😎        </v>
       </c>
       <c r="G80" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I80" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="2:9">
@@ -2690,98 +2685,98 @@
       <c r="G81" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H81" t="s">
-        <v>18</v>
+      <c r="H81" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G82" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I82" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
+        <v>مؤمن        </v>
       </c>
       <c r="G83" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H83" t="s">
-        <v>24</v>
+      <c r="H83" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>محمد قاسم        </v>
+        <v>كريم علي😎        </v>
       </c>
       <c r="G84" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>احمد حسن😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I85" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H86" t="s">
-        <v>7</v>
+        <v>69</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I86" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>72</v>
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G87" t="s">
+        <v>73</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I87" t="s">
         <v>17</v>
@@ -2790,103 +2785,103 @@
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>72</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G88" t="s">
+        <v>73</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق 😎        </v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H89" t="s">
-        <v>12</v>
+        <v>مؤمن        </v>
+      </c>
+      <c r="G89" t="s">
+        <v>73</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>72</v>
+        <v>محمد رفعت😎        </v>
+      </c>
+      <c r="G90" t="s">
+        <v>73</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I90" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>72</v>
+        <v>محمد عبد المجيد😎        </v>
+      </c>
+      <c r="G91" t="s">
+        <v>73</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="I91" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>16</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s">
+        <v>22</v>
       </c>
       <c r="I92" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>محمد قاسم        </v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H93" t="s">
-        <v>18</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G93" t="s">
+        <v>73</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>72</v>
+        <v>محمد قاسم ع موسي        </v>
+      </c>
+      <c r="G94" t="s">
+        <v>73</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I94" t="s">
         <v>47</v>
@@ -2895,76 +2890,76 @@
     <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>كريم علي😎        </v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>72</v>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G95" t="s">
+        <v>73</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I95" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>25</v>
+        <v>محمد رفعت😎        </v>
+      </c>
+      <c r="G96" t="s">
+        <v>74</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>72</v>
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G97" t="s">
+        <v>74</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I97" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق 😎        </v>
-      </c>
-      <c r="G98" s="1" t="s">
+        <v>عبدالله علاء😎        </v>
+      </c>
+      <c r="G98" t="s">
         <v>74</v>
       </c>
       <c r="H98" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G99" s="1" t="s">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G99" t="s">
         <v>74</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I99" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="2:9">
@@ -2972,11 +2967,11 @@
         <f t="shared" si="3"/>
         <v>مكاوي😎        </v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" t="s">
         <v>74</v>
       </c>
-      <c r="H100" t="s">
-        <v>20</v>
+      <c r="H100" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I100" t="s">
         <v>75</v>
@@ -2985,76 +2980,76 @@
     <row r="101" spans="2:9">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>74</v>
+        <v>محمد قاسم ع موسي        </v>
+      </c>
+      <c r="G101" t="s">
+        <v>76</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>74</v>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G102" t="s">
+        <v>76</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>هاني😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G103" t="s">
         <v>76</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>14</v>
+      <c r="H103" t="s">
+        <v>51</v>
       </c>
       <c r="I103" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G104" t="s">
-        <v>76</v>
-      </c>
-      <c r="H104" t="s">
-        <v>24</v>
+        <v>77</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>مدحت😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G105" t="s">
-        <v>76</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
+      </c>
+      <c r="H105" t="s">
+        <v>61</v>
       </c>
       <c r="I105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="2:9">
@@ -3063,10 +3058,10 @@
         <v>احمد صادق 😎        </v>
       </c>
       <c r="G106" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H106" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I106" t="s">
         <v>39</v>
@@ -3075,31 +3070,31 @@
     <row r="107" spans="2:9">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>محمد قاسم        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H107" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" t="str">
         <f t="shared" si="3"/>
-        <v>سامي😎        </v>
+        <v>محمد قاسم ع موسي        </v>
       </c>
       <c r="G108" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I108" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="2:9">
@@ -3108,28 +3103,28 @@
         <v>محسن الضبع        </v>
       </c>
       <c r="G109" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I109" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" t="str">
         <f t="shared" si="3"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G110" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H110" t="s">
         <v>56</v>
       </c>
       <c r="I110" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="2:9">
@@ -3138,13 +3133,13 @@
         <v>وليد😎        </v>
       </c>
       <c r="G111" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H111" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I111" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="2:9">
@@ -3153,28 +3148,28 @@
         <v>حسين فايد😎        </v>
       </c>
       <c r="G112" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H112" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I112" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="2:9">
       <c r="B113" t="str">
         <f t="shared" si="3"/>
-        <v>سيد سالم        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G113" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I113" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="2:9">
@@ -3183,28 +3178,19 @@
         <v>شريف عبد المنعم        </v>
       </c>
       <c r="G114" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
       <c r="B115" t="str">
         <f t="shared" si="3"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G115" t="s">
-        <v>80</v>
-      </c>
-      <c r="H115" t="s">
-        <v>37</v>
-      </c>
-      <c r="I115" t="s">
-        <v>26</v>
+        <v>        </v>
       </c>
     </row>
     <row r="116" spans="2:2">
@@ -3683,7 +3669,7 @@
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="389" spans="1:1">
@@ -3693,192 +3679,192 @@
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="436" spans="8:8">
-      <c r="H436" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="437" spans="8:8">
-      <c r="H437" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="414" spans="8:8">
+      <c r="H414" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="8:8">
+      <c r="H415" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="8:8">
-      <c r="H438" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="439" spans="8:8">
-      <c r="H439" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="440" spans="8:8">
-      <c r="H440" t="s">
+    <row r="416" spans="8:8">
+      <c r="H416" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="8:8">
-      <c r="H441" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="442" spans="8:8">
-      <c r="H442" t="s">
+    <row r="417" spans="8:8">
+      <c r="H417" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="418" spans="8:8">
+      <c r="H418" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="419" spans="8:8">
+      <c r="H419" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="420" spans="8:8">
+      <c r="H420" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="421" spans="8:8">
+      <c r="H421" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="443" spans="8:8">
-      <c r="H443" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="444" spans="8:8">
-      <c r="H444" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="445" spans="8:8">
-      <c r="H445" t="s">
+    <row r="422" spans="8:8">
+      <c r="H422" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="423" spans="8:8">
+      <c r="H423" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="424" spans="8:8">
+      <c r="H424" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="8:8">
+      <c r="H425" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="426" spans="8:8">
+      <c r="H426" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="427" spans="8:8">
+      <c r="H427" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="428" spans="8:8">
+      <c r="H428" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="429" spans="8:8">
+      <c r="H429" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="430" spans="8:8">
+      <c r="H430" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="431" spans="8:8">
+      <c r="H431" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="8:8">
+      <c r="H432" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="433" spans="8:8">
+      <c r="H433" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="434" spans="8:8">
+      <c r="H434" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="446" spans="8:8">
-      <c r="H446" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="447" spans="8:8">
-      <c r="H447" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="448" spans="8:8">
-      <c r="H448" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="449" spans="8:8">
-      <c r="H449" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="450" spans="8:8">
-      <c r="H450" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="451" spans="8:8">
-      <c r="H451" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="452" spans="8:8">
-      <c r="H452" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="453" spans="8:8">
-      <c r="H453" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="454" spans="8:8">
-      <c r="H454" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="455" spans="8:8">
-      <c r="H455" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="456" spans="8:8">
-      <c r="H456" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,215 +30,203 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="82">
-  <si>
-    <t>حضورات يوم 6/25</t>
-  </si>
-  <si>
-    <t>حضور ٧ ص</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="78">
+  <si>
+    <t>حضورات يوم 6/26</t>
+  </si>
+  <si>
+    <t>حضور ٨ ص</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>علاء😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
   </si>
   <si>
     <t>الزيتون و مصر الجديدة</t>
   </si>
   <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>مومن</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>عبدالله علاء😎</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>عمر جحا😎</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>محمد رفعت😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>احمد صادق😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>حسن الطيار</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>محمد قاسم ع موسي</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>تامر علاء tp</t>
+  </si>
+  <si>
     <t>طه😎</t>
   </si>
   <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>حضور ٨ ص</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>حسن الطيار</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>مدحت😎</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>مؤمن</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>عبدالله علاء😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>علاء😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>محمد رفعت😎</t>
-  </si>
-  <si>
-    <t>احمد صادق 😎</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>محمد قاسم ع موسي</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>عبده😎</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>تامر علاء tp</t>
+    <t>هاني😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>معتز</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
   </si>
   <si>
     <t>مدينتي</t>
   </si>
   <si>
-    <t>هاني😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>العباسية</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>😡😡😡😡</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>ياسر😎</t>
-  </si>
-  <si>
     <t>حضور ١٢ م</t>
   </si>
   <si>
@@ -254,10 +242,10 @@
     <t>حضور ٢ م</t>
   </si>
   <si>
+    <t>مكاوي😎</t>
+  </si>
+  <si>
     <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>مكاوي😎</t>
   </si>
   <si>
     <t>حضور ٤ م</t>
@@ -1434,10 +1422,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J434"/>
+  <dimension ref="A1:J414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I111"/>
+      <selection activeCell="G1" sqref="G1:I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1461,7 +1449,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>طه😎        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1479,7 +1467,7 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>بلال😎        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1494,44 +1482,44 @@
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f>CONCATENATE(I4," ",J4," ",K4," ",L4," ",M4," ",N4," ",O4," ",P4," ",Q4)</f>
-        <v>حسن الطيار        </v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>ايهاب        </v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" t="s">
         <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
-        <v>عم مجدي        </v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -1541,10 +1529,10 @@
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
@@ -1557,10 +1545,10 @@
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
@@ -1573,10 +1561,10 @@
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
@@ -1589,10 +1577,10 @@
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>18</v>
@@ -1605,10 +1593,10 @@
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>مومن        </v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>20</v>
@@ -1621,10 +1609,10 @@
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>22</v>
@@ -1637,45 +1625,45 @@
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>عبدالله علاء😎        </v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
+        <v>عمر جحا😎        </v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
@@ -1685,392 +1673,394 @@
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>مؤمن        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" t="s">
         <v>29</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>عبدالله علاء😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>احمد صادق 😎        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي بسكوته        </v>
+        <v>محمد قاسم ع موسي        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>محمد قاسم ع موسي        </v>
+        <v>تامر علاء tp        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>عبده😎        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
-        <v>محمود اسامه ملاكي        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>تامر علاء tp        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>طه😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I40" t="s">
         <v>55</v>
@@ -2079,152 +2069,152 @@
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>معتز        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
         <v>56</v>
-      </c>
-      <c r="I41" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I42" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>😡😡😡😡        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>مومن        </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>المصري        </v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
       </c>
       <c r="I50" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -2233,958 +2223,895 @@
         <v>عم مجدي        </v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>حسين فايد😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>مؤمن        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" t="s">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="I54" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="H57" t="s">
+        <v>62</v>
       </c>
       <c r="I57" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="H58" t="s">
+        <v>8</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="I59" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I60" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>محمد رفعت😎        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>مؤمن        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
+        <v>محمد قاسم ع موسي        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H63" t="s">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>محمد قاسم ع موسي        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H64" t="s">
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>احمد صادق 😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>مصطفي بسكوته        </v>
+        <v>مومن        </v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>احمد حسن😎        </v>
       </c>
       <c r="G70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
         <v>66</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I70" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>ياسر😎        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="I71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H73" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>احمد حسن😎        </v>
+        <v>عبدالله علاء😎        </v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I75" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>كريم علي😎        </v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>عبده😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>عبدالله علاء😎        </v>
+        <v>مومن        </v>
       </c>
       <c r="G80" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G81" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I81" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>مكاوي😎        </v>
       </c>
       <c r="G82" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>25</v>
+      <c r="H82" t="s">
+        <v>8</v>
       </c>
       <c r="I82" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>مؤمن        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G83" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I83" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>كريم علي😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G84" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I84" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I85" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
+        <v>محمد قاسم ع موسي        </v>
       </c>
       <c r="G86" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I86" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G87" t="s">
-        <v>73</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G88" t="s">
-        <v>73</v>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I88" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>مؤمن        </v>
-      </c>
-      <c r="G89" t="s">
-        <v>73</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="I89" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>محمد رفعت😎        </v>
-      </c>
-      <c r="G90" t="s">
-        <v>73</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G91" t="s">
-        <v>73</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>41</v>
+        <v>محمد سعيد        </v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H91" t="s">
+        <v>8</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G92" t="s">
-        <v>73</v>
-      </c>
-      <c r="H92" t="s">
-        <v>22</v>
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I92" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G93" t="s">
-        <v>73</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>27</v>
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H93" t="s">
+        <v>16</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>محمد قاسم ع موسي        </v>
-      </c>
-      <c r="G94" t="s">
-        <v>73</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G95" t="s">
-        <v>73</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>31</v>
+        <v>مومن        </v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H95" t="s">
+        <v>64</v>
       </c>
       <c r="I95" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>محمد رفعت😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G96" t="s">
-        <v>74</v>
-      </c>
-      <c r="H96" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I96" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
+        <v>محمد قاسم ع موسي        </v>
       </c>
       <c r="G97" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>عبدالله علاء😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G98" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H98" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G99" t="s">
-        <v>74</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I99" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>مكاوي😎        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G100" t="s">
         <v>74</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>54</v>
+      <c r="H100" t="s">
+        <v>8</v>
       </c>
       <c r="I100" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>محمد قاسم ع موسي        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G101" t="s">
-        <v>76</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="H101" t="s">
+        <v>16</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>هاني😎        </v>
+        <v>محمد قاسم ع موسي        </v>
       </c>
       <c r="G102" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I102" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>احمد ناصر😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H103" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I103" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>محمد رفعت😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G104" t="s">
-        <v>77</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="H104" t="s">
+        <v>53</v>
       </c>
       <c r="I104" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G105" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H105" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I105" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>احمد صادق 😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G106" t="s">
-        <v>78</v>
-      </c>
-      <c r="H106" t="s">
-        <v>14</v>
+        <v>75</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I106" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G107" t="s">
-        <v>78</v>
-      </c>
-      <c r="H107" t="s">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I107" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
       <c r="B108" t="str">
         <f t="shared" si="3"/>
-        <v>محمد قاسم ع موسي        </v>
-      </c>
-      <c r="G108" t="s">
-        <v>78</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I108" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
       <c r="B109" t="str">
         <f t="shared" si="3"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G109" t="s">
-        <v>78</v>
-      </c>
-      <c r="H109" t="s">
-        <v>65</v>
-      </c>
-      <c r="I109" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
       <c r="B110" t="str">
         <f t="shared" si="3"/>
-        <v>سامي😎        </v>
-      </c>
-      <c r="G110" t="s">
-        <v>78</v>
-      </c>
-      <c r="H110" t="s">
-        <v>56</v>
-      </c>
-      <c r="I110" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
       <c r="B111" t="str">
         <f t="shared" si="3"/>
-        <v>وليد😎        </v>
-      </c>
-      <c r="G111" t="s">
-        <v>79</v>
-      </c>
-      <c r="H111" t="s">
-        <v>61</v>
-      </c>
-      <c r="I111" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
       <c r="B112" t="str">
         <f t="shared" si="3"/>
-        <v>حسين فايد😎        </v>
-      </c>
-      <c r="G112" t="s">
-        <v>79</v>
-      </c>
-      <c r="H112" t="s">
-        <v>25</v>
-      </c>
-      <c r="I112" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
       <c r="B113" t="str">
         <f t="shared" si="3"/>
-        <v>علي طه        </v>
-      </c>
-      <c r="G113" t="s">
-        <v>79</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I113" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
       <c r="B114" t="str">
         <f t="shared" si="3"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G114" t="s">
-        <v>79</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I114" t="s">
-        <v>28</v>
+        <v>        </v>
       </c>
     </row>
     <row r="115" spans="2:2">
@@ -3669,202 +3596,176 @@
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="H394" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395" t="s">
+        <v>10</v>
+      </c>
+      <c r="H395" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
+      <c r="A396" t="s">
+        <v>76</v>
+      </c>
+      <c r="H396" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
+      <c r="A397" t="s">
+        <v>14</v>
+      </c>
+      <c r="H397" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
+      <c r="A398" t="s">
+        <v>16</v>
+      </c>
+      <c r="H398" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
+      <c r="A399" t="s">
+        <v>18</v>
+      </c>
+      <c r="H399" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
+      <c r="A400" t="s">
+        <v>47</v>
+      </c>
+      <c r="H400" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="A401" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
+      <c r="H401" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
+      <c r="A402" t="s">
+        <v>60</v>
+      </c>
+      <c r="H402" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
+      <c r="A403" t="s">
+        <v>24</v>
+      </c>
+      <c r="H403" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="A404" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
+      <c r="H404" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
       <c r="A405" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="H405" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
       <c r="A406" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="H406" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="407" spans="8:8">
+      <c r="H407" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="408" spans="8:8">
+      <c r="H408" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="409" spans="8:8">
+      <c r="H409" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="410" spans="8:8">
+      <c r="H410" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="411" spans="8:8">
+      <c r="H411" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="8:8">
+      <c r="H412" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="413" spans="8:8">
+      <c r="H413" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="414" spans="8:8">
       <c r="H414" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="415" spans="8:8">
-      <c r="H415" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="416" spans="8:8">
-      <c r="H416" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="417" spans="8:8">
-      <c r="H417" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="418" spans="8:8">
-      <c r="H418" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="419" spans="8:8">
-      <c r="H419" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="420" spans="8:8">
-      <c r="H420" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="421" spans="8:8">
-      <c r="H421" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="422" spans="8:8">
-      <c r="H422" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="423" spans="8:8">
-      <c r="H423" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="424" spans="8:8">
-      <c r="H424" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="425" spans="8:8">
-      <c r="H425" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="426" spans="8:8">
-      <c r="H426" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="427" spans="8:8">
-      <c r="H427" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="428" spans="8:8">
-      <c r="H428" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="429" spans="8:8">
-      <c r="H429" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="430" spans="8:8">
-      <c r="H430" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="431" spans="8:8">
-      <c r="H431" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="432" spans="8:8">
-      <c r="H432" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="433" spans="8:8">
-      <c r="H433" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="434" spans="8:8">
-      <c r="H434" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="78">
-  <si>
-    <t>حضورات يوم 6/26</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="77">
+  <si>
+    <t>حضورات يوم 6/27</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -44,220 +44,217 @@
     <t>علاء😎</t>
   </si>
   <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>مومن</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>عمر جحا😎</t>
+  </si>
+  <si>
     <t>التحرير</t>
   </si>
   <si>
     <t>ايهاب سليمان</t>
   </si>
   <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>مدحت😎</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>فيصل</t>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>محمد رفعت😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>احمد صادق😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>حسن الطيار</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>محمد قاسم ع موسي</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>عم مجدي ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>تامر علاء tp</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>هاني😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>معتز</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>ياسر😎</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>مكاوي😎</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
+    <t>حضور ٤ م</t>
+  </si>
+  <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
+    <t>حضور ٧ م</t>
   </si>
   <si>
     <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>مومن</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>عبدالله علاء😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>عمر جحا😎</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>محمد رفعت😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>احمد صادق😎</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>حسن الطيار</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>محمد قاسم ع موسي</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>تامر علاء tp</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>هاني😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>العباسية</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>مكاوي😎</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
-    <t>حضور ٧ م</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
@@ -1422,17 +1419,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J414"/>
+  <dimension ref="A1:J406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I107"/>
+      <selection activeCell="G1" sqref="G1:I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.1727272727273" customWidth="1"/>
+    <col min="9" max="9" width="16.7363636363636" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1467,7 +1464,7 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>ايهاب سليمان        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1482,7 +1479,7 @@
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f>CONCATENATE(I4," ",J4," ",K4," ",L4," ",M4," ",N4," ",O4," ",P4," ",Q4)</f>
-        <v>ايهاب        </v>
+        <v>مومن        </v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -1545,7 +1542,7 @@
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1561,7 +1558,7 @@
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -1577,7 +1574,7 @@
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
@@ -1586,84 +1583,84 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>مومن        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
         <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
         <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>عبدالله علاء😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
         <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>عمر جحا😎        </v>
-      </c>
-      <c r="G14" s="1" t="s">
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
         <v>26</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>عمر جحا😎        </v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
@@ -1673,45 +1670,45 @@
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -1721,29 +1718,29 @@
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>احمد صادق😎        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I20" t="s">
         <v>35</v>
@@ -1753,10 +1750,10 @@
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>حسن الطيار        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>36</v>
@@ -1769,10 +1766,10 @@
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>38</v>
@@ -1785,10 +1782,10 @@
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي بسكوته        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>40</v>
@@ -1801,141 +1798,141 @@
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>محمد قاسم ع موسي        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>محمد قاسم ع موسي        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎        </v>
+        <v>عم مجدي ٣ افراد 🙏        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
         <v>49</v>
@@ -1945,170 +1942,170 @@
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>تامر علاء tp        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>هاني😎        </v>
+        <v>تامر علاء tp        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
-        <v>محسن الضبع        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s">
         <v>53</v>
-      </c>
-      <c r="I36" t="s">
-        <v>23</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s">
         <v>54</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>معتز        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>مومن        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>معتز        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I43" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -2117,506 +2114,506 @@
         <v>ايهاب سليمان        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I44" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>حسن الطيار        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>حسين فايد😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>مومن        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H50" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="I50" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s">
         <v>54</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>54</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G52" t="s">
+        <v>61</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>54</v>
+        <v>احمد صادق😎        </v>
+      </c>
+      <c r="G53" t="s">
+        <v>61</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>54</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G54" t="s">
+        <v>61</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>54</v>
+        <v>محمد قاسم ع موسي        </v>
+      </c>
+      <c r="G55" t="s">
+        <v>61</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>محمد رفعت😎        </v>
-      </c>
-      <c r="G56" s="1" t="s">
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G56" t="s">
         <v>61</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G57" s="1" t="s">
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G57" t="s">
         <v>61</v>
       </c>
-      <c r="H57" t="s">
-        <v>62</v>
+      <c r="H57" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
-      </c>
-      <c r="G58" s="1" t="s">
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G58" t="s">
         <v>61</v>
       </c>
-      <c r="H58" t="s">
-        <v>8</v>
+      <c r="H58" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G59" s="1" t="s">
+        <v>محمد رفعت😎        </v>
+      </c>
+      <c r="G59" t="s">
         <v>61</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G60" s="1" t="s">
+        <v>هاني😎        </v>
+      </c>
+      <c r="G60" t="s">
         <v>61</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>احمد صادق😎        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>محمد قاسم ع موسي        </v>
+        <v>ياسر😎        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I63" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>مومن        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>محمد قاسم ع موسي        </v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I67" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>مومن        </v>
+        <v>احمد حسن😎        </v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I68" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>احمد حسن😎        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I71" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="H72" t="s">
+        <v>36</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I74" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>عبدالله علاء😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I75" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
+        <v>مومن        </v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>كريم علي😎        </v>
+        <v>مكاوي😎        </v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="I77" t="s">
         <v>68</v>
@@ -2625,451 +2622,352 @@
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>مومن        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
         <v>69</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I80" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
+        <v>محمد قاسم ع موسي        </v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="H81" t="s">
+        <v>23</v>
       </c>
       <c r="I81" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H82" t="s">
-        <v>8</v>
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G82" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>69</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G83" t="s">
+        <v>70</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I83" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>69</v>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G84" t="s">
+        <v>70</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I84" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>69</v>
+        <v>ياسر😎        </v>
+      </c>
+      <c r="G85" t="s">
+        <v>70</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>محمد قاسم ع موسي        </v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>69</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G86" t="s">
+        <v>71</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I86" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G87" s="1" t="s">
+        <v>سامي😎        </v>
+      </c>
+      <c r="G87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
         <v>69</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I87" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>69</v>
+        <v>وليد😎        </v>
+      </c>
+      <c r="G88" t="s">
+        <v>72</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>69</v>
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G89" t="s">
+        <v>72</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I89" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>71</v>
+        <v>سامي😎        </v>
+      </c>
+      <c r="G90" t="s">
+        <v>72</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I90" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سعيد        </v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>71</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G91" t="s">
+        <v>72</v>
       </c>
       <c r="H91" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="I91" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>10</v>
+        <v>محمد قاسم ع موسي        </v>
+      </c>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s">
+        <v>55</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>عم مجدي        </v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>71</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G93" t="s">
+        <v>73</v>
       </c>
       <c r="H93" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>18</v>
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G94" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94" t="s">
+        <v>16</v>
       </c>
       <c r="I94" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>مومن        </v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H95" t="s">
-        <v>64</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G95" t="s">
+        <v>73</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I95" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G96" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>محمد قاسم ع موسي        </v>
-      </c>
-      <c r="G97" t="s">
-        <v>72</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G98" t="s">
-        <v>72</v>
-      </c>
-      <c r="H98" t="s">
-        <v>47</v>
-      </c>
-      <c r="I98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I99" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G100" t="s">
-        <v>74</v>
-      </c>
-      <c r="H100" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>سامي😎        </v>
-      </c>
-      <c r="G101" t="s">
-        <v>74</v>
-      </c>
-      <c r="H101" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>محمد قاسم ع موسي        </v>
-      </c>
-      <c r="G102" t="s">
-        <v>74</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I102" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G103" t="s">
-        <v>74</v>
-      </c>
-      <c r="H103" t="s">
-        <v>60</v>
-      </c>
-      <c r="I103" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G104" t="s">
-        <v>74</v>
-      </c>
-      <c r="H104" t="s">
-        <v>53</v>
-      </c>
-      <c r="I104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>وليد😎        </v>
-      </c>
-      <c r="G105" t="s">
-        <v>75</v>
-      </c>
-      <c r="H105" t="s">
-        <v>57</v>
-      </c>
-      <c r="I105" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G106" t="s">
-        <v>75</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G107" t="s">
-        <v>75</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I107" t="s">
-        <v>7</v>
+        <v>        </v>
       </c>
     </row>
     <row r="108" spans="2:2">
@@ -3594,178 +3492,190 @@
         <v>        </v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="374" spans="8:8">
+      <c r="H374" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="8:8">
+      <c r="H375" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="8:8">
+      <c r="H376" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="377" spans="8:8">
+      <c r="H377" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="8:8">
+      <c r="H378" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="379" spans="8:8">
+      <c r="H379" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="380" spans="8:8">
+      <c r="H380" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="381" spans="8:8">
+      <c r="H381" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="382" spans="8:8">
+      <c r="H382" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="8:8">
+      <c r="H383" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="384" spans="8:8">
+      <c r="H384" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="385" spans="8:8">
+      <c r="H385" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="386" spans="8:8">
+      <c r="H386" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="387" spans="8:8">
+      <c r="H387" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="389" spans="1:1">
+      <c r="H388" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="H389" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="H390" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="392" spans="1:1">
+      <c r="H391" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="H392" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="H393" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="394" spans="1:8">
       <c r="A394" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H394" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
       <c r="A395" t="s">
         <v>10</v>
       </c>
-      <c r="H395" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8">
+    </row>
+    <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>76</v>
-      </c>
-      <c r="H396" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
       <c r="A397" t="s">
         <v>14</v>
       </c>
-      <c r="H397" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8">
+    </row>
+    <row r="398" spans="1:1">
       <c r="A398" t="s">
         <v>16</v>
       </c>
-      <c r="H398" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8">
+    </row>
+    <row r="399" spans="1:1">
       <c r="A399" t="s">
         <v>18</v>
       </c>
-      <c r="H399" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8">
+    </row>
+    <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>47</v>
-      </c>
-      <c r="H400" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>20</v>
-      </c>
-      <c r="H401" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
       <c r="A402" t="s">
         <v>60</v>
       </c>
-      <c r="H402" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8">
+    </row>
+    <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>24</v>
-      </c>
-      <c r="H403" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>4</v>
-      </c>
-      <c r="H404" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>64</v>
-      </c>
-      <c r="H405" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>22</v>
-      </c>
-      <c r="H406" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="407" spans="8:8">
-      <c r="H407" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="408" spans="8:8">
-      <c r="H408" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="409" spans="8:8">
-      <c r="H409" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="410" spans="8:8">
-      <c r="H410" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="411" spans="8:8">
-      <c r="H411" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="412" spans="8:8">
-      <c r="H412" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="413" spans="8:8">
-      <c r="H413" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="414" spans="8:8">
-      <c r="H414" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="77">
-  <si>
-    <t>حضورات يوم 6/27</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="81">
+  <si>
+    <t>حضورات يوم 6/30</t>
+  </si>
+  <si>
+    <t>حضور ٧ ص</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -50,211 +59,214 @@
     <t>سيد سلامه😎</t>
   </si>
   <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>حمزه😎</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>عمر جحا😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
+    <t>محمد رفعت😎</t>
+  </si>
+  <si>
+    <t>احمد صادق😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>رامي ع موسي</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>تامر علاء tp</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>هاني😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم ٢</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>مومن</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>معتز</t>
+  </si>
+  <si>
+    <t>عبدالله عيد😎</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
     <t>العباسية</t>
   </si>
   <si>
-    <t>مومن</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>مدحت😎</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
     <t>مدينتي</t>
   </si>
   <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>عمر جحا😎</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>محمد رفعت😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>احمد صادق😎</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>حسن الطيار</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>محمد قاسم ع موسي</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>عم مجدي ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>تامر علاء tp</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>هاني😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
     <t>حضور ١٢ م</t>
   </si>
   <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
+    <t>كريم علي😎</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>مكاوي😎</t>
+  </si>
+  <si>
     <t>وليد😎</t>
   </si>
   <si>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>حضور ٤ م</t>
+  </si>
+  <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
     <t>ياسر😎</t>
   </si>
   <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>مكاوي😎</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
     <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
@@ -1422,14 +1434,14 @@
   <dimension ref="A1:J406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I96"/>
+      <selection activeCell="G1" sqref="G1:I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.7363636363636" customWidth="1"/>
+    <col min="9" max="9" width="15.5272727272727" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1446,7 +1458,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>علاء😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1464,31 +1476,31 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
+        <v>علاء😎        </v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f>CONCATENATE(I4," ",J4," ",K4," ",L4," ",M4," ",N4," ",O4," ",P4," ",Q4)</f>
-        <v>مومن        </v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -1496,43 +1508,43 @@
         <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
         <v>محمود اسامه ملاكي        </v>
       </c>
-      <c r="G5" t="s">
-        <v>1</v>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -1542,10 +1554,10 @@
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
@@ -1558,10 +1570,10 @@
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
@@ -1576,14 +1588,14 @@
         <f t="shared" si="0"/>
         <v>شريف عبد المنعم        </v>
       </c>
-      <c r="G10" t="s">
-        <v>1</v>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -1592,75 +1604,75 @@
         <f t="shared" si="0"/>
         <v>محمد فوزي        </v>
       </c>
-      <c r="G11" t="s">
-        <v>1</v>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
+        <v>حمزه😎        </v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
+        <v>عمر جحا😎        </v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>حمزه😎        </v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>عمر جحا😎        </v>
+        <v>وائل😎        </v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
@@ -1670,29 +1682,29 @@
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
         <v>29</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="I17" t="s">
         <v>31</v>
@@ -1702,13 +1714,13 @@
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -1718,29 +1730,29 @@
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
         <v>33</v>
-      </c>
-      <c r="I19" t="s">
-        <v>34</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
         <v>35</v>
@@ -1750,10 +1762,10 @@
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>احمد صادق😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>36</v>
@@ -1766,10 +1778,10 @@
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>38</v>
@@ -1782,345 +1794,345 @@
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>حسن الطيار        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي بسكوته        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>محمد قاسم ع موسي        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>رامي ع موسي        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي ٣ افراد 🙏        </v>
+        <v>تامر علاء tp        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
         <v>48</v>
-      </c>
-      <c r="I32" t="s">
-        <v>49</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>تامر علاء tp        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
-        <v>طه😎        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
+        <v>شريف عبد المنعم ٢        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>مومن        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I42" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>معتز        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I43" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="2:10">
@@ -2129,530 +2141,530 @@
         <v>مصطفي منتصر        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
         <v>12</v>
-      </c>
-      <c r="I46" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>مومن        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
+        <v>المصري        </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I48" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>معتز        </v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I49" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G52" t="s">
-        <v>61</v>
+        <v>عبدالله عيد😎        </v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G53" t="s">
-        <v>61</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="I53" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G54" t="s">
-        <v>61</v>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>محمد قاسم ع موسي        </v>
-      </c>
-      <c r="G55" t="s">
-        <v>61</v>
+        <v>محمد رفعت😎        </v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G56" t="s">
-        <v>61</v>
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G57" t="s">
-        <v>61</v>
+        <v>احمد صادق😎        </v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G58" t="s">
-        <v>61</v>
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I58" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>محمد رفعت😎        </v>
-      </c>
-      <c r="G59" t="s">
-        <v>61</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I59" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G60" t="s">
-        <v>61</v>
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>وليد😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>ياسر😎        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I63" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>حمزه😎        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>مومن        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I66" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>محمد قاسم ع موسي        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>احمد حسن😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>محمد رفعت😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H71" t="s">
         <v>66</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H72" t="s">
-        <v>36</v>
+        <v>64</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I72" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I74" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I75" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>مومن        </v>
+        <v>احمد حسن😎        </v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I76" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G77" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I77" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G78" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I78" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق😎        </v>
+        <v>حمزه😎        </v>
       </c>
       <c r="G79" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I79" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G80" s="1" t="s">
         <v>67</v>
@@ -2661,337 +2673,472 @@
         <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>محمد قاسم ع موسي        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G81" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H81" t="s">
-        <v>23</v>
+      <c r="H81" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G82" t="s">
-        <v>70</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>4</v>
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H82" t="s">
+        <v>63</v>
       </c>
       <c r="I82" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>مكاوي😎        </v>
       </c>
       <c r="G83" t="s">
         <v>70</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I83" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G84" t="s">
         <v>70</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I84" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>ياسر😎        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G85" t="s">
         <v>70</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>19</v>
+      <c r="H85" t="s">
+        <v>65</v>
       </c>
       <c r="I85" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G86" t="s">
-        <v>71</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
       </c>
       <c r="I86" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I87" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G89" t="s">
-        <v>72</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>16</v>
+        <v>70</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G90" t="s">
-        <v>72</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>18</v>
+        <v>70</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
       </c>
       <c r="I90" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G91" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
         <v>72</v>
-      </c>
-      <c r="H91" t="s">
-        <v>60</v>
-      </c>
-      <c r="I91" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>محمد قاسم ع موسي        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G92" t="s">
-        <v>72</v>
-      </c>
-      <c r="H92" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G93" t="s">
-        <v>73</v>
-      </c>
-      <c r="H93" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I93" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>حسين فايد😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G94" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H94" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I94" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G95" t="s">
         <v>73</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>18</v>
+      <c r="H95" t="s">
+        <v>11</v>
       </c>
       <c r="I95" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G96" t="s">
         <v>73</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G98" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99" t="s">
+        <v>66</v>
+      </c>
+      <c r="I99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G100" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
+        <v>هاني😎        </v>
+      </c>
+      <c r="G101" t="s">
+        <v>74</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I101" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G102" t="s">
+        <v>74</v>
+      </c>
+      <c r="H102" t="s">
+        <v>45</v>
+      </c>
+      <c r="I102" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G103" t="s">
+        <v>75</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
+        <v>ياسر😎        </v>
+      </c>
+      <c r="G104" t="s">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s">
+        <v>9</v>
+      </c>
+      <c r="I104" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
+        <v>محمد رفعت😎        </v>
+      </c>
+      <c r="G105" t="s">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s">
+        <v>58</v>
+      </c>
+      <c r="I105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
+        <v>سامي😎        </v>
+      </c>
+      <c r="G106" t="s">
+        <v>76</v>
+      </c>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G107" t="s">
+        <v>76</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
       <c r="B108" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
+        <v>احمد حسن😎        </v>
+      </c>
+      <c r="G108" t="s">
+        <v>76</v>
+      </c>
+      <c r="H108" t="s">
+        <v>63</v>
+      </c>
+      <c r="I108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
       <c r="B109" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G109" t="s">
+        <v>78</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
       <c r="B110" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G110" t="s">
+        <v>78</v>
+      </c>
+      <c r="H110" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
       <c r="B111" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G111" t="s">
+        <v>78</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="2:2">
@@ -3492,145 +3639,159 @@
         <v>        </v>
       </c>
     </row>
-    <row r="374" spans="8:8">
-      <c r="H374" t="s">
+    <row r="352" spans="8:8">
+      <c r="H352" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="8:8">
+      <c r="H353" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="8:8">
+      <c r="H354" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="355" spans="8:8">
+      <c r="H355" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="8:8">
+      <c r="H356" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357" spans="8:8">
+      <c r="H357" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="358" spans="8:8">
+      <c r="H358" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="359" spans="8:8">
+      <c r="H359" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="360" spans="8:8">
+      <c r="H360" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="8:8">
-      <c r="H375" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="376" spans="8:8">
-      <c r="H376" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="377" spans="8:8">
-      <c r="H377" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="378" spans="8:8">
-      <c r="H378" t="s">
+    <row r="361" spans="8:8">
+      <c r="H361" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="362" spans="8:8">
+      <c r="H362" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="363" spans="8:8">
+      <c r="H363" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="364" spans="8:8">
+      <c r="H364" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="365" spans="8:8">
+      <c r="H365" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="366" spans="8:8">
+      <c r="H366" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="367" spans="8:8">
+      <c r="H367" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="368" spans="8:8">
+      <c r="H368" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="369" spans="8:8">
+      <c r="H369" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="370" spans="8:8">
+      <c r="H370" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="371" spans="8:8">
+      <c r="H371" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="372" spans="8:8">
+      <c r="H372" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="379" spans="8:8">
-      <c r="H379" t="s">
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="380" spans="8:8">
-      <c r="H380" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="381" spans="8:8">
-      <c r="H381" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="382" spans="8:8">
-      <c r="H382" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="383" spans="8:8">
-      <c r="H383" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="384" spans="8:8">
-      <c r="H384" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="385" spans="8:8">
-      <c r="H385" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="386" spans="8:8">
-      <c r="H386" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="387" spans="8:8">
-      <c r="H387" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8">
-      <c r="A388" t="s">
-        <v>2</v>
-      </c>
-      <c r="H388" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8">
-      <c r="A389" t="s">
-        <v>4</v>
-      </c>
-      <c r="H389" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8">
-      <c r="A390" t="s">
-        <v>33</v>
-      </c>
-      <c r="H390" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8">
-      <c r="A391" t="s">
-        <v>8</v>
-      </c>
-      <c r="H391" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8">
-      <c r="A392" t="s">
-        <v>36</v>
-      </c>
-      <c r="H392" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8">
-      <c r="A393" t="s">
-        <v>40</v>
-      </c>
-      <c r="H393" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8">
-      <c r="A394" t="s">
-        <v>42</v>
-      </c>
-      <c r="H394" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="398" spans="1:1">
@@ -3645,37 +3806,37 @@
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,243 +30,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="81">
-  <si>
-    <t>حضورات يوم 6/30</t>
-  </si>
-  <si>
-    <t>حضور ٧ ص</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="77">
+  <si>
+    <t>حضورات يوم 7/4</t>
+  </si>
+  <si>
+    <t>حضور ٨ ص</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>علاء😎</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>فرج😎</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
   </si>
   <si>
     <t>حلوان و زهراء المعادي</t>
   </si>
   <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>مدحت😎</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>عبدالرحمن الاعصر</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>عمر جحا😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>محمد رفعت😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
     <t>مصطفي منتصر</t>
   </si>
   <si>
-    <t>حضور ٨ ص</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>علاء😎</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>مدحت😎</t>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
   </si>
   <si>
     <t>فيصل</t>
   </si>
   <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>عم سعيد ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>خالد ابو الفتوح😎</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>هاني😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>معتز</t>
+  </si>
+  <si>
     <t>احمد جلال</t>
   </si>
   <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>حمزه😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>عمر جحا😎</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
+    <t>احمد صادق😎</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>مكاوي😎</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>ايهاب ملاك</t>
+  </si>
+  <si>
+    <t>حضور ٤ م</t>
+  </si>
+  <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
+    <t>توفيق ملاك</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>حضور ٨ م</t>
+  </si>
+  <si>
+    <t>روماني</t>
   </si>
   <si>
     <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>محمد رفعت😎</t>
-  </si>
-  <si>
-    <t>احمد صادق😎</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>رامي ع موسي</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>تامر علاء tp</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>هاني😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم ٢</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>مومن</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
-    <t>عبدالله عيد😎</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>العباسية</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>مكاوي😎</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
-    <t>ياسر😎</t>
-  </si>
-  <si>
-    <t>حضور ٧ م</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
@@ -1434,14 +1422,14 @@
   <dimension ref="A1:J406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I104"/>
+      <selection activeCell="G1" sqref="G1:I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="15.5272727272727" customWidth="1"/>
+    <col min="9" max="9" width="16.1727272727273" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1458,7 +1446,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>مصطفي منتصر        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1476,46 +1464,46 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>فرج😎        </v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
         <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f>CONCATENATE(I4," ",J4," ",K4," ",L4," ",M4," ",N4," ",O4," ",P4," ",Q4)</f>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>محمد سعيد        </v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -1524,27 +1512,27 @@
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
         <v>محمد سامح😎        </v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
+      <c r="G6" t="s">
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
         <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>مدحت😎        </v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -1554,10 +1542,10 @@
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
@@ -1570,10 +1558,10 @@
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
@@ -1586,10 +1574,10 @@
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>4</v>
+        <v>عبدالرحمن الاعصر        </v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>18</v>
@@ -1602,13 +1590,13 @@
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>عمر جحا😎        </v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
@@ -1618,10 +1606,10 @@
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>حمزه😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>22</v>
@@ -1634,93 +1622,93 @@
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>عمر جحا😎        </v>
+        <v>وائل😎        </v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
         <v>24</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>وائل😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>سامي😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
         <v>30</v>
-      </c>
-      <c r="I17" t="s">
-        <v>31</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -1730,26 +1718,26 @@
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>احمد صادق😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>احمد عبدالله        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>34</v>
@@ -1762,77 +1750,77 @@
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
         <v>36</v>
-      </c>
-      <c r="I21" t="s">
-        <v>37</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي بسكوته        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="I23" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
+        <v>عم سعيد ٣ افراد 🙏        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
         <v>41</v>
@@ -1842,29 +1830,29 @@
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
         <v>43</v>
@@ -1874,16 +1862,16 @@
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="J28" s="2"/>
     </row>
@@ -1893,198 +1881,198 @@
         <v>ايهاب        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>رامي ع موسي        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
         <v>45</v>
-      </c>
-      <c r="I30" t="s">
-        <v>46</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>تامر علاء tp        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>هاني😎        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>معتز        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
-        <v>مدحت😎        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم ٢        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>المصري        </v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s">
         <v>54</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s">
         <v>35</v>
@@ -2093,149 +2081,149 @@
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I45" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>مومن        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I47" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>معتز        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>خالد ابو الفتوح😎        </v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I51" t="s">
         <v>44</v>
@@ -2244,46 +2232,46 @@
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>عبدالله عيد😎        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I53" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -2292,118 +2280,118 @@
         <v>محمد رفعت😎        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>احمد صادق😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
+        <v>احمد حسن😎        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -2412,733 +2400,562 @@
         <v>عم مجدي        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
+      </c>
+      <c r="H65" t="s">
+        <v>26</v>
       </c>
       <c r="I65" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>محمود اسامه ملاكي        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I68" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
+        <v>مكاوي😎        </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H71" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I71" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I73" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
         <v>7</v>
-      </c>
-      <c r="I74" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>احمد حسن😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I76" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
+        <v>ايهاب ملاك        </v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I77" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I78" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>حمزه😎        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
+      </c>
+      <c r="H79" t="s">
+        <v>57</v>
       </c>
       <c r="I79" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>67</v>
+        <v>هاني😎        </v>
+      </c>
+      <c r="G80" t="s">
+        <v>66</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I80" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>20</v>
+        <v>محمد رفعت😎        </v>
+      </c>
+      <c r="G81" t="s">
+        <v>66</v>
+      </c>
+      <c r="H81" t="s">
+        <v>42</v>
       </c>
       <c r="I81" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>كريم علي😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G82" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H82" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="I82" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
+        <v>مدحت😎        </v>
       </c>
       <c r="G83" t="s">
-        <v>70</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
+      </c>
+      <c r="H83" t="s">
+        <v>6</v>
       </c>
       <c r="I83" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>علي طه        </v>
+        <v>توفيق ملاك        </v>
       </c>
       <c r="G84" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="I84" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>احمد جلال        </v>
+        <v>هاني😎        </v>
       </c>
       <c r="G85" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H85" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I85" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>علي طه        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G86" t="s">
-        <v>70</v>
-      </c>
-      <c r="H86" t="s">
-        <v>9</v>
+        <v>68</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I86" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G87" t="s">
+        <v>68</v>
+      </c>
+      <c r="H87" t="s">
         <v>70</v>
       </c>
-      <c r="H87" t="s">
-        <v>11</v>
-      </c>
       <c r="I87" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G88" t="s">
-        <v>70</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G89" t="s">
-        <v>70</v>
-      </c>
-      <c r="H89" t="s">
-        <v>14</v>
+        <v>71</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G90" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H90" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I90" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G91" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
+        <v>روماني        </v>
       </c>
       <c r="G92" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G93" t="s">
-        <v>70</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I93" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" spans="2:2">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G94" t="s">
-        <v>70</v>
-      </c>
-      <c r="H94" t="s">
-        <v>52</v>
-      </c>
-      <c r="I94" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G95" t="s">
-        <v>73</v>
-      </c>
-      <c r="H95" t="s">
-        <v>11</v>
-      </c>
-      <c r="I95" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G96" t="s">
-        <v>73</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I96" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>عم مجدي        </v>
-      </c>
-      <c r="G97" t="s">
-        <v>73</v>
-      </c>
-      <c r="H97" t="s">
-        <v>16</v>
-      </c>
-      <c r="I97" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G98" t="s">
-        <v>73</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G99" t="s">
-        <v>73</v>
-      </c>
-      <c r="H99" t="s">
-        <v>66</v>
-      </c>
-      <c r="I99" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G100" t="s">
-        <v>74</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I100" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G101" t="s">
-        <v>74</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I101" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G102" t="s">
-        <v>74</v>
-      </c>
-      <c r="H102" t="s">
-        <v>45</v>
-      </c>
-      <c r="I102" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>كريم علي😎        </v>
-      </c>
-      <c r="G103" t="s">
-        <v>75</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I103" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>ياسر😎        </v>
-      </c>
-      <c r="G104" t="s">
-        <v>76</v>
-      </c>
-      <c r="H104" t="s">
-        <v>9</v>
-      </c>
-      <c r="I104" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>محمد رفعت😎        </v>
-      </c>
-      <c r="G105" t="s">
-        <v>76</v>
-      </c>
-      <c r="H105" t="s">
-        <v>58</v>
-      </c>
-      <c r="I105" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>سامي😎        </v>
-      </c>
-      <c r="G106" t="s">
-        <v>76</v>
-      </c>
-      <c r="H106" t="s">
-        <v>16</v>
-      </c>
-      <c r="I106" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G107" t="s">
-        <v>76</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I107" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
       <c r="B108" t="str">
         <f t="shared" si="3"/>
-        <v>احمد حسن😎        </v>
-      </c>
-      <c r="G108" t="s">
-        <v>76</v>
-      </c>
-      <c r="H108" t="s">
-        <v>63</v>
-      </c>
-      <c r="I108" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
       <c r="B109" t="str">
         <f t="shared" si="3"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G109" t="s">
-        <v>78</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
       <c r="B110" t="str">
         <f t="shared" si="3"/>
-        <v>حسين فايد😎        </v>
-      </c>
-      <c r="G110" t="s">
-        <v>78</v>
-      </c>
-      <c r="H110" t="s">
-        <v>16</v>
-      </c>
-      <c r="I110" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
       <c r="B111" t="str">
         <f t="shared" si="3"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G111" t="s">
-        <v>78</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I111" t="s">
-        <v>10</v>
+        <v>        </v>
       </c>
     </row>
     <row r="112" spans="2:2">
@@ -3639,204 +3456,204 @@
         <v>        </v>
       </c>
     </row>
-    <row r="352" spans="8:8">
-      <c r="H352" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="353" spans="8:8">
-      <c r="H353" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="354" spans="8:8">
-      <c r="H354" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="355" spans="8:8">
-      <c r="H355" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="356" spans="8:8">
-      <c r="H356" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="357" spans="8:8">
-      <c r="H357" t="s">
+    <row r="252" spans="8:8">
+      <c r="H252" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="8:8">
+      <c r="H253" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="8:8">
+      <c r="H254" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="255" spans="8:8">
+      <c r="H255" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="8:8">
+      <c r="H256" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257" spans="8:8">
+      <c r="H257" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="258" spans="8:8">
+      <c r="H258" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="259" spans="8:8">
+      <c r="H259" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="358" spans="8:8">
-      <c r="H358" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="359" spans="8:8">
-      <c r="H359" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="360" spans="8:8">
-      <c r="H360" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="361" spans="8:8">
-      <c r="H361" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="362" spans="8:8">
-      <c r="H362" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="363" spans="8:8">
-      <c r="H363" t="s">
+    <row r="260" spans="8:8">
+      <c r="H260" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="8:8">
+      <c r="H261" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="262" spans="8:8">
+      <c r="H262" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="263" spans="8:8">
+      <c r="H263" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="264" spans="8:8">
+      <c r="H264" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="8:8">
+      <c r="H265" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="266" spans="8:8">
+      <c r="H266" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="8:8">
+      <c r="H267" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="268" spans="8:8">
+      <c r="H268" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269" spans="8:8">
+      <c r="H269" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="270" spans="8:8">
+      <c r="H270" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="271" spans="8:8">
+      <c r="H271" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="8:8">
-      <c r="H364" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="365" spans="8:8">
-      <c r="H365" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="366" spans="8:8">
-      <c r="H366" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="367" spans="8:8">
-      <c r="H367" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="368" spans="8:8">
-      <c r="H368" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="369" spans="8:8">
-      <c r="H369" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="370" spans="8:8">
-      <c r="H370" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="371" spans="8:8">
-      <c r="H371" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="372" spans="8:8">
-      <c r="H372" t="s">
-        <v>80</v>
+    <row r="272" spans="8:8">
+      <c r="H272" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$O$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$O$212</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="77">
-  <si>
-    <t>حضورات يوم 7/4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="79">
+  <si>
+    <t>حضورات يوم 7/11</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -50,28 +50,37 @@
     <t>فرج😎</t>
   </si>
   <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
     <t>العبور</t>
   </si>
   <si>
-    <t>محمد سعيد</t>
+    <t>محمد سامح😎</t>
   </si>
   <si>
     <t>حلوان و زهراء المعادي</t>
   </si>
   <si>
-    <t>عبد النبي😎</t>
+    <t>مصطفي منتصر</t>
   </si>
   <si>
     <t>دائري</t>
   </si>
   <si>
-    <t>محمد سامح😎</t>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>حسن الطيار</t>
   </si>
   <si>
     <t>الرحاب و التجمع</t>
   </si>
   <si>
-    <t>مدحت😎</t>
+    <t>علي طه</t>
   </si>
   <si>
     <t>مدينة نصر</t>
@@ -83,15 +92,21 @@
     <t>مدينتي و الشروق</t>
   </si>
   <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>احمد ابو الحسن😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
     <t>محسن الضبع</t>
   </si>
   <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>عبدالرحمن الاعصر</t>
-  </si>
-  <si>
     <t>حضور ٩ ص</t>
   </si>
   <si>
@@ -110,10 +125,7 @@
     <t>هشام امين</t>
   </si>
   <si>
-    <t>العباسية</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
+    <t>علاء حسين😎</t>
   </si>
   <si>
     <t>محمد رفعت😎</t>
@@ -122,136 +134,130 @@
     <t>المهندسين</t>
   </si>
   <si>
+    <t>محمد كرم😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
     <t>محمد عبد المجيد😎</t>
   </si>
   <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
+    <t>عم مجدي 🙏٣ افراد</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>المقطم</t>
   </si>
   <si>
     <t>محمد فوزي</t>
   </si>
   <si>
-    <t>فيصل</t>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>زياد ملاكي ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>احمد ابو ملك😎</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>معتز</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>احمد صادق😎</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
+    <t>كريم وحيد😎</t>
+  </si>
+  <si>
+    <t>حضور ١ م</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>حضور ٤ م</t>
+  </si>
+  <si>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
+    <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>الواحات</t>
   </si>
   <si>
     <t>حسين فايد😎</t>
   </si>
   <si>
-    <t>عم سعيد ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>خالد ابو الفتوح😎</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>هاني😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>احمد صادق😎</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>مكاوي😎</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>ايهاب ملاك</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
-    <t>توفيق ملاك</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حضور ٧ م</t>
-  </si>
-  <si>
     <t>حضور ٨ م</t>
   </si>
   <si>
-    <t>روماني</t>
+    <t>حضور ٩ م</t>
   </si>
   <si>
     <t>العباسية و الضاهر</t>
@@ -1419,7 +1425,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J406"/>
+  <dimension ref="A1:J1048"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:I89"/>
@@ -1429,7 +1435,7 @@
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.1727272727273" customWidth="1"/>
+    <col min="9" max="9" width="16.2636363636364" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1479,7 +1485,7 @@
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f>CONCATENATE(I4," ",J4," ",K4," ",L4," ",M4," ",N4," ",O4," ",P4," ",Q4)</f>
-        <v>محمد سعيد        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -1494,7 +1500,7 @@
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
-        <v>عبد النبي😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1510,7 +1516,7 @@
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
-        <v>محمد سامح😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1526,7 +1532,7 @@
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>مدحت😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1535,100 +1541,100 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
         <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>عبدالرحمن الاعصر        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>عمر جحا😎        </v>
-      </c>
-      <c r="G11" s="1" t="s">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
         <v>20</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>احمد ابو الحسن😎        </v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
         <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>وائل😎        </v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
@@ -1638,61 +1644,61 @@
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>عمر جحا😎        </v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>وائل😎        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="I17" t="s">
         <v>30</v>
@@ -1702,29 +1708,29 @@
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>علاء حسين😎        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
         <v>31</v>
-      </c>
-      <c r="I18" t="s">
-        <v>32</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
@@ -1734,29 +1740,29 @@
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>محمد كرم😎        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
         <v>34</v>
-      </c>
-      <c r="I20" t="s">
-        <v>35</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
@@ -1766,157 +1772,157 @@
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد ٣ افراد 🙏        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
         <v>42</v>
-      </c>
-      <c r="I27" t="s">
-        <v>43</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>عم مجدي 🙏٣ افراد        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>هاني😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s">
         <v>46</v>
@@ -1926,45 +1932,45 @@
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
         <v>47</v>
-      </c>
-      <c r="I32" t="s">
-        <v>17</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>مدحت😎        </v>
+        <v>زياد ملاكي ٣ افراد 🙏        </v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
         <v>48</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>13</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s">
         <v>49</v>
@@ -1974,13 +1980,13 @@
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>معتز        </v>
+        <v>احمد ابو ملك😎        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
         <v>50</v>
@@ -1990,92 +1996,92 @@
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
-        <v>احمد جلال        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>معتز        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I39" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I40" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -2084,13 +2090,13 @@
         <v>محمد سامح😎        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -2099,28 +2105,28 @@
         <v>ايهاب        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="2:10">
@@ -2129,134 +2135,134 @@
         <v>محسن الضبع        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="H45" t="s">
+        <v>56</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>محمد رفعت😎        </v>
+        <v>علاء حسين😎        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
+        <v>احمد صادق😎        </v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>خالد ابو الفتوح😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -2265,13 +2271,13 @@
         <v>وليد😎        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -2280,370 +2286,370 @@
         <v>محمد رفعت😎        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I55" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I56" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎        </v>
+        <v>كريم وحيد😎        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>احمد حسن😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
       </c>
       <c r="I58" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>احمد صادق😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>هاني😎        </v>
+        <v>علاء حسين😎        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I60" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>مدحت😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="I61" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>علاء حسين😎        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I62" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>احمد صادق😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I64" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" t="s">
-        <v>26</v>
+        <v>65</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>احمد حسن😎        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I66" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
+      </c>
+      <c r="H67" t="s">
+        <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>هاني😎        </v>
+        <v>كريم وحيد😎        </v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>مكاوي😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I69" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
+        <v>علاء حسين😎        </v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>محمد رفعت😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="I72" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سعيد        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="I74" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب ملاك        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سعيد        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H79" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="I79" t="s">
         <v>7</v>
@@ -2652,197 +2658,173 @@
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G80" t="s">
-        <v>66</v>
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>محمد رفعت😎        </v>
-      </c>
-      <c r="G81" t="s">
-        <v>66</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H81" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="I81" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H82" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="I82" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>مدحت😎        </v>
-      </c>
-      <c r="G83" t="s">
-        <v>68</v>
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H83" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I83" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>توفيق ملاك        </v>
-      </c>
-      <c r="G84" t="s">
-        <v>68</v>
+        <v>علاء😎        </v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I84" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>هاني😎        </v>
-      </c>
-      <c r="G85" t="s">
-        <v>68</v>
-      </c>
-      <c r="H85" t="s">
-        <v>39</v>
+        <v>احمد صادق😎        </v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I85" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G86" t="s">
-        <v>68</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>12</v>
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
       </c>
       <c r="I86" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G87" t="s">
-        <v>68</v>
-      </c>
-      <c r="H87" t="s">
-        <v>70</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G88" t="s">
-        <v>68</v>
-      </c>
-      <c r="H88" t="s">
-        <v>47</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I88" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G89" t="s">
-        <v>71</v>
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>حسين فايد😎        </v>
-      </c>
-      <c r="G90" t="s">
-        <v>71</v>
-      </c>
-      <c r="H90" t="s">
-        <v>39</v>
-      </c>
-      <c r="I90" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="2:8">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G91" t="s">
-        <v>71</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="2:8">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>روماني        </v>
-      </c>
-      <c r="G92" t="s">
-        <v>72</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I92" t="s">
-        <v>73</v>
-      </c>
+        <v>        </v>
+      </c>
+      <c r="H92" s="1"/>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="str">
@@ -2880,17 +2862,19 @@
         <v>        </v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:8">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
         <v>        </v>
       </c>
-    </row>
-    <row r="100" spans="2:2">
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="2:8">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
+      <c r="H100" s="1"/>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="str">
@@ -3456,111 +3440,6 @@
         <v>        </v>
       </c>
     </row>
-    <row r="252" spans="8:8">
-      <c r="H252" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="8:8">
-      <c r="H253" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="8:8">
-      <c r="H254" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="255" spans="8:8">
-      <c r="H255" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="256" spans="8:8">
-      <c r="H256" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="257" spans="8:8">
-      <c r="H257" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="258" spans="8:8">
-      <c r="H258" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="259" spans="8:8">
-      <c r="H259" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="260" spans="8:8">
-      <c r="H260" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="261" spans="8:8">
-      <c r="H261" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="262" spans="8:8">
-      <c r="H262" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="263" spans="8:8">
-      <c r="H263" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="264" spans="8:8">
-      <c r="H264" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="265" spans="8:8">
-      <c r="H265" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="266" spans="8:8">
-      <c r="H266" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="267" spans="8:8">
-      <c r="H267" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="268" spans="8:8">
-      <c r="H268" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="269" spans="8:8">
-      <c r="H269" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="270" spans="8:8">
-      <c r="H270" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="271" spans="8:8">
-      <c r="H271" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="272" spans="8:8">
-      <c r="H272" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
         <v>2</v>
@@ -3573,91 +3452,196 @@
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1028" spans="8:8">
+      <c r="H1028" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1029" spans="8:8">
+      <c r="H1029" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1030" spans="8:8">
+      <c r="H1030" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1031" spans="8:8">
+      <c r="H1031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1032" spans="8:8">
+      <c r="H1032" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1033" spans="8:8">
+      <c r="H1033" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1034" spans="8:8">
+      <c r="H1034" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1035" spans="8:8">
+      <c r="H1035" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1036" spans="8:8">
+      <c r="H1036" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1037" spans="8:8">
+      <c r="H1037" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1038" spans="8:8">
+      <c r="H1038" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1039" spans="8:8">
+      <c r="H1039" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1040" spans="8:8">
+      <c r="H1040" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1041" spans="8:8">
+      <c r="H1041" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1042" spans="8:8">
+      <c r="H1042" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1043" spans="8:8">
+      <c r="H1043" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1044" spans="8:8">
+      <c r="H1044" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1045" spans="8:8">
+      <c r="H1045" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1046" spans="8:8">
+      <c r="H1046" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1047" spans="8:8">
+      <c r="H1047" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1048" spans="8:8">
+      <c r="H1048" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="G1:O200" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="G1:O212" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,240 +30,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="79">
-  <si>
-    <t>حضورات يوم 7/11</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
+  <si>
+    <t>حضورات يوم 7/13</t>
+  </si>
+  <si>
+    <t>حضور ٤ ص</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
   </si>
   <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>حسن الطيار</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>شهاب😎</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
     <t>اكتوبر و زايد</t>
   </si>
   <si>
-    <t>علاء😎</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>فرج😎</t>
-  </si>
-  <si>
-    <t>العباسية</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
+    <t>محمود اسامة ملاكي</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
   </si>
   <si>
     <t>مصطفي منتصر</t>
   </si>
   <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>حسن الطيار</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>محمد جلال</t>
   </si>
   <si>
     <t>علي طه</t>
   </si>
   <si>
-    <t>مدينة نصر</t>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>عبده</t>
+  </si>
+  <si>
+    <t>المقطم</t>
   </si>
   <si>
     <t>ايهاب</t>
   </si>
   <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>احمد ابو الحسن😎</t>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>احمد صادق😎</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>علاء حسين😎</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
   </si>
   <si>
     <t>بدر</t>
   </si>
   <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>عمر جحا😎</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>علاء حسين😎</t>
-  </si>
-  <si>
-    <t>محمد رفعت😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>محمد كرم😎</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>عم مجدي 🙏٣ افراد</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>زياد ملاكي ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>احمد ابو ملك😎</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>دائري مرج و السلام</t>
   </si>
   <si>
     <t>الشروق</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>احمد صادق😎</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>كريم وحيد😎</t>
-  </si>
-  <si>
-    <t>حضور ١ م</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
-    <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>حضور ٨ م</t>
-  </si>
-  <si>
-    <t>حضور ٩ م</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>دائري مرج و السلام</t>
   </si>
   <si>
     <t>سلم البارون</t>
@@ -1425,17 +1362,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1048"/>
+  <dimension ref="A1:J1034"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I89"/>
+      <selection activeCell="G1" sqref="G1:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.2636363636364" customWidth="1"/>
+    <col min="9" max="9" width="16.1727272727273" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1452,7 +1389,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>علاء😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1470,62 +1407,62 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>فرج😎        </v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f>CONCATENATE(I4," ",J4," ",K4," ",L4," ",M4," ",N4," ",O4," ",P4," ",Q4)</f>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
+        <v>حسن الطيار        </v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
+        <v>ايهاب سليمان        </v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
+        <v>محمد سعيد        </v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -1534,94 +1471,94 @@
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
         <v>محمد سامح😎        </v>
       </c>
-      <c r="G7" t="s">
-        <v>1</v>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>حسن الطيار        </v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
+        <v>شهاب😎        </v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
+        <v>محمد عبد المجيد😎        </v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ابو الحسن😎        </v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -1630,27 +1567,27 @@
         <f t="shared" si="0"/>
         <v>محسن الضبع        </v>
       </c>
-      <c r="G13" t="s">
-        <v>1</v>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
         <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>عمر جحا😎        </v>
+        <v>محمود اسامة ملاكي        </v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
@@ -1660,29 +1597,29 @@
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
         <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>وائل😎        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -1692,13 +1629,13 @@
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
         <v>30</v>
@@ -1708,13 +1645,13 @@
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>علاء حسين😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
         <v>31</v>
@@ -1724,13 +1661,13 @@
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
@@ -1740,256 +1677,256 @@
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>محمد كرم😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>محمد جلال        </v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" t="s">
         <v>35</v>
-      </c>
-      <c r="I21" t="s">
-        <v>36</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>حسن الطيار        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي بسكوته        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي 🙏٣ افراد        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎        </v>
+        <v>عبده        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي ٣ افراد 🙏        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ابو ملك😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J35" s="2"/>
     </row>
@@ -1999,832 +1936,621 @@
         <v>محسن الضبع        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" t="s">
         <v>23</v>
-      </c>
-      <c r="I36" t="s">
-        <v>24</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>51</v>
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>معتز        </v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>51</v>
+        <v>محمد سعيد        </v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>51</v>
+        <v>احمد صادق😎        </v>
+      </c>
+      <c r="G40" t="s">
+        <v>44</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>51</v>
+        <v>احمد عبدالله        </v>
+      </c>
+      <c r="G41" t="s">
+        <v>44</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>51</v>
+        <v>محمود اسامة ملاكي        </v>
+      </c>
+      <c r="G42" t="s">
+        <v>44</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I42" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>51</v>
+        <v>زياد ملاكي        </v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي        </v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>51</v>
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G44" t="s">
+        <v>44</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" t="s">
-        <v>56</v>
+        <v>احمد صادق😎        </v>
+      </c>
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>51</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G46" t="s">
+        <v>44</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I46" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>علاء حسين😎        </v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>58</v>
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G47" t="s">
+        <v>44</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>محمد رفعت😎        </v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>58</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G48" t="s">
+        <v>44</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>58</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G49" t="s">
+        <v>44</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>58</v>
+        <v>علاء حسين😎        </v>
+      </c>
+      <c r="G50" t="s">
+        <v>44</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>58</v>
+        <v>شهاب😎        </v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>58</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G52" t="s">
+        <v>44</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I52" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>وليد😎        </v>
+        <v>محمود اسامة ملاكي        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I54" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>محمد رفعت😎        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I55" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>كريم وحيد😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="H57" t="s">
+        <v>19</v>
       </c>
       <c r="I57" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H58" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>علاء حسين😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I60" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>علاء حسين😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I62" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I65" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="2:8">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>احمد حسن😎        </v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:7">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H67" t="s">
-        <v>6</v>
-      </c>
-      <c r="I67" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>كريم وحيد😎        </v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:8">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>علاء حسين😎        </v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="2:8">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="2:7">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I72" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="2:8">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="2:8">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I74" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="2:8">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="2:8">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="2:8">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I77" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="2:8">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I78" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="2:2">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I80" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H81" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I82" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H83" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I84" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I85" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="2:8">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>حسين فايد😎        </v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H86" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
+        <v>        </v>
+      </c>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="2:2">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I87" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>عم مجدي        </v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="2:8">
+    </row>
+    <row r="91" spans="2:2">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="2:8">
+    </row>
+    <row r="92" spans="2:2">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
         <v>        </v>
       </c>
-      <c r="H92" s="1"/>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="str">
@@ -2862,19 +2588,17 @@
         <v>        </v>
       </c>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="2:2">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
         <v>        </v>
       </c>
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="2:8">
+    </row>
+    <row r="100" spans="2:2">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
-      <c r="H100" s="1"/>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="str">
@@ -3442,47 +3166,47 @@
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="397" spans="1:1">
@@ -3492,22 +3216,22 @@
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:1">
@@ -3517,22 +3241,92 @@
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1014" spans="8:8">
+      <c r="H1014" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1015" spans="8:8">
+      <c r="H1015" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1016" spans="8:8">
+      <c r="H1016" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1017" spans="8:8">
+      <c r="H1017" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1018" spans="8:8">
+      <c r="H1018" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1019" spans="8:8">
+      <c r="H1019" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1020" spans="8:8">
+      <c r="H1020" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1021" spans="8:8">
+      <c r="H1021" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1022" spans="8:8">
+      <c r="H1022" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1023" spans="8:8">
+      <c r="H1023" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1024" spans="8:8">
+      <c r="H1024" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1025" spans="8:8">
+      <c r="H1025" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="1026" spans="8:8">
+      <c r="H1026" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1027" spans="8:8">
+      <c r="H1027" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="1028" spans="8:8">
@@ -3542,102 +3336,32 @@
     </row>
     <row r="1029" spans="8:8">
       <c r="H1029" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1030" spans="8:8">
       <c r="H1030" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1031" spans="8:8">
       <c r="H1031" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1032" spans="8:8">
       <c r="H1032" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1033" spans="8:8">
       <c r="H1033" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1034" spans="8:8">
       <c r="H1034" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="1035" spans="8:8">
-      <c r="H1035" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="1036" spans="8:8">
-      <c r="H1036" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1037" spans="8:8">
-      <c r="H1037" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="1038" spans="8:8">
-      <c r="H1038" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="1039" spans="8:8">
-      <c r="H1039" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="1040" spans="8:8">
-      <c r="H1040" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1041" spans="8:8">
-      <c r="H1041" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1042" spans="8:8">
-      <c r="H1042" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1043" spans="8:8">
-      <c r="H1043" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="1044" spans="8:8">
-      <c r="H1044" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1045" spans="8:8">
-      <c r="H1045" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1046" spans="8:8">
-      <c r="H1046" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="1047" spans="8:8">
-      <c r="H1047" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1048" spans="8:8">
-      <c r="H1048" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,177 +30,246 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
-  <si>
-    <t>حضورات يوم 7/13</t>
-  </si>
-  <si>
-    <t>حضور ٤ ص</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="81">
+  <si>
+    <t>حضورات يوم 7/14</t>
+  </si>
+  <si>
+    <t>حضور ٨ ص</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>علاء😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>فرج😎</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>علي طه</t>
   </si>
   <si>
     <t>مدينة نصر</t>
   </si>
   <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>حضور ٨ ص</t>
-  </si>
-  <si>
-    <t>التحرير</t>
+    <t>وائل 😎</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
   </si>
   <si>
     <t>احمد فراج</t>
   </si>
   <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>حسن الطيار</t>
-  </si>
-  <si>
-    <t>العباسية</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>العبور</t>
+    <t>عبد العزيز ع موسي</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>رفعت😎</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>عمرو جحا 😎</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>علاء حسين😎</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>عم مجدي ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>كريم وحيد😎</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
   </si>
   <si>
     <t>محمد سعيد</t>
   </si>
   <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>شهاب😎</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>محمود اسامة ملاكي</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
+    <t>معتز</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>مومن</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>ناصر😎</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
   </si>
   <si>
     <t>عم مجدي</t>
   </si>
   <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>محمد جلال</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>عبده</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>احمد صادق😎</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>علاء حسين😎</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>كريم علي😎</t>
+  </si>
+  <si>
+    <t>حضور ١ م</t>
   </si>
   <si>
     <t>حضور ٢ م</t>
   </si>
   <si>
-    <t>بدر</t>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>حضور ٤ م</t>
   </si>
   <si>
     <t>حضور ٥ م</t>
   </si>
   <si>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
     <t>حضور ٧ م</t>
   </si>
   <si>
+    <t>حضور ٩ م</t>
+  </si>
+  <si>
     <t>العباسية و الضاهر</t>
   </si>
   <si>
     <t>دائري مرج و السلام</t>
-  </si>
-  <si>
-    <t>الشروق</t>
   </si>
   <si>
     <t>سلم البارون</t>
@@ -1362,22 +1431,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1034"/>
+  <dimension ref="A1:J1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I32"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.1727272727273" customWidth="1"/>
+    <col min="9" max="9" width="16.7363636363636" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
     <col min="15" max="15" width="8.12727272727273" customWidth="1"/>
-    <col min="16" max="16" width="3.54545454545455" customWidth="1"/>
+    <col min="16" max="16" width="8.09090909090909" customWidth="1"/>
     <col min="17" max="17" width="9.27272727272727" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1389,7 +1458,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>شريف عبد المنعم        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1407,31 +1476,31 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
         <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f>CONCATENATE(I4," ",J4," ",K4," ",L4," ",M4," ",N4," ",O4," ",P4," ",Q4)</f>
-        <v>حسن الطيار        </v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>فرج😎        </v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -1439,152 +1508,152 @@
         <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
         <v>ايهاب سليمان        </v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
+      <c r="G5" t="s">
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
-        <v>محمد سعيد        </v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
         <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
         <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>شهاب😎        </v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
         <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>4</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>4</v>
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>4</v>
+        <v>علي طه        </v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>4</v>
+        <v>وائل 😎        </v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامة ملاكي        </v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>بلال😎        </v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>25</v>
@@ -1599,334 +1668,334 @@
         <f t="shared" si="0"/>
         <v>احمد جلال        </v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>24</v>
+      <c r="G15" t="s">
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>24</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>عبد العزيز ع موسي        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي بسكوته        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>رفعت😎        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>محمد جلال        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال        </v>
+        <v>عمرو جحا 😎        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>عمرو جحا 😎        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>علاء حسين😎        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>حسن الطيار        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>احمد عبدالله        </v>
+        <v>رفعت😎        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>عم مجدي ٣ افراد 🙏        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>عبده        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>كريم وحيد😎        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J35" s="2"/>
     </row>
@@ -1936,195 +2005,195 @@
         <v>محسن الضبع        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>المصري        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G38" t="s">
-        <v>44</v>
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
-      </c>
-      <c r="G39" t="s">
-        <v>44</v>
+        <v>علي طه        </v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G40" t="s">
-        <v>44</v>
+        <v>محمد سعيد        </v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
-      </c>
-      <c r="G41" t="s">
-        <v>44</v>
+        <v>معتز        </v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامة ملاكي        </v>
-      </c>
-      <c r="G42" t="s">
-        <v>44</v>
+        <v>احمد عبدالله        </v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="I42" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>زياد ملاكي        </v>
-      </c>
-      <c r="G43" t="s">
-        <v>44</v>
+        <v>احمد عبدالله        </v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G44" t="s">
-        <v>44</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I44" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>احمد صادق😎        </v>
-      </c>
-      <c r="G45" t="s">
-        <v>44</v>
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G46" t="s">
-        <v>44</v>
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I46" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G47" t="s">
-        <v>44</v>
+        <v>بلال😎        </v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G48" t="s">
-        <v>44</v>
+        <v>مومن        </v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -2132,116 +2201,116 @@
         <f t="shared" si="1"/>
         <v>محمد سامح😎        </v>
       </c>
-      <c r="G49" t="s">
-        <v>44</v>
+      <c r="G49" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>علاء حسين😎        </v>
-      </c>
-      <c r="G50" t="s">
-        <v>44</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>شهاب😎        </v>
-      </c>
-      <c r="G51" t="s">
-        <v>44</v>
+        <v>سامي😎        </v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G52" t="s">
-        <v>44</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="H53" t="s">
+        <v>61</v>
       </c>
       <c r="I53" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامة ملاكي        </v>
+        <v>علاء حسين😎        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I54" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
+        <v>رفعت😎        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I56" t="s">
         <v>32</v>
@@ -2250,396 +2319,766 @@
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H57" t="s">
-        <v>19</v>
+        <v>62</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I58" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I60" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="H61" t="s">
+        <v>19</v>
       </c>
       <c r="I61" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
+        <v>ناصر😎        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="H63" t="s">
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="2:8">
+        <v>سامي😎        </v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="2:8">
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="2:7">
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>        </v>
-      </c>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="2:8">
+        <v>احمد حسن😎        </v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>        </v>
-      </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="2:7">
+        <v>وليد😎        </v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="2:8">
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="2:8">
+        <v>علاء حسين😎        </v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="2:7">
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="2:8">
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" t="s">
+        <v>42</v>
+      </c>
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="2:8">
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H73" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="2:8">
+        <v>محمد عبد المجيد😎        </v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="2:8">
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="2:8">
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H76" t="s">
+        <v>61</v>
+      </c>
+      <c r="I76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="2:8">
+        <v>كريم وحيد😎        </v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="2:2">
+        <v>سامي😎        </v>
+      </c>
+      <c r="G78" t="s">
+        <v>70</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G79" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G81" t="s">
+        <v>71</v>
+      </c>
+      <c r="H81" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
+        <v>ايهاب        </v>
+      </c>
+      <c r="G82" t="s">
+        <v>71</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
+        <v>كريم وحيد😎        </v>
+      </c>
+      <c r="G83" t="s">
+        <v>71</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G84" t="s">
+        <v>71</v>
+      </c>
+      <c r="H84" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="2:8">
+        <v>محمد عبد المجيد😎        </v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="2:2">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G86" t="s">
+        <v>71</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
+        <v>علاء حسين😎        </v>
+      </c>
+      <c r="G87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G88" t="s">
+        <v>71</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G89" t="s">
+        <v>71</v>
+      </c>
+      <c r="H89" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G90" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G91" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
+        <v>محمد عبد المجيد😎        </v>
+      </c>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1" spans="2:2">
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G93" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" t="s">
+        <v>64</v>
+      </c>
+      <c r="I93" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G94" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
+        <v>كريم وحيد😎        </v>
+      </c>
+      <c r="G95" t="s">
+        <v>74</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
+        <v>محمد عبد المجيد😎        </v>
+      </c>
+      <c r="G96" t="s">
+        <v>74</v>
+      </c>
+      <c r="H96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
+        <v>وليد😎        </v>
+      </c>
+      <c r="G97" t="s">
+        <v>75</v>
+      </c>
+      <c r="H97" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
+        <v>سامي😎        </v>
+      </c>
+      <c r="G98" t="s">
+        <v>75</v>
+      </c>
+      <c r="H98" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H99" t="s">
+        <v>61</v>
+      </c>
+      <c r="I99" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
+        <v>علاء حسين😎        </v>
+      </c>
+      <c r="G100" t="s">
+        <v>75</v>
+      </c>
+      <c r="H100" t="s">
+        <v>29</v>
+      </c>
+      <c r="I100" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G101" t="s">
+        <v>76</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
+        <v>ناصر😎        </v>
+      </c>
+      <c r="G102" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s">
+        <v>57</v>
+      </c>
+      <c r="I102" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G103" t="s">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G104" t="s">
+        <v>76</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G105" t="s">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s">
+        <v>48</v>
+      </c>
+      <c r="I105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G106" t="s">
+        <v>76</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G107" t="s">
+        <v>77</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="2:2">
@@ -3166,27 +3605,27 @@
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" spans="1:1">
@@ -3196,22 +3635,22 @@
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="398" spans="1:1">
@@ -3226,142 +3665,142 @@
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1014" spans="8:8">
-      <c r="H1014" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="1015" spans="8:8">
-      <c r="H1015" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1016" spans="8:8">
-      <c r="H1016" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="1017" spans="8:8">
-      <c r="H1017" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1018" spans="8:8">
-      <c r="H1018" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="1019" spans="8:8">
-      <c r="H1019" t="s">
+    <row r="990" spans="8:8">
+      <c r="H990" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="991" spans="8:8">
+      <c r="H991" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="992" spans="8:8">
+      <c r="H992" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="993" spans="8:8">
+      <c r="H993" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="994" spans="8:8">
+      <c r="H994" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="995" spans="8:8">
+      <c r="H995" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="1020" spans="8:8">
-      <c r="H1020" t="s">
+    <row r="996" spans="8:8">
+      <c r="H996" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="1021" spans="8:8">
-      <c r="H1021" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="1022" spans="8:8">
-      <c r="H1022" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1023" spans="8:8">
-      <c r="H1023" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="1024" spans="8:8">
-      <c r="H1024" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="1025" spans="8:8">
-      <c r="H1025" t="s">
+    <row r="997" spans="8:8">
+      <c r="H997" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="998" spans="8:8">
+      <c r="H998" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="999" spans="8:8">
+      <c r="H999" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1000" spans="8:8">
+      <c r="H1000" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1001" spans="8:8">
+      <c r="H1001" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="1026" spans="8:8">
-      <c r="H1026" t="s">
+    <row r="1002" spans="8:8">
+      <c r="H1002" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1027" spans="8:8">
-      <c r="H1027" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1028" spans="8:8">
-      <c r="H1028" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1029" spans="8:8">
-      <c r="H1029" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="1030" spans="8:8">
-      <c r="H1030" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1031" spans="8:8">
-      <c r="H1031" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1032" spans="8:8">
-      <c r="H1032" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="1033" spans="8:8">
-      <c r="H1033" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1034" spans="8:8">
-      <c r="H1034" t="s">
-        <v>57</v>
+    <row r="1003" spans="8:8">
+      <c r="H1003" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1004" spans="8:8">
+      <c r="H1004" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1005" spans="8:8">
+      <c r="H1005" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1006" spans="8:8">
+      <c r="H1006" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1007" spans="8:8">
+      <c r="H1007" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1008" spans="8:8">
+      <c r="H1008" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1009" spans="8:8">
+      <c r="H1009" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1010" spans="8:8">
+      <c r="H1010" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="81">
-  <si>
-    <t>حضورات يوم 7/14</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="81">
+  <si>
+    <t>حضورات يوم 7/16</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -41,207 +41,207 @@
     <t>اكتوبر و زايد</t>
   </si>
   <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>فرج😎</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>محمد كرم😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>كريم وحيد😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
     <t>علاء😎</t>
   </si>
   <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>فرج😎</t>
-  </si>
-  <si>
-    <t>العباسية</t>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>محمد جلال😎</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>دمراوي</t>
   </si>
   <si>
     <t>ايهاب سليمان</t>
   </si>
   <si>
-    <t>العبور</t>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>عبد العزيز ع موسي</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>محمد رفعت 😎</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>عمرو جحا 😎</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>ماهر😎</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>زياد ملاكي ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>معتز</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>بازوكا</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>كريم علي😎</t>
   </si>
   <si>
     <t>محمد سامح😎</t>
   </si>
   <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>وائل 😎</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>عبد العزيز ع موسي</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>رفعت😎</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>عمرو جحا 😎</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>علاء حسين😎</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>عم مجدي ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>كريم وحيد😎</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>مومن</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>ناصر😎</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
     <t>حضور ١ م</t>
   </si>
   <si>
@@ -254,13 +254,13 @@
     <t>حضور ٤ م</t>
   </si>
   <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
     <t>حضور ٦ م</t>
   </si>
   <si>
     <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>حضور ٨ م</t>
   </si>
   <si>
     <t>حضور ٩ م</t>
@@ -1431,17 +1431,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1010"/>
+  <dimension ref="A1:J962"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I34" sqref="G33:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.7363636363636" customWidth="1"/>
+    <col min="9" max="9" width="16.2636363636364" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1458,7 +1458,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>علاء😎        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1506,7 +1506,7 @@
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
-        <v>ايهاب سليمان        </v>
+        <v>احمد حسن😎        </v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1522,7 +1522,7 @@
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
-        <v>محمد سامح😎        </v>
+        <v>محمد كرم😎        </v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1554,7 +1554,7 @@
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>كريم وحيد😎        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1570,7 +1570,7 @@
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -1586,7 +1586,7 @@
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
@@ -1595,116 +1595,116 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>وائل😎        </v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>وائل 😎        </v>
+        <v>محمد جلال😎        </v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G15" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G16" t="s">
-        <v>1</v>
+        <v>دمراوي        </v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -1714,10 +1714,10 @@
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>عبد العزيز ع موسي        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>6</v>
@@ -1730,13 +1730,13 @@
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎        </v>
+        <v>عبد العزيز ع موسي        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I19" t="s">
         <v>34</v>
@@ -1746,13 +1746,13 @@
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>رفعت😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I20" t="s">
         <v>35</v>
@@ -1762,13 +1762,13 @@
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>سامي😎        </v>
+        <v>محمد رفعت 😎        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
@@ -1778,16 +1778,16 @@
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>عمرو جحا 😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
         <v>37</v>
-      </c>
-      <c r="I22" t="s">
-        <v>38</v>
       </c>
       <c r="J22" s="2"/>
     </row>
@@ -1797,106 +1797,106 @@
         <v>عمرو جحا 😎        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
         <v>39</v>
-      </c>
-      <c r="I23" t="s">
-        <v>38</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>علاء حسين😎        </v>
+        <v>عمرو جحا 😎        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>ماهر😎        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>رفعت😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي        </v>
+        <v>محمد رفعت 😎        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>ماهر😎        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي ٣ افراد 🙏        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
         <v>45</v>
@@ -1906,48 +1906,48 @@
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
         <v>46</v>
-      </c>
-      <c r="I30" t="s">
-        <v>3</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="J32" s="2"/>
     </row>
@@ -1957,134 +1957,134 @@
         <v>احمد ناصر😎        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎        </v>
+        <v>زياد ملاكي ٣ افراد 🙏        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>كريم وحيد😎        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
-        <v>محسن الضبع        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>محمد جلال😎        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>معتز        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I41" t="s">
         <v>56</v>
@@ -2093,16 +2093,16 @@
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>معتز        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
         <v>57</v>
-      </c>
-      <c r="I42" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -2111,13 +2111,13 @@
         <v>احمد عبدالله        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="2:9">
@@ -2126,10 +2126,10 @@
         <v>شريف عبد المنعم        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -2138,509 +2138,509 @@
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
+        <v>المصري        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>بلال😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>مومن        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎        </v>
+        <v>بازوكا        </v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>محمد كرم😎        </v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>ماهر😎        </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H53" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>علاء حسين😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>رفعت😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="I55" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I56" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I57" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>محمد رفعت 😎        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I60" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H61" t="s">
-        <v>19</v>
+        <v>64</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>ناصر😎        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H66" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>احمد حسن😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="I67" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>وليد😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="I68" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>عم مجدي        </v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>66</v>
+        <v>احمد حسن😎        </v>
+      </c>
+      <c r="G69" t="s">
+        <v>67</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>علاء حسين😎        </v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>66</v>
+        <v>عم سعيد        </v>
+      </c>
+      <c r="G70" t="s">
+        <v>67</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>66</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G71" t="s">
+        <v>67</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I71" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H72" t="s">
-        <v>42</v>
+        <v>احمد ناصر😎        </v>
+      </c>
+      <c r="G72" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H73" t="s">
-        <v>19</v>
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G73" t="s">
+        <v>67</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I73" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>66</v>
+        <v>كريم وحيد😎        </v>
+      </c>
+      <c r="G74" t="s">
+        <v>67</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>66</v>
+        <v>ماهر😎        </v>
+      </c>
+      <c r="G75" t="s">
+        <v>67</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I75" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>كريم علي😎        </v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H76" t="s">
-        <v>61</v>
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G76" t="s">
+        <v>67</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>كريم وحيد😎        </v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>66</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G77" t="s">
+        <v>67</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
+        <v>محمد رفعت 😎        </v>
       </c>
       <c r="G78" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
         <v>36</v>
@@ -2649,211 +2649,211 @@
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G79" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I79" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G80" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I80" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G81" t="s">
-        <v>71</v>
-      </c>
-      <c r="H81" t="s">
-        <v>8</v>
+        <v>67</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I81" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G82" t="s">
-        <v>71</v>
-      </c>
-      <c r="H82" t="s">
-        <v>10</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>كريم وحيد😎        </v>
-      </c>
-      <c r="G83" t="s">
-        <v>71</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G84" t="s">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H84" t="s">
-        <v>18</v>
+      <c r="H84" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G85" t="s">
+        <v>محمد رفعت 😎        </v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H85" t="s">
-        <v>19</v>
+      <c r="H85" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G86" t="s">
+        <v>محمد سعيد        </v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>21</v>
+      <c r="H86" t="s">
+        <v>10</v>
       </c>
       <c r="I86" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>علاء حسين😎        </v>
-      </c>
-      <c r="G87" t="s">
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G88" t="s">
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G89" t="s">
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H89" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I89" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G90" t="s">
-        <v>72</v>
-      </c>
-      <c r="H90" t="s">
-        <v>12</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G91" t="s">
-        <v>72</v>
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I91" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G92" t="s">
-        <v>72</v>
+        <v>ماهر😎        </v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="2:9">
@@ -2861,236 +2861,254 @@
         <f t="shared" si="2"/>
         <v>عم سعيد        </v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H93" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G94" t="s">
-        <v>73</v>
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>كريم وحيد😎        </v>
-      </c>
-      <c r="G95" t="s">
-        <v>74</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I95" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G96" t="s">
-        <v>74</v>
-      </c>
-      <c r="H96" t="s">
-        <v>19</v>
+        <v>محمد رفعت 😎        </v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
-      </c>
-      <c r="G97" t="s">
-        <v>75</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H97" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="I97" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G98" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H98" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>محسن الضبع        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H99" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="I99" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>علاء حسين😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G100" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H100" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>احمد فراج        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G101" t="s">
-        <v>76</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
+      </c>
+      <c r="H101" t="s">
+        <v>63</v>
       </c>
       <c r="I101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>ناصر😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G102" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H102" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="I102" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>حسين فايد😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G103" t="s">
-        <v>76</v>
-      </c>
-      <c r="H103" t="s">
-        <v>19</v>
+        <v>75</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I103" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>احمد جلال        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G104" t="s">
-        <v>76</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="H104" t="s">
+        <v>58</v>
       </c>
       <c r="I104" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>مصطفي بسكوته        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H105" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I105" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>شريف عبد المنعم        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I106" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>عم مجدي        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G107" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I107" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
       <c r="B108" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G108" t="s">
+        <v>76</v>
+      </c>
+      <c r="H108" t="s">
+        <v>44</v>
+      </c>
+      <c r="I108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
       <c r="B109" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G109" t="s">
+        <v>77</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="2:2">
@@ -3630,17 +3648,17 @@
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="396" spans="1:1">
@@ -3650,17 +3668,17 @@
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="400" spans="1:1">
@@ -3670,17 +3688,17 @@
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="404" spans="1:1">
@@ -3690,116 +3708,116 @@
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="990" spans="8:8">
-      <c r="H990" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="942" spans="8:8">
+      <c r="H942" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="991" spans="8:8">
-      <c r="H991" t="s">
+    <row r="943" spans="8:8">
+      <c r="H943" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="992" spans="8:8">
-      <c r="H992" t="s">
+    <row r="944" spans="8:8">
+      <c r="H944" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="993" spans="8:8">
-      <c r="H993" t="s">
+    <row r="945" spans="8:8">
+      <c r="H945" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="994" spans="8:8">
-      <c r="H994" t="s">
+    <row r="946" spans="8:8">
+      <c r="H946" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="995" spans="8:8">
-      <c r="H995" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="996" spans="8:8">
-      <c r="H996" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="997" spans="8:8">
-      <c r="H997" t="s">
+    <row r="947" spans="8:8">
+      <c r="H947" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="948" spans="8:8">
+      <c r="H948" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="949" spans="8:8">
+      <c r="H949" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="950" spans="8:8">
+      <c r="H950" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="998" spans="8:8">
-      <c r="H998" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="999" spans="8:8">
-      <c r="H999" t="s">
+    <row r="951" spans="8:8">
+      <c r="H951" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="1000" spans="8:8">
-      <c r="H1000" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1001" spans="8:8">
-      <c r="H1001" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1002" spans="8:8">
-      <c r="H1002" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1003" spans="8:8">
-      <c r="H1003" t="s">
+    <row r="952" spans="8:8">
+      <c r="H952" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="953" spans="8:8">
+      <c r="H953" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="954" spans="8:8">
+      <c r="H954" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="955" spans="8:8">
+      <c r="H955" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="1004" spans="8:8">
-      <c r="H1004" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1005" spans="8:8">
-      <c r="H1005" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="1006" spans="8:8">
-      <c r="H1006" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1007" spans="8:8">
-      <c r="H1007" t="s">
+    <row r="956" spans="8:8">
+      <c r="H956" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="957" spans="8:8">
+      <c r="H957" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="958" spans="8:8">
+      <c r="H958" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="959" spans="8:8">
+      <c r="H959" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="1008" spans="8:8">
-      <c r="H1008" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="1009" spans="8:8">
-      <c r="H1009" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="1010" spans="8:8">
-      <c r="H1010" t="s">
+    <row r="960" spans="8:8">
+      <c r="H960" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="961" spans="8:8">
+      <c r="H961" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="962" spans="8:8">
+      <c r="H962" t="s">
         <v>80</v>
       </c>
     </row>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="81">
-  <si>
-    <t>حضورات يوم 7/16</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="82">
+  <si>
+    <t>حضورات يوم 7/17</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -41,226 +41,229 @@
     <t>اكتوبر و زايد</t>
   </si>
   <si>
+    <t>علاء😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>فرج😎</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>سيد صفيحه😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
     <t>حسين فايد😎</t>
   </si>
   <si>
-    <t>التحرير</t>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>محمد كرم😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>عبد العزيز سواق</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>محمد رفعت😎</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>عمر جحا😎</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
   </si>
   <si>
     <t>شريف عبد المنعم</t>
   </si>
   <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>فرج😎</t>
-  </si>
-  <si>
-    <t>العباسية</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>محمد كرم😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
+    <t>ماهر😎</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>احمد جلال ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>معتز</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>😡😡😡😡</t>
+  </si>
+  <si>
+    <t>عمرو ع الجنتل</t>
+  </si>
+  <si>
+    <t>عم سعيد ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
   </si>
   <si>
     <t>محمد فوزي</t>
   </si>
   <si>
-    <t>حلوان و زهراء المعادي</t>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
   </si>
   <si>
     <t>كريم وحيد😎</t>
   </si>
   <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>علاء😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>محمد جلال😎</t>
-  </si>
-  <si>
-    <t>المعادي</t>
+    <t>كريم علي😎</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>حضور ١ م</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
   </si>
   <si>
     <t>احمد جلال</t>
   </si>
   <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>دمراوي</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>عبد العزيز ع موسي</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>محمد رفعت 😎</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>عمرو جحا 😎</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>ماهر😎</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>زياد ملاكي ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>بازوكا</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>حضور ١ م</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
     <t>حضور ٣ م</t>
   </si>
   <si>
     <t>حضور ٤ م</t>
   </si>
   <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
     <t>حضور ٦ م</t>
   </si>
   <si>
     <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>حضور ٨ م</t>
   </si>
   <si>
     <t>حضور ٩ م</t>
@@ -1431,17 +1434,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J962"/>
+  <dimension ref="A1:J938"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I34" sqref="G33:I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.2636363636364" customWidth="1"/>
+    <col min="9" max="9" width="17.3181818181818" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1458,7 +1461,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>حسين فايد😎        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1476,7 +1479,7 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>شريف عبد المنعم        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1522,7 +1525,7 @@
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
-        <v>محمد كرم😎        </v>
+        <v>سيد صفيحه😎        </v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1538,7 +1541,7 @@
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>محمد فوزي        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1554,7 +1557,7 @@
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>كريم وحيد😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1570,7 +1573,7 @@
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -1586,7 +1589,7 @@
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
@@ -1602,7 +1605,7 @@
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
@@ -1618,7 +1621,7 @@
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>وائل😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
@@ -1634,7 +1637,7 @@
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>محمد جلال😎        </v>
+        <v>وائل😎        </v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
@@ -1650,7 +1653,7 @@
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال        </v>
+        <v>محمد كرم😎        </v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
@@ -1682,7 +1685,7 @@
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>دمراوي        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G16" s="1" t="s">
         <v>30</v>
@@ -1698,13 +1701,13 @@
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -1714,7 +1717,7 @@
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎        </v>
+        <v>عبد العزيز سواق        </v>
       </c>
       <c r="G18" s="1" t="s">
         <v>30</v>
@@ -1730,13 +1733,13 @@
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>عبد العزيز ع موسي        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I19" t="s">
         <v>34</v>
@@ -1746,13 +1749,13 @@
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
         <v>35</v>
@@ -1762,13 +1765,13 @@
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت 😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
@@ -1778,125 +1781,125 @@
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>سامي😎        </v>
+        <v>عمر جحا😎        </v>
       </c>
       <c r="G22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>عمرو جحا 😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>عمرو جحا 😎        </v>
+        <v>ماهر😎        </v>
       </c>
       <c r="G24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>ماهر😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت 😎        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>ماهر😎        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
         <v>44</v>
-      </c>
-      <c r="I28" t="s">
-        <v>42</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>احمد جلال ٣ افراد 🙏        </v>
       </c>
       <c r="G29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
         <v>45</v>
@@ -1906,39 +1909,39 @@
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
         <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>19</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G32" s="1" t="s">
         <v>30</v>
@@ -1947,7 +1950,7 @@
         <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="J32" s="2"/>
     </row>
@@ -1960,39 +1963,39 @@
         <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي ٣ افراد 🙏        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
         <v>52</v>
@@ -2002,104 +2005,104 @@
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
-        <v>عبد النبي😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>محمد كرم😎        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>محمد جلال😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
         <v>54</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
+        <v>معتز        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>معتز        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I42" t="s">
         <v>57</v>
@@ -2111,284 +2114,284 @@
         <v>احمد عبدالله        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>المصري        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I44" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I46" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>😡😡😡😡        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
+        <v>عمرو ع الجنتل        </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>بازوكا        </v>
+        <v>سيد صفيحه😎        </v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>محمد كرم😎        </v>
+        <v>عم سعيد ٣ افراد 🙏        </v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>ماهر😎        </v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>ماهر😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I54" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I59" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>محمد رفعت 😎        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I61" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -2397,13 +2400,13 @@
         <v>محمد فوزي        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I62" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -2412,13 +2415,13 @@
         <v>ايهاب سليمان        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -2427,13 +2430,13 @@
         <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -2442,13 +2445,13 @@
         <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -2457,13 +2460,13 @@
         <v>سامي😎        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -2472,28 +2475,28 @@
         <v>مصطفي بسكوته        </v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I67" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>عبد النبي😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I68" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="2:9">
@@ -2501,8 +2504,8 @@
         <f t="shared" si="2"/>
         <v>احمد حسن😎        </v>
       </c>
-      <c r="G69" t="s">
-        <v>67</v>
+      <c r="G69" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>2</v>
@@ -2514,16 +2517,16 @@
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G70" t="s">
-        <v>67</v>
-      </c>
-      <c r="H70" s="1" t="s">
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H70" t="s">
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -2531,14 +2534,14 @@
         <f t="shared" si="2"/>
         <v>سيد سلامه😎        </v>
       </c>
-      <c r="G71" t="s">
-        <v>67</v>
+      <c r="G71" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -2546,191 +2549,191 @@
         <f t="shared" si="2"/>
         <v>احمد ناصر😎        </v>
       </c>
-      <c r="G72" t="s">
-        <v>67</v>
+      <c r="G72" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>كريم علي😎        </v>
-      </c>
-      <c r="G73" t="s">
-        <v>67</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" t="s">
         <v>40</v>
-      </c>
-      <c r="I73" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>كريم وحيد😎        </v>
-      </c>
-      <c r="G74" t="s">
-        <v>67</v>
+        <v>سيد صفيحه😎        </v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>ماهر😎        </v>
-      </c>
-      <c r="G75" t="s">
-        <v>67</v>
+        <v>كريم وحيد😎        </v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>عم مجدي        </v>
-      </c>
-      <c r="G76" t="s">
-        <v>67</v>
+        <v>ماهر😎        </v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I76" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G77" t="s">
-        <v>67</v>
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>محمد رفعت 😎        </v>
-      </c>
-      <c r="G78" t="s">
-        <v>67</v>
-      </c>
-      <c r="H78" t="s">
-        <v>48</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I78" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
-      </c>
-      <c r="G79" t="s">
-        <v>67</v>
+        <v>محمد رفعت😎        </v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G80" t="s">
-        <v>67</v>
+        <v>سامي😎        </v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I80" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G81" t="s">
-        <v>67</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>26</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H81" t="s">
+        <v>68</v>
       </c>
       <c r="I81" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I82" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G83" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>14</v>
+      <c r="H83" t="s">
+        <v>12</v>
       </c>
       <c r="I83" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -2739,31 +2742,31 @@
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>محمد رفعت 😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G85" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سعيد        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G86" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H86" t="s">
-        <v>10</v>
+      <c r="H86" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I86" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="2:9">
@@ -2774,11 +2777,11 @@
       <c r="G87" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>12</v>
+      <c r="H87" t="s">
+        <v>10</v>
       </c>
       <c r="I87" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="2:9">
@@ -2790,10 +2793,10 @@
         <v>71</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="2:9">
@@ -2805,31 +2808,31 @@
         <v>71</v>
       </c>
       <c r="H89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G90" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" t="s">
         <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G91" s="1" t="s">
         <v>71</v>
@@ -2844,7 +2847,7 @@
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>ماهر😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G92" s="1" t="s">
         <v>71</v>
@@ -2853,37 +2856,37 @@
         <v>24</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>عم سعيد        </v>
+        <v>ماهر😎        </v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H93" t="s">
-        <v>12</v>
+        <v>71</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I93" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>عم مجدي        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I94" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="2:9">
@@ -2891,44 +2894,44 @@
         <f t="shared" si="2"/>
         <v>سيد سلامه😎        </v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>72</v>
+      <c r="G95" t="s">
+        <v>73</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>محمد رفعت 😎        </v>
-      </c>
-      <c r="G96" s="1" t="s">
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" t="s">
         <v>72</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I96" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H97" t="s">
-        <v>66</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I97" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="2:9">
@@ -2940,181 +2943,190 @@
         <v>73</v>
       </c>
       <c r="H98" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>محمد سامح😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G99" t="s">
         <v>74</v>
       </c>
       <c r="H99" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>سامي😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G100" t="s">
-        <v>74</v>
-      </c>
-      <c r="H100" t="s">
-        <v>18</v>
+        <v>75</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I100" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>محسن الضبع        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G101" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H101" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="I101" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G102" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H102" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>مصطفي بسكوته        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G103" t="s">
-        <v>75</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="H103" t="s">
+        <v>68</v>
       </c>
       <c r="I103" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G104" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H104" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I104" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>حسين فايد😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G105" t="s">
-        <v>75</v>
-      </c>
-      <c r="H105" t="s">
-        <v>18</v>
+        <v>77</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I105" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>احمد جلال        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G106" t="s">
-        <v>75</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
+      </c>
+      <c r="H106" t="s">
+        <v>56</v>
       </c>
       <c r="I106" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>عم سعيد        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G107" t="s">
-        <v>75</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
       </c>
       <c r="I107" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" t="str">
         <f t="shared" si="3"/>
-        <v>شريف عبد المنعم        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G108" t="s">
-        <v>76</v>
-      </c>
-      <c r="H108" t="s">
-        <v>44</v>
+        <v>77</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I108" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" t="str">
         <f t="shared" si="3"/>
-        <v>عم مجدي        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G109" t="s">
         <v>77</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
       <c r="B110" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G110" t="s">
+        <v>78</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I110" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="2:2">
@@ -3633,7 +3645,7 @@
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="391" spans="1:1">
@@ -3648,37 +3660,37 @@
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="400" spans="1:1">
@@ -3688,17 +3700,17 @@
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="404" spans="1:1">
@@ -3708,117 +3720,117 @@
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="918" spans="8:8">
+      <c r="H918" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="919" spans="8:8">
+      <c r="H919" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="920" spans="8:8">
+      <c r="H920" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="921" spans="8:8">
+      <c r="H921" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="922" spans="8:8">
+      <c r="H922" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="923" spans="8:8">
+      <c r="H923" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="924" spans="8:8">
+      <c r="H924" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="925" spans="8:8">
+      <c r="H925" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="926" spans="8:8">
+      <c r="H926" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="927" spans="8:8">
+      <c r="H927" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="928" spans="8:8">
+      <c r="H928" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="929" spans="8:8">
+      <c r="H929" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="930" spans="8:8">
+      <c r="H930" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="931" spans="8:8">
+      <c r="H931" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="932" spans="8:8">
+      <c r="H932" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="942" spans="8:8">
-      <c r="H942" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="943" spans="8:8">
-      <c r="H943" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="944" spans="8:8">
-      <c r="H944" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="945" spans="8:8">
-      <c r="H945" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="946" spans="8:8">
-      <c r="H946" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="947" spans="8:8">
-      <c r="H947" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="948" spans="8:8">
-      <c r="H948" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="949" spans="8:8">
-      <c r="H949" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="950" spans="8:8">
-      <c r="H950" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="951" spans="8:8">
-      <c r="H951" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="952" spans="8:8">
-      <c r="H952" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="953" spans="8:8">
-      <c r="H953" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="954" spans="8:8">
-      <c r="H954" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="955" spans="8:8">
-      <c r="H955" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="956" spans="8:8">
-      <c r="H956" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="957" spans="8:8">
-      <c r="H957" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="958" spans="8:8">
-      <c r="H958" t="s">
+    <row r="933" spans="8:8">
+      <c r="H933" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="934" spans="8:8">
+      <c r="H934" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="935" spans="8:8">
+      <c r="H935" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="936" spans="8:8">
+      <c r="H936" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="937" spans="8:8">
+      <c r="H937" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="959" spans="8:8">
-      <c r="H959" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="960" spans="8:8">
-      <c r="H960" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="961" spans="8:8">
-      <c r="H961" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="962" spans="8:8">
-      <c r="H962" t="s">
-        <v>80</v>
+    <row r="938" spans="8:8">
+      <c r="H938" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="82">
-  <si>
-    <t>حضورات يوم 7/17</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="76">
+  <si>
+    <t>حضورات يوم 7/18</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -41,238 +41,220 @@
     <t>اكتوبر و زايد</t>
   </si>
   <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>سيد صفيحه😎</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>فرج😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>ايهاب ملاك</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
     <t>علاء😎</t>
   </si>
   <si>
-    <t>التحرير</t>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>عمر جحا😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>دمراوي</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>هشام امين</t>
+  </si>
+  <si>
+    <t>ماهر😎</t>
+  </si>
+  <si>
+    <t>محمد رفعت😎</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>😡😡😡</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
   </si>
   <si>
     <t>عم سعيد</t>
   </si>
   <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>فرج😎</t>
-  </si>
-  <si>
-    <t>العباسية</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>سيد صفيحه😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>كريم وحيد😎</t>
+  </si>
+  <si>
+    <t>كريم علي😎</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>حضور ١ م</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
   </si>
   <si>
     <t>عم مجدي</t>
   </si>
   <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>مصطفي بسكوته</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>محمد كرم😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>عبد العزيز سواق</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>محمد رفعت😎</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>عمر جحا😎</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>ماهر😎</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>احمد جلال ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>المصري</t>
-  </si>
-  <si>
-    <t>😡😡😡😡</t>
-  </si>
-  <si>
-    <t>عمرو ع الجنتل</t>
-  </si>
-  <si>
-    <t>عم سعيد ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
+    <t>حضور ٤ م</t>
+  </si>
+  <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>حضور ٩ م</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>دائري مرج و السلام</t>
   </si>
   <si>
     <t>مدينتي</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>كريم وحيد😎</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>حضور ١ م</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
-    <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>حضور ٩ م</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>دائري مرج و السلام</t>
   </si>
   <si>
     <t>سلم البارون</t>
@@ -1434,17 +1416,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J938"/>
+  <dimension ref="A1:J914"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:I31"/>
+      <selection activeCell="G1" sqref="G1:I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="17.3181818181818" customWidth="1"/>
+    <col min="9" max="9" width="16.1727272727273" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1461,7 +1443,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>علاء😎        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1479,7 +1461,7 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
-        <v>عم سعيد        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1494,7 +1476,7 @@
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f>CONCATENATE(I4," ",J4," ",K4," ",L4," ",M4," ",N4," ",O4," ",P4," ",Q4)</f>
-        <v>فرج😎        </v>
+        <v>سيد صفيحه😎        </v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -1525,7 +1507,7 @@
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
-        <v>سيد صفيحه😎        </v>
+        <v>فرج😎        </v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1541,7 +1523,7 @@
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>عم مجدي        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1557,7 +1539,7 @@
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1589,125 +1571,125 @@
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي بسكوته        </v>
+        <v>ايهاب ملاك        </v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
         <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
         <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>وائل😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
         <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>محمد كرم😎        </v>
+        <v>وائل😎        </v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
         <v>26</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع        </v>
+        <v>عمر جحا😎        </v>
       </c>
       <c r="G15" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
         <v>28</v>
-      </c>
-      <c r="I15" t="s">
-        <v>29</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G16" s="1" t="s">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
         <v>30</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>31</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎        </v>
+        <v>دمراوي        </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
@@ -1717,10 +1699,10 @@
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>عبد العزيز سواق        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>6</v>
@@ -1733,13 +1715,13 @@
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎        </v>
+        <v>هشام امين        </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I19" t="s">
         <v>34</v>
@@ -1749,13 +1731,13 @@
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>ماهر😎        </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I20" t="s">
         <v>35</v>
@@ -1765,13 +1747,13 @@
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>سامي😎        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
@@ -1781,45 +1763,45 @@
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>عمر جحا😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
         <v>37</v>
-      </c>
-      <c r="I22" t="s">
-        <v>38</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>😡😡😡        </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
         <v>39</v>
-      </c>
-      <c r="I23" t="s">
-        <v>40</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>ماهر😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s">
         <v>41</v>
@@ -1829,112 +1811,112 @@
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال ٣ افراد 🙏        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J31" s="2"/>
     </row>
@@ -1944,13 +1926,13 @@
         <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J32" s="2"/>
     </row>
@@ -1960,13 +1942,13 @@
         <v>احمد ناصر😎        </v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J33" s="2"/>
     </row>
@@ -1976,13 +1958,13 @@
         <v>طه😎        </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J34" s="2"/>
     </row>
@@ -1992,13 +1974,13 @@
         <v>عبد النبي😎        </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J35" s="2"/>
     </row>
@@ -2008,315 +1990,315 @@
         <v>محسن الضبع        </v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s">
         <v>30</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" t="s">
-        <v>29</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>محمد كرم😎        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
         <v>53</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>علي طه        </v>
+        <v>ايهاب سليمان        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>معتز        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I42" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>سيد صفيحه😎        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>المصري        </v>
+        <v>ماهر😎        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I44" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>😡😡😡😡        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>عمرو ع الجنتل        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>سيد صفيحه😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I49" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد ٣ افراد 🙏        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>ماهر😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I53" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>احمد حسن😎        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -2325,103 +2307,103 @@
         <v>ايهاب        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎        </v>
+        <v>سيد صفيحه😎        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي        </v>
+        <v>كريم وحيد😎        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I59" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>محمد رفعت😎        </v>
+        <v>كريم علي😎        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I60" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -2430,703 +2412,559 @@
         <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I64" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>ماهر😎        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I66" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي بسكوته        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G67" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>احمد فراج        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G68" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I68" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>احمد حسن😎        </v>
+        <v>محمد فوزي        </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
+        <v>ماهر😎        </v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H70" t="s">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I70" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="H71" t="s">
+        <v>8</v>
       </c>
       <c r="I71" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>احمد ناصر😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>سيد صفيحه😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I74" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>كريم وحيد😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I75" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>ماهر😎        </v>
+        <v>سيد صفيحه😎        </v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>كريم علي😎        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
+      </c>
+      <c r="H77" t="s">
+        <v>29</v>
       </c>
       <c r="I77" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" t="s">
         <v>65</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I78" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>محمد رفعت😎        </v>
+        <v>كريم وحيد😎        </v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I79" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>سامي😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I80" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H81" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I81" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I83" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
+      </c>
+      <c r="H84" t="s">
+        <v>21</v>
       </c>
       <c r="I84" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>71</v>
+        <v>محمد سامح😎        </v>
+      </c>
+      <c r="G85" t="s">
+        <v>68</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I85" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>محمد رفعت😎        </v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>6</v>
+        <v>ايهاب ملاك        </v>
+      </c>
+      <c r="G86" t="s">
+        <v>68</v>
+      </c>
+      <c r="H86" t="s">
+        <v>21</v>
       </c>
       <c r="I86" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>71</v>
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G87" t="s">
+        <v>68</v>
       </c>
       <c r="H87" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="I87" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>71</v>
+        <v>ايهاب        </v>
+      </c>
+      <c r="G88" t="s">
+        <v>68</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي بسكوته        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H89" t="s">
-        <v>18</v>
+        <v>70</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
+        <v>وليد😎        </v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H90" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I90" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>عم مجدي        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
+      </c>
+      <c r="H91" t="s">
+        <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>ماهر😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G94" s="1" t="s">
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G94" t="s">
         <v>71</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I94" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G95" t="s">
-        <v>73</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I95" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G96" t="s">
-        <v>73</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I96" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G97" t="s">
-        <v>73</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I97" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G98" t="s">
-        <v>73</v>
-      </c>
-      <c r="H98" t="s">
-        <v>64</v>
-      </c>
-      <c r="I98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>سيد سلامه😎        </v>
-      </c>
-      <c r="G99" t="s">
-        <v>74</v>
-      </c>
-      <c r="H99" t="s">
-        <v>48</v>
-      </c>
-      <c r="I99" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G100" t="s">
-        <v>75</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>محمد سامح😎        </v>
-      </c>
-      <c r="G101" t="s">
-        <v>76</v>
-      </c>
-      <c r="H101" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>سامي😎        </v>
-      </c>
-      <c r="G102" t="s">
-        <v>76</v>
-      </c>
-      <c r="H102" t="s">
-        <v>20</v>
-      </c>
-      <c r="I102" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>محسن الضبع        </v>
-      </c>
-      <c r="G103" t="s">
-        <v>76</v>
-      </c>
-      <c r="H103" t="s">
-        <v>68</v>
-      </c>
-      <c r="I103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>مصطفي بسكوته        </v>
-      </c>
-      <c r="G104" t="s">
-        <v>76</v>
-      </c>
-      <c r="H104" t="s">
-        <v>28</v>
-      </c>
-      <c r="I104" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G105" t="s">
-        <v>77</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I105" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G106" t="s">
-        <v>77</v>
-      </c>
-      <c r="H106" t="s">
-        <v>56</v>
-      </c>
-      <c r="I106" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
-        <v>علاء😎        </v>
-      </c>
-      <c r="G107" t="s">
-        <v>77</v>
-      </c>
-      <c r="H107" t="s">
-        <v>20</v>
-      </c>
-      <c r="I107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
       <c r="B108" t="str">
         <f t="shared" si="3"/>
-        <v>احمد جلال        </v>
-      </c>
-      <c r="G108" t="s">
-        <v>77</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I108" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
       <c r="B109" t="str">
         <f t="shared" si="3"/>
-        <v>عم سعيد        </v>
-      </c>
-      <c r="G109" t="s">
-        <v>77</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9">
+        <v>        </v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
       <c r="B110" t="str">
         <f t="shared" si="3"/>
-        <v>عم مجدي        </v>
-      </c>
-      <c r="G110" t="s">
-        <v>78</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I110" t="s">
-        <v>13</v>
+        <v>        </v>
       </c>
     </row>
     <row r="111" spans="2:2">
@@ -3645,7 +3483,7 @@
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="391" spans="1:1">
@@ -3660,7 +3498,7 @@
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="394" spans="1:1">
@@ -3675,7 +3513,7 @@
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="397" spans="1:1">
@@ -3685,32 +3523,32 @@
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="404" spans="1:1">
@@ -3720,117 +3558,117 @@
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="918" spans="8:8">
-      <c r="H918" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="894" spans="8:8">
+      <c r="H894" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="919" spans="8:8">
-      <c r="H919" t="s">
+    <row r="895" spans="8:8">
+      <c r="H895" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="920" spans="8:8">
-      <c r="H920" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="921" spans="8:8">
-      <c r="H921" t="s">
+    <row r="896" spans="8:8">
+      <c r="H896" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="897" spans="8:8">
+      <c r="H897" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="922" spans="8:8">
-      <c r="H922" t="s">
+    <row r="898" spans="8:8">
+      <c r="H898" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="923" spans="8:8">
-      <c r="H923" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="924" spans="8:8">
-      <c r="H924" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="925" spans="8:8">
-      <c r="H925" t="s">
+    <row r="899" spans="8:8">
+      <c r="H899" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="900" spans="8:8">
+      <c r="H900" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="901" spans="8:8">
+      <c r="H901" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="926" spans="8:8">
-      <c r="H926" t="s">
+    <row r="902" spans="8:8">
+      <c r="H902" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="927" spans="8:8">
-      <c r="H927" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="928" spans="8:8">
-      <c r="H928" t="s">
+    <row r="903" spans="8:8">
+      <c r="H903" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="904" spans="8:8">
+      <c r="H904" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="929" spans="8:8">
-      <c r="H929" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="930" spans="8:8">
-      <c r="H930" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="931" spans="8:8">
-      <c r="H931" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="932" spans="8:8">
-      <c r="H932" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="933" spans="8:8">
-      <c r="H933" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="934" spans="8:8">
-      <c r="H934" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="935" spans="8:8">
-      <c r="H935" t="s">
+    <row r="905" spans="8:8">
+      <c r="H905" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="906" spans="8:8">
+      <c r="H906" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="907" spans="8:8">
+      <c r="H907" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="908" spans="8:8">
+      <c r="H908" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="909" spans="8:8">
+      <c r="H909" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="910" spans="8:8">
+      <c r="H910" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="911" spans="8:8">
+      <c r="H911" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="936" spans="8:8">
-      <c r="H936" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="937" spans="8:8">
-      <c r="H937" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="938" spans="8:8">
-      <c r="H938" t="s">
-        <v>81</v>
+    <row r="912" spans="8:8">
+      <c r="H912" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="913" spans="8:8">
+      <c r="H913" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="914" spans="8:8">
+      <c r="H914" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,231 +30,264 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="76">
-  <si>
-    <t>حضورات يوم 7/18</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="87">
+  <si>
+    <t>حضورات يوم 7/21</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
   </si>
   <si>
+    <t>اكتوبر</t>
+  </si>
+  <si>
+    <t>علاء😎</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>الزيتون</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>فرج😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>كريم وحيد😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>مصطفي بسكوته</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>عمر جحا😎</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>عبد العزيز ع موسي</t>
+  </si>
+  <si>
+    <t>ماهر😎</t>
+  </si>
+  <si>
+    <t>محمد رفعت😎</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>محمد كرم</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>تامر علاء</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>😡😡😡😡</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>محمد فوزي + زياد ملاكي 😡</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>المصري</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم ٢</t>
+  </si>
+  <si>
+    <t>عمرو ع الجنتل</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>سيد صفيحه😎</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>كريم علي😎</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>حضور ١ م</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>حضور ٤ م</t>
+  </si>
+  <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>حضور ٦ م</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>دمرواي</t>
+  </si>
+  <si>
+    <t>حضور ٩ م</t>
+  </si>
+  <si>
     <t>اكتوبر و زايد</t>
   </si>
   <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
     <t>الزيتون و مصر الجديدة</t>
   </si>
   <si>
-    <t>سيد صفيحه😎</t>
-  </si>
-  <si>
-    <t>العباسية</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>فرج😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>ايهاب ملاك</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>علاء😎</t>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>دائري مرج و السلام</t>
   </si>
   <si>
     <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>عمر جحا😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>دمراوي</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>هشام امين</t>
-  </si>
-  <si>
-    <t>ماهر😎</t>
-  </si>
-  <si>
-    <t>محمد رفعت😎</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>😡😡😡</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>كريم وحيد😎</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١ م</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>حضور ٩ م</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>دائري مرج و السلام</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
   </si>
   <si>
     <t>سلم البارون</t>
@@ -1415,18 +1448,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J914"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J890"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I94"/>
+      <selection activeCell="G1" sqref="G1:I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.1727272727273" customWidth="1"/>
+    <col min="9" max="9" width="22.4363636363636" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1440,10 +1473,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" hidden="1" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2)</f>
-        <v>حسين فايد😎        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1458,7 +1491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" hidden="1" spans="2:9">
       <c r="B3" t="str">
         <f>CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3)</f>
         <v>شريف عبد المنعم        </v>
@@ -1473,10 +1506,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" hidden="1" spans="2:9">
       <c r="B4" t="str">
         <f>CONCATENATE(I4," ",J4," ",K4," ",L4," ",M4," ",N4," ",O4," ",P4," ",Q4)</f>
-        <v>سيد صفيحه😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -1488,10 +1521,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" hidden="1" spans="2:10">
       <c r="B5" t="str">
         <f>CONCATENATE(I5," ",J5," ",K5," ",L5," ",M5," ",N5," ",O5," ",P5," ",Q5)</f>
-        <v>احمد حسن😎        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1504,7 +1537,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" hidden="1" spans="2:10">
       <c r="B6" t="str">
         <f>CONCATENATE(I6," ",J6," ",K6," ",L6," ",M6," ",N6," ",O6," ",P6," ",Q6)</f>
         <v>فرج😎        </v>
@@ -1520,10 +1553,10 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" hidden="1" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" ref="B7:B35" si="0">CONCATENATE(I7," ",J7," ",K7," ",L7," ",M7," ",N7," ",O7," ",P7," ",Q7)</f>
-        <v>ايهاب سليمان        </v>
+        <v>شريف عبد المنعم        </v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1532,62 +1565,62 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" hidden="1" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>كريم وحيد😎        </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" hidden="1" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" hidden="1" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب ملاك        </v>
+        <v>زياد ملاكي        </v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" hidden="1" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>حسين فايد😎        </v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
@@ -1600,10 +1633,10 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" hidden="1" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
@@ -1616,10 +1649,10 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" hidden="1" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه        </v>
+        <v>وائل😎        </v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
@@ -1632,10 +1665,10 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" hidden="1" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>وائل😎        </v>
+        <v>عمر جحا😎        </v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
@@ -1648,10 +1681,10 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" hidden="1" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>عمر جحا😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G15" t="s">
         <v>1</v>
@@ -1664,7 +1697,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" hidden="1" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>محسن الضبع        </v>
@@ -1680,10 +1713,10 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" hidden="1" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>دمراوي        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G17" s="1" t="s">
         <v>31</v>
@@ -1696,26 +1729,26 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" hidden="1" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I18" t="s">
         <v>33</v>
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" hidden="1" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>هشام امين        </v>
+        <v>بلال😎        </v>
       </c>
       <c r="G19" s="1" t="s">
         <v>31</v>
@@ -1728,1762 +1761,1870 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" hidden="1" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>ماهر😎        </v>
+        <v>عبد العزيز ع موسي        </v>
       </c>
       <c r="G20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
         <v>35</v>
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" hidden="1" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>ماهر😎        </v>
       </c>
       <c r="G21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" hidden="1" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>سامي😎        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
         <v>37</v>
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" hidden="1" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>😡😡😡        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
         <v>38</v>
       </c>
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" hidden="1" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج        </v>
+        <v>محمد كرم        </v>
       </c>
       <c r="G24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" t="s">
         <v>40</v>
       </c>
-      <c r="I24" t="s">
-        <v>41</v>
-      </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" hidden="1" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب        </v>
+        <v>محمد كرم        </v>
       </c>
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" hidden="1" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر        </v>
+        <v>تامر علاء        </v>
       </c>
       <c r="G26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" hidden="1" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>محمد رفعت😎        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" hidden="1" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" hidden="1" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s">
         <v>44</v>
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" hidden="1" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم        </v>
+        <v>محمد عبد المجيد😎        </v>
       </c>
       <c r="G30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎        </v>
+        <v>😡😡😡😡        </v>
       </c>
       <c r="G31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" hidden="1" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>علاء😎        </v>
       </c>
       <c r="G32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" hidden="1" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
         <v>47</v>
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" hidden="1" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎        </v>
+        <v>محمود اسامه ملاكي        </v>
       </c>
       <c r="G34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" hidden="1" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G35" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
         <v>50</v>
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" hidden="1" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" ref="B36:B67" si="1">CONCATENATE(I36," ",J36," ",K36," ",L36," ",M36," ",N36," ",O36," ",P36," ",Q36)</f>
-        <v>محسن الضبع        </v>
+        <v>طه😎        </v>
       </c>
       <c r="G36" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" hidden="1" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" hidden="1" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان        </v>
+        <v>عمر جحا😎        </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله        </v>
+        <v>مصطفي بسكوته        </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>سيد صفيحه😎        </v>
+        <v>محمد سعيد        </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="1"/>
-        <v>ماهر😎        </v>
+        <v>محمد فوزي + زياد ملاكي 😡        </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" hidden="1" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎        </v>
+        <v>احمد عبدالله        </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" hidden="1" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع        </v>
+        <v>المصري        </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎        </v>
+        <v>شريف عبد المنعم ٢        </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>😡😡😡😡        </v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" hidden="1" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج        </v>
+        <v>عمرو ع الجنتل        </v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" hidden="1" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="1"/>
-        <v>محمد رفعت😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" hidden="1" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
+        <v>شريف عبد المنعم ٣ افراد 🙏        </v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" hidden="1" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
+        <v>ماهر😎        </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" hidden="1" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="1"/>
-        <v>احمد حسن😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" hidden="1" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي        </v>
+        <v>احمد ناصر😎        </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" hidden="1" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎        </v>
+        <v>علي طه        </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="I56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" hidden="1" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="1"/>
         <v>سيد صفيحه😎        </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" hidden="1" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="1"/>
-        <v>كريم وحيد😎        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="1"/>
-        <v>كريم علي😎        </v>
+        <v>سيد سلامه😎        </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" hidden="1" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="1"/>
-        <v>وليد😎        </v>
+        <v>محمد رفعت😎        </v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" hidden="1" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎        </v>
+        <v>عم مجدي        </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" hidden="1" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي        </v>
+        <v>احمد جلال        </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" hidden="1" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="1"/>
-        <v>ماهر😎        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I65" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" hidden="1" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" hidden="1" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G67" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" hidden="1" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" ref="B68:B99" si="2">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68)</f>
-        <v>ايهاب        </v>
+        <v>محسن الضبع        </v>
       </c>
       <c r="G68" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" hidden="1" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
-        <v>محمد فوزي        </v>
+        <v>مصطفي منتصر        </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" hidden="1" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
-        <v>ماهر😎        </v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>63</v>
+        <v>كريم علي😎        </v>
+      </c>
+      <c r="G70" t="s">
+        <v>66</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" hidden="1" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" t="s">
-        <v>8</v>
+        <v>احمد حسن😎        </v>
+      </c>
+      <c r="G71" t="s">
+        <v>66</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" hidden="1" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
-        <v>مصطفي منتصر        </v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>63</v>
+        <v>كريم وحيد😎        </v>
+      </c>
+      <c r="G72" t="s">
+        <v>66</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" hidden="1" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
-        <v>محمد عبد المجيد😎        </v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>63</v>
+        <v>وليد😎        </v>
+      </c>
+      <c r="G73" t="s">
+        <v>66</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I73" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" hidden="1" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>23</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G74" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" t="s">
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>63</v>
+        <v>ماهر😎        </v>
+      </c>
+      <c r="G75" t="s">
+        <v>66</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" hidden="1" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
-        <v>سيد صفيحه😎        </v>
+        <v>سامي😎        </v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+      <c r="H76" t="s">
+        <v>12</v>
       </c>
       <c r="I76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" hidden="1" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
+        <v>عبد النبي😎        </v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H77" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I77" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
-        <v>عم مجدي        </v>
+        <v>محمد سامح😎        </v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I78" t="s">
         <v>64</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
+    </row>
+    <row r="79" hidden="1" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
-        <v>كريم وحيد😎        </v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>16</v>
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G79" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79" t="s">
+        <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>64</v>
+        <v>شريف عبد المنعم        </v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" hidden="1" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>66</v>
+        <v>محمد سعيد        </v>
+      </c>
+      <c r="G81" t="s">
+        <v>71</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
-        <v>عبد النبي😎        </v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H82" t="s">
-        <v>46</v>
+        <v>مصطفي منتصر        </v>
+      </c>
+      <c r="G82" t="s">
+        <v>71</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I82" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" hidden="1" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
-        <v>محمود اسامه ملاكي        </v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>67</v>
+        <v>عم مجدي        </v>
+      </c>
+      <c r="G83" t="s">
+        <v>71</v>
       </c>
       <c r="H83" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>67</v>
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G84" t="s">
+        <v>71</v>
       </c>
       <c r="H84" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" hidden="1" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
-        <v>محمد سامح😎        </v>
+        <v>عم سعيد        </v>
       </c>
       <c r="G85" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I85" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب ملاك        </v>
+        <v>احمد فراج        </v>
       </c>
       <c r="G86" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H86" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" hidden="1" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="2"/>
-        <v>محسن الضبع        </v>
+        <v>ماهر😎        </v>
       </c>
       <c r="G87" t="s">
-        <v>68</v>
-      </c>
-      <c r="H87" t="s">
-        <v>61</v>
+        <v>71</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I87" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" hidden="1" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="2"/>
         <v>ايهاب        </v>
       </c>
       <c r="G88" t="s">
-        <v>68</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="H88" t="s">
+        <v>65</v>
       </c>
       <c r="I88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" hidden="1" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="2"/>
-        <v>شريف عبد المنعم        </v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>6</v>
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G89" t="s">
+        <v>71</v>
+      </c>
+      <c r="H89" t="s">
+        <v>29</v>
       </c>
       <c r="I89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" hidden="1" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="2"/>
-        <v>وليد😎        </v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>70</v>
+        <v>محمد فوزي        </v>
+      </c>
+      <c r="G90" t="s">
+        <v>72</v>
       </c>
       <c r="H90" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="I90" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" hidden="1" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="2"/>
-        <v>حسين فايد😎        </v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>70</v>
+        <v>احمد فراج        </v>
+      </c>
+      <c r="G91" t="s">
+        <v>72</v>
       </c>
       <c r="H91" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I91" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" hidden="1" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="2"/>
-        <v>احمد فراج        </v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>23</v>
+        <v>مصطفي بسكوته        </v>
+      </c>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" hidden="1" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="2"/>
-        <v>ايهاب        </v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>70</v>
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G93" t="s">
+        <v>72</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1" spans="2:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" ht="15" hidden="1" customHeight="1" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="2"/>
-        <v>عم مجدي        </v>
+        <v>ايهاب        </v>
       </c>
       <c r="G94" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" hidden="1" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G95" t="s">
+        <v>74</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" hidden="1" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
+        <v>عبد النبي😎        </v>
+      </c>
+      <c r="G96" t="s">
+        <v>75</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" hidden="1" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
+        <v>سيد سلامه😎        </v>
+      </c>
+      <c r="G97" t="s">
+        <v>75</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" hidden="1" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="2"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
+        <v>سامي😎        </v>
+      </c>
+      <c r="G98" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" hidden="1" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" ref="B99:B130" si="3">CONCATENATE(I99," ",J99," ",K99," ",L99," ",M99," ",N99," ",O99," ",P99," ",Q99)</f>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
+        <v>محسن الضبع        </v>
+      </c>
+      <c r="G99" t="s">
+        <v>76</v>
+      </c>
+      <c r="H99" t="s">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" hidden="1" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
+        <v>محمود اسامه ملاكي        </v>
+      </c>
+      <c r="G100" t="s">
+        <v>76</v>
+      </c>
+      <c r="H100" t="s">
+        <v>29</v>
+      </c>
+      <c r="I100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" hidden="1" spans="2:9">
       <c r="B101" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
+        <v>وليد😎        </v>
+      </c>
+      <c r="G101" t="s">
+        <v>78</v>
+      </c>
+      <c r="H101" t="s">
+        <v>56</v>
+      </c>
+      <c r="I101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" hidden="1" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
+        <v>حسين فايد😎        </v>
+      </c>
+      <c r="G102" t="s">
+        <v>78</v>
+      </c>
+      <c r="H102" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" hidden="1" spans="2:9">
       <c r="B103" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
+        <v>دمرواي        </v>
+      </c>
+      <c r="G103" t="s">
+        <v>78</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" hidden="1" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="3"/>
-        <v>        </v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
+        <v>احمد جلال        </v>
+      </c>
+      <c r="G104" t="s">
+        <v>80</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" hidden="1" spans="2:2">
       <c r="B105" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" hidden="1" spans="2:2">
       <c r="B106" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" hidden="1" spans="2:2">
       <c r="B107" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" hidden="1" spans="2:2">
       <c r="B108" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" hidden="1" spans="2:2">
       <c r="B109" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" hidden="1" spans="2:2">
       <c r="B110" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" hidden="1" spans="2:2">
       <c r="B111" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" hidden="1" spans="2:2">
       <c r="B112" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" hidden="1" spans="2:2">
       <c r="B113" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" hidden="1" spans="2:2">
       <c r="B114" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" hidden="1" spans="2:2">
       <c r="B115" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" hidden="1" spans="2:2">
       <c r="B116" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" hidden="1" spans="2:2">
       <c r="B117" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" hidden="1" spans="2:2">
       <c r="B118" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" hidden="1" spans="2:2">
       <c r="B119" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" hidden="1" spans="2:2">
       <c r="B120" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" hidden="1" spans="2:2">
       <c r="B121" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" hidden="1" spans="2:2">
       <c r="B122" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" hidden="1" spans="2:2">
       <c r="B123" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" hidden="1" spans="2:2">
       <c r="B124" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" hidden="1" spans="2:2">
       <c r="B125" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" hidden="1" spans="2:2">
       <c r="B126" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" hidden="1" spans="2:2">
       <c r="B127" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" hidden="1" spans="2:2">
       <c r="B128" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" hidden="1" spans="2:2">
       <c r="B129" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" hidden="1" spans="2:2">
       <c r="B130" t="str">
         <f t="shared" si="3"/>
         <v>        </v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" hidden="1" spans="2:2">
       <c r="B131" t="str">
         <f t="shared" ref="B131:B155" si="4">CONCATENATE(I131," ",J131," ",K131," ",L131," ",M131," ",N131," ",O131," ",P131," ",Q131)</f>
         <v>        </v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" hidden="1" spans="2:2">
       <c r="B132" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" hidden="1" spans="2:2">
       <c r="B133" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" hidden="1" spans="2:2">
       <c r="B134" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" hidden="1" spans="2:2">
       <c r="B135" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" hidden="1" spans="2:2">
       <c r="B136" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" hidden="1" spans="2:2">
       <c r="B137" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" hidden="1" spans="2:2">
       <c r="B138" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" hidden="1" spans="2:2">
       <c r="B139" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" hidden="1" spans="2:2">
       <c r="B140" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" hidden="1" spans="2:2">
       <c r="B141" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" hidden="1" spans="2:2">
       <c r="B142" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" hidden="1" spans="2:2">
       <c r="B143" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" hidden="1" spans="2:2">
       <c r="B144" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" hidden="1" spans="2:2">
       <c r="B145" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" hidden="1" spans="2:2">
       <c r="B146" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" hidden="1" spans="2:2">
       <c r="B147" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" hidden="1" spans="2:2">
       <c r="B148" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" hidden="1" spans="2:2">
       <c r="B149" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" hidden="1" spans="2:2">
       <c r="B150" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" hidden="1" spans="2:2">
       <c r="B151" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" hidden="1" spans="2:2">
       <c r="B152" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" hidden="1" spans="2:2">
       <c r="B153" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" hidden="1" spans="2:2">
       <c r="B154" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" hidden="1" spans="2:2">
       <c r="B155" t="str">
         <f t="shared" si="4"/>
         <v>        </v>
       </c>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" hidden="1" spans="2:2">
       <c r="B156" t="str">
         <f t="shared" ref="B155:B192" si="5">CONCATENATE(I156," ",J156," ",K156," ",L156," ",M156," ",N156," ",O156," ",P156," ",Q156)</f>
         <v>        </v>
       </c>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" hidden="1" spans="2:2">
       <c r="B157" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" hidden="1" spans="2:2">
       <c r="B158" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" hidden="1" spans="2:2">
       <c r="B159" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" hidden="1" spans="2:2">
       <c r="B160" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" hidden="1" spans="2:2">
       <c r="B161" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" hidden="1" spans="2:2">
       <c r="B162" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" hidden="1" spans="2:2">
       <c r="B163" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" hidden="1" spans="2:2">
       <c r="B164" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" hidden="1" spans="2:2">
       <c r="B165" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" hidden="1" spans="2:2">
       <c r="B166" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" hidden="1" spans="2:2">
       <c r="B167" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" hidden="1" spans="2:2">
       <c r="B168" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" hidden="1" spans="2:2">
       <c r="B169" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" hidden="1" spans="2:2">
       <c r="B170" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" hidden="1" spans="2:2">
       <c r="B171" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" hidden="1" spans="2:2">
       <c r="B172" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" hidden="1" spans="2:2">
       <c r="B173" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" hidden="1" spans="2:2">
       <c r="B174" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="175" spans="2:2">
+    <row r="175" hidden="1" spans="2:2">
       <c r="B175" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" hidden="1" spans="2:2">
       <c r="B176" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" hidden="1" spans="2:2">
       <c r="B177" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" hidden="1" spans="2:2">
       <c r="B178" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" hidden="1" spans="2:2">
       <c r="B179" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="180" spans="2:2">
+    <row r="180" hidden="1" spans="2:2">
       <c r="B180" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="181" spans="2:2">
+    <row r="181" hidden="1" spans="2:2">
       <c r="B181" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" hidden="1" spans="2:2">
       <c r="B182" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" hidden="1" spans="2:2">
       <c r="B183" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" hidden="1" spans="2:2">
       <c r="B184" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" hidden="1" spans="2:2">
       <c r="B185" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" hidden="1" spans="2:2">
       <c r="B186" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" hidden="1" spans="2:2">
       <c r="B187" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" hidden="1" spans="2:2">
       <c r="B188" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" hidden="1" spans="2:2">
       <c r="B189" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" hidden="1" spans="2:2">
       <c r="B190" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" hidden="1" spans="2:2">
       <c r="B191" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" hidden="1" spans="2:2">
       <c r="B192" t="str">
         <f t="shared" si="5"/>
         <v>        </v>
       </c>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" hidden="1" spans="2:2">
       <c r="B193" t="str">
         <f>CONCATENATE(I192," ",J193," ",K193," ",L193," ",M193," ",N193," ",O193," ",P193," ",Q193)</f>
         <v>        </v>
       </c>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" hidden="1" spans="2:2">
       <c r="B194" t="str">
         <f>CONCATENATE(I193," ",J194," ",K194," ",L194," ",M194," ",N194," ",O194," ",P194," ",Q194)</f>
         <v>        </v>
       </c>
     </row>
+    <row r="195" hidden="1"/>
+    <row r="196" hidden="1"/>
+    <row r="197" hidden="1"/>
+    <row r="198" hidden="1"/>
+    <row r="199" hidden="1"/>
+    <row r="200" hidden="1"/>
+    <row r="201" hidden="1"/>
+    <row r="202" hidden="1"/>
+    <row r="203" hidden="1"/>
+    <row r="204" hidden="1"/>
+    <row r="205" hidden="1"/>
+    <row r="206" hidden="1"/>
+    <row r="207" hidden="1"/>
+    <row r="208" hidden="1"/>
+    <row r="209" hidden="1"/>
+    <row r="210" hidden="1"/>
+    <row r="211" hidden="1"/>
+    <row r="212" hidden="1"/>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="391" spans="1:1">
@@ -3498,57 +3639,57 @@
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="404" spans="1:1">
@@ -3558,121 +3699,126 @@
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="870" spans="8:8">
+      <c r="H870" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="871" spans="8:8">
+      <c r="H871" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="872" spans="8:8">
+      <c r="H872" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="873" spans="8:8">
+      <c r="H873" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="874" spans="8:8">
+      <c r="H874" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="875" spans="8:8">
+      <c r="H875" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="876" spans="8:8">
+      <c r="H876" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="877" spans="8:8">
+      <c r="H877" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="878" spans="8:8">
+      <c r="H878" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="879" spans="8:8">
+      <c r="H879" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="880" spans="8:8">
+      <c r="H880" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="881" spans="8:8">
+      <c r="H881" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="882" spans="8:8">
+      <c r="H882" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="883" spans="8:8">
+      <c r="H883" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="884" spans="8:8">
+      <c r="H884" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="885" spans="8:8">
+      <c r="H885" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="886" spans="8:8">
+      <c r="H886" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="894" spans="8:8">
-      <c r="H894" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="895" spans="8:8">
-      <c r="H895" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="896" spans="8:8">
-      <c r="H896" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="897" spans="8:8">
-      <c r="H897" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="898" spans="8:8">
-      <c r="H898" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="899" spans="8:8">
-      <c r="H899" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="900" spans="8:8">
-      <c r="H900" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="901" spans="8:8">
-      <c r="H901" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="902" spans="8:8">
-      <c r="H902" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="903" spans="8:8">
-      <c r="H903" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="904" spans="8:8">
-      <c r="H904" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="905" spans="8:8">
-      <c r="H905" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="906" spans="8:8">
-      <c r="H906" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="907" spans="8:8">
-      <c r="H907" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="908" spans="8:8">
-      <c r="H908" t="s">
+    <row r="887" spans="8:8">
+      <c r="H887" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="888" spans="8:8">
+      <c r="H888" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="889" spans="8:8">
+      <c r="H889" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="909" spans="8:8">
-      <c r="H909" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="910" spans="8:8">
-      <c r="H910" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="911" spans="8:8">
-      <c r="H911" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="912" spans="8:8">
-      <c r="H912" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="913" spans="8:8">
-      <c r="H913" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="914" spans="8:8">
-      <c r="H914" t="s">
-        <v>75</v>
+    <row r="890" spans="8:8">
+      <c r="H890" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="G1:O212" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="😡😡😡😡"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="93">
-  <si>
-    <t>حضورات يوم 7/29</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="90">
+  <si>
+    <t>حضورات يوم 7/31</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -68,226 +68,217 @@
     <t>احمد رافت😎</t>
   </si>
   <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>فرج😎</t>
+  </si>
+  <si>
     <t>حدائق الاهرام</t>
   </si>
   <si>
-    <t>فرج😎</t>
-  </si>
-  <si>
     <t>حلوان و زهراء المعادي</t>
   </si>
   <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>معتز</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>ابراهيم😎</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد😎</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم ٢</t>
+  </si>
+  <si>
+    <t>احمد فراج</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>عبد العزيز ع موسي</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>😡😡😡😡</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>طه😎</t>
+  </si>
+  <si>
+    <t>محمد علي😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>محمد امام ع موسي</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>روماني</t>
+  </si>
+  <si>
+    <t>اسماعيل</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>محمد عبد المجيد سلم البارون فقط 🙏</t>
+  </si>
+  <si>
+    <t>المصري ونقطه ولي العهد 🙏✌</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان ٣ افراد 🙏</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>كوستر سعد</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>دمراوي😎</t>
+  </si>
+  <si>
+    <t>سيد صفيحه😎</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
+    <t>تحرير</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
     <t>كريم وحيد😎</t>
   </si>
   <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>محمد علي😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>دمراوي</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>عم ماهر😎</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>عبد العزيز ع موسي</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>ابراهيم😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>محمد امام ع موسي</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>احمد عبد الله</t>
-  </si>
-  <si>
-    <t>روماني</t>
-  </si>
-  <si>
-    <t>اسماعيل ع موسي</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم سواح وميدان الحدائق 🙏</t>
-  </si>
-  <si>
-    <t>سلم البارون فقط 🙏 😎</t>
-  </si>
-  <si>
-    <t>عم سعيد ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>وحدائق القبه ولي العهد فقط المصري 🙏🙏✌</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم ٢ 🙏 ٣ افراد</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
+    <t>حضور ١ م</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>حضور ٦ م</t>
   </si>
   <si>
     <t>سامي😎</t>
   </si>
   <si>
-    <t>سيد صفيحه😎</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>تحرير</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>حضور ١ م</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
-    <t>مصطفي موسي</t>
-  </si>
-  <si>
-    <t>توفيق ملاك</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
     <t>ايهاب ملاك</t>
   </si>
   <si>
     <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>واحات</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
   </si>
   <si>
     <t>حضور ٩ م</t>
@@ -1467,17 +1458,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J758"/>
+  <dimension ref="A1:J714"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G121" sqref="G1:I121"/>
+      <selection activeCell="I35" sqref="I35:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
-    <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="35.0181818181818" customWidth="1"/>
+    <col min="8" max="8" width="22.9090909090909" customWidth="1"/>
+    <col min="9" max="9" width="25.5909090909091" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1590,7 +1581,7 @@
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>كريم وحيد😎           </v>
+        <v>فرج😎           </v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1599,116 +1590,116 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎           </v>
+        <v>عبد النبي😎           </v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
         <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>وائل😎           </v>
+        <v>معتز           </v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي           </v>
+        <v>حسين فايد😎           </v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
         <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎           </v>
+        <v>وائل😎           </v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
         <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>محمد علي😎           </v>
+        <v>محمود اسامه ملاكي           </v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
         <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>دمراوي           </v>
-      </c>
-      <c r="G14" s="1" t="s">
+        <v>ابراهيم😎           </v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
         <v>26</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎           </v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>ايهاب سليمان           </v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
         <v>28</v>
@@ -1718,205 +1709,205 @@
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم           </v>
+        <v>احمد جلال           </v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>عم ماهر😎           </v>
+        <v>عم مجدي           </v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان           </v>
+        <v>بلال😎           </v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج           </v>
+        <v>عم سعيد           </v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج           </v>
+        <v>محمد عبد المجيد😎           </v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>عبد العزيز ع موسي           </v>
+        <v>شريف عبد المنعم ٢           </v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر           </v>
+        <v>احمد فراج           </v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>عم ماهر😎           </v>
+        <v>احمد فراج           </v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
         <v>37</v>
-      </c>
-      <c r="I23" t="s">
-        <v>30</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎           </v>
+        <v>عبد العزيز ع موسي           </v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎           </v>
+        <v>مصطفي منتصر           </v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي           </v>
+        <v>محمد عبد المجيد😎           </v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎           </v>
+        <v>زياد ملاكي           </v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع           </v>
+        <v>😡😡😡😡           </v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
         <v>43</v>
@@ -1926,535 +1917,535 @@
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>ابراهيم😎           </v>
+        <v>علاء😎           </v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سعيد           </v>
+        <v>ايهاب سليمان           </v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>محمد امام ع موسي           </v>
+        <v>احمد ناصر😎           </v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي           </v>
+        <v>طه😎           </v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه           </v>
+        <v>محمد علي😎           </v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s">
         <v>47</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" t="s">
-        <v>51</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه           </v>
+        <v>محسن الضبع           </v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي           </v>
+        <v>محمد امام ع موسي           </v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه           </v>
+        <v>زياد ملاكي           </v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎           </v>
+        <v>علي طه           </v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>احمد عبد الله           </v>
+        <v>علي طه           </v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>روماني           </v>
+        <v>محمد فوزي           </v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>اسماعيل ع موسي           </v>
+        <v>احمد ناصر😎           </v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم سواح وميدان الحدائق 🙏           </v>
+        <v>محمد سامح😎           </v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر           </v>
+        <v>احمد عبدالله           </v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="I42" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>سلم البارون فقط 🙏 😎           </v>
+        <v>روماني           </v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد الكريم😎           </v>
+        <v>اسماعيل           </v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد ٣ افراد 🙏           </v>
+        <v>شريف عبد المنعم           </v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>وحدائق القبه ولي العهد فقط المصري 🙏🙏✌           </v>
+        <v>مصطفي منتصر           </v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>محمد علي😎           </v>
+        <v>محمد عبد المجيد سلم البارون فقط 🙏           </v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎           </v>
+        <v>محمد عبد الكريم😎           </v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم ٢ 🙏 ٣ افراد           </v>
+        <v>المصري ونقطه ولي العهد 🙏✌           </v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب           </v>
+        <v>حسين فايد😎           </v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I50" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم ٣ افراد 🙏           </v>
+        <v>سيد سلامه😎           </v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H51" t="s">
-        <v>18</v>
+        <v>50</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I51" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج           </v>
+        <v>ايهاب سليمان ٣ افراد 🙏           </v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H52" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I52" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎           </v>
+        <v>ايهاب           </v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎           </v>
+        <v>احمد فراج           </v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>احمد رافت😎           </v>
+        <v>بلال😎           </v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="H55" t="s">
+        <v>44</v>
       </c>
       <c r="I55" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎           </v>
+        <v>كوستر سعد           </v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع           </v>
+        <v>كوستر سعد           </v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>سامي😎           </v>
+        <v>ابراهيم😎           </v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H58" t="s">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I58" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان           </v>
+        <v>احمد رافت😎           </v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H59" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I59" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎           </v>
+        <v>محسن الضبع           </v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>عم ماهر😎           </v>
+        <v>دمراوي😎           </v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" t="s">
         <v>65</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سعيد           </v>
+        <v>عم سعيد           </v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
+      </c>
+      <c r="H62" t="s">
+        <v>6</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>سيد صفيحه😎           </v>
+        <v>محمد سامح😎           </v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H63" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I63" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -2463,313 +2454,313 @@
         <v>محمد فوزي           </v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H64" t="s">
-        <v>16</v>
+        <v>64</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد الكريم😎           </v>
+        <v>شريف عبد المنعم           </v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H65" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="0"/>
-        <v>كريم علي😎           </v>
+        <v>سيد صفيحه😎           </v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H66" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" ref="B67:B130" si="1">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67," ",R67," ",S67," ",T67)</f>
-        <v>احمد رافت😎           </v>
+        <v>محمد علي😎           </v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I67" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
+        <v>سيد سلامه😎           </v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="H68" t="s">
+        <v>21</v>
       </c>
       <c r="I68" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>كريم وحيد😎           </v>
+        <v>محمود اسامه ملاكي           </v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H69" t="s">
+        <v>44</v>
+      </c>
+      <c r="I69" t="s">
         <v>24</v>
-      </c>
-      <c r="I69" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>احمد حسن😎           </v>
-      </c>
-      <c r="G70" t="s">
-        <v>70</v>
-      </c>
-      <c r="H70" t="s">
-        <v>2</v>
+        <v>احمد رافت😎           </v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I70" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد           </v>
-      </c>
-      <c r="G71" t="s">
-        <v>70</v>
-      </c>
-      <c r="H71" t="s">
-        <v>72</v>
+        <v>احمد جلال           </v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I71" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎           </v>
+        <v>احمد حسن😎           </v>
       </c>
       <c r="G72" t="s">
-        <v>70</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="H72" t="s">
+        <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب           </v>
+        <v>زياد ملاكي           </v>
       </c>
       <c r="G73" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="I73" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي           </v>
+        <v>ايهاب           </v>
       </c>
       <c r="G74" t="s">
-        <v>70</v>
-      </c>
-      <c r="H74" t="s">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎           </v>
+        <v>محمود اسامه ملاكي           </v>
       </c>
       <c r="G75" t="s">
-        <v>70</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
+      </c>
+      <c r="H75" t="s">
+        <v>8</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎           </v>
+        <v>احمد فراج           </v>
       </c>
       <c r="G76" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I76" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="1"/>
-        <v>زياد ملاكي           </v>
+        <v>ايهاب سليمان           </v>
       </c>
       <c r="G77" t="s">
-        <v>70</v>
-      </c>
-      <c r="H77" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="1"/>
-        <v>محمد علي😎           </v>
+        <v>عبد النبي😎           </v>
       </c>
       <c r="G78" t="s">
-        <v>70</v>
-      </c>
-      <c r="H78" t="s">
+        <v>67</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
         <v>16</v>
-      </c>
-      <c r="I78" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="1"/>
-        <v>عم ماهر😎           </v>
+        <v>احمد ناصر😎           </v>
       </c>
       <c r="G79" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I79" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="1"/>
-        <v>سيد صفيحه😎           </v>
+        <v>محمد عبد المجيد😎           </v>
       </c>
       <c r="G80" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H80" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I80" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
+        <v>سيد سلامه😎           </v>
       </c>
       <c r="G81" t="s">
-        <v>70</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
+      </c>
+      <c r="H81" t="s">
+        <v>21</v>
       </c>
       <c r="I81" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع           </v>
+        <v>احمد رافت😎           </v>
       </c>
       <c r="G82" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H82" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I82" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎           </v>
+        <v>محمد علي😎           </v>
       </c>
       <c r="G83" t="s">
-        <v>75</v>
-      </c>
-      <c r="H83" t="s">
-        <v>10</v>
+        <v>67</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I83" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال           </v>
+        <v>محسن الضبع           </v>
       </c>
       <c r="G84" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H84" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I84" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="2:9">
@@ -2778,172 +2769,172 @@
         <v>كريم وحيد😎           </v>
       </c>
       <c r="G85" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I85" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
+        <v>ايهاب           </v>
       </c>
       <c r="G86" t="s">
-        <v>77</v>
-      </c>
-      <c r="H86" t="s">
-        <v>4</v>
+        <v>72</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم           </v>
+        <v>محمد سامح😎           </v>
       </c>
       <c r="G87" t="s">
-        <v>77</v>
-      </c>
-      <c r="H87" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I87" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد           </v>
+        <v>عم مجدي           </v>
       </c>
       <c r="G88" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H88" t="s">
         <v>8</v>
       </c>
       <c r="I88" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>احمد رافت😎           </v>
+        <v>مصطفي منتصر           </v>
       </c>
       <c r="G89" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر           </v>
+        <v>احمد رافت😎           </v>
       </c>
       <c r="G90" t="s">
-        <v>77</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="H90" t="s">
+        <v>41</v>
       </c>
       <c r="I90" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي           </v>
+        <v>محمد عبد المجيد😎           </v>
       </c>
       <c r="G91" t="s">
-        <v>77</v>
-      </c>
-      <c r="H91" t="s">
-        <v>37</v>
+        <v>73</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="1"/>
-        <v>محمد علي😎           </v>
+        <v>ايهاب           </v>
       </c>
       <c r="G92" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I92" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال           </v>
+        <v>محمود اسامه ملاكي           </v>
       </c>
       <c r="G93" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I93" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب           </v>
+        <v>محمد علي😎           </v>
       </c>
       <c r="G94" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I94" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع           </v>
+        <v>شريف عبد المنعم           </v>
       </c>
       <c r="G95" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H95" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="1"/>
-        <v>عم ماهر😎           </v>
+        <v>احمد جلال           </v>
       </c>
       <c r="G96" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H96" t="s">
         <v>10</v>
@@ -2958,373 +2949,346 @@
         <v>كريم وحيد😎           </v>
       </c>
       <c r="G97" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>محمد علي😎           </v>
+        <v>محمود اسامه ملاكي           </v>
       </c>
       <c r="G98" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" si="1"/>
-        <v>احمد رافت😎           </v>
+        <v>محمد علي😎           </v>
       </c>
       <c r="G99" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H99" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I99" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد           </v>
+        <v>ايهاب           </v>
       </c>
       <c r="G100" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H100" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I100" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي           </v>
+        <v>محسن الضبع           </v>
       </c>
       <c r="G101" t="s">
-        <v>78</v>
-      </c>
-      <c r="H101" t="s">
-        <v>45</v>
+        <v>75</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>79</v>
+        <v>احمد عبدالله           </v>
+      </c>
+      <c r="G102" t="s">
+        <v>76</v>
       </c>
       <c r="H102" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبد الله           </v>
+        <v>احمد فراج           </v>
       </c>
       <c r="G103" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H103" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="I103" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال           </v>
+        <v>شريف عبد المنعم           </v>
       </c>
       <c r="G104" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H104" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="I104" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي           </v>
+        <v>احمد جلال           </v>
       </c>
       <c r="G105" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H105" t="s">
         <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي موسي           </v>
+        <v>مصطفي منتصر           </v>
       </c>
       <c r="G106" t="s">
-        <v>80</v>
-      </c>
-      <c r="H106" t="s">
-        <v>10</v>
+        <v>76</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v>توفيق ملاك           </v>
+        <v>محمود اسامه ملاكي           </v>
       </c>
       <c r="G107" t="s">
-        <v>80</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="H107" t="s">
+        <v>19</v>
       </c>
       <c r="I107" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي           </v>
+        <v>محمد عبد المجيد😎           </v>
       </c>
       <c r="G108" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H108" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I108" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v>محمد علي😎           </v>
+        <v>😡😡😡😡           </v>
       </c>
       <c r="G109" t="s">
-        <v>80</v>
-      </c>
-      <c r="H109" t="s">
-        <v>16</v>
+        <v>76</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I109" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v>كريم وحيد😎           </v>
+        <v>عم سعيد           </v>
       </c>
       <c r="G110" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H110" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I110" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="2:9">
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
+        <v>سامي😎           </v>
       </c>
       <c r="G111" t="s">
-        <v>80</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
+      </c>
+      <c r="H111" t="s">
+        <v>8</v>
       </c>
       <c r="I111" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد           </v>
+        <v>ايهاب ملاك           </v>
       </c>
       <c r="G112" t="s">
-        <v>80</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="H112" t="s">
+        <v>19</v>
       </c>
       <c r="I112" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="2:9">
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد           </v>
+        <v>محسن الضبع           </v>
       </c>
       <c r="G113" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H113" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="I113" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="2:9">
       <c r="B114" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎           </v>
+        <v>وليد😎           </v>
       </c>
       <c r="G114" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H114" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="I114" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="2:9">
       <c r="B115" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب ملاك           </v>
+        <v>حسين فايد😎           </v>
       </c>
       <c r="G115" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H115" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I115" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="2:9">
       <c r="B116" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع           </v>
+        <v>احمد جلال           </v>
       </c>
       <c r="G116" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H116" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="2:9">
       <c r="B117" t="str">
         <f t="shared" si="1"/>
-        <v>سيد صفيحه😎           </v>
+        <v>شريف عبد المنعم           </v>
       </c>
       <c r="G117" t="s">
-        <v>85</v>
-      </c>
-      <c r="H117" t="s">
-        <v>53</v>
+        <v>80</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I117" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="2:9">
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v>حسين فايد😎           </v>
+        <v>عم مجدي           </v>
       </c>
       <c r="G118" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H118" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I118" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
       <c r="B119" t="str">
         <f t="shared" si="1"/>
-        <v>محمد علي😎           </v>
-      </c>
-      <c r="G119" t="s">
-        <v>85</v>
-      </c>
-      <c r="H119" t="s">
-        <v>18</v>
-      </c>
-      <c r="I119" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
       <c r="B120" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G120" t="s">
-        <v>85</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I120" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
       <c r="B121" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي           </v>
-      </c>
-      <c r="G121" t="s">
-        <v>86</v>
-      </c>
-      <c r="H121" t="s">
-        <v>18</v>
-      </c>
-      <c r="I121" t="s">
-        <v>50</v>
+        <v>           </v>
       </c>
     </row>
     <row r="122" spans="2:2">
@@ -4403,17 +4367,17 @@
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="391" spans="1:1">
@@ -4428,177 +4392,177 @@
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="738" spans="8:8">
-      <c r="H738" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="694" spans="8:8">
+      <c r="H694" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="695" spans="8:8">
+      <c r="H695" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="696" spans="8:8">
+      <c r="H696" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="697" spans="8:8">
+      <c r="H697" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="698" spans="8:8">
+      <c r="H698" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="699" spans="8:8">
+      <c r="H699" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="700" spans="8:8">
+      <c r="H700" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="701" spans="8:8">
+      <c r="H701" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="702" spans="8:8">
+      <c r="H702" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="703" spans="8:8">
+      <c r="H703" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="739" spans="8:8">
-      <c r="H739" t="s">
+    <row r="704" spans="8:8">
+      <c r="H704" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="705" spans="8:8">
+      <c r="H705" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="706" spans="8:8">
+      <c r="H706" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="740" spans="8:8">
-      <c r="H740" t="s">
+    <row r="707" spans="8:8">
+      <c r="H707" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="708" spans="8:8">
+      <c r="H708" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="709" spans="8:8">
+      <c r="H709" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="710" spans="8:8">
+      <c r="H710" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="711" spans="8:8">
+      <c r="H711" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="712" spans="8:8">
+      <c r="H712" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="713" spans="8:8">
+      <c r="H713" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="714" spans="8:8">
+      <c r="H714" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="741" spans="8:8">
-      <c r="H741" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="742" spans="8:8">
-      <c r="H742" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="743" spans="8:8">
-      <c r="H743" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="744" spans="8:8">
-      <c r="H744" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="745" spans="8:8">
-      <c r="H745" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="746" spans="8:8">
-      <c r="H746" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="747" spans="8:8">
-      <c r="H747" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="748" spans="8:8">
-      <c r="H748" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="749" spans="8:8">
-      <c r="H749" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="750" spans="8:8">
-      <c r="H750" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="751" spans="8:8">
-      <c r="H751" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="752" spans="8:8">
-      <c r="H752" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="753" spans="8:8">
-      <c r="H753" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="754" spans="8:8">
-      <c r="H754" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="755" spans="8:8">
-      <c r="H755" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="756" spans="8:8">
-      <c r="H756" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="757" spans="8:8">
-      <c r="H757" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="758" spans="8:8">
-      <c r="H758" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="90">
-  <si>
-    <t>حضورات يوم 7/31</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="55">
+  <si>
+    <t>حضورات ترانسكوم التجمع يوم 8/2</t>
+  </si>
+  <si>
+    <t>حضور ٤ ص</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -41,7 +50,7 @@
     <t>اكتوبر</t>
   </si>
   <si>
-    <t>علاء😎</t>
+    <t>احمد فراج</t>
   </si>
   <si>
     <t>الزيتون</t>
@@ -59,244 +68,130 @@
     <t>العبور</t>
   </si>
   <si>
-    <t>محمد عبد الكريم😎</t>
+    <t>محمود اسامه ملاكي</t>
   </si>
   <si>
     <t>المهندسين</t>
   </si>
   <si>
-    <t>احمد رافت😎</t>
+    <t>دمراوي باص</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>دمراوي</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>ماهر😎</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>دائري مرج و السلام</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
   </si>
   <si>
     <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>فرج😎</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>معتز</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>التجمع</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>ابراهيم😎</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد😎</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم ٢</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>عبد العزيز ع موسي</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>😡😡😡😡</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>طه😎</t>
-  </si>
-  <si>
-    <t>محمد علي😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>محمد امام ع موسي</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>احمد عبدالله</t>
-  </si>
-  <si>
-    <t>روماني</t>
-  </si>
-  <si>
-    <t>اسماعيل</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>محمد عبد المجيد سلم البارون فقط 🙏</t>
-  </si>
-  <si>
-    <t>المصري ونقطه ولي العهد 🙏✌</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان ٣ افراد 🙏</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>كوستر سعد</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>دمراوي😎</t>
-  </si>
-  <si>
-    <t>سيد صفيحه😎</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>تحرير</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>كريم وحيد😎</t>
-  </si>
-  <si>
-    <t>حضور ١ م</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>ايهاب ملاك</t>
-  </si>
-  <si>
-    <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>واحات</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ م</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>دائري مرج و السلام</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
   </si>
   <si>
     <t>سلم البارون</t>
@@ -915,9 +810,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1458,17 +1362,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J714"/>
+  <dimension ref="A1:J670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35:I59"/>
+      <selection activeCell="G50" sqref="G1:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
-    <col min="8" max="8" width="22.9090909090909" customWidth="1"/>
-    <col min="9" max="9" width="25.5909090909091" customWidth="1"/>
+    <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
+    <col min="9" max="9" width="14.8545454545455" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1478,22 +1382,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="8:8">
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2," ",R2," ",S2," ",T2)</f>
-        <v>علاء😎           </v>
-      </c>
-      <c r="E2" t="s">
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I2" t="s">
@@ -1503,1774 +1407,1190 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" si="0">CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3," ",R3," ",S3," ",T3)</f>
-        <v>محمد سامح😎           </v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>احمد فراج           </v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎           </v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>محمد سامح😎           </v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد الكريم😎           </v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>سيد سلامه😎           </v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>احمد رافت😎           </v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
+        <v>محمود اسامه ملاكي           </v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>فرج😎           </v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>دمراوي باص           </v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>فرج😎           </v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>مصطفي منتصر           </v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎           </v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>معتز           </v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎           </v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
+        <v>محمد فوزي           </v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
         <v>19</v>
       </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>وائل😎           </v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
+        <v>دمراوي           </v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
+        <v>محمد سعيد           </v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
         <v>23</v>
       </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>ابراهيم😎           </v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>عم مجدي           </v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان           </v>
-      </c>
-      <c r="G15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>زياد ملاكي           </v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>2</v>
+        <v>مصطفي منتصر           </v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي           </v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>احمد جلال           </v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎           </v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>4</v>
+        <v>محمود اسامه ملاكي           </v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد           </v>
-      </c>
-      <c r="G19" s="1" t="s">
+        <v>دمراوي           </v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎           </v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>8</v>
+        <v>احمد فراج           </v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم ٢           </v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>10</v>
+        <v>احمد جلال           </v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج           </v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>محمد فوزي           </v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج           </v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>14</v>
+        <v>ايهاب           </v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>عبد العزيز ع موسي           </v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>38</v>
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>15</v>
+        <v>محمود اسامه ملاكي           </v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد😎           </v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>41</v>
+        <v>وليد😎           </v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي           </v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>17</v>
+        <v>ماهر😎           </v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>😡😡😡😡           </v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>19</v>
+        <v>مصطفي منتصر           </v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎           </v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>21</v>
+        <v>عم مجدي           </v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان           </v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>44</v>
+        <v>محمد سامح😎           </v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎           </v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>23</v>
+        <v>عبد النبي😎           </v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J31" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>طه😎           </v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>25</v>
+        <v>ايهاب           </v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>محمد علي😎           </v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>27</v>
+        <v>محمد سعيد           </v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
-      </c>
-      <c r="J33" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع           </v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>48</v>
+        <v>سيد سلامه😎           </v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>محمد امام ع موسي           </v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>2</v>
+        <v>محمود اسامه ملاكي           </v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي           </v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" s="1" t="s">
+        <v>ايهاب           </v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
         <v>31</v>
       </c>
-      <c r="I36" t="s">
-        <v>42</v>
-      </c>
-      <c r="J36" s="2"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه           </v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>4</v>
+        <v>سيد سلامه😎           </v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه           </v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>4</v>
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي           </v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>6</v>
+        <v>احمد جلال           </v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s">
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎           </v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>8</v>
+        <v>احمد جلال           </v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
+        <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎           </v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>10</v>
+        <v>ايهاب سليمان           </v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>احمد عبدالله           </v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>54</v>
+        <v>محمد سعيد           </v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>روماني           </v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>12</v>
+        <v>مصطفي منتصر           </v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>اسماعيل           </v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>14</v>
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s">
+        <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>38</v>
+        <v>محمود اسامه ملاكي           </v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
-      </c>
-      <c r="J45" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>15</v>
+        <v>احمد فراج           </v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد المجيد سلم البارون فقط 🙏           </v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>15</v>
+        <v>ماهر😎           </v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>محمد عبد الكريم😎           </v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H48" s="1" t="s">
+        <v>محمد فوزي           </v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="H48" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I48" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>المصري ونقطه ولي العهد 🙏✌           </v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>17</v>
+        <v>محمد فوزي           </v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="I49" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎           </v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>19</v>
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎           </v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان ٣ افراد 🙏           </v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب           </v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج           </v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎           </v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H55" t="s">
-        <v>44</v>
-      </c>
-      <c r="I55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>كوستر سعد           </v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>كوستر سعد           </v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>ابراهيم😎           </v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>احمد رافت😎           </v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="2:8">
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع           </v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>دمراوي😎           </v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="2:8">
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد           </v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H62" t="s">
-        <v>6</v>
-      </c>
-      <c r="I62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="2:8">
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎           </v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="2:7">
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي           </v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="2:2">
       <c r="B66" t="str">
         <f t="shared" si="0"/>
-        <v>سيد صفيحه😎           </v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H66" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
       <c r="B67" t="str">
         <f t="shared" ref="B67:B130" si="1">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67," ",R67," ",S67," ",T67)</f>
-        <v>محمد علي😎           </v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="2:2">
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎           </v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H68" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" t="s">
-        <v>44</v>
-      </c>
-      <c r="I69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>احمد رافت😎           </v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="2:8">
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I71" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="2:2">
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>احمد حسن😎           </v>
-      </c>
-      <c r="G72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H72" t="s">
-        <v>2</v>
-      </c>
-      <c r="I72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>زياد ملاكي           </v>
-      </c>
-      <c r="G73" t="s">
-        <v>67</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="2:2">
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب           </v>
-      </c>
-      <c r="G74" t="s">
-        <v>67</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I74" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
       <c r="B75" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G75" t="s">
-        <v>67</v>
-      </c>
-      <c r="H75" t="s">
-        <v>8</v>
-      </c>
-      <c r="I75" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
       <c r="B76" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج           </v>
-      </c>
-      <c r="G76" t="s">
-        <v>67</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
       <c r="B77" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان           </v>
-      </c>
-      <c r="G77" t="s">
-        <v>67</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I77" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="2:8">
       <c r="B78" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎           </v>
-      </c>
-      <c r="G78" t="s">
-        <v>67</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="2:2">
       <c r="B79" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎           </v>
-      </c>
-      <c r="G79" t="s">
-        <v>67</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
       <c r="B80" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎           </v>
-      </c>
-      <c r="G80" t="s">
-        <v>67</v>
-      </c>
-      <c r="H80" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
       <c r="B81" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎           </v>
-      </c>
-      <c r="G81" t="s">
-        <v>67</v>
-      </c>
-      <c r="H81" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
       <c r="B82" t="str">
         <f t="shared" si="1"/>
-        <v>احمد رافت😎           </v>
-      </c>
-      <c r="G82" t="s">
-        <v>67</v>
-      </c>
-      <c r="H82" t="s">
-        <v>44</v>
-      </c>
-      <c r="I82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
       <c r="B83" t="str">
         <f t="shared" si="1"/>
-        <v>محمد علي😎           </v>
-      </c>
-      <c r="G83" t="s">
-        <v>67</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
       <c r="B84" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع           </v>
-      </c>
-      <c r="G84" t="s">
-        <v>67</v>
-      </c>
-      <c r="H84" t="s">
-        <v>70</v>
-      </c>
-      <c r="I84" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
       <c r="B85" t="str">
         <f t="shared" si="1"/>
-        <v>كريم وحيد😎           </v>
-      </c>
-      <c r="G85" t="s">
-        <v>67</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I85" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
       <c r="B86" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب           </v>
-      </c>
-      <c r="G86" t="s">
-        <v>72</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I86" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
       <c r="B87" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎           </v>
-      </c>
-      <c r="G87" t="s">
-        <v>72</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
       <c r="B88" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي           </v>
-      </c>
-      <c r="G88" t="s">
-        <v>73</v>
-      </c>
-      <c r="H88" t="s">
-        <v>8</v>
-      </c>
-      <c r="I88" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G89" t="s">
-        <v>73</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>احمد رافت😎           </v>
-      </c>
-      <c r="G90" t="s">
-        <v>73</v>
-      </c>
-      <c r="H90" t="s">
-        <v>41</v>
-      </c>
-      <c r="I90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎           </v>
-      </c>
-      <c r="G91" t="s">
-        <v>73</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I91" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
       <c r="B92" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب           </v>
-      </c>
-      <c r="G92" t="s">
-        <v>73</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I92" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G93" t="s">
-        <v>73</v>
-      </c>
-      <c r="H93" t="s">
-        <v>74</v>
-      </c>
-      <c r="I93" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" spans="2:2">
       <c r="B94" t="str">
         <f t="shared" si="1"/>
-        <v>محمد علي😎           </v>
-      </c>
-      <c r="G94" t="s">
-        <v>73</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I94" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G95" t="s">
-        <v>73</v>
-      </c>
-      <c r="H95" t="s">
-        <v>48</v>
-      </c>
-      <c r="I95" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
       <c r="B96" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G96" t="s">
-        <v>75</v>
-      </c>
-      <c r="H96" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
       <c r="B97" t="str">
         <f t="shared" si="1"/>
-        <v>كريم وحيد😎           </v>
-      </c>
-      <c r="G97" t="s">
-        <v>75</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I97" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G98" t="s">
-        <v>75</v>
-      </c>
-      <c r="H98" t="s">
-        <v>21</v>
-      </c>
-      <c r="I98" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
       <c r="B99" t="str">
         <f t="shared" si="1"/>
-        <v>محمد علي😎           </v>
-      </c>
-      <c r="G99" t="s">
-        <v>75</v>
-      </c>
-      <c r="H99" t="s">
-        <v>44</v>
-      </c>
-      <c r="I99" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
       <c r="B100" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب           </v>
-      </c>
-      <c r="G100" t="s">
-        <v>75</v>
-      </c>
-      <c r="H100" t="s">
-        <v>74</v>
-      </c>
-      <c r="I100" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
       <c r="B101" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع           </v>
-      </c>
-      <c r="G101" t="s">
-        <v>75</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I101" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
       <c r="B102" t="str">
         <f t="shared" si="1"/>
-        <v>احمد عبدالله           </v>
-      </c>
-      <c r="G102" t="s">
-        <v>76</v>
-      </c>
-      <c r="H102" t="s">
-        <v>2</v>
-      </c>
-      <c r="I102" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج           </v>
-      </c>
-      <c r="G103" t="s">
-        <v>76</v>
-      </c>
-      <c r="H103" t="s">
-        <v>31</v>
-      </c>
-      <c r="I103" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
       <c r="B104" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G104" t="s">
-        <v>76</v>
-      </c>
-      <c r="H104" t="s">
-        <v>4</v>
-      </c>
-      <c r="I104" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G105" t="s">
-        <v>76</v>
-      </c>
-      <c r="H105" t="s">
-        <v>8</v>
-      </c>
-      <c r="I105" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G106" t="s">
-        <v>76</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I106" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G107" t="s">
-        <v>76</v>
-      </c>
-      <c r="H107" t="s">
-        <v>19</v>
-      </c>
-      <c r="I107" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>محمد عبد المجيد😎           </v>
-      </c>
-      <c r="G108" t="s">
-        <v>76</v>
-      </c>
-      <c r="H108" t="s">
-        <v>21</v>
-      </c>
-      <c r="I108" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v>😡😡😡😡           </v>
-      </c>
-      <c r="G109" t="s">
-        <v>76</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I109" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد           </v>
-      </c>
-      <c r="G110" t="s">
-        <v>76</v>
-      </c>
-      <c r="H110" t="s">
-        <v>70</v>
-      </c>
-      <c r="I110" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎           </v>
-      </c>
-      <c r="G111" t="s">
-        <v>77</v>
-      </c>
-      <c r="H111" t="s">
-        <v>8</v>
-      </c>
-      <c r="I111" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب ملاك           </v>
-      </c>
-      <c r="G112" t="s">
-        <v>77</v>
-      </c>
-      <c r="H112" t="s">
-        <v>19</v>
-      </c>
-      <c r="I112" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع           </v>
-      </c>
-      <c r="G113" t="s">
-        <v>77</v>
-      </c>
-      <c r="H113" t="s">
-        <v>70</v>
-      </c>
-      <c r="I113" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
       <c r="B114" t="str">
         <f t="shared" si="1"/>
-        <v>وليد😎           </v>
-      </c>
-      <c r="G114" t="s">
-        <v>80</v>
-      </c>
-      <c r="H114" t="s">
-        <v>81</v>
-      </c>
-      <c r="I114" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
       <c r="B115" t="str">
         <f t="shared" si="1"/>
-        <v>حسين فايد😎           </v>
-      </c>
-      <c r="G115" t="s">
-        <v>80</v>
-      </c>
-      <c r="H115" t="s">
-        <v>19</v>
-      </c>
-      <c r="I115" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
       <c r="B116" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G116" t="s">
-        <v>80</v>
-      </c>
-      <c r="H116" t="s">
-        <v>21</v>
-      </c>
-      <c r="I116" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
       <c r="B117" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G117" t="s">
-        <v>80</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I117" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي           </v>
-      </c>
-      <c r="G118" t="s">
-        <v>83</v>
-      </c>
-      <c r="H118" t="s">
-        <v>21</v>
-      </c>
-      <c r="I118" t="s">
-        <v>32</v>
+        <v>           </v>
       </c>
     </row>
     <row r="119" spans="2:2">
@@ -4367,37 +3687,37 @@
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="395" spans="1:1">
@@ -4407,162 +3727,162 @@
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="650" spans="8:8">
+      <c r="H650" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="651" spans="8:8">
+      <c r="H651" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="652" spans="8:8">
+      <c r="H652" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="653" spans="8:8">
+      <c r="H653" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="654" spans="8:8">
+      <c r="H654" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="655" spans="8:8">
+      <c r="H655" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="656" spans="8:8">
+      <c r="H656" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="657" spans="8:8">
+      <c r="H657" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="694" spans="8:8">
-      <c r="H694" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="695" spans="8:8">
-      <c r="H695" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="696" spans="8:8">
-      <c r="H696" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="697" spans="8:8">
-      <c r="H697" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="698" spans="8:8">
-      <c r="H698" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="699" spans="8:8">
-      <c r="H699" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="700" spans="8:8">
-      <c r="H700" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="701" spans="8:8">
-      <c r="H701" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="702" spans="8:8">
-      <c r="H702" t="s">
+    <row r="658" spans="8:8">
+      <c r="H658" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="703" spans="8:8">
-      <c r="H703" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="704" spans="8:8">
-      <c r="H704" t="s">
+    <row r="659" spans="8:8">
+      <c r="H659" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="660" spans="8:8">
+      <c r="H660" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="661" spans="8:8">
+      <c r="H661" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="705" spans="8:8">
-      <c r="H705" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="706" spans="8:8">
-      <c r="H706" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="707" spans="8:8">
-      <c r="H707" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="708" spans="8:8">
-      <c r="H708" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="709" spans="8:8">
-      <c r="H709" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="710" spans="8:8">
-      <c r="H710" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="711" spans="8:8">
-      <c r="H711" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="712" spans="8:8">
-      <c r="H712" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="713" spans="8:8">
-      <c r="H713" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="714" spans="8:8">
-      <c r="H714" t="s">
-        <v>89</v>
+    <row r="662" spans="8:8">
+      <c r="H662" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="663" spans="8:8">
+      <c r="H663" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="664" spans="8:8">
+      <c r="H664" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" spans="8:8">
+      <c r="H665" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="666" spans="8:8">
+      <c r="H666" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="667" spans="8:8">
+      <c r="H667" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="668" spans="8:8">
+      <c r="H668" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="669" spans="8:8">
+      <c r="H669" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="670" spans="8:8">
+      <c r="H670" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,138 +30,246 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="55">
-  <si>
-    <t>حضورات ترانسكوم التجمع يوم 8/2</t>
-  </si>
-  <si>
-    <t>حضور ٤ ص</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="87">
+  <si>
+    <t>حضورات ترانسكوم التجمع يوم 8/4</t>
+  </si>
+  <si>
+    <t>حضور ٨ ص</t>
+  </si>
+  <si>
+    <t>اكتوبر</t>
+  </si>
+  <si>
+    <t>علاء😎</t>
+  </si>
+  <si>
+    <t>الزيتون</t>
+  </si>
+  <si>
+    <t>محمد سامح😎</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>سيد سلامه😎</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>معتز ع موسي</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>احمد رافت😎</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>حسين فايد😎</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>وائل😎</t>
   </si>
   <si>
     <t>مدينة نصر</t>
   </si>
   <si>
+    <t>فرج😎</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>عمر جحا😎</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>محمد علي😎</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
     <t>شريف عبد المنعم</t>
   </si>
   <si>
-    <t>حضور ٨ ص</t>
-  </si>
-  <si>
-    <t>اكتوبر</t>
+    <t>محمد شكري😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>سامي😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
   </si>
   <si>
     <t>احمد فراج</t>
   </si>
   <si>
-    <t>الزيتون</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>العباسية</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>العبور</t>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>عبد العزيز ع موسي</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>زياد ملاكي</t>
+  </si>
+  <si>
+    <t>مصطفي محمود😎</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>المقطم</t>
   </si>
   <si>
     <t>محمود اسامه ملاكي</t>
   </si>
   <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>دمراوي باص</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>التجمع</t>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>محمد امام ع موسي</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>علي حلاوه😎</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>محمد حسني ع الجنتل</t>
+  </si>
+  <si>
+    <t>عم مجدي ميدان الحدائق ونقطه السواح 🙏</t>
+  </si>
+  <si>
+    <t>مصطفي محمود😎 سلم البارون فقط 🙏</t>
+  </si>
+  <si>
+    <t>ماهر😎</t>
+  </si>
+  <si>
+    <t>المصري ونقطه ولي العهد 🙏✌</t>
+  </si>
+  <si>
+    <t>كوستر سعد</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
   </si>
   <si>
     <t>محمد فوزي</t>
   </si>
   <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>دمراوي</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
+    <t>سيد صفيحه😎</t>
+  </si>
+  <si>
+    <t>حضور ١٢ م</t>
+  </si>
+  <si>
+    <t>احمد حسن😎</t>
+  </si>
+  <si>
+    <t>تحرير</t>
   </si>
   <si>
     <t>عم مجدي</t>
   </si>
   <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>ماهر😎</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
+    <t>كريم علي😎</t>
+  </si>
+  <si>
+    <t>حضور ١ م</t>
   </si>
   <si>
     <t>حضور ٢ م</t>
   </si>
   <si>
-    <t>بدر</t>
+    <t>حضور ٣ م</t>
+  </si>
+  <si>
+    <t>حضور ٤ م</t>
   </si>
   <si>
     <t>حضور ٥ م</t>
   </si>
   <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>دائري</t>
+    <t>مصطفي موسي</t>
+  </si>
+  <si>
+    <t>توفيق ملاك</t>
+  </si>
+  <si>
+    <t>ايهاب ملاك</t>
+  </si>
+  <si>
+    <t>حضور ٦ م</t>
   </si>
   <si>
     <t>حضور ٧ م</t>
@@ -179,19 +287,7 @@
     <t>دائري مرج و السلام</t>
   </si>
   <si>
-    <t>شبرا</t>
-  </si>
-  <si>
     <t>الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
   </si>
   <si>
     <t>سلم البارون</t>
@@ -810,12 +906,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1362,17 +1455,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J670"/>
+  <dimension ref="A1:J648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G50" sqref="G1:I50"/>
+      <selection activeCell="G1" sqref="G1:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="14.8545454545455" customWidth="1"/>
+    <col min="9" max="9" width="33.2" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1389,15 +1482,15 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2," ",R2," ",S2," ",T2)</f>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>علاء😎           </v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I2" t="s">
@@ -1407,633 +1500,633 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" si="0">CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3," ",R3," ",S3," ",T3)</f>
-        <v>احمد فراج           </v>
-      </c>
-      <c r="G3" s="4" t="s">
+        <v>محمد سامح😎           </v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" t="s">
         <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎           </v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4" t="s">
+        <v>سيد سلامه😎           </v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎           </v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4" t="s">
+        <v>معتز ع موسي           </v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4" t="s">
+        <v>عبد النبي😎           </v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>دمراوي باص           </v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="4" t="s">
+        <v>احمد رافت😎           </v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4" t="s">
+        <v>حسين فايد😎           </v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="4" t="s">
+        <v>وائل😎           </v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="4" t="s">
+        <v>فرج😎           </v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي           </v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>2</v>
+        <v>عمر جحا😎           </v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>دمراوي           </v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
+        <v>محمد علي😎           </v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سعيد           </v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
+        <v>احمد جلال           </v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي           </v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>13</v>
+        <v>بلال😎           </v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي           </v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>25</v>
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>15</v>
+        <v>محمد شكري😎           </v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>17</v>
+        <v>سامي😎           </v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>28</v>
+        <v>احمد فراج           </v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>دمراوي           </v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>29</v>
+        <v>احمد فراج           </v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج           </v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>7</v>
+        <v>عبد العزيز ع موسي           </v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>11</v>
+        <v>مصطفي منتصر           </v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي           </v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>17</v>
+        <v>محمد شكري😎           </v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب           </v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>18</v>
+        <v>زياد ملاكي           </v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>28</v>
+        <v>مصطفي محمود😎           </v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>5</v>
+        <v>علاء😎           </v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>وليد😎           </v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>7</v>
+        <v>ايهاب           </v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>ماهر😎           </v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>34</v>
+        <v>محمود اسامه ملاكي           </v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>15</v>
+        <v>احمد ناصر😎           </v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي           </v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>17</v>
+        <v>محسن الضبع           </v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎           </v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>18</v>
+        <v>مصطفي منتصر           </v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I30" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎           </v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>36</v>
+        <v>محمد سعيد           </v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب           </v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="4" t="s">
+        <v>محمد امام ع موسي           </v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سعيد           </v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>20</v>
+        <v>عم سعيد           </v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="J33" s="4"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎           </v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>9</v>
+        <v>علي طه           </v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>11</v>
+        <v>علي طه           </v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب           </v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>15</v>
+        <v>ايهاب سليمان           </v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎           </v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>2</v>
+        <v>علي حلاوه😎           </v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I37" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>20</v>
+        <v>محمد سامح😎           </v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="I38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" t="s">
-        <v>40</v>
+        <v>عمر جحا😎           </v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="I39" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" t="s">
-        <v>5</v>
+        <v>عمر جحا😎           </v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="I40" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان           </v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>7</v>
+        <v>محمد حسني ع الجنتل           </v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سعيد           </v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>11</v>
+        <v>عم مجدي ميدان الحدائق ونقطه السواح 🙏           </v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="I42" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -2041,562 +2134,1155 @@
         <f t="shared" si="0"/>
         <v>مصطفي منتصر           </v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>15</v>
+      <c r="G43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" t="s">
-        <v>43</v>
+        <v>مصطفي محمود😎 سلم البارون فقط 🙏           </v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>17</v>
+        <v>ماهر😎           </v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج           </v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>18</v>
+        <v>المصري ونقطه ولي العهد 🙏✌           </v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I46" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>ماهر😎           </v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>2</v>
+        <v>سيد سلامه😎           </v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي           </v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>28</v>
+        <v>حسين فايد😎           </v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي           </v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>40</v>
+        <v>محمد شكري😎           </v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="0"/>
+        <v>احمد ناصر😎           </v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>كوستر سعد           </v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>كوستر سعد           </v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>احمد رافت😎           </v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>بلال😎           </v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>محسن الضبع           </v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>سامي😎           </v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>ايهاب           </v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>محمد سامح😎           </v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>محمد فوزي           </v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
         <v>شريف عبد المنعم           </v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="4" t="s">
+      <c r="G60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>مصطفي منتصر           </v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>سيد صفيحه😎           </v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" t="s">
+        <v>37</v>
+      </c>
+      <c r="I62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>احمد فراج           </v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>سيد سلامه😎           </v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>احمد رافت😎           </v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" t="s">
         <v>13</v>
       </c>
-      <c r="I50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" t="str">
-        <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="2:2">
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="0"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
+        <v>محمد شكري😎           </v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" ref="B67:B130" si="1">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67," ",R67," ",S67," ",T67)</f>
-        <v>           </v>
-      </c>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="2:2">
+        <v>عبد النبي😎           </v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
+        <v>احمد جلال           </v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
+        <v>احمد حسن😎           </v>
+      </c>
+      <c r="G69" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="2:8">
+        <v>عم مجدي           </v>
+      </c>
+      <c r="G70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="2:2">
+        <v>كريم علي😎           </v>
+      </c>
+      <c r="G71" t="s">
+        <v>66</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
+        <v>محمد سعيد           </v>
+      </c>
+      <c r="G72" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="2:2">
+        <v>محمد علي😎           </v>
+      </c>
+      <c r="G73" t="s">
+        <v>66</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
+        <v>ماهر😎           </v>
+      </c>
+      <c r="G74" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
+        <v>احمد ناصر😎           </v>
+      </c>
+      <c r="G75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
+        <v>سيد سلامه😎           </v>
+      </c>
+      <c r="G76" t="s">
+        <v>66</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="2:8">
+        <v>محمود اسامه ملاكي           </v>
+      </c>
+      <c r="G77" t="s">
+        <v>66</v>
+      </c>
+      <c r="H77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="2:2">
+        <v>سيد صفيحه😎           </v>
+      </c>
+      <c r="G78" t="s">
+        <v>66</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
+        <v>محسن الضبع           </v>
+      </c>
+      <c r="G79" t="s">
+        <v>66</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
+        <v>محمد شكري😎           </v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
+        <v>عبد النبي😎           </v>
+      </c>
+      <c r="G81" t="s">
+        <v>71</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
+        <v>كريم علي😎           </v>
+      </c>
+      <c r="G82" t="s">
+        <v>71</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
+        <v>ماهر😎           </v>
+      </c>
+      <c r="G83" t="s">
+        <v>72</v>
+      </c>
+      <c r="H83" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G84" t="s">
+        <v>72</v>
+      </c>
+      <c r="H84" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
+        <v>محمود اسامه ملاكي           </v>
+      </c>
+      <c r="G85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
+        <v>مصطفي منتصر           </v>
+      </c>
+      <c r="G86" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
+        <v>احمد رافت😎           </v>
+      </c>
+      <c r="G87" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
       <c r="B88" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
+        <v>ايهاب           </v>
+      </c>
+      <c r="G88" t="s">
+        <v>72</v>
+      </c>
+      <c r="H88" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
+        <v>سيد صفيحه😎           </v>
+      </c>
+      <c r="G89" t="s">
+        <v>72</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
+        <v>محسن الضبع           </v>
+      </c>
+      <c r="G90" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
+        <v>عم سعيد           </v>
+      </c>
+      <c r="G91" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1" spans="2:2">
+        <v>محمد سعيد           </v>
+      </c>
+      <c r="G93" t="s">
+        <v>73</v>
+      </c>
+      <c r="H93" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
+        <v>عم مجدي           </v>
+      </c>
+      <c r="G94" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94" t="s">
+        <v>29</v>
+      </c>
+      <c r="I94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
+        <v>مصطفي منتصر           </v>
+      </c>
+      <c r="G95" t="s">
+        <v>73</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
+        <v>احمد فراج           </v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
+        <v>ايهاب           </v>
+      </c>
+      <c r="G97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
+        <v>محمود اسامه ملاكي           </v>
+      </c>
+      <c r="G98" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" t="s">
+        <v>41</v>
+      </c>
+      <c r="I98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
+        <v>احمد جلال           </v>
+      </c>
+      <c r="G99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
+        <v>عم سعيد           </v>
+      </c>
+      <c r="G100" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
       <c r="B101" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
+        <v>احمد جلال           </v>
+      </c>
+      <c r="G101" t="s">
+        <v>75</v>
+      </c>
+      <c r="H101" t="s">
+        <v>2</v>
+      </c>
+      <c r="I101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G102" t="s">
+        <v>75</v>
+      </c>
+      <c r="H102" t="s">
+        <v>50</v>
+      </c>
+      <c r="I102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
+        <v>احمد ناصر😎           </v>
+      </c>
+      <c r="G103" t="s">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s">
+        <v>4</v>
+      </c>
+      <c r="I103" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
+        <v>محمود اسامه ملاكي           </v>
+      </c>
+      <c r="G104" t="s">
+        <v>75</v>
+      </c>
+      <c r="H104" t="s">
+        <v>6</v>
+      </c>
+      <c r="I104" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
+        <v>عم سعيد           </v>
+      </c>
+      <c r="G105" t="s">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
+        <v>مصطفي موسي           </v>
+      </c>
+      <c r="G106" t="s">
+        <v>75</v>
+      </c>
+      <c r="H106" t="s">
+        <v>29</v>
+      </c>
+      <c r="I106" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
+        <v>توفيق ملاك           </v>
+      </c>
+      <c r="G107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
+        <v>ايهاب ملاك           </v>
+      </c>
+      <c r="G108" t="s">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
+        <v>سامي😎           </v>
+      </c>
+      <c r="G109" t="s">
+        <v>75</v>
+      </c>
+      <c r="H109" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
+        <v>محمد علي😎           </v>
+      </c>
+      <c r="G110" t="s">
+        <v>75</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="112" spans="2:2">
+        <v>محمد شكري😎           </v>
+      </c>
+      <c r="G111" t="s">
+        <v>75</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
+        <v>احمد فراج           </v>
+      </c>
+      <c r="G112" t="s">
+        <v>75</v>
+      </c>
+      <c r="H112" t="s">
+        <v>46</v>
+      </c>
+      <c r="I112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
+        <v>سامي😎           </v>
+      </c>
+      <c r="G113" t="s">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s">
+        <v>8</v>
+      </c>
+      <c r="I113" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
       <c r="B114" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
+        <v>محسن الضبع           </v>
+      </c>
+      <c r="G114" t="s">
+        <v>79</v>
+      </c>
+      <c r="H114" t="s">
+        <v>44</v>
+      </c>
+      <c r="I114" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9">
       <c r="B115" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
+        <v>محمود اسامه ملاكي           </v>
+      </c>
+      <c r="G115" t="s">
+        <v>79</v>
+      </c>
+      <c r="H115" t="s">
+        <v>46</v>
+      </c>
+      <c r="I115" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
       <c r="B116" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
+        <v>محمد سامح😎           </v>
+      </c>
+      <c r="G116" t="s">
+        <v>80</v>
+      </c>
+      <c r="H116" t="s">
+        <v>55</v>
+      </c>
+      <c r="I116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
       <c r="B117" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
+        <v>حسين فايد😎           </v>
+      </c>
+      <c r="G117" t="s">
+        <v>80</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
+        <v>احمد جلال           </v>
+      </c>
+      <c r="G118" t="s">
+        <v>80</v>
+      </c>
+      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
       <c r="B119" t="str">
         <f t="shared" si="1"/>
-        <v>           </v>
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G119" t="s">
+        <v>80</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="2:2">
@@ -3687,87 +4373,87 @@
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="405" spans="1:1">
@@ -3777,112 +4463,112 @@
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="650" spans="8:8">
-      <c r="H650" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="651" spans="8:8">
-      <c r="H651" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="652" spans="8:8">
-      <c r="H652" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="653" spans="8:8">
-      <c r="H653" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="654" spans="8:8">
-      <c r="H654" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="655" spans="8:8">
-      <c r="H655" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="656" spans="8:8">
-      <c r="H656" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="628" spans="8:8">
+      <c r="H628" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="629" spans="8:8">
+      <c r="H629" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="630" spans="8:8">
+      <c r="H630" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="631" spans="8:8">
+      <c r="H631" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="632" spans="8:8">
+      <c r="H632" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="633" spans="8:8">
+      <c r="H633" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="634" spans="8:8">
+      <c r="H634" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="635" spans="8:8">
+      <c r="H635" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="657" spans="8:8">
-      <c r="H657" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="658" spans="8:8">
-      <c r="H658" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="659" spans="8:8">
-      <c r="H659" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="660" spans="8:8">
-      <c r="H660" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="661" spans="8:8">
-      <c r="H661" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="662" spans="8:8">
-      <c r="H662" t="s">
+    <row r="636" spans="8:8">
+      <c r="H636" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="637" spans="8:8">
+      <c r="H637" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="638" spans="8:8">
+      <c r="H638" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="639" spans="8:8">
+      <c r="H639" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="640" spans="8:8">
+      <c r="H640" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="641" spans="8:8">
+      <c r="H641" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="642" spans="8:8">
+      <c r="H642" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="643" spans="8:8">
+      <c r="H643" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="644" spans="8:8">
+      <c r="H644" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="645" spans="8:8">
+      <c r="H645" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="663" spans="8:8">
-      <c r="H663" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="664" spans="8:8">
-      <c r="H664" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="665" spans="8:8">
-      <c r="H665" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="666" spans="8:8">
-      <c r="H666" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="667" spans="8:8">
-      <c r="H667" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="668" spans="8:8">
-      <c r="H668" t="s">
+    <row r="646" spans="8:8">
+      <c r="H646" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="669" spans="8:8">
-      <c r="H669" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="670" spans="8:8">
-      <c r="H670" t="s">
-        <v>54</v>
+    <row r="647" spans="8:8">
+      <c r="H647" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="648" spans="8:8">
+      <c r="H648" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="87">
-  <si>
-    <t>حضورات ترانسكوم التجمع يوم 8/4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="85">
+  <si>
+    <t>حضورات ترانسكوم التجمع يوم 8/7</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
@@ -71,7 +71,7 @@
     <t>دائري</t>
   </si>
   <si>
-    <t>احمد رافت😎</t>
+    <t>محمد فيصل😎</t>
   </si>
   <si>
     <t>فيصل</t>
@@ -83,168 +83,165 @@
     <t>التجمع</t>
   </si>
   <si>
+    <t>عبد المعيد😎</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>مدينتي و الشروق</t>
+  </si>
+  <si>
+    <t>فرج😎</t>
+  </si>
+  <si>
+    <t>المعادي</t>
+  </si>
+  <si>
     <t>وائل😎</t>
   </si>
   <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>فرج😎</t>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>بلال😎</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>مصطفي توشكا😎</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>مصطفي محمود😎</t>
+  </si>
+  <si>
+    <t>حدائق اكتوبر</t>
+  </si>
+  <si>
+    <t>عمرو فراج</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>عبد العزيز ع موسي</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
+  </si>
+  <si>
+    <t>عبد الرحمن الاعصر😎</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>احمد ناصر😎</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>محمود اسامه ملاكي</t>
+  </si>
+  <si>
+    <t>عمر جحا😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>محسن الضبع</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>محمد امام ع موسي</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>كوستر بيشوي</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>الواحات</t>
+  </si>
+  <si>
+    <t>محمد حسني ع الجنتل</t>
+  </si>
+  <si>
+    <t>علي طه</t>
+  </si>
+  <si>
+    <t>ماهر😎</t>
+  </si>
+  <si>
+    <t>المصري ع موسي</t>
+  </si>
+  <si>
+    <t>ايهاب</t>
+  </si>
+  <si>
+    <t>كوستر سعد</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>سيد صفيحه😎</t>
+  </si>
+  <si>
+    <t>كريم علي😎</t>
   </si>
   <si>
     <t>مدينتي</t>
   </si>
   <si>
-    <t>عمر جحا😎</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>محمد علي😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>محمد شكري😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>سامي😎</t>
-  </si>
-  <si>
-    <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>احمد فراج</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>عبد العزيز ع موسي</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>زياد ملاكي</t>
-  </si>
-  <si>
-    <t>مصطفي محمود😎</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>محمد امام ع موسي</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>علي حلاوه😎</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>محمد حسني ع الجنتل</t>
-  </si>
-  <si>
-    <t>عم مجدي ميدان الحدائق ونقطه السواح 🙏</t>
-  </si>
-  <si>
-    <t>مصطفي محمود😎 سلم البارون فقط 🙏</t>
-  </si>
-  <si>
-    <t>ماهر😎</t>
-  </si>
-  <si>
-    <t>المصري ونقطه ولي العهد 🙏✌</t>
-  </si>
-  <si>
-    <t>كوستر سعد</t>
-  </si>
-  <si>
-    <t>مدينتي و الشروق</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>سيد صفيحه😎</t>
+    <t>وليد😎</t>
   </si>
   <si>
     <t>حضور ١٢ م</t>
   </si>
   <si>
+    <t>إحمد عبدالله</t>
+  </si>
+  <si>
+    <t>تحرير</t>
+  </si>
+  <si>
     <t>احمد حسن😎</t>
   </si>
   <si>
-    <t>تحرير</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
     <t>حضور ١ م</t>
   </si>
   <si>
@@ -254,16 +251,13 @@
     <t>حضور ٣ م</t>
   </si>
   <si>
-    <t>حضور ٤ م</t>
-  </si>
-  <si>
     <t>حضور ٥ م</t>
   </si>
   <si>
+    <t>توفيق ملاك</t>
+  </si>
+  <si>
     <t>مصطفي موسي</t>
-  </si>
-  <si>
-    <t>توفيق ملاك</t>
   </si>
   <si>
     <t>ايهاب ملاك</t>
@@ -906,15 +900,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1455,17 +1446,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J648"/>
+  <dimension ref="A1:J584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I37"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="33.2" customWidth="1"/>
+    <col min="9" max="9" width="17.5909090909091" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1475,7 +1466,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="8:8">
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1487,10 +1478,10 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I2" t="s">
@@ -1502,10 +1493,10 @@
         <f t="shared" ref="B3:B66" si="0">CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3," ",R3," ",S3," ",T3)</f>
         <v>محمد سامح😎           </v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I3" t="s">
@@ -1517,10 +1508,10 @@
         <f t="shared" si="0"/>
         <v>سيد سلامه😎           </v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I4" t="s">
@@ -1532,1277 +1523,1277 @@
         <f t="shared" si="0"/>
         <v>معتز ع موسي           </v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>عبد النبي😎           </v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>احمد رافت😎           </v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>محمد فيصل😎           </v>
+      </c>
+      <c r="G7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>حسين فايد😎           </v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>وائل😎           </v>
-      </c>
-      <c r="G9" s="2" t="s">
+        <v>عبد المعيد😎           </v>
+      </c>
+      <c r="G9" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>فرج😎           </v>
-      </c>
-      <c r="G10" s="2" t="s">
+        <v>عم سعيد           </v>
+      </c>
+      <c r="G10" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>عمر جحا😎           </v>
-      </c>
-      <c r="G11" s="2" t="s">
+        <v>فرج😎           </v>
+      </c>
+      <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>محمد علي😎           </v>
-      </c>
-      <c r="G12" s="2" t="s">
+        <v>وائل😎           </v>
+      </c>
+      <c r="G12" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>احمد جلال           </v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>بلال😎           </v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I14" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G15" s="3" t="s">
+        <v>ايهاب سليمان           </v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I15" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>محمد شكري😎           </v>
-      </c>
-      <c r="G16" s="3" t="s">
+        <v>مصطفي توشكا😎           </v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I16" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>سامي😎           </v>
-      </c>
-      <c r="G17" s="3" t="s">
+        <v>مصطفي محمود😎           </v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I17" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج           </v>
-      </c>
-      <c r="G18" s="3" t="s">
+        <v>عمرو فراج           </v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج           </v>
-      </c>
-      <c r="G19" s="3" t="s">
+        <v>عمرو فراج           </v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>عبد العزيز ع موسي           </v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I20" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>مصطفي منتصر           </v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>محمد شكري😎           </v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>مصطفي توشكا😎           </v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I22" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>زياد ملاكي           </v>
-      </c>
-      <c r="G23" s="3" t="s">
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I23" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي محمود😎           </v>
-      </c>
-      <c r="G24" s="3" t="s">
+        <v>عبد الرحمن الاعصر😎           </v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I24" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>علاء😎           </v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I25" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب           </v>
-      </c>
-      <c r="G26" s="3" t="s">
+        <v>محمد فوزي           </v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>16</v>
+      <c r="H26" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G27" s="3" t="s">
+        <v>احمد ناصر😎           </v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>41</v>
+      <c r="H27" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="I27" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎           </v>
-      </c>
-      <c r="G28" s="3" t="s">
+        <v>محمود اسامه ملاكي           </v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>18</v>
+      <c r="H28" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع           </v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>عمر جحا😎           </v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>44</v>
+      <c r="H29" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I29" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G30" s="3" t="s">
+        <v>محسن الضبع           </v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>22</v>
+      <c r="H30" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سعيد           </v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>46</v>
+        <v>محمد امام ع موسي           </v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>محمد امام ع موسي           </v>
-      </c>
-      <c r="G32" s="3" t="s">
+        <v>عم سعيد           </v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>2</v>
+      <c r="H32" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
-      </c>
-      <c r="J32" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد           </v>
-      </c>
-      <c r="G33" s="3" t="s">
+        <v>كوستر بيشوي           </v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>50</v>
+      <c r="H33" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="I33" t="s">
         <v>51</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه           </v>
-      </c>
-      <c r="G34" s="3" t="s">
+        <v>كوستر بيشوي           </v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه           </v>
-      </c>
-      <c r="G35" s="3" t="s">
+        <v>عم مجدي           </v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H35" t="s">
-        <v>4</v>
+      <c r="H35" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="I35" t="s">
         <v>52</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان           </v>
-      </c>
-      <c r="G36" s="3" t="s">
+        <v>احمد ناصر😎           </v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H36" t="s">
-        <v>6</v>
+      <c r="H36" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>علي حلاوه😎           </v>
-      </c>
-      <c r="G37" s="3" t="s">
+        <v>محمد سامح😎           </v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>8</v>
+      <c r="H37" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎           </v>
-      </c>
-      <c r="G38" s="3" t="s">
+        <v>محمد امام ع موسي           </v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>29</v>
+      <c r="H38" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="I38" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>عمر جحا😎           </v>
-      </c>
-      <c r="G39" s="3" t="s">
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>55</v>
+      <c r="H39" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>عمر جحا😎           </v>
-      </c>
-      <c r="G40" s="3" t="s">
+        <v>محمد حسني ع الجنتل           </v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>31</v>
+      <c r="H40" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>محمد حسني ع الجنتل           </v>
-      </c>
-      <c r="G41" s="3" t="s">
+        <v>علي طه           </v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>33</v>
+      <c r="H41" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي ميدان الحدائق ونقطه السواح 🙏           </v>
-      </c>
-      <c r="G42" s="3" t="s">
+        <v>مصطفي منتصر           </v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>34</v>
+      <c r="H42" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G43" s="3" t="s">
+        <v>ماهر😎           </v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>10</v>
+      <c r="H43" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي محمود😎 سلم البارون فقط 🙏           </v>
-      </c>
-      <c r="G44" s="3" t="s">
+        <v>المصري ع موسي           </v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>10</v>
+      <c r="H44" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>ماهر😎           </v>
-      </c>
-      <c r="G45" s="3" t="s">
+        <v>سيد سلامه😎           </v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>12</v>
+      <c r="H45" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>59</v>
-      </c>
-      <c r="J45" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>المصري ونقطه ولي العهد 🙏✌           </v>
-      </c>
-      <c r="G46" s="3" t="s">
+        <v>حسين فايد😎           </v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>37</v>
+      <c r="H46" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎           </v>
-      </c>
-      <c r="G47" s="3" t="s">
+        <v>ايهاب           </v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H47" t="s">
-        <v>14</v>
+      <c r="H47" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I47" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎           </v>
-      </c>
-      <c r="G48" s="3" t="s">
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>محمد شكري😎           </v>
-      </c>
-      <c r="G49" s="3" t="s">
+        <v>كوستر سعد           </v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>16</v>
+      <c r="H49" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎           </v>
-      </c>
-      <c r="G50" s="3" t="s">
+        <v>كوستر سعد           </v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>41</v>
+      <c r="H50" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>كوستر سعد           </v>
-      </c>
-      <c r="G51" s="3" t="s">
+        <v>محمد فيصل😎           </v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>18</v>
+      <c r="H51" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>كوستر سعد           </v>
-      </c>
-      <c r="G52" s="3" t="s">
+        <v>بلال😎           </v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>18</v>
+      <c r="H52" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I52" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>احمد رافت😎           </v>
-      </c>
-      <c r="G53" s="3" t="s">
+        <v>محسن الضبع           </v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>62</v>
+      <c r="H53" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎           </v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H54" t="s">
-        <v>22</v>
+        <v>محمد فوزي           </v>
+      </c>
+      <c r="G54" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع           </v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H55" t="s">
-        <v>46</v>
+        <v>ايهاب سليمان           </v>
+      </c>
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>سامي😎           </v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>4</v>
+        <v>عم مجدي           </v>
+      </c>
+      <c r="G56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب           </v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>6</v>
+        <v>محمد سعيد           </v>
+      </c>
+      <c r="G57" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" t="s">
+        <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎           </v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H58" t="s">
-        <v>8</v>
+        <v>عبد الرحمن الاعصر😎           </v>
+      </c>
+      <c r="G58" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I58" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي           </v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>29</v>
+        <v>علي طه           </v>
+      </c>
+      <c r="G59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>33</v>
+        <v>سيد صفيحه😎           </v>
+      </c>
+      <c r="G60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I60" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>10</v>
+        <v>عم سعيد           </v>
+      </c>
+      <c r="G61" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>سيد صفيحه😎           </v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H62" t="s">
-        <v>37</v>
+        <v>سيد سلامه😎           </v>
+      </c>
+      <c r="G62" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I62" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>احمد فراج           </v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H63" t="s">
-        <v>14</v>
+        <v>ايهاب           </v>
+      </c>
+      <c r="G63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I63" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎           </v>
-      </c>
-      <c r="G64" s="3" t="s">
+        <v>كريم علي😎           </v>
+      </c>
+      <c r="G64" t="s">
+        <v>60</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
         <v>63</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>احمد رافت😎           </v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>41</v>
+        <v>محسن الضبع           </v>
+      </c>
+      <c r="G65" t="s">
+        <v>60</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="I65" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" t="str">
         <f t="shared" si="0"/>
-        <v>محمد شكري😎           </v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>18</v>
+        <v>وليد😎           </v>
+      </c>
+      <c r="G66" t="s">
+        <v>60</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I66" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" t="str">
         <f t="shared" ref="B67:B130" si="1">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67," ",R67," ",S67," ",T67)</f>
-        <v>عبد النبي😎           </v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>20</v>
+        <v>إحمد عبدالله           </v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H67" t="s">
+        <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>63</v>
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="H68" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I68" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>احمد حسن😎           </v>
-      </c>
-      <c r="G69" t="s">
+        <v>احمد ناصر😎           </v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>2</v>
+      <c r="H69" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="I69" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي           </v>
-      </c>
-      <c r="G70" t="s">
+        <v>ايهاب           </v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>68</v>
+      <c r="H70" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I70" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="2:9">
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>كريم علي😎           </v>
-      </c>
-      <c r="G71" t="s">
+        <v>محمد فيصل😎           </v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H71" t="s">
-        <v>4</v>
+      <c r="H71" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I71" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد           </v>
-      </c>
-      <c r="G72" t="s">
+        <v>عبد النبي😎           </v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H72" t="s">
-        <v>8</v>
+      <c r="H72" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I72" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>محمد علي😎           </v>
-      </c>
-      <c r="G73" t="s">
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>10</v>
+      <c r="H73" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I73" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="2:9">
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>ماهر😎           </v>
-      </c>
-      <c r="G74" t="s">
+        <v>مصطفي منتصر           </v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H74" t="s">
-        <v>37</v>
+      <c r="H74" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="I74" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="B75" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎           </v>
-      </c>
-      <c r="G75" t="s">
+        <v>عمرو فراج           </v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H75" t="s">
-        <v>14</v>
+      <c r="H75" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="B76" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎           </v>
-      </c>
-      <c r="G76" t="s">
+        <v>احمد جلال           </v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H76" t="s">
-        <v>16</v>
+      <c r="H76" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I76" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="2:9">
       <c r="B77" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G77" t="s">
+        <v>احمد حسن😎           </v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H77" t="s">
-        <v>41</v>
+      <c r="H77" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="2:9">
       <c r="B78" t="str">
         <f t="shared" si="1"/>
-        <v>سيد صفيحه😎           </v>
-      </c>
-      <c r="G78" t="s">
+        <v>سيد سلامه😎           </v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>18</v>
+      <c r="H78" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I78" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="2:9">
       <c r="B79" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع           </v>
-      </c>
-      <c r="G79" t="s">
+        <v>ماهر😎           </v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>62</v>
+      <c r="H79" t="s">
+        <v>40</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" t="str">
         <f t="shared" si="1"/>
-        <v>محمد شكري😎           </v>
-      </c>
-      <c r="G80" t="s">
-        <v>71</v>
-      </c>
-      <c r="H80" t="s">
-        <v>29</v>
+        <v>كريم علي😎           </v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="2:9">
       <c r="B81" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎           </v>
-      </c>
-      <c r="G81" t="s">
-        <v>71</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>10</v>
+        <v>عبد المعيد😎           </v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I81" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="2:9">
       <c r="B82" t="str">
         <f t="shared" si="1"/>
-        <v>كريم علي😎           </v>
+        <v>محمد فوزي           </v>
       </c>
       <c r="G82" t="s">
-        <v>71</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>18</v>
+        <v>70</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I82" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="2:9">
       <c r="B83" t="str">
         <f t="shared" si="1"/>
-        <v>ماهر😎           </v>
+        <v>مصطفي منتصر           </v>
       </c>
       <c r="G83" t="s">
-        <v>72</v>
-      </c>
-      <c r="H83" t="s">
-        <v>4</v>
+        <v>70</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="2:9">
       <c r="B84" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم           </v>
+        <v>عبد الرحمن الاعصر😎           </v>
       </c>
       <c r="G84" t="s">
-        <v>72</v>
-      </c>
-      <c r="H84" t="s">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="I84" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="B85" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G85" t="s">
-        <v>72</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>33</v>
+        <v>ماهر😎           </v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="2:9">
       <c r="B86" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G86" t="s">
-        <v>72</v>
-      </c>
-      <c r="H86" s="3" t="s">
+        <v>احمد جلال           </v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I86" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="2:9">
       <c r="B87" t="str">
         <f t="shared" si="1"/>
-        <v>احمد رافت😎           </v>
-      </c>
-      <c r="G87" t="s">
-        <v>72</v>
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="2:9">
@@ -2810,194 +2801,194 @@
         <f t="shared" si="1"/>
         <v>ايهاب           </v>
       </c>
-      <c r="G88" t="s">
-        <v>72</v>
+      <c r="G88" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H88" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I88" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="2:9">
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>سيد صفيحه😎           </v>
+        <v>محمد فيصل😎           </v>
       </c>
       <c r="G89" t="s">
         <v>72</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>18</v>
+      <c r="H89" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I89" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="2:9">
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع           </v>
+        <v>مصطفي منتصر           </v>
       </c>
       <c r="G90" t="s">
         <v>72</v>
       </c>
-      <c r="H90" t="s">
-        <v>20</v>
+      <c r="H90" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="I90" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="2:9">
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد           </v>
+        <v>عم مجدي           </v>
       </c>
       <c r="G91" t="s">
         <v>72</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="2:9">
       <c r="B92" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم           </v>
+        <v>ايهاب           </v>
       </c>
       <c r="G92" t="s">
-        <v>73</v>
-      </c>
-      <c r="H92" t="s">
-        <v>4</v>
+        <v>72</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I92" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سعيد           </v>
+        <v>عبد المعيد😎           </v>
       </c>
       <c r="G93" t="s">
-        <v>73</v>
-      </c>
-      <c r="H93" t="s">
-        <v>8</v>
+        <v>72</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="I93" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="2:9">
       <c r="B94" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي           </v>
+        <v>توفيق ملاك           </v>
       </c>
       <c r="G94" t="s">
         <v>73</v>
       </c>
       <c r="H94" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر           </v>
+        <v>شريف عبد المنعم           </v>
       </c>
       <c r="G95" t="s">
         <v>73</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>10</v>
+      <c r="H95" t="s">
+        <v>50</v>
       </c>
       <c r="I95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج           </v>
+        <v>عبد المعيد😎           </v>
       </c>
       <c r="G96" t="s">
         <v>73</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب           </v>
+        <v>ايهاب سليمان           </v>
       </c>
       <c r="G97" t="s">
         <v>73</v>
       </c>
       <c r="H97" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I97" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="2:9">
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
+        <v>محمد فيصل😎           </v>
       </c>
       <c r="G98" t="s">
         <v>73</v>
       </c>
       <c r="H98" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="2:9">
       <c r="B99" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال           </v>
+        <v>مصطفي موسي           </v>
       </c>
       <c r="G99" t="s">
         <v>73</v>
       </c>
-      <c r="H99" t="s">
-        <v>20</v>
+      <c r="H99" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I99" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد           </v>
+        <v>مصطفي منتصر           </v>
       </c>
       <c r="G100" t="s">
-        <v>74</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>33</v>
+        <v>73</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="I100" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="2:9">
@@ -3006,10 +2997,10 @@
         <v>احمد جلال           </v>
       </c>
       <c r="G101" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H101" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I101" t="s">
         <v>25</v>
@@ -3018,16 +3009,16 @@
     <row r="102" spans="2:9">
       <c r="B102" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم           </v>
+        <v>ايهاب ملاك           </v>
       </c>
       <c r="G102" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H102" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="2:9">
@@ -3036,253 +3027,208 @@
         <v>احمد ناصر😎           </v>
       </c>
       <c r="G103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H103" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
+        <v>محمد فوزي           </v>
       </c>
       <c r="G104" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H104" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد           </v>
+        <v>عبد الرحمن الاعصر😎           </v>
       </c>
       <c r="G105" t="s">
-        <v>75</v>
-      </c>
-      <c r="H105" t="s">
-        <v>8</v>
+        <v>73</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="I105" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="2:9">
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي موسي           </v>
+        <v>ماهر😎           </v>
       </c>
       <c r="G106" t="s">
-        <v>75</v>
-      </c>
-      <c r="H106" t="s">
-        <v>29</v>
+        <v>73</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I106" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v>توفيق ملاك           </v>
+        <v>عمرو فراج           </v>
       </c>
       <c r="G107" t="s">
-        <v>75</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
       </c>
       <c r="I107" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="2:9">
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب ملاك           </v>
+        <v>كريم علي😎           </v>
       </c>
       <c r="G108" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I108" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎           </v>
+        <v>محسن الضبع           </v>
       </c>
       <c r="G109" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H109" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I109" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="2:9">
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v>محمد علي😎           </v>
+        <v>شريف عبد المنعم           </v>
       </c>
       <c r="G110" t="s">
-        <v>75</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>18</v>
+        <v>77</v>
+      </c>
+      <c r="H110" t="s">
+        <v>46</v>
       </c>
       <c r="I110" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="2:9">
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v>محمد شكري😎           </v>
+        <v>وليد😎           </v>
       </c>
       <c r="G111" t="s">
-        <v>75</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+      <c r="H111" t="s">
+        <v>53</v>
       </c>
       <c r="I111" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="2:9">
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v>احمد فراج           </v>
+        <v>علاء😎           </v>
       </c>
       <c r="G112" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H112" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I112" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="2:9">
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v>سامي😎           </v>
+        <v>عم سعيد           </v>
       </c>
       <c r="G113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H113" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I113" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="2:9">
       <c r="B114" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع           </v>
+        <v>عم مجدي           </v>
       </c>
       <c r="G114" t="s">
-        <v>79</v>
-      </c>
-      <c r="H114" t="s">
-        <v>44</v>
+        <v>78</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="I114" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
       <c r="B115" t="str">
         <f t="shared" si="1"/>
-        <v>محمود اسامه ملاكي           </v>
-      </c>
-      <c r="G115" t="s">
-        <v>79</v>
-      </c>
-      <c r="H115" t="s">
-        <v>46</v>
-      </c>
-      <c r="I115" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
       <c r="B116" t="str">
         <f t="shared" si="1"/>
-        <v>محمد سامح😎           </v>
-      </c>
-      <c r="G116" t="s">
-        <v>80</v>
-      </c>
-      <c r="H116" t="s">
-        <v>55</v>
-      </c>
-      <c r="I116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
       <c r="B117" t="str">
         <f t="shared" si="1"/>
-        <v>حسين فايد😎           </v>
-      </c>
-      <c r="G117" t="s">
-        <v>80</v>
-      </c>
-      <c r="H117" t="s">
-        <v>14</v>
-      </c>
-      <c r="I117" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G118" t="s">
-        <v>80</v>
-      </c>
-      <c r="H118" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
       <c r="B119" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G119" t="s">
-        <v>80</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I119" t="s">
-        <v>27</v>
+        <v>           </v>
       </c>
     </row>
     <row r="120" spans="2:2">
@@ -4373,17 +4319,17 @@
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="391" spans="1:1">
@@ -4413,7 +4359,7 @@
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="397" spans="1:1">
@@ -4428,12 +4374,12 @@
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="401" spans="1:1">
@@ -4443,7 +4389,7 @@
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="403" spans="1:1">
@@ -4458,117 +4404,117 @@
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="628" spans="8:8">
-      <c r="H628" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="564" spans="8:8">
+      <c r="H564" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="565" spans="8:8">
+      <c r="H565" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="566" spans="8:8">
+      <c r="H566" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="629" spans="8:8">
-      <c r="H629" t="s">
+    <row r="567" spans="8:8">
+      <c r="H567" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="568" spans="8:8">
+      <c r="H568" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="569" spans="8:8">
+      <c r="H569" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="570" spans="8:8">
+      <c r="H570" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="571" spans="8:8">
+      <c r="H571" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="572" spans="8:8">
+      <c r="H572" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="573" spans="8:8">
+      <c r="H573" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="630" spans="8:8">
-      <c r="H630" t="s">
+    <row r="574" spans="8:8">
+      <c r="H574" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="575" spans="8:8">
+      <c r="H575" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="576" spans="8:8">
+      <c r="H576" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="631" spans="8:8">
-      <c r="H631" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="632" spans="8:8">
-      <c r="H632" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="633" spans="8:8">
-      <c r="H633" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="634" spans="8:8">
-      <c r="H634" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="635" spans="8:8">
-      <c r="H635" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="636" spans="8:8">
-      <c r="H636" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="637" spans="8:8">
-      <c r="H637" t="s">
+    <row r="577" spans="8:8">
+      <c r="H577" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="578" spans="8:8">
+      <c r="H578" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="579" spans="8:8">
+      <c r="H579" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="580" spans="8:8">
+      <c r="H580" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="581" spans="8:8">
+      <c r="H581" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="582" spans="8:8">
+      <c r="H582" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="583" spans="8:8">
+      <c r="H583" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="584" spans="8:8">
+      <c r="H584" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="638" spans="8:8">
-      <c r="H638" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="639" spans="8:8">
-      <c r="H639" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="640" spans="8:8">
-      <c r="H640" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="641" spans="8:8">
-      <c r="H641" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="642" spans="8:8">
-      <c r="H642" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="643" spans="8:8">
-      <c r="H643" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="644" spans="8:8">
-      <c r="H644" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="645" spans="8:8">
-      <c r="H645" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="646" spans="8:8">
-      <c r="H646" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="647" spans="8:8">
-      <c r="H647" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="648" spans="8:8">
-      <c r="H648" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/توزيع الشفتات.xlsx
+++ b/توزيع الشفتات.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$O$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$O$213</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,258 +30,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="85">
-  <si>
-    <t>حضورات ترانسكوم التجمع يوم 8/7</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
+  <si>
+    <t>حضورات ترانسكوم التجمع يوم 8/9</t>
+  </si>
+  <si>
+    <t>حضور ٤ ص</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>شريف عبد المنعم</t>
   </si>
   <si>
     <t>حضور ٨ ص</t>
   </si>
   <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>محمد شكري😎</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>احمد جلال</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>عبد النبي😎</t>
+  </si>
+  <si>
+    <t>محمد فيصل😎</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>دمراوي</t>
+  </si>
+  <si>
+    <t>حضور ٩ ص</t>
+  </si>
+  <si>
+    <t>الزيتون</t>
+  </si>
+  <si>
+    <t>ايهاب سليمان</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>محمد سعيد</t>
+  </si>
+  <si>
+    <t>حدائق القبه</t>
+  </si>
+  <si>
+    <t>محمد فوزي</t>
+  </si>
+  <si>
+    <t>مصطفي منتصر</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>عم مجدي</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>عمرو فراج</t>
+  </si>
+  <si>
+    <t>عم سعيد</t>
+  </si>
+  <si>
+    <t>حضور ١٠ ص</t>
+  </si>
+  <si>
+    <t>دمراوي باص</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>عصام ابراهيم😎</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>حضور ١١ ص</t>
+  </si>
+  <si>
     <t>اكتوبر</t>
   </si>
   <si>
-    <t>علاء😎</t>
-  </si>
-  <si>
-    <t>الزيتون</t>
-  </si>
-  <si>
-    <t>محمد سامح😎</t>
-  </si>
-  <si>
-    <t>العباسية</t>
-  </si>
-  <si>
-    <t>سيد سلامه😎</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>معتز ع موسي</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>عبد النبي😎</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>محمد فيصل😎</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>حسين فايد😎</t>
-  </si>
-  <si>
-    <t>التجمع</t>
+    <t>احمد عبدالله</t>
+  </si>
+  <si>
+    <t>وليد😎</t>
   </si>
   <si>
     <t>عبد المعيد😎</t>
   </si>
   <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>عم سعيد</t>
+    <t>المعادي</t>
+  </si>
+  <si>
+    <t>حضور ١ م</t>
+  </si>
+  <si>
+    <t>حضور ٢ م</t>
+  </si>
+  <si>
+    <t>حضور ٥ م</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>ايهاب ملاك</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>مصطفي محمود😎</t>
   </si>
   <si>
     <t>مدينتي و الشروق</t>
   </si>
   <si>
-    <t>فرج😎</t>
-  </si>
-  <si>
-    <t>المعادي</t>
-  </si>
-  <si>
-    <t>وائل😎</t>
-  </si>
-  <si>
-    <t>حضور ٩ ص</t>
-  </si>
-  <si>
-    <t>احمد جلال</t>
-  </si>
-  <si>
-    <t>بلال😎</t>
-  </si>
-  <si>
-    <t>ايهاب سليمان</t>
-  </si>
-  <si>
-    <t>مصطفي توشكا😎</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>مصطفي محمود😎</t>
+    <t>خالد ابو الفتوح😎</t>
+  </si>
+  <si>
+    <t>حضور ٧ م</t>
+  </si>
+  <si>
+    <t>اكتوبر و زايد</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>دائري مرج و السلام</t>
+  </si>
+  <si>
+    <t>الرحاب و التجمع</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
   </si>
   <si>
     <t>حدائق اكتوبر</t>
-  </si>
-  <si>
-    <t>عمرو فراج</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>حدائق القبه</t>
-  </si>
-  <si>
-    <t>عبد العزيز ع موسي</t>
-  </si>
-  <si>
-    <t>مصطفي منتصر</t>
-  </si>
-  <si>
-    <t>شبرا</t>
-  </si>
-  <si>
-    <t>شريف عبد المنعم</t>
-  </si>
-  <si>
-    <t>عبد الرحمن الاعصر😎</t>
-  </si>
-  <si>
-    <t>المقطم</t>
-  </si>
-  <si>
-    <t>محمد فوزي</t>
-  </si>
-  <si>
-    <t>احمد ناصر😎</t>
-  </si>
-  <si>
-    <t>الشروق</t>
-  </si>
-  <si>
-    <t>محمود اسامه ملاكي</t>
-  </si>
-  <si>
-    <t>عمر جحا😎</t>
-  </si>
-  <si>
-    <t>بدر</t>
-  </si>
-  <si>
-    <t>محسن الضبع</t>
-  </si>
-  <si>
-    <t>حضور ١٠ ص</t>
-  </si>
-  <si>
-    <t>محمد امام ع موسي</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>كوستر بيشوي</t>
-  </si>
-  <si>
-    <t>عم مجدي</t>
-  </si>
-  <si>
-    <t>الواحات</t>
-  </si>
-  <si>
-    <t>محمد حسني ع الجنتل</t>
-  </si>
-  <si>
-    <t>علي طه</t>
-  </si>
-  <si>
-    <t>ماهر😎</t>
-  </si>
-  <si>
-    <t>المصري ع موسي</t>
-  </si>
-  <si>
-    <t>ايهاب</t>
-  </si>
-  <si>
-    <t>كوستر سعد</t>
-  </si>
-  <si>
-    <t>حضور ١١ ص</t>
-  </si>
-  <si>
-    <t>محمد سعيد</t>
-  </si>
-  <si>
-    <t>سيد صفيحه😎</t>
-  </si>
-  <si>
-    <t>كريم علي😎</t>
-  </si>
-  <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>وليد😎</t>
-  </si>
-  <si>
-    <t>حضور ١٢ م</t>
-  </si>
-  <si>
-    <t>إحمد عبدالله</t>
-  </si>
-  <si>
-    <t>تحرير</t>
-  </si>
-  <si>
-    <t>احمد حسن😎</t>
-  </si>
-  <si>
-    <t>حضور ١ م</t>
-  </si>
-  <si>
-    <t>حضور ٢ م</t>
-  </si>
-  <si>
-    <t>حضور ٣ م</t>
-  </si>
-  <si>
-    <t>حضور ٥ م</t>
-  </si>
-  <si>
-    <t>توفيق ملاك</t>
-  </si>
-  <si>
-    <t>مصطفي موسي</t>
-  </si>
-  <si>
-    <t>ايهاب ملاك</t>
-  </si>
-  <si>
-    <t>حضور ٦ م</t>
-  </si>
-  <si>
-    <t>حضور ٧ م</t>
-  </si>
-  <si>
-    <t>اكتوبر و زايد</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>دائري مرج و السلام</t>
-  </si>
-  <si>
-    <t>الرحاب و التجمع</t>
   </si>
   <si>
     <t>سلم البارون</t>
@@ -1446,17 +1365,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J584"/>
+  <dimension ref="A1:J547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G1" sqref="G1:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="11.2363636363636" customWidth="1"/>
     <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="17.5909090909091" customWidth="1"/>
+    <col min="9" max="9" width="14.4818181818182" customWidth="1"/>
     <col min="10" max="12" width="9.39090909090909" customWidth="1"/>
     <col min="13" max="13" width="8.32727272727273" customWidth="1"/>
     <col min="14" max="14" width="7.62727272727273" customWidth="1"/>
@@ -1473,7 +1392,7 @@
     <row r="2" spans="2:9">
       <c r="B2" t="str">
         <f>CONCATENATE(I2," ",J2," ",K2," ",L2," ",M2," ",N2," ",O2," ",P2," ",Q2," ",R2," ",S2," ",T2)</f>
-        <v>علاء😎           </v>
+        <v>شريف عبد المنعم           </v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -1491,59 +1410,59 @@
     <row r="3" spans="2:9">
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" si="0">CONCATENATE(I3," ",J3," ",K3," ",L3," ",M3," ",N3," ",O3," ",P3," ",Q3," ",R3," ",S3," ",T3)</f>
-        <v>محمد سامح😎           </v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
+        <v>محمد شكري😎           </v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎           </v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
+        <v>احمد جلال           </v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>معتز ع موسي           </v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
+        <v>عبد النبي😎           </v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>عبد النبي😎           </v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
+        <v>محمد فيصل😎           </v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -1553,10 +1472,10 @@
     <row r="7" spans="2:10">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فيصل😎           </v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
+        <v>دمراوي           </v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -1569,80 +1488,80 @@
     <row r="8" spans="2:10">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎           </v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
+        <v>شريف عبد المنعم           </v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>عبد المعيد😎           </v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
+        <v>ايهاب سليمان           </v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
         <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
       </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد           </v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
+        <v>محمد سعيد           </v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
       </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>فرج😎           </v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
+        <v>محمد فوزي           </v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
         <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
       </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>وائل😎           </v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
+        <v>مصطفي منتصر           </v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="3"/>
     </row>
@@ -1652,548 +1571,548 @@
         <v>احمد جلال           </v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎           </v>
+        <v>عم مجدي           </v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
         <v>24</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان           </v>
+        <v>عمرو فراج           </v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي توشكا😎           </v>
+        <v>عم سعيد           </v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي محمود😎           </v>
+        <v>شريف عبد المنعم           </v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>عمرو فراج           </v>
+        <v>دمراوي باص           </v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>عمرو فراج           </v>
+        <v>مصطفي منتصر           </v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>عبد العزيز ع موسي           </v>
+        <v>دمراوي           </v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر           </v>
+        <v>عصام ابراهيم😎           </v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي توشكا😎           </v>
+        <v>محمد فوزي           </v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم           </v>
+        <v>احمد عبدالله           </v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>عبد الرحمن الاعصر😎           </v>
+        <v>وليد😎           </v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>علاء😎           </v>
+        <v>عصام ابراهيم😎           </v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي           </v>
+        <v>عبد المعيد😎           </v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎           </v>
+        <v>ايهاب سليمان           </v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>محمود اسامه ملاكي           </v>
+        <v>عم سعيد           </v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>عمر جحا😎           </v>
+        <v>عبد النبي😎           </v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع           </v>
+        <v>عمرو فراج           </v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>محمد امام ع موسي           </v>
+        <v>عم مجدي           </v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد           </v>
+        <v>احمد جلال           </v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>كوستر بيشوي           </v>
+        <v>محمد شكري😎           </v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>كوستر بيشوي           </v>
+        <v>عمرو فراج           </v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي           </v>
+        <v>شريف عبد المنعم           </v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>احمد ناصر😎           </v>
+        <v>دمراوي باص           </v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سامح😎           </v>
+        <v>ايهاب سليمان           </v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="H37" t="s">
+        <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>محمد امام ع موسي           </v>
+        <v>محمد سعيد           </v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>شريف عبد المنعم           </v>
+        <v>عمرو فراج           </v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>محمد حسني ع الجنتل           </v>
+        <v>مصطفي منتصر           </v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه           </v>
+        <v>محمد فوزي           </v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>مصطفي منتصر           </v>
+        <v>ايهاب ملاك           </v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>ماهر😎           </v>
+        <v>عم مجدي           </v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>المصري ع موسي           </v>
+        <v>احمد جلال           </v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎           </v>
+        <v>مصطفي محمود😎           </v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>حسين فايد😎           </v>
+        <v>خالد ابو الفتوح😎           </v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
         <v>48</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب           </v>
+        <v>عم سعيد           </v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="H47" t="s">
+        <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -2202,1003 +2121,438 @@
         <v>شريف عبد المنعم           </v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>كوستر سعد           </v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="2:8">
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>كوستر سعد           </v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="2:8">
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فيصل😎           </v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>بلال😎           </v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع           </v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>محمد فوزي           </v>
-      </c>
-      <c r="G54" t="s">
-        <v>60</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب سليمان           </v>
-      </c>
-      <c r="G55" t="s">
-        <v>60</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>عم مجدي           </v>
-      </c>
-      <c r="G56" t="s">
-        <v>60</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>محمد سعيد           </v>
-      </c>
-      <c r="G57" t="s">
-        <v>60</v>
-      </c>
-      <c r="H57" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>عبد الرحمن الاعصر😎           </v>
-      </c>
-      <c r="G58" t="s">
-        <v>60</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="2:2">
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>علي طه           </v>
-      </c>
-      <c r="G59" t="s">
-        <v>60</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>سيد صفيحه😎           </v>
-      </c>
-      <c r="G60" t="s">
-        <v>60</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>عم سعيد           </v>
-      </c>
-      <c r="G61" t="s">
-        <v>60</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="2:2">
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>سيد سلامه😎           </v>
-      </c>
-      <c r="G62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>ايهاب           </v>
-      </c>
-      <c r="G63" t="s">
-        <v>60</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="2:2">
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>كريم علي😎           </v>
-      </c>
-      <c r="G64" t="s">
-        <v>60</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>محسن الضبع           </v>
-      </c>
-      <c r="G65" t="s">
-        <v>60</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I65" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
       <c r="B66" t="str">
         <f t="shared" si="0"/>
-        <v>وليد😎           </v>
-      </c>
-      <c r="G66" t="s">
-        <v>60</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B130" si="1">CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67," ",R67," ",S67," ",T67)</f>
-        <v>إحمد عبدالله           </v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H67" t="s">
-        <v>2</v>
-      </c>
-      <c r="I67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
+        <f>CONCATENATE(I67," ",J67," ",K67," ",L67," ",M67," ",N67," ",O67," ",P67," ",Q67," ",R67," ",S67," ",T67)</f>
+        <v>           </v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68" t="str">
-        <f t="shared" si="1"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H68" t="s">
-        <v>68</v>
-      </c>
-      <c r="I68" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
+        <f t="shared" ref="B68:B131" si="1">CONCATENATE(I68," ",J68," ",K68," ",L68," ",M68," ",N68," ",O68," ",P68," ",Q68," ",R68," ",S68," ",T68)</f>
+        <v>           </v>
+      </c>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="2:8">
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎           </v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="2:2">
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب           </v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فيصل😎           </v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>عبد النبي😎           </v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="2:8">
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="2:8">
       <c r="B75" t="str">
         <f t="shared" si="1"/>
-        <v>عمرو فراج           </v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="2:2">
       <c r="B76" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I76" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
       <c r="B77" t="str">
         <f t="shared" si="1"/>
-        <v>احمد حسن😎           </v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
       <c r="B78" t="str">
         <f t="shared" si="1"/>
-        <v>سيد سلامه😎           </v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
       <c r="B79" t="str">
         <f t="shared" si="1"/>
-        <v>ماهر😎           </v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H79" t="s">
-        <v>40</v>
-      </c>
-      <c r="I79" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="2:2">
       <c r="B80" t="str">
         <f t="shared" si="1"/>
-        <v>كريم علي😎           </v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
       <c r="B81" t="str">
         <f t="shared" si="1"/>
-        <v>عبد المعيد😎           </v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I81" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
       <c r="B82" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي           </v>
-      </c>
-      <c r="G82" t="s">
-        <v>70</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I82" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9">
+        <v>           </v>
+      </c>
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="2:2">
       <c r="B83" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G83" t="s">
-        <v>70</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
       <c r="B84" t="str">
         <f t="shared" si="1"/>
-        <v>عبد الرحمن الاعصر😎           </v>
-      </c>
-      <c r="G84" t="s">
-        <v>70</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I84" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
       <c r="B85" t="str">
         <f t="shared" si="1"/>
-        <v>ماهر😎           </v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H85" t="s">
-        <v>4</v>
-      </c>
-      <c r="I85" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
       <c r="B86" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I86" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
       <c r="B87" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H87" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
       <c r="B88" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب           </v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H88" t="s">
-        <v>40</v>
-      </c>
-      <c r="I88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فيصل😎           </v>
-      </c>
-      <c r="G89" t="s">
-        <v>72</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G90" t="s">
-        <v>72</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي           </v>
-      </c>
-      <c r="G91" t="s">
-        <v>72</v>
-      </c>
-      <c r="H91" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
       <c r="B92" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب           </v>
-      </c>
-      <c r="G92" t="s">
-        <v>72</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>عبد المعيد😎           </v>
-      </c>
-      <c r="G93" t="s">
-        <v>72</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
       <c r="B94" t="str">
         <f t="shared" si="1"/>
-        <v>توفيق ملاك           </v>
-      </c>
-      <c r="G94" t="s">
-        <v>73</v>
-      </c>
-      <c r="H94" t="s">
-        <v>2</v>
-      </c>
-      <c r="I94" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1" spans="2:2">
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G95" t="s">
-        <v>73</v>
-      </c>
-      <c r="H95" t="s">
-        <v>50</v>
-      </c>
-      <c r="I95" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
       <c r="B96" t="str">
         <f t="shared" si="1"/>
-        <v>عبد المعيد😎           </v>
-      </c>
-      <c r="G96" t="s">
-        <v>73</v>
-      </c>
-      <c r="H96" t="s">
-        <v>4</v>
-      </c>
-      <c r="I96" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
       <c r="B97" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب سليمان           </v>
-      </c>
-      <c r="G97" t="s">
-        <v>73</v>
-      </c>
-      <c r="H97" t="s">
-        <v>6</v>
-      </c>
-      <c r="I97" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فيصل😎           </v>
-      </c>
-      <c r="G98" t="s">
-        <v>73</v>
-      </c>
-      <c r="H98" t="s">
-        <v>8</v>
-      </c>
-      <c r="I98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
       <c r="B99" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي موسي           </v>
-      </c>
-      <c r="G99" t="s">
-        <v>73</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I99" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
       <c r="B100" t="str">
         <f t="shared" si="1"/>
-        <v>مصطفي منتصر           </v>
-      </c>
-      <c r="G100" t="s">
-        <v>73</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
       <c r="B101" t="str">
         <f t="shared" si="1"/>
-        <v>احمد جلال           </v>
-      </c>
-      <c r="G101" t="s">
-        <v>73</v>
-      </c>
-      <c r="H101" t="s">
-        <v>12</v>
-      </c>
-      <c r="I101" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
       <c r="B102" t="str">
         <f t="shared" si="1"/>
-        <v>ايهاب ملاك           </v>
-      </c>
-      <c r="G102" t="s">
-        <v>73</v>
-      </c>
-      <c r="H102" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v>احمد ناصر😎           </v>
-      </c>
-      <c r="G103" t="s">
-        <v>73</v>
-      </c>
-      <c r="H103" t="s">
-        <v>16</v>
-      </c>
-      <c r="I103" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
       <c r="B104" t="str">
         <f t="shared" si="1"/>
-        <v>محمد فوزي           </v>
-      </c>
-      <c r="G104" t="s">
-        <v>73</v>
-      </c>
-      <c r="H104" t="s">
-        <v>40</v>
-      </c>
-      <c r="I104" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v>عبد الرحمن الاعصر😎           </v>
-      </c>
-      <c r="G105" t="s">
-        <v>73</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I105" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>ماهر😎           </v>
-      </c>
-      <c r="G106" t="s">
-        <v>73</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I106" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v>عمرو فراج           </v>
-      </c>
-      <c r="G107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H107" t="s">
-        <v>46</v>
-      </c>
-      <c r="I107" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>كريم علي😎           </v>
-      </c>
-      <c r="G108" t="s">
-        <v>77</v>
-      </c>
-      <c r="H108" t="s">
-        <v>8</v>
-      </c>
-      <c r="I108" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v>محسن الضبع           </v>
-      </c>
-      <c r="G109" t="s">
-        <v>77</v>
-      </c>
-      <c r="H109" t="s">
-        <v>43</v>
-      </c>
-      <c r="I109" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v>شريف عبد المنعم           </v>
-      </c>
-      <c r="G110" t="s">
-        <v>77</v>
-      </c>
-      <c r="H110" t="s">
-        <v>46</v>
-      </c>
-      <c r="I110" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v>وليد😎           </v>
-      </c>
-      <c r="G111" t="s">
-        <v>78</v>
-      </c>
-      <c r="H111" t="s">
-        <v>53</v>
-      </c>
-      <c r="I111" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v>علاء😎           </v>
-      </c>
-      <c r="G112" t="s">
-        <v>78</v>
-      </c>
-      <c r="H112" t="s">
-        <v>14</v>
-      </c>
-      <c r="I112" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v>عم سعيد           </v>
-      </c>
-      <c r="G113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H113" t="s">
-        <v>16</v>
-      </c>
-      <c r="I113" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9">
+        <v>           </v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
       <c r="B114" t="str">
         <f t="shared" si="1"/>
-        <v>عم مجدي           </v>
-      </c>
-      <c r="G114" t="s">
-        <v>78</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I114" t="s">
-        <v>52</v>
+        <v>           </v>
       </c>
     </row>
     <row r="115" spans="2:2">
@@ -3299,13 +2653,13 @@
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B194" si="2">CONCATENATE(I131," ",J131," ",K131," ",L131," ",M131," ",N131," ",O131," ",P131," ",Q131," ",R131," ",S131," ",T131)</f>
+        <f t="shared" si="1"/>
         <v>           </v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B132:B195" si="2">CONCATENATE(I132," ",J132," ",K132," ",L132," ",M132," ",N132," ",O132," ",P132," ",Q132," ",R132," ",S132," ",T132)</f>
         <v>           </v>
       </c>
     </row>
@@ -3683,13 +3037,13 @@
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="str">
-        <f t="shared" ref="B195:B258" si="3">CONCATENATE(I195," ",J195," ",K195," ",L195," ",M195," ",N195," ",O195," ",P195," ",Q195," ",R195," ",S195," ",T195)</f>
+        <f t="shared" si="2"/>
         <v>           </v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B196:B259" si="3">CONCATENATE(I196," ",J196," ",K196," ",L196," ",M196," ",N196," ",O196," ",P196," ",Q196," ",R196," ",S196," ",T196)</f>
         <v>           </v>
       </c>
     </row>
@@ -4067,13 +3421,13 @@
     </row>
     <row r="259" spans="2:2">
       <c r="B259" t="str">
-        <f t="shared" ref="B259:B300" si="4">CONCATENATE(I259," ",J259," ",K259," ",L259," ",M259," ",N259," ",O259," ",P259," ",Q259," ",R259," ",S259," ",T259)</f>
+        <f t="shared" si="3"/>
         <v>           </v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B260:B301" si="4">CONCATENATE(I260," ",J260," ",K260," ",L260," ",M260," ",N260," ",O260," ",P260," ",Q260," ",R260," ",S260," ",T260)</f>
         <v>           </v>
       </c>
     </row>
@@ -4317,208 +3671,214 @@
         <v>           </v>
       </c>
     </row>
-    <row r="388" spans="1:1">
-      <c r="A388" t="s">
-        <v>79</v>
+    <row r="301" spans="2:2">
+      <c